--- a/tables/coefficients.xlsx
+++ b/tables/coefficients.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="15268" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="29360" uniqueCount="239">
   <si>
     <t>y1</t>
   </si>
@@ -547,6 +547,192 @@
   </si>
   <si>
     <t>min610b</t>
+  </si>
+  <si>
+    <t>o.bin_0</t>
+  </si>
+  <si>
+    <t>o.bin_55</t>
+  </si>
+  <si>
+    <t>o.bin_58</t>
+  </si>
+  <si>
+    <t>o.bin_60</t>
+  </si>
+  <si>
+    <t>o.bin_61</t>
+  </si>
+  <si>
+    <t>o.bin_63</t>
+  </si>
+  <si>
+    <t>o.bin_66</t>
+  </si>
+  <si>
+    <t>o.bin_71</t>
+  </si>
+  <si>
+    <t>o.bin_76</t>
+  </si>
+  <si>
+    <t>o.bin_81</t>
+  </si>
+  <si>
+    <t>bin_160</t>
+  </si>
+  <si>
+    <t>bin_161</t>
+  </si>
+  <si>
+    <t>bin_162</t>
+  </si>
+  <si>
+    <t>bin_163</t>
+  </si>
+  <si>
+    <t>bin_164</t>
+  </si>
+  <si>
+    <t>bin_165</t>
+  </si>
+  <si>
+    <t>bin_166</t>
+  </si>
+  <si>
+    <t>bin_167</t>
+  </si>
+  <si>
+    <t>bin_168</t>
+  </si>
+  <si>
+    <t>bin_169</t>
+  </si>
+  <si>
+    <t>bin_170</t>
+  </si>
+  <si>
+    <t>bin_171</t>
+  </si>
+  <si>
+    <t>bin_172</t>
+  </si>
+  <si>
+    <t>bin_173</t>
+  </si>
+  <si>
+    <t>bin_174</t>
+  </si>
+  <si>
+    <t>bin_175</t>
+  </si>
+  <si>
+    <t>bin_176</t>
+  </si>
+  <si>
+    <t>bin_177</t>
+  </si>
+  <si>
+    <t>bin_178</t>
+  </si>
+  <si>
+    <t>bin_179</t>
+  </si>
+  <si>
+    <t>bin_180</t>
+  </si>
+  <si>
+    <t>bin_181</t>
+  </si>
+  <si>
+    <t>bin_182</t>
+  </si>
+  <si>
+    <t>bin_183</t>
+  </si>
+  <si>
+    <t>bin_184</t>
+  </si>
+  <si>
+    <t>bin_185</t>
+  </si>
+  <si>
+    <t>bin_186</t>
+  </si>
+  <si>
+    <t>bin_187</t>
+  </si>
+  <si>
+    <t>bin_188</t>
+  </si>
+  <si>
+    <t>bin_189</t>
+  </si>
+  <si>
+    <t>bin_190</t>
+  </si>
+  <si>
+    <t>bin_191</t>
+  </si>
+  <si>
+    <t>bin_192</t>
+  </si>
+  <si>
+    <t>bin_193</t>
+  </si>
+  <si>
+    <t>bin_194</t>
+  </si>
+  <si>
+    <t>bin_195</t>
+  </si>
+  <si>
+    <t>bin_196</t>
+  </si>
+  <si>
+    <t>bin_197</t>
+  </si>
+  <si>
+    <t>bin_198</t>
+  </si>
+  <si>
+    <t>bin_199</t>
+  </si>
+  <si>
+    <t>bin_200</t>
+  </si>
+  <si>
+    <t>bin_201</t>
+  </si>
+  <si>
+    <t>bin_202</t>
+  </si>
+  <si>
+    <t>bin_203</t>
+  </si>
+  <si>
+    <t>bin_204</t>
+  </si>
+  <si>
+    <t>bin_205</t>
+  </si>
+  <si>
+    <t>bin_206</t>
+  </si>
+  <si>
+    <t>bin_207</t>
+  </si>
+  <si>
+    <t>bin_208</t>
+  </si>
+  <si>
+    <t>bin_209</t>
+  </si>
+  <si>
+    <t>o.bin_210</t>
+  </si>
+  <si>
+    <t>o.bin_211</t>
   </si>
 </sst>
 </file>
@@ -590,7 +776,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FQ4"/>
+  <dimension ref="A1:HO4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1113,6 +1299,156 @@
       <c r="FQ1" t="s">
         <v>1</v>
       </c>
+      <c r="FR1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FT1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FW1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FY1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FZ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GA1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GF1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GG1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GH1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GI1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GJ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GK1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GL1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GM1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GN1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GO1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GP1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GQ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GR1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GS1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GT1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GU1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GV1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GW1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GX1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GY1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GZ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HA1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HB1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HC1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HD1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HE1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HF1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HG1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HH1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HI1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HJ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HK1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HL1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HM1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HN1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HO1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="B2" t="s">
@@ -1122,16 +1458,16 @@
         <v>176</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
         <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
@@ -1143,7 +1479,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
@@ -1623,12 +1959,162 @@
         <v>170</v>
       </c>
       <c r="FO2" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="FP2" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="FQ2" t="s">
+        <v>189</v>
+      </c>
+      <c r="FR2" t="s">
+        <v>190</v>
+      </c>
+      <c r="FS2" t="s">
+        <v>191</v>
+      </c>
+      <c r="FT2" t="s">
+        <v>192</v>
+      </c>
+      <c r="FU2" t="s">
+        <v>193</v>
+      </c>
+      <c r="FV2" t="s">
+        <v>194</v>
+      </c>
+      <c r="FW2" t="s">
+        <v>195</v>
+      </c>
+      <c r="FX2" t="s">
+        <v>196</v>
+      </c>
+      <c r="FY2" t="s">
+        <v>197</v>
+      </c>
+      <c r="FZ2" t="s">
+        <v>198</v>
+      </c>
+      <c r="GA2" t="s">
+        <v>199</v>
+      </c>
+      <c r="GB2" t="s">
+        <v>200</v>
+      </c>
+      <c r="GC2" t="s">
+        <v>201</v>
+      </c>
+      <c r="GD2" t="s">
+        <v>202</v>
+      </c>
+      <c r="GE2" t="s">
+        <v>203</v>
+      </c>
+      <c r="GF2" t="s">
+        <v>204</v>
+      </c>
+      <c r="GG2" t="s">
+        <v>205</v>
+      </c>
+      <c r="GH2" t="s">
+        <v>206</v>
+      </c>
+      <c r="GI2" t="s">
+        <v>207</v>
+      </c>
+      <c r="GJ2" t="s">
+        <v>208</v>
+      </c>
+      <c r="GK2" t="s">
+        <v>209</v>
+      </c>
+      <c r="GL2" t="s">
+        <v>210</v>
+      </c>
+      <c r="GM2" t="s">
+        <v>211</v>
+      </c>
+      <c r="GN2" t="s">
+        <v>212</v>
+      </c>
+      <c r="GO2" t="s">
+        <v>213</v>
+      </c>
+      <c r="GP2" t="s">
+        <v>214</v>
+      </c>
+      <c r="GQ2" t="s">
+        <v>215</v>
+      </c>
+      <c r="GR2" t="s">
+        <v>216</v>
+      </c>
+      <c r="GS2" t="s">
+        <v>217</v>
+      </c>
+      <c r="GT2" t="s">
+        <v>218</v>
+      </c>
+      <c r="GU2" t="s">
+        <v>219</v>
+      </c>
+      <c r="GV2" t="s">
+        <v>220</v>
+      </c>
+      <c r="GW2" t="s">
+        <v>221</v>
+      </c>
+      <c r="GX2" t="s">
+        <v>222</v>
+      </c>
+      <c r="GY2" t="s">
+        <v>223</v>
+      </c>
+      <c r="GZ2" t="s">
+        <v>224</v>
+      </c>
+      <c r="HA2" t="s">
+        <v>225</v>
+      </c>
+      <c r="HB2" t="s">
+        <v>226</v>
+      </c>
+      <c r="HC2" t="s">
+        <v>227</v>
+      </c>
+      <c r="HD2" t="s">
+        <v>228</v>
+      </c>
+      <c r="HE2" t="s">
+        <v>229</v>
+      </c>
+      <c r="HF2" t="s">
+        <v>230</v>
+      </c>
+      <c r="HG2" t="s">
+        <v>231</v>
+      </c>
+      <c r="HH2" t="s">
+        <v>232</v>
+      </c>
+      <c r="HI2" t="s">
+        <v>233</v>
+      </c>
+      <c r="HJ2" t="s">
+        <v>234</v>
+      </c>
+      <c r="HK2" t="s">
+        <v>235</v>
+      </c>
+      <c r="HL2" t="s">
+        <v>236</v>
+      </c>
+      <c r="HM2" t="s">
+        <v>237</v>
+      </c>
+      <c r="HN2" t="s">
+        <v>238</v>
+      </c>
+      <c r="HO2" t="s">
         <v>173</v>
       </c>
     </row>
@@ -1637,520 +2123,670 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>4.4955295667058595</v>
+        <v>0.65629927303669733</v>
       </c>
       <c r="C3">
-        <v>-0.98915194886137903</v>
+        <v>-0.9096979055463974</v>
       </c>
       <c r="D3">
-        <v>0.57126112235328241</v>
+        <v>-0.91091878230776713</v>
       </c>
       <c r="E3">
-        <v>-1.0498407035370529</v>
+        <v>-0.91492090604766407</v>
       </c>
       <c r="F3">
-        <v>0.56995612377276761</v>
+        <v>0.49383824676133303</v>
       </c>
       <c r="G3">
-        <v>-1.1548912728294076</v>
+        <v>0.54472073002159815</v>
       </c>
       <c r="H3">
-        <v>0.52856346208452831</v>
+        <v>0.46185010295623907</v>
       </c>
       <c r="I3">
-        <v>0.23056174198936671</v>
+        <v>0.21537697562914193</v>
       </c>
       <c r="J3">
-        <v>0.28258603203483118</v>
+        <v>0.21892524380175163</v>
       </c>
       <c r="K3">
-        <v>1.0598270920899768</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>-1.8909986887544044</v>
+        <v>-1.6089181985733694</v>
       </c>
       <c r="M3">
-        <v>-1.8639391651249138</v>
+        <v>-1.4185539879680329</v>
       </c>
       <c r="N3">
-        <v>-2.0544146991619643</v>
+        <v>-1.5900244611138552</v>
       </c>
       <c r="O3">
-        <v>-1.71731265664042</v>
+        <v>-1.6880361378155546</v>
       </c>
       <c r="P3">
-        <v>-1.8974571783453291</v>
+        <v>-1.4603504405836076</v>
       </c>
       <c r="Q3">
-        <v>-1.9620018446320648</v>
+        <v>-1.6225127806141038</v>
       </c>
       <c r="R3">
-        <v>-1.9144554017527684</v>
+        <v>-1.5784651211058855</v>
       </c>
       <c r="S3">
-        <v>-1.8866924471820152</v>
+        <v>-1.4808085495518537</v>
       </c>
       <c r="T3">
-        <v>-1.7762208879833217</v>
+        <v>-1.732470486280167</v>
       </c>
       <c r="U3">
-        <v>-2.0713307293635626</v>
+        <v>-1.6106921037700246</v>
       </c>
       <c r="V3">
-        <v>-1.6833111829242906</v>
+        <v>-1.6548156512383008</v>
       </c>
       <c r="W3">
-        <v>-1.9678968763533256</v>
+        <v>-1.5496225799336023</v>
       </c>
       <c r="X3">
-        <v>-1.57803691815284</v>
+        <v>-1.6351254382234117</v>
       </c>
       <c r="Y3">
-        <v>-1.7971346800202785</v>
+        <v>-1.6525889149419075</v>
       </c>
       <c r="Z3">
-        <v>-1.9276898208572977</v>
+        <v>-1.6518760958492427</v>
       </c>
       <c r="AA3">
-        <v>-1.6945701736825936</v>
+        <v>-1.4224380432068933</v>
       </c>
       <c r="AB3">
-        <v>-1.786941877647048</v>
+        <v>-1.4511855785407577</v>
       </c>
       <c r="AC3">
-        <v>-1.7156134267149064</v>
+        <v>-1.5285112224939741</v>
       </c>
       <c r="AD3">
-        <v>-1.6004219096954497</v>
+        <v>-1.5607781925684674</v>
       </c>
       <c r="AE3">
-        <v>-1.7370484071694487</v>
+        <v>-1.4870604648457513</v>
       </c>
       <c r="AF3">
-        <v>-1.8599834223734235</v>
+        <v>-1.4478839669831014</v>
       </c>
       <c r="AG3">
-        <v>-1.705142131188855</v>
+        <v>-1.5752370009927692</v>
       </c>
       <c r="AH3">
-        <v>-1.6318743756879317</v>
+        <v>-1.3461093703906906</v>
       </c>
       <c r="AI3">
-        <v>-1.6241020484322186</v>
+        <v>-1.4604288024120591</v>
       </c>
       <c r="AJ3">
-        <v>-1.9584942195952499</v>
+        <v>-1.5812215229149162</v>
       </c>
       <c r="AK3">
-        <v>-1.6872810098504825</v>
+        <v>-1.6519413315891733</v>
       </c>
       <c r="AL3">
-        <v>-1.7715474359160341</v>
+        <v>-1.5049893665593204</v>
       </c>
       <c r="AM3">
-        <v>-1.7083081783102807</v>
+        <v>-1.5366995482091614</v>
       </c>
       <c r="AN3">
-        <v>-1.490411780729382</v>
+        <v>-1.5525727808964793</v>
       </c>
       <c r="AO3">
-        <v>-1.6477807339502781</v>
+        <v>-1.4035918211575864</v>
       </c>
       <c r="AP3">
-        <v>-1.5713241201236547</v>
+        <v>-1.509695907039605</v>
       </c>
       <c r="AQ3">
-        <v>-1.9434946894983376</v>
+        <v>-1.4091310505996462</v>
       </c>
       <c r="AR3">
-        <v>-1.7352012581607319</v>
+        <v>-1.4999286968313805</v>
       </c>
       <c r="AS3">
-        <v>-1.6961460704009235</v>
+        <v>-1.4990982643319082</v>
       </c>
       <c r="AT3">
-        <v>-1.5618100160673816</v>
+        <v>-1.3706972631702949</v>
       </c>
       <c r="AU3">
-        <v>-1.7407151339905436</v>
+        <v>-1.5549745694022608</v>
       </c>
       <c r="AV3">
-        <v>-1.8928870286751887</v>
+        <v>-1.3760367142187857</v>
       </c>
       <c r="AW3">
-        <v>-1.7160241891440691</v>
+        <v>-1.3966129145886248</v>
       </c>
       <c r="AX3">
-        <v>-1.7230128706907679</v>
+        <v>-1.6225588592798816</v>
       </c>
       <c r="AY3">
-        <v>-1.7458208052038955</v>
+        <v>-1.5431511050218301</v>
       </c>
       <c r="AZ3">
-        <v>-1.721567218321078</v>
+        <v>-1.4772654710487858</v>
       </c>
       <c r="BA3">
-        <v>-1.8802210768505285</v>
+        <v>-1.5757111131843562</v>
       </c>
       <c r="BB3">
-        <v>-1.8178829366806597</v>
+        <v>-1.3430392148140133</v>
       </c>
       <c r="BC3">
-        <v>-1.6889973759734025</v>
+        <v>-1.3700549148635248</v>
       </c>
       <c r="BD3">
-        <v>-1.7187891071042305</v>
+        <v>-1.4580970166782896</v>
       </c>
       <c r="BE3">
-        <v>-1.8072140425754002</v>
+        <v>-1.472863128897024</v>
       </c>
       <c r="BF3">
-        <v>-1.6143107924409335</v>
+        <v>-1.472009903617798</v>
       </c>
       <c r="BG3">
-        <v>-1.6205161650580659</v>
+        <v>-1.410041341804541</v>
       </c>
       <c r="BH3">
-        <v>-1.7634030843705395</v>
+        <v>-1.5608813396010603</v>
       </c>
       <c r="BI3">
-        <v>-1.5058783004455953</v>
+        <v>-1.4461085917868597</v>
       </c>
       <c r="BJ3">
-        <v>-1.2800932882080589</v>
+        <v>-1.0098997078752323</v>
       </c>
       <c r="BK3">
-        <v>-1.236125572901134</v>
+        <v>-0.98758993516662019</v>
       </c>
       <c r="BL3">
-        <v>-1.3549033048166912</v>
+        <v>-0.98660313858275073</v>
       </c>
       <c r="BM3">
-        <v>-1.3864510515372561</v>
+        <v>-1.0662872137937838</v>
       </c>
       <c r="BN3">
-        <v>-1.4191100525787534</v>
+        <v>-1.1448384869289334</v>
       </c>
       <c r="BO3">
-        <v>-1.4188844825614952</v>
+        <v>-1.1687561243863176</v>
       </c>
       <c r="BP3">
-        <v>-1.3497981118746594</v>
+        <v>-1.0710454913725627</v>
       </c>
       <c r="BQ3">
-        <v>-1.4909492685091674</v>
+        <v>-1.2556362688612732</v>
       </c>
       <c r="BR3">
-        <v>-1.4258860146220975</v>
+        <v>-1.2084185588843088</v>
       </c>
       <c r="BS3">
-        <v>-1.2142502754419344</v>
+        <v>-1.1814083483503479</v>
       </c>
       <c r="BT3">
-        <v>-0.88871225143750721</v>
+        <v>-0.81103239306755992</v>
       </c>
       <c r="BU3">
-        <v>-0.75147146447156543</v>
+        <v>-0.65827574043064829</v>
       </c>
       <c r="BV3">
-        <v>-0.86361833278637345</v>
+        <v>-0.69342768219867723</v>
       </c>
       <c r="BW3">
-        <v>-0.8787644000108048</v>
+        <v>-0.72308942811142807</v>
       </c>
       <c r="BX3">
-        <v>-0.83100895323862567</v>
+        <v>-0.60499073897735078</v>
       </c>
       <c r="BY3">
-        <v>-0.9117166738424608</v>
+        <v>-0.75941264323066038</v>
       </c>
       <c r="BZ3">
-        <v>-0.84835655235200025</v>
+        <v>-0.66441322314435569</v>
       </c>
       <c r="CA3">
-        <v>-0.76732514429572296</v>
+        <v>-0.63683570751033647</v>
       </c>
       <c r="CB3">
-        <v>-0.85625336001206809</v>
+        <v>-0.75186302273499561</v>
       </c>
       <c r="CC3">
-        <v>-0.90138434530333533</v>
+        <v>-0.63675966573102605</v>
       </c>
       <c r="CD3">
-        <v>-0.56688866443891828</v>
+        <v>-0.42723134627553777</v>
       </c>
       <c r="CE3">
-        <v>-0.32894484846962735</v>
+        <v>-0.28424245108703994</v>
       </c>
       <c r="CF3">
-        <v>-0.29831377043516882</v>
+        <v>-0.29327029674155786</v>
       </c>
       <c r="CG3">
-        <v>-0.40014207763395376</v>
+        <v>-0.25702518679868175</v>
       </c>
       <c r="CH3">
-        <v>-0.41521631724662283</v>
+        <v>-0.242050899795163</v>
       </c>
       <c r="CI3">
-        <v>-0.39615570403380712</v>
+        <v>-0.20969067224460383</v>
       </c>
       <c r="CJ3">
-        <v>-0.33495905601219267</v>
+        <v>-0.24088115723342104</v>
       </c>
       <c r="CK3">
-        <v>-0.26296996313847237</v>
+        <v>-0.085348975631603943</v>
       </c>
       <c r="CL3">
-        <v>-0.37525636846747829</v>
+        <v>-0.21546942324331234</v>
       </c>
       <c r="CM3">
-        <v>-0.25946597491372769</v>
+        <v>-0.27472441446913781</v>
       </c>
       <c r="CN3">
-        <v>-0.58936567926633676</v>
+        <v>-0.39752240593772831</v>
       </c>
       <c r="CO3">
-        <v>-0.25120808628224151</v>
+        <v>-0.083670431965075676</v>
       </c>
       <c r="CP3">
-        <v>-0.26335312687905804</v>
+        <v>-0.19042334750282286</v>
       </c>
       <c r="CQ3">
-        <v>-0.22528932010927416</v>
+        <v>-0.25087819232798542</v>
       </c>
       <c r="CR3">
-        <v>-0.32994215847504565</v>
+        <v>-0.23958723289866227</v>
       </c>
       <c r="CS3">
-        <v>-0.35883636351294895</v>
+        <v>-0.2283045496314943</v>
       </c>
       <c r="CT3">
-        <v>-0.27779069889238267</v>
+        <v>-0.18356878459715553</v>
       </c>
       <c r="CU3">
-        <v>-0.24911547681154705</v>
+        <v>-0.13645006275010013</v>
       </c>
       <c r="CV3">
-        <v>-0.26929039855576242</v>
+        <v>-0.25953123722995991</v>
       </c>
       <c r="CW3">
-        <v>-0.3084833343946497</v>
+        <v>-0.33466923130230314</v>
       </c>
       <c r="CX3">
-        <v>-0.20924324599222985</v>
+        <v>-0.1463952121889889</v>
       </c>
       <c r="CY3">
-        <v>-0.069054600143377859</v>
+        <v>0.071030341864547153</v>
       </c>
       <c r="CZ3">
-        <v>-0.093160972503817677</v>
+        <v>-0.056863405504543899</v>
       </c>
       <c r="DA3">
-        <v>-0.088939173393453516</v>
+        <v>-0.099893239741073614</v>
       </c>
       <c r="DB3">
-        <v>-0.095572448156904674</v>
+        <v>-0.056818791204155637</v>
       </c>
       <c r="DC3">
-        <v>-0.10974839923462436</v>
+        <v>-0.056735422004800438</v>
       </c>
       <c r="DD3">
-        <v>-0.13864527484129224</v>
+        <v>-0.0056832075876203595</v>
       </c>
       <c r="DE3">
-        <v>-0.2038891575782861</v>
+        <v>0.066143937743885467</v>
       </c>
       <c r="DF3">
-        <v>-0.17243694700175849</v>
+        <v>-0.015645071692660838</v>
       </c>
       <c r="DG3">
-        <v>-0.051249972858737593</v>
+        <v>0.043248247667653755</v>
       </c>
       <c r="DH3">
-        <v>-0.060636225093772637</v>
+        <v>-0.05323597104019788</v>
       </c>
       <c r="DI3">
-        <v>-0.064057176676325073</v>
+        <v>0.15630782844791843</v>
       </c>
       <c r="DJ3">
-        <v>0.098945545725043299</v>
+        <v>0.12780623354809215</v>
       </c>
       <c r="DK3">
-        <v>-0.035357900889720725</v>
+        <v>0.17206158934729665</v>
       </c>
       <c r="DL3">
-        <v>0.068126841505986246</v>
+        <v>0.043189872549616766</v>
       </c>
       <c r="DM3">
-        <v>0.086991313201479903</v>
+        <v>0.17322373239590091</v>
       </c>
       <c r="DN3">
-        <v>0.10573418404709255</v>
+        <v>0.051513696123400808</v>
       </c>
       <c r="DO3">
-        <v>-0.005973880444974892</v>
+        <v>0.15979433044724231</v>
       </c>
       <c r="DP3">
-        <v>0.078316745712109614</v>
+        <v>0.063875899079922985</v>
       </c>
       <c r="DQ3">
-        <v>0.075384269123851072</v>
+        <v>0.15334968376916885</v>
       </c>
       <c r="DR3">
-        <v>-0.10214429640530573</v>
+        <v>0.10019685573438167</v>
       </c>
       <c r="DS3">
-        <v>-0.067880449884929167</v>
+        <v>0.043324518356592651</v>
       </c>
       <c r="DT3">
-        <v>-0.046993573918765519</v>
+        <v>0.017433362607951919</v>
       </c>
       <c r="DU3">
-        <v>-0.013914276978052146</v>
+        <v>0.11594068984596802</v>
       </c>
       <c r="DV3">
-        <v>0.087881951990357657</v>
+        <v>0.088185566210157287</v>
       </c>
       <c r="DW3">
-        <v>0.073557437882962803</v>
+        <v>0.088191650984969741</v>
       </c>
       <c r="DX3">
-        <v>0.015318490415899296</v>
+        <v>0.071686714962369447</v>
       </c>
       <c r="DY3">
-        <v>0.1083677752142897</v>
+        <v>-0.0020840679296979915</v>
       </c>
       <c r="DZ3">
-        <v>0.044058503288495587</v>
+        <v>0.099987212075081863</v>
       </c>
       <c r="EA3">
-        <v>-0.0045155230448102575</v>
+        <v>0.12427021195819531</v>
       </c>
       <c r="EB3">
-        <v>0.1026472271695049</v>
+        <v>0.014456598310831936</v>
       </c>
       <c r="EC3">
-        <v>0.016561428117334707</v>
+        <v>0.21647860717393147</v>
       </c>
       <c r="ED3">
-        <v>0.13003051611159419</v>
+        <v>0.13290171484980273</v>
       </c>
       <c r="EE3">
-        <v>0.11226243471714052</v>
+        <v>0.10870015306382262</v>
       </c>
       <c r="EF3">
-        <v>0.013360510570112992</v>
+        <v>0.14531600811260631</v>
       </c>
       <c r="EG3">
-        <v>0.0090968359045275199</v>
+        <v>0.017534528044264686</v>
       </c>
       <c r="EH3">
-        <v>-0.056801332848419935</v>
+        <v>0.10432778112916159</v>
       </c>
       <c r="EI3">
-        <v>0.070626964507595355</v>
+        <v>0.1495415334320985</v>
       </c>
       <c r="EJ3">
-        <v>0.00014710493744880159</v>
+        <v>0.11279427222394256</v>
       </c>
       <c r="EK3">
-        <v>0.054786939823057004</v>
+        <v>0.10430904109649532</v>
       </c>
       <c r="EL3">
-        <v>-0.072339166392753521</v>
+        <v>0.1336052063503399</v>
       </c>
       <c r="EM3">
-        <v>0.067035408247652931</v>
+        <v>0.1169441831804363</v>
       </c>
       <c r="EN3">
-        <v>-0.12692620771033047</v>
+        <v>0.09109144195952347</v>
       </c>
       <c r="EO3">
-        <v>-0.069933630773710551</v>
+        <v>0.050633648177229172</v>
       </c>
       <c r="EP3">
-        <v>-0.03356052065824925</v>
+        <v>0.0590985584476003</v>
       </c>
       <c r="EQ3">
-        <v>-0.011457879112879772</v>
+        <v>-0.0025167856418685224</v>
       </c>
       <c r="ER3">
-        <v>-0.039360021585723</v>
+        <v>0.071294412827903594</v>
       </c>
       <c r="ES3">
-        <v>-0.097608216489296545</v>
+        <v>0.17816852761811625</v>
       </c>
       <c r="ET3">
-        <v>0.048511621781909327</v>
+        <v>0.16204381373184301</v>
       </c>
       <c r="EU3">
-        <v>0.01795787452509363</v>
+        <v>0.075066668945287754</v>
       </c>
       <c r="EV3">
-        <v>-0.1412205323429912</v>
+        <v>-0.0064400937423309875</v>
       </c>
       <c r="EW3">
-        <v>0.051954303034809184</v>
+        <v>0.064402247250813338</v>
       </c>
       <c r="EX3">
-        <v>0.051946418373873669</v>
+        <v>0.15286007941020288</v>
       </c>
       <c r="EY3">
-        <v>-0.063384230793350177</v>
+        <v>0.091106742341490896</v>
       </c>
       <c r="EZ3">
-        <v>-0.16237724870742057</v>
+        <v>0.12215315523815712</v>
       </c>
       <c r="FA3">
-        <v>-0.21455554573047678</v>
+        <v>0.17821317418150662</v>
       </c>
       <c r="FB3">
-        <v>-0.038182038220426477</v>
+        <v>0.023275269855804109</v>
       </c>
       <c r="FC3">
-        <v>0.044490105217896446</v>
+        <v>0.061057606597804556</v>
       </c>
       <c r="FD3">
-        <v>-0.11537307365621072</v>
+        <v>-0.061968684366554651</v>
       </c>
       <c r="FE3">
-        <v>-0.026291169926800587</v>
+        <v>0.073283057293082543</v>
       </c>
       <c r="FF3">
-        <v>-0.061593713927138971</v>
+        <v>0.05811638670500871</v>
       </c>
       <c r="FG3">
-        <v>-0.047767636195258402</v>
+        <v>0.14562066197107443</v>
       </c>
       <c r="FH3">
-        <v>-0.068969957574903457</v>
+        <v>0.18494800599655947</v>
       </c>
       <c r="FI3">
-        <v>0.11586637210781692</v>
+        <v>0.17644558465908117</v>
       </c>
       <c r="FJ3">
-        <v>-0.081089444610813854</v>
+        <v>0.15440174843047744</v>
       </c>
       <c r="FK3">
-        <v>-0.0023123040600054748</v>
+        <v>0.14523962470770274</v>
       </c>
       <c r="FL3">
-        <v>0.0017801067314667375</v>
+        <v>0.14043977879286915</v>
       </c>
       <c r="FM3">
-        <v>0.075671722333138167</v>
+        <v>0.058786064837480848</v>
       </c>
       <c r="FN3">
-        <v>0.034117605160841488</v>
+        <v>0.092212120659206295</v>
       </c>
       <c r="FO3">
+        <v>0.12493255320491362</v>
+      </c>
+      <c r="FP3">
+        <v>-0.073468381279192141</v>
+      </c>
+      <c r="FQ3">
+        <v>0.15587300759666203</v>
+      </c>
+      <c r="FR3">
+        <v>-0.015129938937176634</v>
+      </c>
+      <c r="FS3">
+        <v>0.097386009421423003</v>
+      </c>
+      <c r="FT3">
+        <v>0.1112712567484528</v>
+      </c>
+      <c r="FU3">
+        <v>-0.13773128661497205</v>
+      </c>
+      <c r="FV3">
+        <v>0.14745696721054197</v>
+      </c>
+      <c r="FW3">
+        <v>0.020671836205789294</v>
+      </c>
+      <c r="FX3">
+        <v>0.061492041978822888</v>
+      </c>
+      <c r="FY3">
+        <v>0.096132202687646925</v>
+      </c>
+      <c r="FZ3">
+        <v>0.032543269056799641</v>
+      </c>
+      <c r="GA3">
+        <v>-0.047845196906658428</v>
+      </c>
+      <c r="GB3">
+        <v>0.076963123146065515</v>
+      </c>
+      <c r="GC3">
+        <v>0.09131905155828067</v>
+      </c>
+      <c r="GD3">
+        <v>0.037223637923186163</v>
+      </c>
+      <c r="GE3">
+        <v>0.0022322807468535899</v>
+      </c>
+      <c r="GF3">
+        <v>-0.034457886130859934</v>
+      </c>
+      <c r="GG3">
+        <v>-0.019140193599033906</v>
+      </c>
+      <c r="GH3">
+        <v>0.12049171900283297</v>
+      </c>
+      <c r="GI3">
+        <v>0.028686148059911279</v>
+      </c>
+      <c r="GJ3">
+        <v>0.060125379415670997</v>
+      </c>
+      <c r="GK3">
+        <v>-0.039058528532543449</v>
+      </c>
+      <c r="GL3">
+        <v>0.045645985843242073</v>
+      </c>
+      <c r="GM3">
+        <v>-0.025557104495612635</v>
+      </c>
+      <c r="GN3">
+        <v>0.12823452133832858</v>
+      </c>
+      <c r="GO3">
+        <v>0.16299736094581621</v>
+      </c>
+      <c r="GP3">
+        <v>-0.043753819590569822</v>
+      </c>
+      <c r="GQ3">
+        <v>-0.0037528825754025033</v>
+      </c>
+      <c r="GR3">
+        <v>-0.01203835816292541</v>
+      </c>
+      <c r="GS3">
+        <v>0.0036422750108984553</v>
+      </c>
+      <c r="GT3">
+        <v>0.098533249996435729</v>
+      </c>
+      <c r="GU3">
+        <v>0.046654223392313357</v>
+      </c>
+      <c r="GV3">
+        <v>0.021346562177197728</v>
+      </c>
+      <c r="GW3">
+        <v>0.099408892718531511</v>
+      </c>
+      <c r="GX3">
+        <v>0.11990928011808351</v>
+      </c>
+      <c r="GY3">
+        <v>0.068428109477010848</v>
+      </c>
+      <c r="GZ3">
+        <v>0.066677342002826157</v>
+      </c>
+      <c r="HA3">
+        <v>0.023502292254509578</v>
+      </c>
+      <c r="HB3">
+        <v>-0.02852778093380582</v>
+      </c>
+      <c r="HC3">
+        <v>-0.057329047128051445</v>
+      </c>
+      <c r="HD3">
+        <v>0.040477262904569031</v>
+      </c>
+      <c r="HE3">
+        <v>0.0014567848413348467</v>
+      </c>
+      <c r="HF3">
+        <v>0.06001930604873746</v>
+      </c>
+      <c r="HG3">
+        <v>0.063977166981577974</v>
+      </c>
+      <c r="HH3">
+        <v>-0.038267924054881594</v>
+      </c>
+      <c r="HI3">
+        <v>-0.015101132289416768</v>
+      </c>
+      <c r="HJ3">
+        <v>0.014096377132869518</v>
+      </c>
+      <c r="HK3">
+        <v>-0.0076505240143879584</v>
+      </c>
+      <c r="HL3">
+        <v>0.058687931082048492</v>
+      </c>
+      <c r="HM3">
         <v>0</v>
       </c>
-      <c r="FP3">
+      <c r="HN3">
         <v>0</v>
       </c>
-      <c r="FQ3">
-        <v>-5.4983556461683563</v>
+      <c r="HO3">
+        <v>-5.5940504573414831</v>
       </c>
     </row>
     <row r="4">
@@ -2158,520 +2794,670 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.057215603490542541</v>
+        <v>0.072171105974919769</v>
       </c>
       <c r="C4">
-        <v>0.051323454235551104</v>
+        <v>0.05158381771681677</v>
       </c>
       <c r="D4">
-        <v>0.046130850337114067</v>
+        <v>0.063326271087694591</v>
       </c>
       <c r="E4">
-        <v>0.077845253201892159</v>
+        <v>0.080305209872274713</v>
       </c>
       <c r="F4">
-        <v>0.038880235916534375</v>
+        <v>0.047100816214106736</v>
       </c>
       <c r="G4">
-        <v>0.066766729429170127</v>
+        <v>0.039627879834855821</v>
       </c>
       <c r="H4">
-        <v>0.030545208018674767</v>
+        <v>0.031498720316859991</v>
       </c>
       <c r="I4">
-        <v>0.034584508203894769</v>
+        <v>0.035054388900035358</v>
       </c>
       <c r="J4">
-        <v>0.034403847992299223</v>
+        <v>0.034775305388177823</v>
       </c>
       <c r="K4">
-        <v>0.053880147694747457</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.10661894535510842</v>
+        <v>0.10918545116865479</v>
       </c>
       <c r="M4">
-        <v>0.1055209944131906</v>
+        <v>0.10207867192464637</v>
       </c>
       <c r="N4">
-        <v>0.11386546371492665</v>
+        <v>0.10850262267946374</v>
       </c>
       <c r="O4">
-        <v>0.099788902825074757</v>
+        <v>0.11251565583277688</v>
       </c>
       <c r="P4">
-        <v>0.1069955003163878</v>
+        <v>0.10365619919354624</v>
       </c>
       <c r="Q4">
-        <v>0.10979258935286566</v>
+        <v>0.10988797973963889</v>
       </c>
       <c r="R4">
-        <v>0.10776520774866352</v>
+        <v>0.10816832650338024</v>
       </c>
       <c r="S4">
-        <v>0.10661894536662715</v>
+        <v>0.10448980008927157</v>
       </c>
       <c r="T4">
-        <v>0.10217156216965577</v>
+        <v>0.1145722506873359</v>
       </c>
       <c r="U4">
-        <v>0.11485519668944956</v>
+        <v>0.10953419739685166</v>
       </c>
       <c r="V4">
-        <v>0.098682816238611096</v>
+        <v>0.11135583722707325</v>
       </c>
       <c r="W4">
-        <v>0.11021690398906973</v>
+        <v>0.10719269289945206</v>
       </c>
       <c r="X4">
-        <v>0.094963022044342454</v>
+        <v>0.11061111867812143</v>
       </c>
       <c r="Y4">
-        <v>0.10312976981502077</v>
+        <v>0.11135583723481821</v>
       </c>
       <c r="Z4">
-        <v>0.10855792216520058</v>
+        <v>0.1113558372359876</v>
       </c>
       <c r="AA4">
-        <v>0.099229207154250834</v>
+        <v>0.10259181611539839</v>
       </c>
       <c r="AB4">
-        <v>0.10280617401355216</v>
+        <v>0.1036561992352437</v>
       </c>
       <c r="AC4">
-        <v>0.10007390126318495</v>
+        <v>0.10656402729431087</v>
       </c>
       <c r="AD4">
-        <v>0.095894655414734353</v>
+        <v>0.10783863845230618</v>
       </c>
       <c r="AE4">
-        <v>0.10095031508636554</v>
+        <v>0.10506336484125771</v>
       </c>
       <c r="AF4">
-        <v>0.10588181107960846</v>
+        <v>0.10365619925045332</v>
       </c>
       <c r="AG4">
-        <v>0.099788902866861692</v>
+        <v>0.10850262273620503</v>
       </c>
       <c r="AH4">
-        <v>0.097118665366395268</v>
+        <v>0.10014255734316359</v>
       </c>
       <c r="AI4">
-        <v>0.096868326181489162</v>
+        <v>0.10420843743234239</v>
       </c>
       <c r="AJ4">
-        <v>0.11021690401187159</v>
+        <v>0.10884162920208557</v>
       </c>
       <c r="AK4">
-        <v>0.099229207180059995</v>
+        <v>0.11173660914408136</v>
       </c>
       <c r="AL4">
-        <v>0.10248680037366684</v>
+        <v>0.10595192601464339</v>
       </c>
       <c r="AM4">
-        <v>0.10007390128834741</v>
+        <v>0.10719269295196639</v>
       </c>
       <c r="AN4">
-        <v>0.092393664305606943</v>
+        <v>0.10783863848508256</v>
       </c>
       <c r="AO4">
-        <v>0.097887104914071141</v>
+        <v>0.10233370650754853</v>
       </c>
       <c r="AP4">
-        <v>0.095192146480577292</v>
+        <v>0.10625594926693376</v>
       </c>
       <c r="AQ4">
-        <v>0.10979258939843047</v>
+        <v>0.10259181617972862</v>
       </c>
       <c r="AR4">
-        <v>0.10124983029819051</v>
+        <v>0.10595192603647371</v>
       </c>
       <c r="AS4">
-        <v>0.099788902898409582</v>
+        <v>0.10595192604007711</v>
       </c>
       <c r="AT4">
-        <v>0.09496302211230119</v>
+        <v>0.10133145718993131</v>
       </c>
       <c r="AU4">
-        <v>0.10155315791429115</v>
+        <v>0.10816832659583575</v>
       </c>
       <c r="AV4">
-        <v>0.10776520780560724</v>
+        <v>0.10157760222992368</v>
       </c>
       <c r="AW4">
-        <v>0.10065453708384356</v>
+        <v>0.10233370654219553</v>
       </c>
       <c r="AX4">
-        <v>0.10095031513366627</v>
+        <v>0.11098071756324379</v>
       </c>
       <c r="AY4">
-        <v>0.10186037536776626</v>
+        <v>0.10783863852338324</v>
       </c>
       <c r="AZ4">
-        <v>0.10095031513861394</v>
+        <v>0.10535571362105051</v>
       </c>
       <c r="BA4">
-        <v>0.10737754505685425</v>
+        <v>0.1091854512949146</v>
       </c>
       <c r="BB4">
-        <v>0.10481429605613253</v>
+        <v>0.10060995198079344</v>
       </c>
       <c r="BC4">
-        <v>0.099788902923886216</v>
+        <v>0.10157760226080373</v>
       </c>
       <c r="BD4">
-        <v>0.10095031514816244</v>
+        <v>0.10477475192016968</v>
       </c>
       <c r="BE4">
-        <v>0.10446819796465601</v>
+        <v>0.10535571364090604</v>
       </c>
       <c r="BF4">
-        <v>0.097118665435134297</v>
+        <v>0.10535571364476881</v>
       </c>
       <c r="BG4">
-        <v>0.097371873258866731</v>
+        <v>0.10311749651726405</v>
       </c>
       <c r="BH4">
-        <v>0.10280617408818588</v>
+        <v>0.10884162928235167</v>
       </c>
       <c r="BI4">
-        <v>0.093425566117207912</v>
+        <v>0.10448980024708469</v>
       </c>
       <c r="BJ4">
-        <v>0.099953994167514812</v>
+        <v>0.10324656198157939</v>
       </c>
       <c r="BK4">
-        <v>0.098387571481215658</v>
+        <v>0.10250792602882597</v>
       </c>
       <c r="BL4">
-        <v>0.10283175283679696</v>
+        <v>0.10250813654657409</v>
       </c>
       <c r="BM4">
-        <v>0.10408931987553485</v>
+        <v>0.10535315769907859</v>
       </c>
       <c r="BN4">
-        <v>0.10541550447625939</v>
+        <v>0.10830589722330458</v>
       </c>
       <c r="BO4">
-        <v>0.10747903108134732</v>
+        <v>0.10982414215358896</v>
       </c>
       <c r="BP4">
-        <v>0.10472185121276872</v>
+        <v>0.10620320768599893</v>
       </c>
       <c r="BQ4">
-        <v>0.11057150972210726</v>
+        <v>0.11334057115183421</v>
       </c>
       <c r="BR4">
-        <v>0.10748660428586206</v>
+        <v>0.1124843289359323</v>
       </c>
       <c r="BS4">
-        <v>0.099498625685960435</v>
+        <v>0.11146285589953039</v>
       </c>
       <c r="BT4">
-        <v>0.075612653598695026</v>
+        <v>0.091465199716541046</v>
       </c>
       <c r="BU4">
-        <v>0.074757356750345061</v>
+        <v>0.082381191285773703</v>
       </c>
       <c r="BV4">
-        <v>0.076648242179755119</v>
+        <v>0.082993987899113691</v>
       </c>
       <c r="BW4">
-        <v>0.07547296609090158</v>
+        <v>0.081544015976317122</v>
       </c>
       <c r="BX4">
-        <v>0.074672507703759466</v>
+        <v>0.079667215029709859</v>
       </c>
       <c r="BY4">
-        <v>0.076154845275981112</v>
+        <v>0.082257844954717774</v>
       </c>
       <c r="BZ4">
-        <v>0.074010083677891109</v>
+        <v>0.079933606758981757</v>
       </c>
       <c r="CA4">
-        <v>0.072614105897296652</v>
+        <v>0.079502818341830331</v>
       </c>
       <c r="CB4">
-        <v>0.074248414017668615</v>
+        <v>0.081600133644093784</v>
       </c>
       <c r="CC4">
-        <v>0.07514317815432911</v>
+        <v>0.079584719770376261</v>
       </c>
       <c r="CD4">
-        <v>0.077274724976127862</v>
+        <v>0.082944685862233941</v>
       </c>
       <c r="CE4">
-        <v>0.079466850495247196</v>
+        <v>0.085790337115794271</v>
       </c>
       <c r="CF4">
-        <v>0.078996831825590197</v>
+        <v>0.086005881690905575</v>
       </c>
       <c r="CG4">
-        <v>0.080865823479278925</v>
+        <v>0.085425776303089299</v>
       </c>
       <c r="CH4">
-        <v>0.0812048699500139</v>
+        <v>0.085223451263200384</v>
       </c>
       <c r="CI4">
-        <v>0.081332407961316161</v>
+        <v>0.084392999819929287</v>
       </c>
       <c r="CJ4">
-        <v>0.080138288715186995</v>
+        <v>0.085504204013204826</v>
       </c>
       <c r="CK4">
-        <v>0.0789640793467625</v>
+        <v>0.083052800257969295</v>
       </c>
       <c r="CL4">
-        <v>0.081793323430169901</v>
+        <v>0.086609555300296501</v>
       </c>
       <c r="CM4">
-        <v>0.07989782860027568</v>
+        <v>0.087681676396367314</v>
       </c>
       <c r="CN4">
-        <v>0.075553339121533239</v>
+        <v>0.086607474559527192</v>
       </c>
       <c r="CO4">
-        <v>0.07033811682339694</v>
+        <v>0.075324207813539615</v>
       </c>
       <c r="CP4">
-        <v>0.070532071340986172</v>
+        <v>0.076555463238287866</v>
       </c>
       <c r="CQ4">
-        <v>0.068327914307343085</v>
+        <v>0.075452619457502923</v>
       </c>
       <c r="CR4">
-        <v>0.069673249352598846</v>
+        <v>0.075363651927126213</v>
       </c>
       <c r="CS4">
-        <v>0.070103755650729682</v>
+        <v>0.075275870911503867</v>
       </c>
       <c r="CT4">
-        <v>0.067639671913609062</v>
+        <v>0.073693228531720473</v>
       </c>
       <c r="CU4">
-        <v>0.067323686491751397</v>
+        <v>0.073168136271932832</v>
       </c>
       <c r="CV4">
-        <v>0.06763967220924573</v>
+        <v>0.074774473269988651</v>
       </c>
       <c r="CW4">
-        <v>0.068215534813485218</v>
+        <v>0.075857512943476688</v>
       </c>
       <c r="CX4">
-        <v>0.066979051184372584</v>
+        <v>0.073425505836002228</v>
       </c>
       <c r="CY4">
-        <v>0.067519495875401139</v>
+        <v>0.07262713733409222</v>
       </c>
       <c r="CZ4">
-        <v>0.067891028001616144</v>
+        <v>0.074235146307691235</v>
       </c>
       <c r="DA4">
-        <v>0.067891028155977126</v>
+        <v>0.074849581965106118</v>
       </c>
       <c r="DB4">
-        <v>0.06803537585393836</v>
+        <v>0.074333955519801237</v>
       </c>
       <c r="DC4">
-        <v>0.068282372399348534</v>
+        <v>0.07438388239890506</v>
       </c>
       <c r="DD4">
-        <v>0.068429299671783281</v>
+        <v>0.073728535005169099</v>
       </c>
       <c r="DE4">
-        <v>0.06939643173775667</v>
+        <v>0.072910046067639248</v>
       </c>
       <c r="DF4">
-        <v>0.069005923212294928</v>
+        <v>0.073961616777595898</v>
       </c>
       <c r="DG4">
-        <v>0.067438647366677221</v>
+        <v>0.073285137470936401</v>
       </c>
       <c r="DH4">
-        <v>0.067617194315852447</v>
+        <v>0.074554985292855411</v>
       </c>
       <c r="DI4">
-        <v>0.066994109004687913</v>
+        <v>0.07083733261378182</v>
       </c>
       <c r="DJ4">
-        <v>0.064709215107286375</v>
+        <v>0.07125773488376573</v>
       </c>
       <c r="DK4">
-        <v>0.066686299471199029</v>
+        <v>0.070747243739781487</v>
       </c>
       <c r="DL4">
-        <v>0.065247318134716764</v>
+        <v>0.07251436445251902</v>
       </c>
       <c r="DM4">
-        <v>0.065047255664510584</v>
+        <v>0.070837333299936564</v>
       </c>
       <c r="DN4">
-        <v>0.064852257451021703</v>
+        <v>0.072514364748290747</v>
       </c>
       <c r="DO4">
-        <v>0.06650682309302873</v>
+        <v>0.071114800922785631</v>
       </c>
       <c r="DP4">
-        <v>0.065349312305107488</v>
+        <v>0.072457603616717464</v>
       </c>
       <c r="DQ4">
-        <v>0.065452648853101134</v>
+        <v>0.071306024596173911</v>
       </c>
       <c r="DR4">
-        <v>0.068201317400397393</v>
+        <v>0.072071609404479042</v>
       </c>
       <c r="DS4">
-        <v>0.067712282187276526</v>
+        <v>0.072923679360709523</v>
       </c>
       <c r="DT4">
-        <v>0.067444311243733304</v>
+        <v>0.073355198579930378</v>
       </c>
       <c r="DU4">
-        <v>0.066994110986582589</v>
+        <v>0.072018034799418901</v>
       </c>
       <c r="DV4">
-        <v>0.065557356184021656</v>
+        <v>0.072457604528600311</v>
       </c>
       <c r="DW4">
-        <v>0.065825301016074825</v>
+        <v>0.072514366111854078</v>
       </c>
       <c r="DX4">
-        <v>0.0667469829373529</v>
+        <v>0.072804544703046772</v>
       </c>
       <c r="DY4">
-        <v>0.065452650413587013</v>
+        <v>0.073945690967369915</v>
       </c>
       <c r="DZ4">
-        <v>0.066447839655967747</v>
+        <v>0.072514366572061201</v>
       </c>
       <c r="EA4">
-        <v>0.067248524239690716</v>
+        <v>0.072234652274726668</v>
       </c>
       <c r="EB4">
-        <v>0.065717047005792187</v>
+        <v>0.073877978302996777</v>
       </c>
       <c r="EC4">
-        <v>0.067057020026316361</v>
+        <v>0.071114803376616478</v>
       </c>
       <c r="ED4">
-        <v>0.065452651495928368</v>
+        <v>0.072289786138931805</v>
       </c>
       <c r="EE4">
-        <v>0.065770993202537834</v>
+        <v>0.07268718105108278</v>
       </c>
       <c r="EF4">
-        <v>0.067313304819535749</v>
+        <v>0.072234653151155612</v>
       </c>
       <c r="EG4">
-        <v>0.067444313603898937</v>
+        <v>0.074152141968748503</v>
       </c>
       <c r="EH4">
-        <v>0.068567295812175494</v>
+        <v>0.072923681701374296</v>
       </c>
       <c r="EI4">
-        <v>0.066626053557036352</v>
+        <v>0.072345320669865584</v>
       </c>
       <c r="EJ4">
-        <v>0.067780551932185434</v>
+        <v>0.07292368204938765</v>
       </c>
       <c r="EK4">
-        <v>0.066994114045787367</v>
+        <v>0.073105794908094532</v>
       </c>
       <c r="EL4">
-        <v>0.069104842213451007</v>
+        <v>0.072745645823812738</v>
       </c>
       <c r="EM4">
-        <v>0.066931662023791264</v>
+        <v>0.073044629417245002</v>
       </c>
       <c r="EN4">
-        <v>0.070189690695938056</v>
+        <v>0.073482829441794364</v>
       </c>
       <c r="EO4">
-        <v>0.069264140979511418</v>
+        <v>0.074152143221350497</v>
       </c>
       <c r="EP4">
-        <v>0.068717798277173739</v>
+        <v>0.074082768216881187</v>
       </c>
       <c r="EQ4">
-        <v>0.068419173646335193</v>
+        <v>0.075108400862293132</v>
       </c>
       <c r="ER4">
-        <v>0.068948137020479874</v>
+        <v>0.074013954217856753</v>
       </c>
       <c r="ES4">
-        <v>0.070014889935750502</v>
+        <v>0.072514369912830084</v>
       </c>
       <c r="ET4">
-        <v>0.067644535777736534</v>
+        <v>0.072804548459207724</v>
       </c>
       <c r="EU4">
-        <v>0.068201322413535784</v>
+        <v>0.074152144200668346</v>
       </c>
       <c r="EV4">
-        <v>0.071015471584810488</v>
+        <v>0.075505367451906655</v>
       </c>
       <c r="EW4">
-        <v>0.067780554356543996</v>
+        <v>0.074435394958201617</v>
       </c>
       <c r="EX4">
-        <v>0.067849342767569681</v>
+        <v>0.07316743180442678</v>
       </c>
       <c r="EY4">
-        <v>0.069843075438146537</v>
+        <v>0.074152144870098816</v>
       </c>
       <c r="EZ4">
-        <v>0.071705879998090777</v>
+        <v>0.073744171357841212</v>
       </c>
       <c r="FA4">
-        <v>0.072774811926022073</v>
+        <v>0.072983929516058865</v>
       </c>
       <c r="FB4">
-        <v>0.069590782865663184</v>
+        <v>0.075424580438327851</v>
       </c>
       <c r="FC4">
-        <v>0.068273372629266152</v>
+        <v>0.074878339021716159</v>
       </c>
       <c r="FD4">
-        <v>0.071111403765078449</v>
+        <v>0.076996854659961228</v>
       </c>
       <c r="FE4">
-        <v>0.0695907834034208</v>
+        <v>0.074802951692195474</v>
       </c>
       <c r="FF4">
-        <v>0.070278239039233595</v>
+        <v>0.075108403240900692</v>
       </c>
       <c r="FG4">
-        <v>0.070101914826408471</v>
+        <v>0.073810811014659805</v>
       </c>
       <c r="FH4">
-        <v>0.070548578650177898</v>
+        <v>0.073292131231311064</v>
       </c>
       <c r="FI4">
-        <v>0.067510559128613146</v>
+        <v>0.073482833251458962</v>
       </c>
       <c r="FJ4">
-        <v>0.070920409243173041</v>
+        <v>0.073877984094675539</v>
       </c>
       <c r="FK4">
-        <v>0.069590784527536628</v>
+        <v>0.074082771942851844</v>
       </c>
       <c r="FL4">
-        <v>0.06959078472482999</v>
+        <v>0.07422209024865481</v>
       </c>
       <c r="FM4">
-        <v>0.068419177903283196</v>
+        <v>0.075586874435761869</v>
       </c>
       <c r="FN4">
-        <v>0.069184168318021461</v>
+        <v>0.07510840471074344</v>
       </c>
       <c r="FO4">
+        <v>0.074654078838088112</v>
+      </c>
+      <c r="FP4">
+        <v>0.078098503511381506</v>
+      </c>
+      <c r="FQ4">
+        <v>0.074292609090615233</v>
+      </c>
+      <c r="FR4">
+        <v>0.077188429608482073</v>
+      </c>
+      <c r="FS4">
+        <v>0.075344502107066044</v>
+      </c>
+      <c r="FT4">
+        <v>0.075186422537905001</v>
+      </c>
+      <c r="FU4">
+        <v>0.079691987724077887</v>
+      </c>
+      <c r="FV4">
+        <v>0.074728203444969984</v>
+      </c>
+      <c r="FW4">
+        <v>0.076902441087502757</v>
+      </c>
+      <c r="FX4">
+        <v>0.076265897523173795</v>
+      </c>
+      <c r="FY4">
+        <v>0.075752072560049857</v>
+      </c>
+      <c r="FZ4">
+        <v>0.076902441592198917</v>
+      </c>
+      <c r="GA4">
+        <v>0.078420595788179268</v>
+      </c>
+      <c r="GB4">
+        <v>0.076265898219222028</v>
+      </c>
+      <c r="GC4">
+        <v>0.076091499425865114</v>
+      </c>
+      <c r="GD4">
+        <v>0.077092184114806991</v>
+      </c>
+      <c r="GE4">
+        <v>0.077786066879734037</v>
+      </c>
+      <c r="GF4">
+        <v>0.078530184055788571</v>
+      </c>
+      <c r="GG4">
+        <v>0.078312132789006131</v>
+      </c>
+      <c r="GH4">
+        <v>0.075920253963029691</v>
+      </c>
+      <c r="GI4">
+        <v>0.077582921266061242</v>
+      </c>
+      <c r="GJ4">
+        <v>0.07709218514096712</v>
+      </c>
+      <c r="GK4">
+        <v>0.078980134062992591</v>
+      </c>
+      <c r="GL4">
+        <v>0.077482846221974405</v>
+      </c>
+      <c r="GM4">
+        <v>0.078865869855392137</v>
+      </c>
+      <c r="GN4">
+        <v>0.076178301372926388</v>
+      </c>
+      <c r="GO4">
+        <v>0.075669109717625582</v>
+      </c>
+      <c r="GP4">
+        <v>0.079449563784045385</v>
+      </c>
+      <c r="GQ4">
+        <v>0.078752803467665181</v>
+      </c>
+      <c r="GR4">
+        <v>0.078980135192222883</v>
+      </c>
+      <c r="GS4">
+        <v>0.07875280378991055</v>
+      </c>
+      <c r="GT4">
+        <v>0.077092186971013596</v>
+      </c>
+      <c r="GU4">
+        <v>0.07809850848520225</v>
+      </c>
+      <c r="GV4">
+        <v>0.078640915646050455</v>
+      </c>
+      <c r="GW4">
+        <v>0.077285618219542676</v>
+      </c>
+      <c r="GX4">
+        <v>0.076996862504168817</v>
+      </c>
+      <c r="GY4">
+        <v>0.077993312575942858</v>
+      </c>
+      <c r="GZ4">
+        <v>0.078098509436785257</v>
+      </c>
+      <c r="HA4">
+        <v>0.078980136773573725</v>
+      </c>
+      <c r="HB4">
+        <v>0.08006576681750957</v>
+      </c>
+      <c r="HC4">
+        <v>0.080717329230112822</v>
+      </c>
+      <c r="HD4">
+        <v>0.078865872791813951</v>
+      </c>
+      <c r="HE4">
+        <v>0.079691993233982697</v>
+      </c>
+      <c r="HF4">
+        <v>0.078640917466478069</v>
+      </c>
+      <c r="HG4">
+        <v>0.078640917660851128</v>
+      </c>
+      <c r="HH4">
+        <v>0.080717330044265373</v>
+      </c>
+      <c r="HI4">
+        <v>0.080321978513233555</v>
+      </c>
+      <c r="HJ4">
+        <v>0.079815211516944984</v>
+      </c>
+      <c r="HK4">
+        <v>0.080321978850526679</v>
+      </c>
+      <c r="HL4">
+        <v>0.079095620178330855</v>
+      </c>
+      <c r="HM4">
         <v>0</v>
       </c>
-      <c r="FP4">
+      <c r="HN4">
         <v>0</v>
       </c>
-      <c r="FQ4">
-        <v>0.049386514313963077</v>
+      <c r="HO4">
+        <v>0.056796216172159041</v>
       </c>
     </row>
   </sheetData>
@@ -2680,7 +3466,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FQ4"/>
+  <dimension ref="A1:HO4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3203,6 +3989,156 @@
       <c r="FQ1" t="s">
         <v>1</v>
       </c>
+      <c r="FR1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FT1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FW1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FY1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FZ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GA1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GF1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GG1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GH1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GI1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GJ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GK1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GL1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GM1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GN1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GO1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GP1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GQ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GR1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GS1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GT1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GU1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GV1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GW1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GX1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GY1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GZ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HA1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HB1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HC1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HD1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HE1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HF1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HG1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HH1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HI1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HJ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HK1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HL1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HM1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HN1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HO1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="B2" t="s">
@@ -3212,16 +4148,16 @@
         <v>176</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
         <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
@@ -3233,7 +4169,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
@@ -3713,12 +4649,162 @@
         <v>170</v>
       </c>
       <c r="FO2" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="FP2" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="FQ2" t="s">
+        <v>189</v>
+      </c>
+      <c r="FR2" t="s">
+        <v>190</v>
+      </c>
+      <c r="FS2" t="s">
+        <v>191</v>
+      </c>
+      <c r="FT2" t="s">
+        <v>192</v>
+      </c>
+      <c r="FU2" t="s">
+        <v>193</v>
+      </c>
+      <c r="FV2" t="s">
+        <v>194</v>
+      </c>
+      <c r="FW2" t="s">
+        <v>195</v>
+      </c>
+      <c r="FX2" t="s">
+        <v>196</v>
+      </c>
+      <c r="FY2" t="s">
+        <v>197</v>
+      </c>
+      <c r="FZ2" t="s">
+        <v>198</v>
+      </c>
+      <c r="GA2" t="s">
+        <v>199</v>
+      </c>
+      <c r="GB2" t="s">
+        <v>200</v>
+      </c>
+      <c r="GC2" t="s">
+        <v>201</v>
+      </c>
+      <c r="GD2" t="s">
+        <v>202</v>
+      </c>
+      <c r="GE2" t="s">
+        <v>203</v>
+      </c>
+      <c r="GF2" t="s">
+        <v>204</v>
+      </c>
+      <c r="GG2" t="s">
+        <v>205</v>
+      </c>
+      <c r="GH2" t="s">
+        <v>206</v>
+      </c>
+      <c r="GI2" t="s">
+        <v>207</v>
+      </c>
+      <c r="GJ2" t="s">
+        <v>208</v>
+      </c>
+      <c r="GK2" t="s">
+        <v>209</v>
+      </c>
+      <c r="GL2" t="s">
+        <v>210</v>
+      </c>
+      <c r="GM2" t="s">
+        <v>211</v>
+      </c>
+      <c r="GN2" t="s">
+        <v>212</v>
+      </c>
+      <c r="GO2" t="s">
+        <v>213</v>
+      </c>
+      <c r="GP2" t="s">
+        <v>214</v>
+      </c>
+      <c r="GQ2" t="s">
+        <v>215</v>
+      </c>
+      <c r="GR2" t="s">
+        <v>216</v>
+      </c>
+      <c r="GS2" t="s">
+        <v>217</v>
+      </c>
+      <c r="GT2" t="s">
+        <v>218</v>
+      </c>
+      <c r="GU2" t="s">
+        <v>219</v>
+      </c>
+      <c r="GV2" t="s">
+        <v>220</v>
+      </c>
+      <c r="GW2" t="s">
+        <v>221</v>
+      </c>
+      <c r="GX2" t="s">
+        <v>222</v>
+      </c>
+      <c r="GY2" t="s">
+        <v>223</v>
+      </c>
+      <c r="GZ2" t="s">
+        <v>224</v>
+      </c>
+      <c r="HA2" t="s">
+        <v>225</v>
+      </c>
+      <c r="HB2" t="s">
+        <v>226</v>
+      </c>
+      <c r="HC2" t="s">
+        <v>227</v>
+      </c>
+      <c r="HD2" t="s">
+        <v>228</v>
+      </c>
+      <c r="HE2" t="s">
+        <v>229</v>
+      </c>
+      <c r="HF2" t="s">
+        <v>230</v>
+      </c>
+      <c r="HG2" t="s">
+        <v>231</v>
+      </c>
+      <c r="HH2" t="s">
+        <v>232</v>
+      </c>
+      <c r="HI2" t="s">
+        <v>233</v>
+      </c>
+      <c r="HJ2" t="s">
+        <v>234</v>
+      </c>
+      <c r="HK2" t="s">
+        <v>235</v>
+      </c>
+      <c r="HL2" t="s">
+        <v>236</v>
+      </c>
+      <c r="HM2" t="s">
+        <v>237</v>
+      </c>
+      <c r="HN2" t="s">
+        <v>238</v>
+      </c>
+      <c r="HO2" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3727,520 +4813,670 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>2.0460370874442164</v>
+        <v>0.3531260066293937</v>
       </c>
       <c r="C3">
-        <v>-1.1103647539630164</v>
+        <v>-0.28747984593975739</v>
       </c>
       <c r="D3">
-        <v>1.6057880212198186</v>
+        <v>-0.2536065264121215</v>
       </c>
       <c r="E3">
-        <v>-0.99084606448973034</v>
+        <v>-0.24956989588100881</v>
       </c>
       <c r="F3">
-        <v>1.5269375083836469</v>
+        <v>0.27622248573865665</v>
       </c>
       <c r="G3">
-        <v>-1.0818198459138437</v>
+        <v>0.30519527133486968</v>
       </c>
       <c r="H3">
-        <v>1.3141298303049929</v>
+        <v>0.26946656384602713</v>
       </c>
       <c r="I3">
-        <v>0.7775816526046474</v>
+        <v>0.16228663681094285</v>
       </c>
       <c r="J3">
-        <v>0.77137080796591306</v>
+        <v>0.17380636703028884</v>
       </c>
       <c r="K3">
-        <v>1.0703141889179073</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>-1.8813734214616233</v>
+        <v>-0.83018653376163287</v>
       </c>
       <c r="M3">
-        <v>-2.030595822373789</v>
+        <v>-0.70415816476383997</v>
       </c>
       <c r="N3">
-        <v>-2.1253847429017325</v>
+        <v>-0.7625896170707035</v>
       </c>
       <c r="O3">
-        <v>-1.7883164238133293</v>
+        <v>-0.71037708752511497</v>
       </c>
       <c r="P3">
-        <v>-1.7112199591685846</v>
+        <v>-0.67625631482781612</v>
       </c>
       <c r="Q3">
-        <v>-1.8356756956363269</v>
+        <v>-0.9218116459615795</v>
       </c>
       <c r="R3">
-        <v>-1.8775854856004859</v>
+        <v>-0.65711826031294485</v>
       </c>
       <c r="S3">
-        <v>-1.930549931837203</v>
+        <v>-0.63659368972499397</v>
       </c>
       <c r="T3">
-        <v>-1.7308786300604537</v>
+        <v>-0.68499707398881693</v>
       </c>
       <c r="U3">
-        <v>-1.8756085217041207</v>
+        <v>-0.78857462985998961</v>
       </c>
       <c r="V3">
-        <v>-1.6640010207541651</v>
+        <v>-0.78688251969866996</v>
       </c>
       <c r="W3">
-        <v>-1.9557009247666768</v>
+        <v>-0.68296678271649769</v>
       </c>
       <c r="X3">
-        <v>-1.5558119551329066</v>
+        <v>-0.73089324687055557</v>
       </c>
       <c r="Y3">
-        <v>-1.7272492947593463</v>
+        <v>-0.67929326227003317</v>
       </c>
       <c r="Z3">
-        <v>-1.8462158443203962</v>
+        <v>-0.71368701115060984</v>
       </c>
       <c r="AA3">
-        <v>-1.7035387688896646</v>
+        <v>-0.59172905212669036</v>
       </c>
       <c r="AB3">
-        <v>-1.8705625944843232</v>
+        <v>-0.55166773820752224</v>
       </c>
       <c r="AC3">
-        <v>-1.7244545114655472</v>
+        <v>-0.55527610131963234</v>
       </c>
       <c r="AD3">
-        <v>-1.7237127502106073</v>
+        <v>-0.77866208653177116</v>
       </c>
       <c r="AE3">
-        <v>-1.7154769742285654</v>
+        <v>-0.51461012165255282</v>
       </c>
       <c r="AF3">
-        <v>-1.7605548239603002</v>
+        <v>-0.59948841019305021</v>
       </c>
       <c r="AG3">
-        <v>-1.6845879864644024</v>
+        <v>-0.80948320575860844</v>
       </c>
       <c r="AH3">
-        <v>-1.6206119543854074</v>
+        <v>-0.57774918545927967</v>
       </c>
       <c r="AI3">
-        <v>-1.6266177580941388</v>
+        <v>-0.5579412593897356</v>
       </c>
       <c r="AJ3">
-        <v>-1.830358540803785</v>
+        <v>-0.60684837449693874</v>
       </c>
       <c r="AK3">
-        <v>-1.681507855589311</v>
+        <v>-0.69837513692694542</v>
       </c>
       <c r="AL3">
-        <v>-1.688009098259228</v>
+        <v>-0.64062615340351148</v>
       </c>
       <c r="AM3">
-        <v>-1.7709697163138105</v>
+        <v>-0.62595282396960394</v>
       </c>
       <c r="AN3">
-        <v>-1.7161747791365753</v>
+        <v>-0.65604708831895331</v>
       </c>
       <c r="AO3">
-        <v>-1.7695137640993461</v>
+        <v>-0.57273826002705541</v>
       </c>
       <c r="AP3">
-        <v>-1.7222677873849748</v>
+        <v>-0.61050065197016523</v>
       </c>
       <c r="AQ3">
-        <v>-1.8681785905714861</v>
+        <v>-0.5776750818104045</v>
       </c>
       <c r="AR3">
-        <v>-1.7133319167574381</v>
+        <v>-0.69804464079398243</v>
       </c>
       <c r="AS3">
-        <v>-1.8408021924000633</v>
+        <v>-0.53213895737789041</v>
       </c>
       <c r="AT3">
-        <v>-1.6969902656504545</v>
+        <v>-0.49844050729316158</v>
       </c>
       <c r="AU3">
-        <v>-1.741707169624565</v>
+        <v>-0.62543003533717056</v>
       </c>
       <c r="AV3">
-        <v>-1.855897961212511</v>
+        <v>-0.59809437971078594</v>
       </c>
       <c r="AW3">
-        <v>-1.8639841024442714</v>
+        <v>-0.52074330443195871</v>
       </c>
       <c r="AX3">
-        <v>-1.643631090585661</v>
+        <v>-0.59696775382843204</v>
       </c>
       <c r="AY3">
-        <v>-1.5747450623964721</v>
+        <v>-0.61712835639818286</v>
       </c>
       <c r="AZ3">
-        <v>-1.7695268152469801</v>
+        <v>-0.53203547431857956</v>
       </c>
       <c r="BA3">
-        <v>-1.8609642613562536</v>
+        <v>-0.66225167560404918</v>
       </c>
       <c r="BB3">
-        <v>-1.7061125463990392</v>
+        <v>-0.52203868823007848</v>
       </c>
       <c r="BC3">
-        <v>-1.646923550431225</v>
+        <v>-0.55265470225600644</v>
       </c>
       <c r="BD3">
-        <v>-1.6532422797570843</v>
+        <v>-0.62937406920736194</v>
       </c>
       <c r="BE3">
-        <v>-1.8492272041230131</v>
+        <v>-0.59827911955028323</v>
       </c>
       <c r="BF3">
-        <v>-1.8750142833223398</v>
+        <v>-0.51954320664643705</v>
       </c>
       <c r="BG3">
-        <v>-1.780659399517035</v>
+        <v>-0.51437938584168286</v>
       </c>
       <c r="BH3">
-        <v>-1.7799581931279547</v>
+        <v>-0.67830856050475752</v>
       </c>
       <c r="BI3">
-        <v>-1.7010631801623779</v>
+        <v>-0.50146830099915884</v>
       </c>
       <c r="BJ3">
-        <v>-1.423276235239225</v>
+        <v>-0.32010769026145264</v>
       </c>
       <c r="BK3">
-        <v>-1.1071244736956756</v>
+        <v>-0.44267309817567918</v>
       </c>
       <c r="BL3">
-        <v>-1.3309933514320096</v>
+        <v>-0.41865379036555933</v>
       </c>
       <c r="BM3">
-        <v>-1.4295840297257516</v>
+        <v>-0.33901511255381334</v>
       </c>
       <c r="BN3">
-        <v>-1.2986425628246865</v>
+        <v>-0.51178195064999765</v>
       </c>
       <c r="BO3">
-        <v>-1.3929014795749752</v>
+        <v>-0.52141164348239366</v>
       </c>
       <c r="BP3">
-        <v>-1.383926488844208</v>
+        <v>-0.38876705045471688</v>
       </c>
       <c r="BQ3">
-        <v>-1.4083558333293547</v>
+        <v>-0.46417279162797392</v>
       </c>
       <c r="BR3">
-        <v>-1.2825224744578358</v>
+        <v>-0.55866820771729331</v>
       </c>
       <c r="BS3">
-        <v>-1.2890588671220302</v>
+        <v>-0.38438065557774814</v>
       </c>
       <c r="BT3">
-        <v>-0.723985818045634</v>
+        <v>-0.37295943302767259</v>
       </c>
       <c r="BU3">
-        <v>-0.39601347693632333</v>
+        <v>-0.34862166613691065</v>
       </c>
       <c r="BV3">
-        <v>-0.48032294328615494</v>
+        <v>-0.31703403956065035</v>
       </c>
       <c r="BW3">
-        <v>-0.47838548165659667</v>
+        <v>-0.35233084021088379</v>
       </c>
       <c r="BX3">
-        <v>-0.53044942341937751</v>
+        <v>-0.22500485132777009</v>
       </c>
       <c r="BY3">
-        <v>-0.59019486014329159</v>
+        <v>-0.42556999763341236</v>
       </c>
       <c r="BZ3">
-        <v>-0.53079110664605922</v>
+        <v>-0.3439896681854967</v>
       </c>
       <c r="CA3">
-        <v>-0.53175695028313041</v>
+        <v>-0.30325271409921656</v>
       </c>
       <c r="CB3">
-        <v>-0.56157271056449265</v>
+        <v>-0.41466638354414515</v>
       </c>
       <c r="CC3">
-        <v>-0.63366424109325636</v>
+        <v>-0.3122770658255537</v>
       </c>
       <c r="CD3">
-        <v>-0.55402450272686454</v>
+        <v>-0.25936519831568561</v>
       </c>
       <c r="CE3">
-        <v>-0.07262028821197257</v>
+        <v>-0.21023719604593738</v>
       </c>
       <c r="CF3">
-        <v>-0.15290167148669404</v>
+        <v>-0.20470912309577968</v>
       </c>
       <c r="CG3">
-        <v>-0.17841889065486138</v>
+        <v>-0.15032091573554196</v>
       </c>
       <c r="CH3">
-        <v>-0.32782068676361326</v>
+        <v>-0.18875200469813277</v>
       </c>
       <c r="CI3">
-        <v>-0.35647304176260708</v>
+        <v>-0.13241660457621149</v>
       </c>
       <c r="CJ3">
-        <v>-0.28028163781103288</v>
+        <v>-0.19535150298820794</v>
       </c>
       <c r="CK3">
-        <v>-0.30693018974152553</v>
+        <v>-0.043779990058643845</v>
       </c>
       <c r="CL3">
-        <v>-0.36062707640069286</v>
+        <v>-0.15759984293425616</v>
       </c>
       <c r="CM3">
-        <v>-0.34758915310880134</v>
+        <v>-0.25726454665151771</v>
       </c>
       <c r="CN3">
-        <v>-0.51718316729955471</v>
+        <v>-0.20366664599572296</v>
       </c>
       <c r="CO3">
-        <v>-0.092904105444296822</v>
+        <v>0.045809896803310809</v>
       </c>
       <c r="CP3">
-        <v>-0.10434011947837774</v>
+        <v>-0.060943005762850284</v>
       </c>
       <c r="CQ3">
-        <v>-0.082149649690173895</v>
+        <v>-0.10607323262052298</v>
       </c>
       <c r="CR3">
-        <v>-0.15826279091557136</v>
+        <v>-0.094782274603256403</v>
       </c>
       <c r="CS3">
-        <v>-0.2277798208848392</v>
+        <v>-0.083499592779322909</v>
       </c>
       <c r="CT3">
-        <v>-0.043743659751298798</v>
+        <v>-0.069996726821141844</v>
       </c>
       <c r="CU3">
-        <v>-0.1021051111019509</v>
+        <v>-0.022878009405394781</v>
       </c>
       <c r="CV3">
-        <v>-0.17726644806021449</v>
+        <v>-0.14595917313355922</v>
       </c>
       <c r="CW3">
-        <v>-0.22360131791379864</v>
+        <v>-0.22109716183093939</v>
       </c>
       <c r="CX3">
-        <v>-0.20602333241047055</v>
+        <v>-0.032823157873893116</v>
       </c>
       <c r="CY3">
-        <v>0.14927239962082947</v>
+        <v>0.1000742229001043</v>
       </c>
       <c r="CZ3">
-        <v>0.091893475473519115</v>
+        <v>-0.027819522604860307</v>
       </c>
       <c r="DA3">
-        <v>0.090115859440605836</v>
+        <v>-0.070849356314019549</v>
       </c>
       <c r="DB3">
-        <v>0.042809557216314596</v>
+        <v>-0.027774908305041986</v>
       </c>
       <c r="DC3">
-        <v>0.011792857034269374</v>
+        <v>-0.027691539106753416</v>
       </c>
       <c r="DD3">
-        <v>-0.01669668752563094</v>
+        <v>0.019083993013511328</v>
       </c>
       <c r="DE3">
-        <v>-0.08532261720812806</v>
+        <v>0.090911137374817222</v>
       </c>
       <c r="DF3">
-        <v>-0.076118128795246459</v>
+        <v>0.0091221290323588063</v>
       </c>
       <c r="DG3">
-        <v>-0.024953094823960076</v>
+        <v>0.068015447623106184</v>
       </c>
       <c r="DH3">
-        <v>-0.034523886713751777</v>
+        <v>-0.028468769869302968</v>
       </c>
       <c r="DI3">
-        <v>0.30393757676893646</v>
+        <v>0.15630782844791671</v>
       </c>
       <c r="DJ3">
-        <v>0.39833719754710178</v>
+        <v>0.12780623354809018</v>
       </c>
       <c r="DK3">
-        <v>0.29651675969306002</v>
+        <v>0.17206158934729535</v>
       </c>
       <c r="DL3">
-        <v>0.28671031373949984</v>
+        <v>0.043189872549614497</v>
       </c>
       <c r="DM3">
-        <v>0.32149717007664619</v>
+        <v>0.17322373239589939</v>
       </c>
       <c r="DN3">
-        <v>0.33816631797772412</v>
+        <v>0.051513696123398699</v>
       </c>
       <c r="DO3">
-        <v>0.20914815289490377</v>
+        <v>0.15979433044724087</v>
       </c>
       <c r="DP3">
-        <v>0.26719092745026601</v>
+        <v>0.063875899079921736</v>
       </c>
       <c r="DQ3">
-        <v>0.23513708840474187</v>
+        <v>0.15334968376916724</v>
       </c>
       <c r="DR3">
-        <v>0.083589437653600704</v>
+        <v>0.10019685573438038</v>
       </c>
       <c r="DS3">
-        <v>0.12495635610248473</v>
+        <v>0.043324518356590888</v>
       </c>
       <c r="DT3">
-        <v>0.12622995360294637</v>
+        <v>0.01743336260795067</v>
       </c>
       <c r="DU3">
-        <v>0.12402326111051498</v>
+        <v>0.11594068984596644</v>
       </c>
       <c r="DV3">
-        <v>0.19604678474922133</v>
+        <v>0.088185566210156066</v>
       </c>
       <c r="DW3">
-        <v>0.19785951851084368</v>
+        <v>0.08819165098496877</v>
       </c>
       <c r="DX3">
-        <v>0.13191131258578964</v>
+        <v>0.071686714962367129</v>
       </c>
       <c r="DY3">
-        <v>0.21258638345280143</v>
+        <v>-0.0020840679297000381</v>
       </c>
       <c r="DZ3">
-        <v>0.14182534128100485</v>
+        <v>0.099987212075080462</v>
       </c>
       <c r="EA3">
-        <v>0.096322190744631372</v>
+        <v>0.1242702119581936</v>
       </c>
       <c r="EB3">
-        <v>0.17203379547464553</v>
+        <v>0.014456598310830619</v>
       </c>
       <c r="EC3">
-        <v>0.10032141537273379</v>
+        <v>0.21647860717393025</v>
       </c>
       <c r="ED3">
-        <v>0.1901424717854652</v>
+        <v>0.13290171484980193</v>
       </c>
       <c r="EE3">
-        <v>0.18319974215989857</v>
+        <v>0.10870015306382137</v>
       </c>
       <c r="EF3">
-        <v>0.10004717059647092</v>
+        <v>0.14531600811260456</v>
       </c>
       <c r="EG3">
-        <v>0.06436686232374314</v>
+        <v>0.01753452804426222</v>
       </c>
       <c r="EH3">
-        <v>0.0041346518694372865</v>
+        <v>0.10432778112915959</v>
       </c>
       <c r="EI3">
-        <v>0.11516600372960051</v>
+        <v>0.14954153343209692</v>
       </c>
       <c r="EJ3">
-        <v>0.053906733733127356</v>
+        <v>0.11279427222394099</v>
       </c>
       <c r="EK3">
-        <v>0.10529567938643714</v>
+        <v>0.10430904109649382</v>
       </c>
       <c r="EL3">
-        <v>-0.0097884119596263926</v>
+        <v>0.13360520635033885</v>
       </c>
       <c r="EM3">
-        <v>0.092791158134315599</v>
+        <v>0.11694418318043467</v>
       </c>
       <c r="EN3">
-        <v>-0.08651121545560761</v>
+        <v>0.091091441959521402</v>
       </c>
       <c r="EO3">
-        <v>-0.034585774645765788</v>
+        <v>0.05063364817722768</v>
       </c>
       <c r="EP3">
-        <v>-0.019438297151454557</v>
+        <v>0.059098558447598044</v>
       </c>
       <c r="EQ3">
-        <v>0.025822200694490663</v>
+        <v>-0.002516785641870791</v>
       </c>
       <c r="ER3">
-        <v>-0.0088641507254580785</v>
+        <v>0.071294412827902096</v>
       </c>
       <c r="ES3">
-        <v>-0.061487396277976482</v>
+        <v>0.17816852761811519</v>
       </c>
       <c r="ET3">
-        <v>0.057080261532785434</v>
+        <v>0.16204381373184162</v>
       </c>
       <c r="EU3">
-        <v>0.036173898594570431</v>
+        <v>0.07506666894528656</v>
       </c>
       <c r="EV3">
-        <v>-0.12398320835120562</v>
+        <v>-0.0064400937423321541</v>
       </c>
       <c r="EW3">
-        <v>0.075729863684219217</v>
+        <v>0.064402247250811909</v>
       </c>
       <c r="EX3">
-        <v>0.059302312383771191</v>
+        <v>0.15286007941020133</v>
       </c>
       <c r="EY3">
-        <v>-0.047982432023994458</v>
+        <v>0.091106742341489216</v>
       </c>
       <c r="EZ3">
-        <v>-0.14068346304860171</v>
+        <v>0.12215315523815547</v>
       </c>
       <c r="FA3">
-        <v>-0.19600766429748334</v>
+        <v>0.17821317418150512</v>
       </c>
       <c r="FB3">
-        <v>-0.032248168073763468</v>
+        <v>0.023275269855802319</v>
       </c>
       <c r="FC3">
-        <v>0.044369250506617094</v>
+        <v>0.06105760659780305</v>
       </c>
       <c r="FD3">
-        <v>-0.11232024242227155</v>
+        <v>-0.0619686843665559</v>
       </c>
       <c r="FE3">
-        <v>-0.017781351512613355</v>
+        <v>0.073283057293080364</v>
       </c>
       <c r="FF3">
-        <v>-0.05684238793094705</v>
+        <v>0.058116386705006379</v>
       </c>
       <c r="FG3">
-        <v>-0.04073017365905171</v>
+        <v>0.1456206619710726</v>
       </c>
       <c r="FH3">
-        <v>-0.071198147558906091</v>
+        <v>0.18494800599655747</v>
       </c>
       <c r="FI3">
-        <v>0.1091096956709271</v>
+        <v>0.1764455846590802</v>
       </c>
       <c r="FJ3">
-        <v>-0.082911051203888086</v>
+        <v>0.15440174843047544</v>
       </c>
       <c r="FK3">
-        <v>-0.0099449911041919296</v>
+        <v>0.14523962470770041</v>
       </c>
       <c r="FL3">
-        <v>0.01308961842437514</v>
+        <v>0.14043977879286756</v>
       </c>
       <c r="FM3">
-        <v>0.078620580477423596</v>
+        <v>0.058786064837478828</v>
       </c>
       <c r="FN3">
-        <v>0.02416046646751285</v>
+        <v>0.092212120659205282</v>
       </c>
       <c r="FO3">
+        <v>0.12493255320491173</v>
+      </c>
+      <c r="FP3">
+        <v>-0.073468381279193667</v>
+      </c>
+      <c r="FQ3">
+        <v>0.1558730075966597</v>
+      </c>
+      <c r="FR3">
+        <v>-0.015129938937178769</v>
+      </c>
+      <c r="FS3">
+        <v>0.097386009421421907</v>
+      </c>
+      <c r="FT3">
+        <v>0.1112712567484502</v>
+      </c>
+      <c r="FU3">
+        <v>-0.13773128661497375</v>
+      </c>
+      <c r="FV3">
+        <v>0.14745696721054094</v>
+      </c>
+      <c r="FW3">
+        <v>0.020671836205787567</v>
+      </c>
+      <c r="FX3">
+        <v>0.061492041978821313</v>
+      </c>
+      <c r="FY3">
+        <v>0.096132202687645135</v>
+      </c>
+      <c r="FZ3">
+        <v>0.032543269056798191</v>
+      </c>
+      <c r="GA3">
+        <v>-0.047845196906659893</v>
+      </c>
+      <c r="GB3">
+        <v>0.076963123146063822</v>
+      </c>
+      <c r="GC3">
+        <v>0.091319051558279157</v>
+      </c>
+      <c r="GD3">
+        <v>0.037223637923184331</v>
+      </c>
+      <c r="GE3">
+        <v>0.0022322807468518049</v>
+      </c>
+      <c r="GF3">
+        <v>-0.03445788613086153</v>
+      </c>
+      <c r="GG3">
+        <v>-0.019140193599035751</v>
+      </c>
+      <c r="GH3">
+        <v>0.12049171900283133</v>
+      </c>
+      <c r="GI3">
+        <v>0.028686148059909579</v>
+      </c>
+      <c r="GJ3">
+        <v>0.060125379415669318</v>
+      </c>
+      <c r="GK3">
+        <v>-0.039058528532545392</v>
+      </c>
+      <c r="GL3">
+        <v>0.045645985843240866</v>
+      </c>
+      <c r="GM3">
+        <v>-0.025557104495614769</v>
+      </c>
+      <c r="GN3">
+        <v>0.12823452133832713</v>
+      </c>
+      <c r="GO3">
+        <v>0.16299736094581474</v>
+      </c>
+      <c r="GP3">
+        <v>-0.043753819590571653</v>
+      </c>
+      <c r="GQ3">
+        <v>-0.0037528825754035836</v>
+      </c>
+      <c r="GR3">
+        <v>-0.012038358162926923</v>
+      </c>
+      <c r="GS3">
+        <v>0.0036422750108964443</v>
+      </c>
+      <c r="GT3">
+        <v>0.09853324999643473</v>
+      </c>
+      <c r="GU3">
+        <v>0.046654223392312032</v>
+      </c>
+      <c r="GV3">
+        <v>0.021346562177196209</v>
+      </c>
+      <c r="GW3">
+        <v>0.099408892718529845</v>
+      </c>
+      <c r="GX3">
+        <v>0.11990928011808172</v>
+      </c>
+      <c r="GY3">
+        <v>0.068428109477008725</v>
+      </c>
+      <c r="GZ3">
+        <v>0.066677342002825324</v>
+      </c>
+      <c r="HA3">
+        <v>0.023502292254507992</v>
+      </c>
+      <c r="HB3">
+        <v>-0.028527780933807652</v>
+      </c>
+      <c r="HC3">
+        <v>-0.057329047128053347</v>
+      </c>
+      <c r="HD3">
+        <v>0.040477262904567574</v>
+      </c>
+      <c r="HE3">
+        <v>0.0014567848413332841</v>
+      </c>
+      <c r="HF3">
+        <v>0.060019306048735954</v>
+      </c>
+      <c r="HG3">
+        <v>0.063977166981577127</v>
+      </c>
+      <c r="HH3">
+        <v>-0.038267924054882906</v>
+      </c>
+      <c r="HI3">
+        <v>-0.015101132289418756</v>
+      </c>
+      <c r="HJ3">
+        <v>0.014096377132868012</v>
+      </c>
+      <c r="HK3">
+        <v>-0.007650524014389694</v>
+      </c>
+      <c r="HL3">
+        <v>0.058687931082046819</v>
+      </c>
+      <c r="HM3">
         <v>0</v>
       </c>
-      <c r="FP3">
+      <c r="HN3">
         <v>0</v>
       </c>
-      <c r="FQ3">
-        <v>-5.482399517500915</v>
+      <c r="HO3">
+        <v>-5.5940504573414813</v>
       </c>
     </row>
     <row r="4">
@@ -4248,520 +5484,670 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.050624404982286313</v>
+        <v>0.065857527443121816</v>
       </c>
       <c r="C4">
-        <v>0.047847711270109193</v>
+        <v>0.036383394800587512</v>
       </c>
       <c r="D4">
-        <v>0.03455159077264059</v>
+        <v>0.044640903246919848</v>
       </c>
       <c r="E4">
-        <v>0.072885576307028729</v>
+        <v>0.056319652919174894</v>
       </c>
       <c r="F4">
-        <v>0.029655967924909623</v>
+        <v>0.044036496073031992</v>
       </c>
       <c r="G4">
-        <v>0.061134394041441185</v>
+        <v>0.036773830908412498</v>
       </c>
       <c r="H4">
-        <v>0.024532106554354515</v>
+        <v>0.029260357754854839</v>
       </c>
       <c r="I4">
-        <v>0.028694065773642016</v>
+        <v>0.032142731014588949</v>
       </c>
       <c r="J4">
-        <v>0.030054846531752902</v>
+        <v>0.032308285588929231</v>
       </c>
       <c r="K4">
-        <v>0.053381249481163948</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.10532681262162119</v>
+        <v>0.083079970904616746</v>
       </c>
       <c r="M4">
-        <v>0.11179935305681844</v>
+        <v>0.080452248780528202</v>
       </c>
       <c r="N4">
-        <v>0.11622906835836851</v>
+        <v>0.081695084911743876</v>
       </c>
       <c r="O4">
-        <v>0.10165920149479508</v>
+        <v>0.080650478047298801</v>
       </c>
       <c r="P4">
-        <v>0.098747286111675089</v>
+        <v>0.08000258928751823</v>
       </c>
       <c r="Q4">
-        <v>0.1035925606934119</v>
+        <v>0.085386483495137042</v>
       </c>
       <c r="R4">
-        <v>0.10532681263212967</v>
+        <v>0.079691976633103609</v>
       </c>
       <c r="S4">
-        <v>0.10757507702520215</v>
+        <v>0.079330295752836663</v>
       </c>
       <c r="T4">
-        <v>0.099583544446844668</v>
+        <v>0.080321961930315044</v>
       </c>
       <c r="U4">
-        <v>0.10532681263764578</v>
+        <v>0.082522969020251705</v>
       </c>
       <c r="V4">
-        <v>0.097161406315842941</v>
+        <v>0.08252296903778511</v>
       </c>
       <c r="W4">
-        <v>0.10877521559785484</v>
+        <v>0.080386921065135494</v>
       </c>
       <c r="X4">
-        <v>0.093419480422307771</v>
+        <v>0.081407442073601732</v>
       </c>
       <c r="Y4">
-        <v>0.09958354445928437</v>
+        <v>0.080386921108807727</v>
       </c>
       <c r="Z4">
-        <v>0.10427205554473148</v>
+        <v>0.081126541883272577</v>
       </c>
       <c r="AA4">
-        <v>0.098747286138791135</v>
+        <v>0.078752788513227465</v>
       </c>
       <c r="AB4">
-        <v>0.10532681265182438</v>
+        <v>0.07804576081101243</v>
       </c>
       <c r="AC4">
-        <v>0.099583544468925422</v>
+        <v>0.078151491645838053</v>
       </c>
       <c r="AD4">
-        <v>0.099583544471493257</v>
+        <v>0.082679618721109849</v>
       </c>
       <c r="AE4">
-        <v>0.099301419462670307</v>
+        <v>0.077482830960887858</v>
       </c>
       <c r="AF4">
-        <v>0.10104744096233481</v>
+        <v>0.079095601997480225</v>
       </c>
       <c r="AG4">
-        <v>0.098206222629636838</v>
+        <v>0.083493289425740344</v>
       </c>
       <c r="AH4">
-        <v>0.095920834358776103</v>
+        <v>0.078752788702419321</v>
       </c>
       <c r="AI4">
-        <v>0.096163404901018629</v>
+        <v>0.078420583295152085</v>
       </c>
       <c r="AJ4">
-        <v>0.10393000840992564</v>
+        <v>0.079389761950450485</v>
       </c>
       <c r="AK4">
-        <v>0.098206222640949026</v>
+        <v>0.081266164630011281</v>
       </c>
       <c r="AL4">
-        <v>0.098475151305977435</v>
+        <v>0.080129266647417458</v>
       </c>
       <c r="AM4">
-        <v>0.10165920155036096</v>
+        <v>0.079877314327694487</v>
       </c>
       <c r="AN4">
-        <v>0.099583544497805029</v>
+        <v>0.080517949383558218</v>
       </c>
       <c r="AO4">
-        <v>0.10165920155511335</v>
+        <v>0.078922837480290789</v>
       </c>
       <c r="AP4">
-        <v>0.099869128945845362</v>
+        <v>0.079691977226727662</v>
       </c>
       <c r="AQ4">
-        <v>0.10568829224698562</v>
+        <v>0.079095602294523573</v>
       </c>
       <c r="AR4">
-        <v>0.099583544507829289</v>
+        <v>0.081550405783106419</v>
       </c>
       <c r="AS4">
-        <v>0.10461880256117297</v>
+        <v>0.078312119573356487</v>
       </c>
       <c r="AT4">
-        <v>0.099022688097124736</v>
+        <v>0.077734887783100531</v>
       </c>
       <c r="AU4">
-        <v>0.10074732413143753</v>
+        <v>0.080193138326281888</v>
       </c>
       <c r="AV4">
-        <v>0.10532681269382799</v>
+        <v>0.079691977394256902</v>
       </c>
       <c r="AW4">
-        <v>0.10568829225900149</v>
+        <v>0.07825830355798255</v>
       </c>
       <c r="AX4">
-        <v>0.097161406393763805</v>
+        <v>0.079753416886877954</v>
       </c>
       <c r="AY4">
-        <v>0.09474720453445408</v>
+        <v>0.080193138436723141</v>
       </c>
       <c r="AZ4">
-        <v>0.1019710023828577</v>
+        <v>0.078585392106800434</v>
       </c>
       <c r="BA4">
-        <v>0.10568829226771512</v>
+        <v>0.081196148744991689</v>
       </c>
       <c r="BB4">
-        <v>0.099583544533553461</v>
+        <v>0.078475236103712029</v>
       </c>
       <c r="BC4">
-        <v>0.097418088428334146</v>
+        <v>0.079095602651521144</v>
       </c>
       <c r="BD4">
-        <v>0.097677748296317965</v>
+        <v>0.080650479042954207</v>
       </c>
       <c r="BE4">
-        <v>0.10532681271338169</v>
+        <v>0.080065752086718428</v>
       </c>
       <c r="BF4">
-        <v>0.10642676694944364</v>
+        <v>0.078585392295732012</v>
       </c>
       <c r="BG4">
-        <v>0.10260685467223414</v>
+        <v>0.07853017161833134</v>
       </c>
       <c r="BH4">
-        <v>0.10260685467451021</v>
+        <v>0.081841514065418453</v>
       </c>
       <c r="BI4">
-        <v>0.099583544551765019</v>
+        <v>0.078366212743070041</v>
       </c>
       <c r="BJ4">
-        <v>0.10565971128706438</v>
+        <v>0.0792046405942467</v>
       </c>
       <c r="BK4">
-        <v>0.093982115232808083</v>
+        <v>0.081514742412345159</v>
       </c>
       <c r="BL4">
-        <v>0.10206552596722582</v>
+        <v>0.081092952208969893</v>
       </c>
       <c r="BM4">
-        <v>0.10601407385183777</v>
+        <v>0.079658024686211248</v>
       </c>
       <c r="BN4">
-        <v>0.10088060023633962</v>
+        <v>0.083024412095334149</v>
       </c>
       <c r="BO4">
-        <v>0.10477971951388906</v>
+        <v>0.083813430751466703</v>
       </c>
       <c r="BP4">
-        <v>0.10445045313179682</v>
+        <v>0.081292052205983747</v>
       </c>
       <c r="BQ4">
-        <v>0.10545139685563509</v>
+        <v>0.082759461355914166</v>
       </c>
       <c r="BR4">
-        <v>0.10049460395426302</v>
+        <v>0.086066195106773546</v>
       </c>
       <c r="BS4">
-        <v>0.10076135029952479</v>
+        <v>0.082742513541917695</v>
       </c>
       <c r="BT4">
-        <v>0.071178784848408005</v>
+        <v>0.083243278423529646</v>
       </c>
       <c r="BU4">
-        <v>0.062625852878131785</v>
+        <v>0.078005974630989197</v>
       </c>
       <c r="BV4">
-        <v>0.063158682501255961</v>
+        <v>0.077601635164349439</v>
       </c>
       <c r="BW4">
-        <v>0.061745092173597832</v>
+        <v>0.076708615963613613</v>
       </c>
       <c r="BX4">
-        <v>0.062158210312939187</v>
+        <v>0.075015711446430364</v>
       </c>
       <c r="BY4">
-        <v>0.06265096207706769</v>
+        <v>0.07788300721635974</v>
       </c>
       <c r="BZ4">
-        <v>0.061858083224426721</v>
+        <v>0.075858213264148891</v>
       </c>
       <c r="CA4">
-        <v>0.061927906420572366</v>
+        <v>0.075308050155864906</v>
       </c>
       <c r="CB4">
-        <v>0.062253198733218433</v>
+        <v>0.077029594557221082</v>
       </c>
       <c r="CC4">
-        <v>0.062985762575593338</v>
+        <v>0.075523127034744647</v>
       </c>
       <c r="CD4">
-        <v>0.065273131786272767</v>
+        <v>0.078363293687636129</v>
       </c>
       <c r="CE4">
-        <v>0.067184504993455324</v>
+        <v>0.080156530589494041</v>
       </c>
       <c r="CF4">
-        <v>0.068088493172832762</v>
+        <v>0.080120800981203874</v>
       </c>
       <c r="CG4">
-        <v>0.068441329980944626</v>
+        <v>0.079374216912588308</v>
       </c>
       <c r="CH4">
-        <v>0.070270509582134752</v>
+        <v>0.079979645235835506</v>
       </c>
       <c r="CI4">
-        <v>0.070311700487829962</v>
+        <v>0.078938916779034848</v>
       </c>
       <c r="CJ4">
-        <v>0.070391590244506863</v>
+        <v>0.080406554794863916</v>
       </c>
       <c r="CK4">
-        <v>0.070794115277379915</v>
+        <v>0.078373001181842983</v>
       </c>
       <c r="CL4">
-        <v>0.072069869340393139</v>
+        <v>0.081600493228977333</v>
       </c>
       <c r="CM4">
-        <v>0.071983882017144424</v>
+        <v>0.083099134492345822</v>
       </c>
       <c r="CN4">
-        <v>0.069235868352479232</v>
+        <v>0.082583369652745681</v>
       </c>
       <c r="CO4">
-        <v>0.061755674060984124</v>
+        <v>0.073791409039532602</v>
       </c>
       <c r="CP4">
-        <v>0.061853023311394438</v>
+        <v>0.07504781554950192</v>
       </c>
       <c r="CQ4">
-        <v>0.060123003020394611</v>
+        <v>0.074244627137337635</v>
       </c>
       <c r="CR4">
-        <v>0.060571273645886034</v>
+        <v>0.074154210356526265</v>
       </c>
       <c r="CS4">
-        <v>0.061016199511109953</v>
+        <v>0.074064995979704618</v>
       </c>
       <c r="CT4">
-        <v>0.059145881039183168</v>
+        <v>0.073024147636824091</v>
       </c>
       <c r="CU4">
-        <v>0.059568743558000431</v>
+        <v>0.07249420932560946</v>
       </c>
       <c r="CV4">
-        <v>0.060129798338158229</v>
+        <v>0.074115153910803588</v>
       </c>
       <c r="CW4">
-        <v>0.060520000508881747</v>
+        <v>0.075207688701594291</v>
       </c>
       <c r="CX4">
-        <v>0.060455975490972265</v>
+        <v>0.072753962939677952</v>
       </c>
       <c r="CY4">
-        <v>0.061036915642642145</v>
+        <v>0.072110059508879651</v>
       </c>
       <c r="CZ4">
-        <v>0.061539512301020761</v>
+        <v>0.07372934648740026</v>
       </c>
       <c r="DA4">
-        <v>0.061610545106876594</v>
+        <v>0.074347962320122751</v>
       </c>
       <c r="DB4">
-        <v>0.06205908747006484</v>
+        <v>0.07382883264189917</v>
       </c>
       <c r="DC4">
-        <v>0.062384006102494886</v>
+        <v>0.073879100879355022</v>
       </c>
       <c r="DD4">
-        <v>0.063030141056981584</v>
+        <v>0.073295342665969668</v>
       </c>
       <c r="DE4">
-        <v>0.063727364959144661</v>
+        <v>0.072471961540968452</v>
       </c>
       <c r="DF4">
-        <v>0.063696554803923888</v>
+        <v>0.073529797616715853</v>
       </c>
       <c r="DG4">
-        <v>0.063272395074624843</v>
+        <v>0.0728493085954805</v>
       </c>
       <c r="DH4">
-        <v>0.063420408298314399</v>
+        <v>0.074126622806947068</v>
       </c>
       <c r="DI4">
-        <v>0.061307689664268833</v>
+        <v>0.070837332613779613</v>
       </c>
       <c r="DJ4">
-        <v>0.060360740443275343</v>
+        <v>0.071257734883763565</v>
       </c>
       <c r="DK4">
-        <v>0.061522769460966395</v>
+        <v>0.070747243739779267</v>
       </c>
       <c r="DL4">
-        <v>0.061697157949700973</v>
+        <v>0.072514364452516883</v>
       </c>
       <c r="DM4">
-        <v>0.061368377846909711</v>
+        <v>0.070837333299934371</v>
       </c>
       <c r="DN4">
-        <v>0.06124760241508935</v>
+        <v>0.072514364748288609</v>
       </c>
       <c r="DO4">
-        <v>0.062817800016365596</v>
+        <v>0.071114800922783425</v>
       </c>
       <c r="DP4">
-        <v>0.062181326663716396</v>
+        <v>0.072457603616715327</v>
       </c>
       <c r="DQ4">
-        <v>0.062629695457991186</v>
+        <v>0.071306024596171733</v>
       </c>
       <c r="DR4">
-        <v>0.064657708154340757</v>
+        <v>0.072071609404476905</v>
       </c>
       <c r="DS4">
-        <v>0.064158407327745748</v>
+        <v>0.072923679360707414</v>
       </c>
       <c r="DT4">
-        <v>0.064204564655124682</v>
+        <v>0.073355198579928296</v>
       </c>
       <c r="DU4">
-        <v>0.064297739545511545</v>
+        <v>0.072018034799416777</v>
       </c>
       <c r="DV4">
-        <v>0.063415022505284691</v>
+        <v>0.072457604528598202</v>
       </c>
       <c r="DW4">
-        <v>0.063456701576654048</v>
+        <v>0.072514366111851941</v>
       </c>
       <c r="DX4">
-        <v>0.064392080426039541</v>
+        <v>0.072804544703044677</v>
       </c>
       <c r="DY4">
-        <v>0.063394275053956922</v>
+        <v>0.073945690967367805</v>
       </c>
       <c r="DZ4">
-        <v>0.064392080936284707</v>
+        <v>0.072514366572059036</v>
       </c>
       <c r="EA4">
-        <v>0.065087045556754958</v>
+        <v>0.072234652274724531</v>
       </c>
       <c r="EB4">
-        <v>0.064112535759940137</v>
+        <v>0.07387797830299464</v>
       </c>
       <c r="EC4">
-        <v>0.065165305834037887</v>
+        <v>0.071114803376614258</v>
       </c>
       <c r="ED4">
-        <v>0.063999073755014221</v>
+        <v>0.07228978613892964</v>
       </c>
       <c r="EE4">
-        <v>0.0641584103898067</v>
+        <v>0.072687181051080671</v>
       </c>
       <c r="EF4">
-        <v>0.065377831899700908</v>
+        <v>0.072234653151153461</v>
       </c>
       <c r="EG4">
-        <v>0.065963726355081576</v>
+        <v>0.07415214196874638</v>
       </c>
       <c r="EH4">
-        <v>0.066943419047640673</v>
+        <v>0.072923681701372228</v>
       </c>
       <c r="EI4">
-        <v>0.065350956895132609</v>
+        <v>0.072345320669863433</v>
       </c>
       <c r="EJ4">
-        <v>0.066318083533950023</v>
+        <v>0.072923682049385485</v>
       </c>
       <c r="EK4">
-        <v>0.065623816825922734</v>
+        <v>0.073105794908092436</v>
       </c>
       <c r="EL4">
-        <v>0.067443499810619173</v>
+        <v>0.072745645823810615</v>
       </c>
       <c r="EM4">
-        <v>0.065934862661346461</v>
+        <v>0.073044629417242893</v>
       </c>
       <c r="EN4">
-        <v>0.068847717511850495</v>
+        <v>0.073482829441792338</v>
       </c>
       <c r="EO4">
-        <v>0.068045799665527235</v>
+        <v>0.074152143221348443</v>
       </c>
       <c r="EP4">
-        <v>0.067864523662542198</v>
+        <v>0.074082768216879133</v>
       </c>
       <c r="EQ4">
-        <v>0.067206638631201923</v>
+        <v>0.075108400862291091</v>
       </c>
       <c r="ER4">
-        <v>0.067828690710694112</v>
+        <v>0.074013954217854672</v>
       </c>
       <c r="ES4">
-        <v>0.068768381504239959</v>
+        <v>0.072514369912827947</v>
       </c>
       <c r="ET4">
-        <v>0.066911063589932054</v>
+        <v>0.072804548459205573</v>
       </c>
       <c r="EU4">
-        <v>0.067307387845919012</v>
+        <v>0.074152144200666278</v>
       </c>
       <c r="EV4">
-        <v>0.070076034654419112</v>
+        <v>0.075505367451904601</v>
       </c>
       <c r="EW4">
-        <v>0.066814700181008532</v>
+        <v>0.074435394958199522</v>
       </c>
       <c r="EX4">
-        <v>0.067140100222483345</v>
+        <v>0.073167431804424671</v>
       </c>
       <c r="EY4">
-        <v>0.068967953769194817</v>
+        <v>0.074152144870096776</v>
       </c>
       <c r="EZ4">
-        <v>0.070678783348875757</v>
+        <v>0.073744171357839131</v>
       </c>
       <c r="FA4">
-        <v>0.071783762873089477</v>
+        <v>0.072983929516056714</v>
       </c>
       <c r="FB4">
-        <v>0.068887633180672536</v>
+        <v>0.075424580438325797</v>
       </c>
       <c r="FC4">
-        <v>0.067686738327538729</v>
+        <v>0.074878339021714146</v>
       </c>
       <c r="FD4">
-        <v>0.070442817298757232</v>
+        <v>0.076996854659959243</v>
       </c>
       <c r="FE4">
-        <v>0.068847720550941599</v>
+        <v>0.074802951692193392</v>
       </c>
       <c r="FF4">
-        <v>0.069592211584185479</v>
+        <v>0.075108403240898639</v>
       </c>
       <c r="FG4">
-        <v>0.069379731471854</v>
+        <v>0.073810811014657723</v>
       </c>
       <c r="FH4">
-        <v>0.069986342366605933</v>
+        <v>0.073292131231308982</v>
       </c>
       <c r="FI4">
-        <v>0.0670412172483663</v>
+        <v>0.073482833251456853</v>
       </c>
       <c r="FJ4">
-        <v>0.070349900610877633</v>
+        <v>0.073877984094673471</v>
       </c>
       <c r="FK4">
-        <v>0.069130606376178322</v>
+        <v>0.074082771942849734</v>
       </c>
       <c r="FL4">
-        <v>0.068807972269950196</v>
+        <v>0.074222090248652686</v>
       </c>
       <c r="FM4">
-        <v>0.067793000360452424</v>
+        <v>0.075586874435759843</v>
       </c>
       <c r="FN4">
-        <v>0.068768385541232019</v>
+        <v>0.075108404710741386</v>
       </c>
       <c r="FO4">
+        <v>0.074654078838086058</v>
+      </c>
+      <c r="FP4">
+        <v>0.078098503511379536</v>
+      </c>
+      <c r="FQ4">
+        <v>0.074292609090613151</v>
+      </c>
+      <c r="FR4">
+        <v>0.077188429608480005</v>
+      </c>
+      <c r="FS4">
+        <v>0.075344502107064018</v>
+      </c>
+      <c r="FT4">
+        <v>0.075186422537902947</v>
+      </c>
+      <c r="FU4">
+        <v>0.07969198772407593</v>
+      </c>
+      <c r="FV4">
+        <v>0.074728203444967903</v>
+      </c>
+      <c r="FW4">
+        <v>0.0769024410875008</v>
+      </c>
+      <c r="FX4">
+        <v>0.076265897523171769</v>
+      </c>
+      <c r="FY4">
+        <v>0.075752072560047859</v>
+      </c>
+      <c r="FZ4">
+        <v>0.076902441592196877</v>
+      </c>
+      <c r="GA4">
+        <v>0.078420595788177352</v>
+      </c>
+      <c r="GB4">
+        <v>0.076265898219220002</v>
+      </c>
+      <c r="GC4">
+        <v>0.076091499425863102</v>
+      </c>
+      <c r="GD4">
+        <v>0.077092184114804979</v>
+      </c>
+      <c r="GE4">
+        <v>0.077786066879732066</v>
+      </c>
+      <c r="GF4">
+        <v>0.078530184055786559</v>
+      </c>
+      <c r="GG4">
+        <v>0.07831213278900416</v>
+      </c>
+      <c r="GH4">
+        <v>0.075920253963027609</v>
+      </c>
+      <c r="GI4">
+        <v>0.077582921266059202</v>
+      </c>
+      <c r="GJ4">
+        <v>0.077092185140965108</v>
+      </c>
+      <c r="GK4">
+        <v>0.078980134062990648</v>
+      </c>
+      <c r="GL4">
+        <v>0.077482846221972421</v>
+      </c>
+      <c r="GM4">
+        <v>0.078865869855390139</v>
+      </c>
+      <c r="GN4">
+        <v>0.076178301372924348</v>
+      </c>
+      <c r="GO4">
+        <v>0.075669109717623487</v>
+      </c>
+      <c r="GP4">
+        <v>0.07944956378404347</v>
+      </c>
+      <c r="GQ4">
+        <v>0.078752803467663141</v>
+      </c>
+      <c r="GR4">
+        <v>0.078980135192220968</v>
+      </c>
+      <c r="GS4">
+        <v>0.078752803789908607</v>
+      </c>
+      <c r="GT4">
+        <v>0.07709218697101157</v>
+      </c>
+      <c r="GU4">
+        <v>0.078098508485200155</v>
+      </c>
+      <c r="GV4">
+        <v>0.07864091564604847</v>
+      </c>
+      <c r="GW4">
+        <v>0.077285618219540719</v>
+      </c>
+      <c r="GX4">
+        <v>0.076996862504166791</v>
+      </c>
+      <c r="GY4">
+        <v>0.077993312575940874</v>
+      </c>
+      <c r="GZ4">
+        <v>0.078098509436783287</v>
+      </c>
+      <c r="HA4">
+        <v>0.078980136773571727</v>
+      </c>
+      <c r="HB4">
+        <v>0.080065766817507641</v>
+      </c>
+      <c r="HC4">
+        <v>0.080717329230110921</v>
+      </c>
+      <c r="HD4">
+        <v>0.078865872791811995</v>
+      </c>
+      <c r="HE4">
+        <v>0.079691993233980671</v>
+      </c>
+      <c r="HF4">
+        <v>0.078640917466476057</v>
+      </c>
+      <c r="HG4">
+        <v>0.078640917660849199</v>
+      </c>
+      <c r="HH4">
+        <v>0.080717330044263569</v>
+      </c>
+      <c r="HI4">
+        <v>0.080321978513231751</v>
+      </c>
+      <c r="HJ4">
+        <v>0.079815211516943027</v>
+      </c>
+      <c r="HK4">
+        <v>0.08032197885052475</v>
+      </c>
+      <c r="HL4">
+        <v>0.079095620178328885</v>
+      </c>
+      <c r="HM4">
         <v>0</v>
       </c>
-      <c r="FP4">
+      <c r="HN4">
         <v>0</v>
       </c>
-      <c r="FQ4">
-        <v>0.048970245986985787</v>
+      <c r="HO4">
+        <v>0.0567962161721563</v>
       </c>
     </row>
   </sheetData>
@@ -4770,7 +6156,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FQ4"/>
+  <dimension ref="A1:HO4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5293,6 +6679,156 @@
       <c r="FQ1" t="s">
         <v>1</v>
       </c>
+      <c r="FR1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FT1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FW1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FY1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FZ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GA1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GF1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GG1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GH1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GI1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GJ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GK1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GL1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GM1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GN1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GO1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GP1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GQ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GR1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GS1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GT1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GU1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GV1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GW1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GX1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GY1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GZ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HA1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HB1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HC1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HD1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HE1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HF1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HG1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HH1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HI1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HJ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HK1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HL1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HM1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HN1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HO1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="B2" t="s">
@@ -5302,16 +6838,16 @@
         <v>176</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
         <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
@@ -5323,7 +6859,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
@@ -5803,12 +7339,162 @@
         <v>170</v>
       </c>
       <c r="FO2" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="FP2" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="FQ2" t="s">
+        <v>189</v>
+      </c>
+      <c r="FR2" t="s">
+        <v>190</v>
+      </c>
+      <c r="FS2" t="s">
+        <v>191</v>
+      </c>
+      <c r="FT2" t="s">
+        <v>192</v>
+      </c>
+      <c r="FU2" t="s">
+        <v>193</v>
+      </c>
+      <c r="FV2" t="s">
+        <v>194</v>
+      </c>
+      <c r="FW2" t="s">
+        <v>195</v>
+      </c>
+      <c r="FX2" t="s">
+        <v>196</v>
+      </c>
+      <c r="FY2" t="s">
+        <v>197</v>
+      </c>
+      <c r="FZ2" t="s">
+        <v>198</v>
+      </c>
+      <c r="GA2" t="s">
+        <v>199</v>
+      </c>
+      <c r="GB2" t="s">
+        <v>200</v>
+      </c>
+      <c r="GC2" t="s">
+        <v>201</v>
+      </c>
+      <c r="GD2" t="s">
+        <v>202</v>
+      </c>
+      <c r="GE2" t="s">
+        <v>203</v>
+      </c>
+      <c r="GF2" t="s">
+        <v>204</v>
+      </c>
+      <c r="GG2" t="s">
+        <v>205</v>
+      </c>
+      <c r="GH2" t="s">
+        <v>206</v>
+      </c>
+      <c r="GI2" t="s">
+        <v>207</v>
+      </c>
+      <c r="GJ2" t="s">
+        <v>208</v>
+      </c>
+      <c r="GK2" t="s">
+        <v>209</v>
+      </c>
+      <c r="GL2" t="s">
+        <v>210</v>
+      </c>
+      <c r="GM2" t="s">
+        <v>211</v>
+      </c>
+      <c r="GN2" t="s">
+        <v>212</v>
+      </c>
+      <c r="GO2" t="s">
+        <v>213</v>
+      </c>
+      <c r="GP2" t="s">
+        <v>214</v>
+      </c>
+      <c r="GQ2" t="s">
+        <v>215</v>
+      </c>
+      <c r="GR2" t="s">
+        <v>216</v>
+      </c>
+      <c r="GS2" t="s">
+        <v>217</v>
+      </c>
+      <c r="GT2" t="s">
+        <v>218</v>
+      </c>
+      <c r="GU2" t="s">
+        <v>219</v>
+      </c>
+      <c r="GV2" t="s">
+        <v>220</v>
+      </c>
+      <c r="GW2" t="s">
+        <v>221</v>
+      </c>
+      <c r="GX2" t="s">
+        <v>222</v>
+      </c>
+      <c r="GY2" t="s">
+        <v>223</v>
+      </c>
+      <c r="GZ2" t="s">
+        <v>224</v>
+      </c>
+      <c r="HA2" t="s">
+        <v>225</v>
+      </c>
+      <c r="HB2" t="s">
+        <v>226</v>
+      </c>
+      <c r="HC2" t="s">
+        <v>227</v>
+      </c>
+      <c r="HD2" t="s">
+        <v>228</v>
+      </c>
+      <c r="HE2" t="s">
+        <v>229</v>
+      </c>
+      <c r="HF2" t="s">
+        <v>230</v>
+      </c>
+      <c r="HG2" t="s">
+        <v>231</v>
+      </c>
+      <c r="HH2" t="s">
+        <v>232</v>
+      </c>
+      <c r="HI2" t="s">
+        <v>233</v>
+      </c>
+      <c r="HJ2" t="s">
+        <v>234</v>
+      </c>
+      <c r="HK2" t="s">
+        <v>235</v>
+      </c>
+      <c r="HL2" t="s">
+        <v>236</v>
+      </c>
+      <c r="HM2" t="s">
+        <v>237</v>
+      </c>
+      <c r="HN2" t="s">
+        <v>238</v>
+      </c>
+      <c r="HO2" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5817,520 +7503,670 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>4.9793470820584229</v>
+        <v>4.5506121915916236</v>
       </c>
       <c r="C3">
-        <v>-0.98351767492526065</v>
+        <v>-1.007719943821725</v>
       </c>
       <c r="D3">
-        <v>0.70488752943479072</v>
+        <v>-1.0341649250222484</v>
       </c>
       <c r="E3">
-        <v>-1.1272263950479229</v>
+        <v>-0.91218946083919006</v>
       </c>
       <c r="F3">
-        <v>0.60169087509514485</v>
+        <v>0.55798118186429102</v>
       </c>
       <c r="G3">
-        <v>-1.0710493357605828</v>
+        <v>0.61866444375782803</v>
       </c>
       <c r="H3">
-        <v>0.56118830567868727</v>
+        <v>0.55995996982196816</v>
       </c>
       <c r="I3">
-        <v>0.24852976652456205</v>
+        <v>0.23913346852302192</v>
       </c>
       <c r="J3">
-        <v>0.29994486258038661</v>
+        <v>0.29610015858234179</v>
       </c>
       <c r="K3">
-        <v>1.0462977762558678</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>-1.8278036233304757</v>
+        <v>-2.0154702927184598</v>
       </c>
       <c r="M3">
-        <v>-1.8712194955483354</v>
+        <v>-1.8326032978668285</v>
       </c>
       <c r="N3">
-        <v>-1.9166944722824748</v>
+        <v>-1.8136532909173748</v>
       </c>
       <c r="O3">
-        <v>-1.8173260599070473</v>
+        <v>-1.8314012022553769</v>
       </c>
       <c r="P3">
-        <v>-1.7267731911764064</v>
+        <v>-1.5499950887312188</v>
       </c>
       <c r="Q3">
-        <v>-1.7823045124406631</v>
+        <v>-1.7847449385511795</v>
       </c>
       <c r="R3">
-        <v>-1.87695705809075</v>
+        <v>-1.5987897273756864</v>
       </c>
       <c r="S3">
-        <v>-1.7484542042150146</v>
+        <v>-1.7745548088861163</v>
       </c>
       <c r="T3">
-        <v>-1.8224907247089297</v>
+        <v>-1.6658992294944452</v>
       </c>
       <c r="U3">
-        <v>-1.970294575106228</v>
+        <v>-1.8273043424553443</v>
       </c>
       <c r="V3">
-        <v>-1.7385377412806302</v>
+        <v>-1.8838808727723539</v>
       </c>
       <c r="W3">
-        <v>-2.0308965146932296</v>
+        <v>-1.8261402301669798</v>
       </c>
       <c r="X3">
-        <v>-1.4920580525873581</v>
+        <v>-1.9538314320339707</v>
       </c>
       <c r="Y3">
-        <v>-1.7935380571064401</v>
+        <v>-1.6787839111181382</v>
       </c>
       <c r="Z3">
-        <v>-1.8535014581111593</v>
+        <v>-1.6780895283129003</v>
       </c>
       <c r="AA3">
-        <v>-1.6660180270168865</v>
+        <v>-1.6854296157672612</v>
       </c>
       <c r="AB3">
-        <v>-1.8431941248955632</v>
+        <v>-1.5351524378011712</v>
       </c>
       <c r="AC3">
-        <v>-1.6353851319494608</v>
+        <v>-1.6366686030172743</v>
       </c>
       <c r="AD3">
-        <v>-1.5923100388254703</v>
+        <v>-1.6282786806364282</v>
       </c>
       <c r="AE3">
-        <v>-1.7807907209391678</v>
+        <v>-1.6824835967899878</v>
       </c>
       <c r="AF3">
-        <v>-1.7233852278356632</v>
+        <v>-1.650031915920338</v>
       </c>
       <c r="AG3">
-        <v>-1.7148083749123895</v>
+        <v>-1.8192721702749459</v>
       </c>
       <c r="AH3">
-        <v>-1.5962421470521939</v>
+        <v>-1.633204115782704</v>
       </c>
       <c r="AI3">
-        <v>-1.6379891444509278</v>
+        <v>-1.4960123383619612</v>
       </c>
       <c r="AJ3">
-        <v>-1.5405259334081267</v>
+        <v>-1.7370405965697129</v>
       </c>
       <c r="AK3">
-        <v>-1.7194140864828122</v>
+        <v>-1.7800745915964979</v>
       </c>
       <c r="AL3">
-        <v>-1.6069970527213173</v>
+        <v>-1.71043182611494</v>
       </c>
       <c r="AM3">
-        <v>-1.758039884710209</v>
+        <v>-1.701457474761112</v>
       </c>
       <c r="AN3">
-        <v>-1.6413306852016873</v>
+        <v>-1.6061864015829095</v>
       </c>
       <c r="AO3">
-        <v>-1.640537369771675</v>
+        <v>-1.5757966807641306</v>
       </c>
       <c r="AP3">
-        <v>-1.5829674112225491</v>
+        <v>-1.5897387136985701</v>
       </c>
       <c r="AQ3">
-        <v>-1.8227516492426203</v>
+        <v>-1.524415798230214</v>
       </c>
       <c r="AR3">
-        <v>-1.6529526929238878</v>
+        <v>-1.7228073372479857</v>
       </c>
       <c r="AS3">
-        <v>-1.6374565879389891</v>
+        <v>-1.6099861316029134</v>
       </c>
       <c r="AT3">
-        <v>-1.5459680121800801</v>
+        <v>-1.4485542331913641</v>
       </c>
       <c r="AU3">
-        <v>-1.7355246998730876</v>
+        <v>-1.5933245828273574</v>
       </c>
       <c r="AV3">
-        <v>-1.6798665758115365</v>
+        <v>-1.548748658705704</v>
       </c>
       <c r="AW3">
-        <v>-1.6343021669123252</v>
+        <v>-1.6454498870490513</v>
       </c>
       <c r="AX3">
-        <v>-1.6631467219999236</v>
+        <v>-1.5762387056785545</v>
       </c>
       <c r="AY3">
-        <v>-1.6400560155395809</v>
+        <v>-1.7090488182342169</v>
       </c>
       <c r="AZ3">
-        <v>-1.7561698602316087</v>
+        <v>-1.5457967352431174</v>
       </c>
       <c r="BA3">
-        <v>-1.8150752080587331</v>
+        <v>-1.603866724556207</v>
       </c>
       <c r="BB3">
-        <v>-1.50706181449286</v>
+        <v>-1.7152753127313911</v>
       </c>
       <c r="BC3">
-        <v>-1.7374889364191215</v>
+        <v>-1.5293952615486659</v>
       </c>
       <c r="BD3">
-        <v>-1.7286682370586355</v>
+        <v>-1.6402715368031033</v>
       </c>
       <c r="BE3">
-        <v>-1.7442076793844952</v>
+        <v>-1.6474579025726752</v>
       </c>
       <c r="BF3">
-        <v>-1.5367955107424018</v>
+        <v>-1.4723197466430185</v>
       </c>
       <c r="BG3">
-        <v>-1.726344851176423</v>
+        <v>-1.5333670894889466</v>
       </c>
       <c r="BH3">
-        <v>-1.7667889865792163</v>
+        <v>-1.7022630672538588</v>
       </c>
       <c r="BI3">
-        <v>-1.7577180501971619</v>
+        <v>-1.6208673770127597</v>
       </c>
       <c r="BJ3">
-        <v>-1.6616664190471848</v>
+        <v>-1.1238841789665939</v>
       </c>
       <c r="BK3">
-        <v>-1.6533389275317758</v>
+        <v>-1.0956508598849477</v>
       </c>
       <c r="BL3">
-        <v>-1.7722638178187899</v>
+        <v>-1.1575484958567006</v>
       </c>
       <c r="BM3">
-        <v>-1.8417957572885042</v>
+        <v>-1.1567182324193064</v>
       </c>
       <c r="BN3">
-        <v>-1.796680069905076</v>
+        <v>-1.1275291564841361</v>
       </c>
       <c r="BO3">
-        <v>-1.7451247946485586</v>
+        <v>-1.1624851440078983</v>
       </c>
       <c r="BP3">
-        <v>-1.5633955596304923</v>
+        <v>-1.2454175501183062</v>
       </c>
       <c r="BQ3">
-        <v>-1.7602251079046733</v>
+        <v>-1.2057549429808736</v>
       </c>
       <c r="BR3">
-        <v>-1.6788022291560352</v>
+        <v>-1.2014419726729144</v>
       </c>
       <c r="BS3">
-        <v>-1.8194020140896294</v>
+        <v>-1.2229806135801822</v>
       </c>
       <c r="BT3">
-        <v>-1.6099062273972904</v>
+        <v>-0.86367954305619155</v>
       </c>
       <c r="BU3">
-        <v>-1.4063505267247909</v>
+        <v>-0.78143337577801775</v>
       </c>
       <c r="BV3">
-        <v>-1.683337243260991</v>
+        <v>-0.77598508785373921</v>
       </c>
       <c r="BW3">
-        <v>-1.7471388811162489</v>
+        <v>-0.82109506368425345</v>
       </c>
       <c r="BX3">
-        <v>-1.7977363908626929</v>
+        <v>-0.71740674426832263</v>
       </c>
       <c r="BY3">
-        <v>-1.8237351554098622</v>
+        <v>-0.89146778260162607</v>
       </c>
       <c r="BZ3">
-        <v>-1.8052105821225286</v>
+        <v>-0.81282607512431659</v>
       </c>
       <c r="CA3">
-        <v>-1.7116106811237009</v>
+        <v>-0.82431484158400326</v>
       </c>
       <c r="CB3">
-        <v>-1.7604860676664404</v>
+        <v>-0.88360579305762088</v>
       </c>
       <c r="CC3">
-        <v>-1.7597818968581038</v>
+        <v>-0.80494622343699684</v>
       </c>
       <c r="CD3">
-        <v>-1.767590907138362</v>
+        <v>-0.55377270441467019</v>
       </c>
       <c r="CE3">
-        <v>-1.7007280027313163</v>
+        <v>-0.3046454532764602</v>
       </c>
       <c r="CF3">
-        <v>-1.7408174077387384</v>
+        <v>-0.31347151430509568</v>
       </c>
       <c r="CG3">
-        <v>-1.7826738296267743</v>
+        <v>-0.31038169657450254</v>
       </c>
       <c r="CH3">
-        <v>-1.9118386718828466</v>
+        <v>-0.29240089269981134</v>
       </c>
       <c r="CI3">
-        <v>-1.7901165323162453</v>
+        <v>-0.24491186669304649</v>
       </c>
       <c r="CJ3">
-        <v>-1.7549347512643825</v>
+        <v>-0.3371760544921763</v>
       </c>
       <c r="CK3">
-        <v>-1.688605358864242</v>
+        <v>-0.18647303934132167</v>
       </c>
       <c r="CL3">
-        <v>-1.7201215686638009</v>
+        <v>-0.29742418632960615</v>
       </c>
       <c r="CM3">
-        <v>-1.5261189739709471</v>
+        <v>-0.43273129615175759</v>
       </c>
       <c r="CN3">
-        <v>-1.3388854093996885</v>
+        <v>-0.56847607512339504</v>
       </c>
       <c r="CO3">
-        <v>-1.24430392495565</v>
+        <v>-0.12398541602341159</v>
       </c>
       <c r="CP3">
-        <v>-1.4686038870156388</v>
+        <v>-0.2307383365860293</v>
       </c>
       <c r="CQ3">
-        <v>-1.2731739966134694</v>
+        <v>-0.29830876778532422</v>
       </c>
       <c r="CR3">
-        <v>-1.3524594542286084</v>
+        <v>-0.28701780778689112</v>
       </c>
       <c r="CS3">
-        <v>-1.4715186941479257</v>
+        <v>-0.27573512393804656</v>
       </c>
       <c r="CT3">
-        <v>-1.3277441233308909</v>
+        <v>-0.24488694137779346</v>
       </c>
       <c r="CU3">
-        <v>-1.2782070259978338</v>
+        <v>-0.19776821649552231</v>
       </c>
       <c r="CV3">
-        <v>-1.2553086972156076</v>
+        <v>-0.32084939833970677</v>
       </c>
       <c r="CW3">
-        <v>-1.5990059731091042</v>
+        <v>-0.39598739609357753</v>
       </c>
       <c r="CX3">
-        <v>-0.97016406894685003</v>
+        <v>-0.207713366599069</v>
       </c>
       <c r="CY3">
-        <v>-0.99379885022460268</v>
+        <v>0.057808197581879994</v>
       </c>
       <c r="CZ3">
-        <v>-0.99708152550577611</v>
+        <v>-0.070085550785954923</v>
       </c>
       <c r="DA3">
-        <v>-0.89527188262464896</v>
+        <v>-0.11311538530503482</v>
       </c>
       <c r="DB3">
-        <v>-0.91347131514009561</v>
+        <v>-0.070040936485260885</v>
       </c>
       <c r="DC3">
-        <v>-0.89267308864921702</v>
+        <v>-0.069957567285334823</v>
       </c>
       <c r="DD3">
-        <v>-0.91804220940343095</v>
+        <v>-0.049211153501712401</v>
       </c>
       <c r="DE3">
-        <v>-0.98020033418679609</v>
+        <v>0.022615993985417387</v>
       </c>
       <c r="DF3">
-        <v>-0.96768577169463477</v>
+        <v>-0.059173017882009619</v>
       </c>
       <c r="DG3">
-        <v>-0.820298272408996</v>
+        <v>-0.00027969681184424739</v>
       </c>
       <c r="DH3">
-        <v>-0.54083172640765198</v>
+        <v>-0.096763918220204817</v>
       </c>
       <c r="DI3">
-        <v>-0.44626999848275101</v>
+        <v>0.15630782844791313</v>
       </c>
       <c r="DJ3">
-        <v>-0.2567369707079295</v>
+        <v>0.12780623354808754</v>
       </c>
       <c r="DK3">
-        <v>-0.39633013232415221</v>
+        <v>0.17206158934729254</v>
       </c>
       <c r="DL3">
-        <v>-0.32674297909106997</v>
+        <v>0.043189872549611458</v>
       </c>
       <c r="DM3">
-        <v>-0.28191525604914036</v>
+        <v>0.17322373239589622</v>
       </c>
       <c r="DN3">
-        <v>-0.31981686150055938</v>
+        <v>0.051513696123395979</v>
       </c>
       <c r="DO3">
-        <v>-0.4078267408129711</v>
+        <v>0.15979433044723718</v>
       </c>
       <c r="DP3">
-        <v>-0.29933871161670506</v>
+        <v>0.06387589907991803</v>
       </c>
       <c r="DQ3">
-        <v>-0.33263091481224866</v>
+        <v>0.15334968376916394</v>
       </c>
       <c r="DR3">
-        <v>-0.75266520606926557</v>
+        <v>0.10019685573437667</v>
       </c>
       <c r="DS3">
-        <v>-0.48118761256954634</v>
+        <v>0.043324518356587877</v>
       </c>
       <c r="DT3">
-        <v>-0.46030073064297156</v>
+        <v>0.01743336260794702</v>
       </c>
       <c r="DU3">
-        <v>-0.35934698219488387</v>
+        <v>0.1159406898459633</v>
       </c>
       <c r="DV3">
-        <v>-0.25755072706485205</v>
+        <v>0.088185566210152694</v>
       </c>
       <c r="DW3">
-        <v>-0.27187524518337397</v>
+        <v>0.088191650984965259</v>
       </c>
       <c r="DX3">
-        <v>-0.30413611221183773</v>
+        <v>0.07168671496236409</v>
       </c>
       <c r="DY3">
-        <v>-0.21108680539104016</v>
+        <v>-0.0020840679297030934</v>
       </c>
       <c r="DZ3">
-        <v>-0.27539609296919121</v>
+        <v>0.099987212075077214</v>
       </c>
       <c r="EA3">
-        <v>-0.32397012985990192</v>
+        <v>0.12427021195818988</v>
       </c>
       <c r="EB3">
-        <v>-0.21680735491116254</v>
+        <v>0.014456598310827753</v>
       </c>
       <c r="EC3">
-        <v>-0.1154045244647587</v>
+        <v>0.21647860717392692</v>
       </c>
       <c r="ED3">
-        <v>-0.0019354308502881415</v>
+        <v>0.13290171484979854</v>
       </c>
       <c r="EE3">
-        <v>-0.019703513211169105</v>
+        <v>0.10870015306381872</v>
       </c>
       <c r="EF3">
-        <v>-0.11860544215276325</v>
+        <v>0.14531600811260117</v>
       </c>
       <c r="EG3">
-        <v>-0.12286911700447978</v>
+        <v>0.017534528044259996</v>
       </c>
       <c r="EH3">
-        <v>-0.21797769622694127</v>
+        <v>0.1043277811291571</v>
       </c>
       <c r="EI3">
-        <v>-0.090549390853641706</v>
+        <v>0.14954153343209334</v>
       </c>
       <c r="EJ3">
-        <v>-0.16102925510915453</v>
+        <v>0.11279427222393765</v>
       </c>
       <c r="EK3">
-        <v>-0.1063894166494584</v>
+        <v>0.10430904109649088</v>
       </c>
       <c r="EL3">
-        <v>-0.23351553061636943</v>
+        <v>0.13360520635033571</v>
       </c>
       <c r="EM3">
-        <v>0.0670354082476496</v>
+        <v>0.11694418318043125</v>
       </c>
       <c r="EN3">
-        <v>-0.12692620771033342</v>
+        <v>0.09109144195951871</v>
       </c>
       <c r="EO3">
-        <v>-0.069933630773713132</v>
+        <v>0.050633648177224953</v>
       </c>
       <c r="EP3">
-        <v>-0.033560520658252192</v>
+        <v>0.059098558447595394</v>
       </c>
       <c r="EQ3">
-        <v>-0.011457879112882487</v>
+        <v>-0.0025167856418733376</v>
       </c>
       <c r="ER3">
-        <v>-0.039360021585726108</v>
+        <v>0.071294412827898765</v>
       </c>
       <c r="ES3">
-        <v>-0.097608216489299487</v>
+        <v>0.17816852761811205</v>
       </c>
       <c r="ET3">
-        <v>0.048511621781906468</v>
+        <v>0.16204381373183865</v>
       </c>
       <c r="EU3">
-        <v>0.017957874525090595</v>
+        <v>0.075066668945282952</v>
       </c>
       <c r="EV3">
-        <v>-0.14122053234299431</v>
+        <v>-0.0064400937423355707</v>
       </c>
       <c r="EW3">
-        <v>0.051954303034806172</v>
+        <v>0.064402247250808065</v>
       </c>
       <c r="EX3">
-        <v>0.051946418373870817</v>
+        <v>0.15286007941019802</v>
       </c>
       <c r="EY3">
-        <v>-0.063384230793353646</v>
+        <v>0.09110674234148633</v>
       </c>
       <c r="EZ3">
-        <v>-0.16237724870742268</v>
+        <v>0.1221531552381524</v>
       </c>
       <c r="FA3">
-        <v>-0.21455554573047972</v>
+        <v>0.17821317418150248</v>
       </c>
       <c r="FB3">
-        <v>-0.038182038220429995</v>
+        <v>0.023275269855799165</v>
       </c>
       <c r="FC3">
-        <v>0.044490105217893386</v>
+        <v>0.061057606597800337</v>
       </c>
       <c r="FD3">
-        <v>-0.11537307365621349</v>
+        <v>-0.061968684366558634</v>
       </c>
       <c r="FE3">
-        <v>-0.026291169926803651</v>
+        <v>0.073283057293077769</v>
       </c>
       <c r="FF3">
-        <v>-0.061593713927141427</v>
+        <v>0.058116386705003333</v>
       </c>
       <c r="FG3">
-        <v>-0.047767636195261018</v>
+        <v>0.14562066197106943</v>
       </c>
       <c r="FH3">
-        <v>-0.068969957574906274</v>
+        <v>0.18494800599655487</v>
       </c>
       <c r="FI3">
-        <v>0.11586637210781374</v>
+        <v>0.17644558465907698</v>
       </c>
       <c r="FJ3">
-        <v>-0.081089444610816672</v>
+        <v>0.15440174843047255</v>
       </c>
       <c r="FK3">
-        <v>-0.0023123040600082616</v>
+        <v>0.14523962470769713</v>
       </c>
       <c r="FL3">
-        <v>0.0017801067314641601</v>
+        <v>0.14043977879286507</v>
       </c>
       <c r="FM3">
-        <v>0.075671722333134905</v>
+        <v>0.058786064837475359</v>
       </c>
       <c r="FN3">
-        <v>0.034117605160838983</v>
+        <v>0.09221212065920141</v>
       </c>
       <c r="FO3">
+        <v>0.12493255320490908</v>
+      </c>
+      <c r="FP3">
+        <v>-0.073468381279196596</v>
+      </c>
+      <c r="FQ3">
+        <v>0.15587300759665712</v>
+      </c>
+      <c r="FR3">
+        <v>-0.015129938937181391</v>
+      </c>
+      <c r="FS3">
+        <v>0.09738600942141834</v>
+      </c>
+      <c r="FT3">
+        <v>0.11127125674844815</v>
+      </c>
+      <c r="FU3">
+        <v>-0.13773128661497644</v>
+      </c>
+      <c r="FV3">
+        <v>0.14745696721053789</v>
+      </c>
+      <c r="FW3">
+        <v>0.020671836205784236</v>
+      </c>
+      <c r="FX3">
+        <v>0.061492041978818045</v>
+      </c>
+      <c r="FY3">
+        <v>0.096132202687641929</v>
+      </c>
+      <c r="FZ3">
+        <v>0.032543269056795755</v>
+      </c>
+      <c r="GA3">
+        <v>-0.047845196906663126</v>
+      </c>
+      <c r="GB3">
+        <v>0.076963123146060367</v>
+      </c>
+      <c r="GC3">
+        <v>0.091319051558276229</v>
+      </c>
+      <c r="GD3">
+        <v>0.037223637923180848</v>
+      </c>
+      <c r="GE3">
+        <v>0.0022322807468487778</v>
+      </c>
+      <c r="GF3">
+        <v>-0.034457886130865145</v>
+      </c>
+      <c r="GG3">
+        <v>-0.019140193599039092</v>
+      </c>
+      <c r="GH3">
+        <v>0.12049171900282821</v>
+      </c>
+      <c r="GI3">
+        <v>0.028686148059906765</v>
+      </c>
+      <c r="GJ3">
+        <v>0.060125379415666418</v>
+      </c>
+      <c r="GK3">
+        <v>-0.039058528532548362</v>
+      </c>
+      <c r="GL3">
+        <v>0.045645985843237959</v>
+      </c>
+      <c r="GM3">
+        <v>-0.025557104495617457</v>
+      </c>
+      <c r="GN3">
+        <v>0.12823452133832433</v>
+      </c>
+      <c r="GO3">
+        <v>0.16299736094581127</v>
+      </c>
+      <c r="GP3">
+        <v>-0.043753819590574373</v>
+      </c>
+      <c r="GQ3">
+        <v>-0.0037528825754064138</v>
+      </c>
+      <c r="GR3">
+        <v>-0.012038358162929783</v>
+      </c>
+      <c r="GS3">
+        <v>0.0036422750108933699</v>
+      </c>
+      <c r="GT3">
+        <v>0.098533249996430969</v>
+      </c>
+      <c r="GU3">
+        <v>0.046654223392308382</v>
+      </c>
+      <c r="GV3">
+        <v>0.021346562177193287</v>
+      </c>
+      <c r="GW3">
+        <v>0.099408892718527264</v>
+      </c>
+      <c r="GX3">
+        <v>0.11990928011807941</v>
+      </c>
+      <c r="GY3">
+        <v>0.068428109477005672</v>
+      </c>
+      <c r="GZ3">
+        <v>0.066677342002821591</v>
+      </c>
+      <c r="HA3">
+        <v>0.02350229225450557</v>
+      </c>
+      <c r="HB3">
+        <v>-0.028527780933810712</v>
+      </c>
+      <c r="HC3">
+        <v>-0.057329047128056546</v>
+      </c>
+      <c r="HD3">
+        <v>0.040477262904563709</v>
+      </c>
+      <c r="HE3">
+        <v>0.001456784841329781</v>
+      </c>
+      <c r="HF3">
+        <v>0.060019306048732478</v>
+      </c>
+      <c r="HG3">
+        <v>0.063977166981573422</v>
+      </c>
+      <c r="HH3">
+        <v>-0.038267924054886222</v>
+      </c>
+      <c r="HI3">
+        <v>-0.015101132289422049</v>
+      </c>
+      <c r="HJ3">
+        <v>0.014096377132864976</v>
+      </c>
+      <c r="HK3">
+        <v>-0.0076505240143929822</v>
+      </c>
+      <c r="HL3">
+        <v>0.05868793108204326</v>
+      </c>
+      <c r="HM3">
         <v>0</v>
       </c>
-      <c r="FP3">
+      <c r="HN3">
         <v>0</v>
       </c>
-      <c r="FQ3">
-        <v>-5.4983556461683536</v>
+      <c r="HO3">
+        <v>-5.5940504573414778</v>
       </c>
     </row>
     <row r="4">
@@ -6338,520 +8174,670 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.062839411355054164</v>
+        <v>0.058758277591179131</v>
       </c>
       <c r="C4">
-        <v>0.052742463300698234</v>
+        <v>0.051375617742664109</v>
       </c>
       <c r="D4">
-        <v>0.052593580703810663</v>
+        <v>0.063143036457700044</v>
       </c>
       <c r="E4">
-        <v>0.083922597091628456</v>
+        <v>0.077269918945487848</v>
       </c>
       <c r="F4">
-        <v>0.040920711493368421</v>
+        <v>0.046977716596180649</v>
       </c>
       <c r="G4">
-        <v>0.066475914565717095</v>
+        <v>0.039597160001713268</v>
       </c>
       <c r="H4">
-        <v>0.032477808667227964</v>
+        <v>0.031777800735372529</v>
       </c>
       <c r="I4">
-        <v>0.036086166977852496</v>
+        <v>0.035048873656458639</v>
       </c>
       <c r="J4">
-        <v>0.037040677383388169</v>
+        <v>0.03421247135587524</v>
       </c>
       <c r="K4">
-        <v>0.054063168690090917</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.10516519273212069</v>
+        <v>0.11973688450144047</v>
       </c>
       <c r="M4">
-        <v>0.10699550038760398</v>
+        <v>0.11173660861178207</v>
       </c>
       <c r="N4">
-        <v>0.10896325227001388</v>
+        <v>0.11098071697871138</v>
       </c>
       <c r="O4">
-        <v>0.10481429605776259</v>
+        <v>0.11173660861472626</v>
       </c>
       <c r="P4">
-        <v>0.10124983032667577</v>
+        <v>0.10108816710062016</v>
       </c>
       <c r="Q4">
-        <v>0.1034576770118486</v>
+        <v>0.10988797923828288</v>
       </c>
       <c r="R4">
-        <v>0.10737754506586424</v>
+        <v>0.10285305875085732</v>
       </c>
       <c r="S4">
-        <v>0.10217156225910995</v>
+        <v>0.10953419688323895</v>
       </c>
       <c r="T4">
-        <v>0.10516519274792253</v>
+        <v>0.10535571291544855</v>
       </c>
       <c r="U4">
-        <v>0.11153039077980889</v>
+        <v>0.11173660862481319</v>
       </c>
       <c r="V4">
-        <v>0.10186037539206984</v>
+        <v>0.11414785149664428</v>
       </c>
       <c r="W4">
-        <v>0.11435613636443431</v>
+        <v>0.11173660862769463</v>
       </c>
       <c r="X4">
-        <v>0.093006496327064286</v>
+        <v>0.11726945981276944</v>
       </c>
       <c r="Y4">
-        <v>0.10412679513659824</v>
+        <v>0.10595192538456449</v>
       </c>
       <c r="Z4">
-        <v>0.10661894545882317</v>
+        <v>0.1059519253866711</v>
       </c>
       <c r="AA4">
-        <v>0.099229207257586799</v>
+        <v>0.10625594863368173</v>
       </c>
       <c r="AB4">
-        <v>0.10624775587236802</v>
+        <v>0.10084768211291563</v>
       </c>
       <c r="AC4">
-        <v>0.098149237296670244</v>
+        <v>0.10448979950115928</v>
       </c>
       <c r="AD4">
-        <v>0.096620804793054099</v>
+        <v>0.10420843678331272</v>
       </c>
       <c r="AE4">
-        <v>0.10378998728116878</v>
+        <v>0.10625594864256728</v>
       </c>
       <c r="AF4">
-        <v>0.10155315797302508</v>
+        <v>0.10506336423194813</v>
       </c>
       <c r="AG4">
-        <v>0.10124983036794821</v>
+        <v>0.11173660864483108</v>
       </c>
       <c r="AH4">
-        <v>0.096868326292901027</v>
+        <v>0.1044897995123389</v>
       </c>
       <c r="AI4">
-        <v>0.098414455188061814</v>
+        <v>0.099685605559931612</v>
       </c>
       <c r="AJ4">
-        <v>0.094963022204848743</v>
+        <v>0.10850262219838</v>
       </c>
       <c r="AK4">
-        <v>0.10155315798676941</v>
+        <v>0.11024691330286532</v>
       </c>
       <c r="AL4">
-        <v>0.097371873313011531</v>
+        <v>0.10751345878021976</v>
       </c>
       <c r="AM4">
-        <v>0.10312976993904334</v>
+        <v>0.10719269237462321</v>
       </c>
       <c r="AN4">
-        <v>0.098682816394691036</v>
+        <v>0.10365619862329672</v>
       </c>
       <c r="AO4">
-        <v>0.098682816397768505</v>
+        <v>0.10259181548538782</v>
       </c>
       <c r="AP4">
-        <v>0.096620804831935608</v>
+        <v>0.10311749577199816</v>
       </c>
       <c r="AQ4">
-        <v>0.10588181118797729</v>
+        <v>0.10084768215290853</v>
       </c>
       <c r="AR4">
-        <v>0.099229207306874359</v>
+        <v>0.10816832602134052</v>
       </c>
       <c r="AS4">
-        <v>0.098682816409766075</v>
+        <v>0.10393059268709331</v>
       </c>
       <c r="AT4">
-        <v>0.095423764783839127</v>
+        <v>0.098373896360990906</v>
       </c>
       <c r="AU4">
-        <v>0.10248680049237664</v>
+        <v>0.10338518798231401</v>
       </c>
       <c r="AV4">
-        <v>0.10036242301131332</v>
+        <v>0.10182665508757574</v>
       </c>
       <c r="AW4">
-        <v>0.09868281642212734</v>
+        <v>0.10535571297964623</v>
       </c>
       <c r="AX4">
-        <v>0.099788903019117581</v>
+        <v>0.10285305882856939</v>
       </c>
       <c r="AY4">
-        <v>0.098954380190380484</v>
+        <v>0.10783863794397718</v>
       </c>
       <c r="AZ4">
-        <v>0.10345767709656858</v>
+        <v>0.10182665509839164</v>
       </c>
       <c r="BA4">
-        <v>0.10588181121134192</v>
+        <v>0.10393059270777197</v>
       </c>
       <c r="BB4">
-        <v>0.094290196423328393</v>
+        <v>0.10816832604314956</v>
       </c>
       <c r="BC4">
-        <v>0.10280617417454685</v>
+        <v>0.10133145648725565</v>
       </c>
       <c r="BD4">
-        <v>0.10248680051595627</v>
+        <v>0.10535571299640988</v>
       </c>
       <c r="BE4">
-        <v>0.10312976998528975</v>
+        <v>0.10565187384641622</v>
       </c>
       <c r="BF4">
-        <v>0.095423764824852625</v>
+        <v>0.09946093324856925</v>
       </c>
       <c r="BG4">
-        <v>0.10248680052400201</v>
+        <v>0.10157760153659787</v>
       </c>
       <c r="BH4">
-        <v>0.10412679522230786</v>
+        <v>0.10783863796409839</v>
       </c>
       <c r="BI4">
-        <v>0.10378998735634024</v>
+        <v>0.10477475127843322</v>
       </c>
       <c r="BJ4">
-        <v>0.10007390145797057</v>
+        <v>0.10180430516842179</v>
       </c>
       <c r="BK4">
-        <v>0.099788903056556258</v>
+        <v>0.10087829283007277</v>
       </c>
       <c r="BL4">
-        <v>0.10446819807509758</v>
+        <v>0.10302399253356995</v>
       </c>
       <c r="BM4">
-        <v>0.10737754516674582</v>
+        <v>0.10302420092710884</v>
       </c>
       <c r="BN4">
-        <v>0.10552099461238067</v>
+        <v>0.10204294315910289</v>
       </c>
       <c r="BO4">
-        <v>0.10345767713372531</v>
+        <v>0.1039564203037505</v>
       </c>
       <c r="BP4">
-        <v>0.096620804915865666</v>
+        <v>0.10697755608349234</v>
       </c>
       <c r="BQ4">
-        <v>0.10412679524404958</v>
+        <v>0.10555233278801247</v>
       </c>
       <c r="BR4">
-        <v>0.10095031529164154</v>
+        <v>0.10527203122136584</v>
       </c>
       <c r="BS4">
-        <v>0.10661894556009584</v>
+        <v>0.10605676757923641</v>
       </c>
       <c r="BT4">
-        <v>0.098414455300276912</v>
+        <v>0.081757366112246224</v>
       </c>
       <c r="BU4">
-        <v>0.091412187674892384</v>
+        <v>0.082029577166822035</v>
       </c>
       <c r="BV4">
-        <v>0.10124983048134258</v>
+        <v>0.081972596302987033</v>
       </c>
       <c r="BW4">
-        <v>0.10378998739198322</v>
+        <v>0.080880349386783595</v>
       </c>
       <c r="BX4">
-        <v>0.10588181126543951</v>
+        <v>0.0792439720010885</v>
       </c>
       <c r="BY4">
-        <v>0.10699550052638512</v>
+        <v>0.082179989800188064</v>
       </c>
       <c r="BZ4">
-        <v>0.10624775598740227</v>
+        <v>0.080049125745464897</v>
       </c>
       <c r="CA4">
-        <v>0.10248680057604072</v>
+        <v>0.080293732673057436</v>
       </c>
       <c r="CB4">
-        <v>0.10446819811408815</v>
+        <v>0.081415643726350476</v>
       </c>
       <c r="CC4">
-        <v>0.10446819811639105</v>
+        <v>0.080030992751517926</v>
       </c>
       <c r="CD4">
-        <v>0.10481429621496238</v>
+        <v>0.083511272405998843</v>
       </c>
       <c r="CE4">
-        <v>0.10217156242496495</v>
+        <v>0.085463413490445728</v>
       </c>
       <c r="CF4">
-        <v>0.10378998741364627</v>
+        <v>0.085671171144602654</v>
       </c>
       <c r="CG4">
-        <v>0.10552099465734034</v>
+        <v>0.085671912802212202</v>
       </c>
       <c r="CH4">
-        <v>0.11108563452196236</v>
+        <v>0.085414564636818582</v>
       </c>
       <c r="CI4">
-        <v>0.10588181128982932</v>
+        <v>0.084417358283352978</v>
       </c>
       <c r="CJ4">
-        <v>0.10446819813277596</v>
+        <v>0.085645266917300844</v>
       </c>
       <c r="CK4">
-        <v>0.10186037556859685</v>
+        <v>0.0832200256071077</v>
       </c>
       <c r="CL4">
-        <v>0.10312977006896171</v>
+        <v>0.086062161263327344</v>
       </c>
       <c r="CM4">
-        <v>0.095894655735743906</v>
+        <v>0.088458509841723668</v>
       </c>
       <c r="CN4">
-        <v>0.10415091191025767</v>
+        <v>0.081688334187440995</v>
       </c>
       <c r="CO4">
-        <v>0.10056523894014152</v>
+        <v>0.07556991384150312</v>
       </c>
       <c r="CP4">
-        <v>0.10952833003419053</v>
+        <v>0.076797230215023188</v>
       </c>
       <c r="CQ4">
-        <v>0.10170045108869806</v>
+        <v>0.075672492549794343</v>
       </c>
       <c r="CR4">
-        <v>0.10480463504844482</v>
+        <v>0.075583783818169006</v>
       </c>
       <c r="CS4">
-        <v>0.1111310588075603</v>
+        <v>0.075496258746462888</v>
       </c>
       <c r="CT4">
-        <v>0.10520482822120643</v>
+        <v>0.073934805243822899</v>
       </c>
       <c r="CU4">
-        <v>0.1033016766583241</v>
+        <v>0.073411440901267597</v>
       </c>
       <c r="CV4">
-        <v>0.10366480783356678</v>
+        <v>0.075012567986524781</v>
       </c>
       <c r="CW4">
-        <v>0.11825204742999995</v>
+        <v>0.076092218915677648</v>
       </c>
       <c r="CX4">
-        <v>0.079924613394788874</v>
+        <v>0.073667960463559293</v>
       </c>
       <c r="CY4">
-        <v>0.081026654563820799</v>
+        <v>0.072681494742506861</v>
       </c>
       <c r="CZ4">
-        <v>0.0811241359135772</v>
+        <v>0.074288327168642518</v>
       </c>
       <c r="DA4">
-        <v>0.077455909354749497</v>
+        <v>0.074902326586689993</v>
       </c>
       <c r="DB4">
-        <v>0.077850324875153351</v>
+        <v>0.074387065740353447</v>
       </c>
       <c r="DC4">
-        <v>0.077491384973628091</v>
+        <v>0.074436956997159021</v>
       </c>
       <c r="DD4">
-        <v>0.077020024221612651</v>
+        <v>0.073817415418470395</v>
       </c>
       <c r="DE4">
-        <v>0.078362935625575253</v>
+        <v>0.072999922971825518</v>
       </c>
       <c r="DF4">
-        <v>0.07814420808324711</v>
+        <v>0.074050217438920374</v>
       </c>
       <c r="DG4">
-        <v>0.075229683599571065</v>
+        <v>0.073374554946866316</v>
       </c>
       <c r="DH4">
-        <v>0.078890634351494709</v>
+        <v>0.074642881660802879</v>
       </c>
       <c r="DI4">
-        <v>0.083977331553135096</v>
+        <v>0.070837332613780737</v>
       </c>
       <c r="DJ4">
-        <v>0.08045061911294546</v>
+        <v>0.071257734883764662</v>
       </c>
       <c r="DK4">
-        <v>0.083112183197848508</v>
+        <v>0.070747243739780433</v>
       </c>
       <c r="DL4">
-        <v>0.08184125072058307</v>
+        <v>0.072514364452517965</v>
       </c>
       <c r="DM4">
-        <v>0.08117643774277522</v>
+        <v>0.070837333299935509</v>
       </c>
       <c r="DN4">
-        <v>0.0821429719068031</v>
+        <v>0.072514364748289692</v>
       </c>
       <c r="DO4">
-        <v>0.083882681711018564</v>
+        <v>0.071114800922784591</v>
       </c>
       <c r="DP4">
-        <v>0.083789123558416709</v>
+        <v>0.072457603616716423</v>
       </c>
       <c r="DQ4">
-        <v>0.084469979265758832</v>
+        <v>0.071306024596172843</v>
       </c>
       <c r="DR4">
-        <v>0.079920934763777415</v>
+        <v>0.072071609404477974</v>
       </c>
       <c r="DS4">
-        <v>0.076314776506303542</v>
+        <v>0.072923679360708468</v>
       </c>
       <c r="DT4">
-        <v>0.076077112347521736</v>
+        <v>0.073355198579929407</v>
       </c>
       <c r="DU4">
-        <v>0.072021532107318889</v>
+        <v>0.072018034799417832</v>
       </c>
       <c r="DV4">
-        <v>0.070687035440381601</v>
+        <v>0.07245760452859927</v>
       </c>
       <c r="DW4">
-        <v>0.070935606770842083</v>
+        <v>0.072514366111853024</v>
       </c>
       <c r="DX4">
-        <v>0.069877046898419976</v>
+        <v>0.072804544703045773</v>
       </c>
       <c r="DY4">
-        <v>0.068641760760407955</v>
+        <v>0.073945690967368888</v>
       </c>
       <c r="DZ4">
-        <v>0.069591359566388178</v>
+        <v>0.072514366572060132</v>
       </c>
       <c r="EA4">
-        <v>0.070356278909303363</v>
+        <v>0.072234652274725614</v>
       </c>
       <c r="EB4">
-        <v>0.068893919540965146</v>
+        <v>0.07387797830299575</v>
       </c>
       <c r="EC4">
-        <v>0.07005475046729831</v>
+        <v>0.07111480337661541</v>
       </c>
       <c r="ED4">
-        <v>0.068520607529791222</v>
+        <v>0.072289786138930723</v>
       </c>
       <c r="EE4">
-        <v>0.068824760267280544</v>
+        <v>0.07268718105108174</v>
       </c>
       <c r="EF4">
-        <v>0.070300107653255547</v>
+        <v>0.072234653151154543</v>
       </c>
       <c r="EG4">
-        <v>0.070425560487625591</v>
+        <v>0.07415214196874742</v>
       </c>
       <c r="EH4">
-        <v>0.07179272109494382</v>
+        <v>0.072923681701373297</v>
       </c>
       <c r="EI4">
-        <v>0.069941058653561733</v>
+        <v>0.072345320669864502</v>
       </c>
       <c r="EJ4">
-        <v>0.071041705618408474</v>
+        <v>0.072923682049386609</v>
       </c>
       <c r="EK4">
-        <v>0.07029176339200463</v>
+        <v>0.073105794908093519</v>
       </c>
       <c r="EL4">
-        <v>0.072306292764789684</v>
+        <v>0.072745645823811697</v>
       </c>
       <c r="EM4">
-        <v>0.066931662023791222</v>
+        <v>0.073044629417243975</v>
       </c>
       <c r="EN4">
-        <v>0.070189690695938042</v>
+        <v>0.073482829441793379</v>
       </c>
       <c r="EO4">
-        <v>0.069264140979511446</v>
+        <v>0.074152143221349512</v>
       </c>
       <c r="EP4">
-        <v>0.068717798277173697</v>
+        <v>0.074082768216880174</v>
       </c>
       <c r="EQ4">
-        <v>0.06841917364633511</v>
+        <v>0.075108400862292105</v>
       </c>
       <c r="ER4">
-        <v>0.068948137020479833</v>
+        <v>0.074013954217855712</v>
       </c>
       <c r="ES4">
-        <v>0.070014889935750488</v>
+        <v>0.072514369912828988</v>
       </c>
       <c r="ET4">
-        <v>0.067644535777736478</v>
+        <v>0.072804548459206656</v>
       </c>
       <c r="EU4">
-        <v>0.068201322413535742</v>
+        <v>0.074152144200667333</v>
       </c>
       <c r="EV4">
-        <v>0.071015471584810447</v>
+        <v>0.075505367451905711</v>
       </c>
       <c r="EW4">
-        <v>0.067780554356543954</v>
+        <v>0.074435394958200604</v>
       </c>
       <c r="EX4">
-        <v>0.067849342767569654</v>
+        <v>0.073167431804425767</v>
       </c>
       <c r="EY4">
-        <v>0.069843075438146537</v>
+        <v>0.074152144870097844</v>
       </c>
       <c r="EZ4">
-        <v>0.071705879998090707</v>
+        <v>0.073744171357840144</v>
       </c>
       <c r="FA4">
-        <v>0.072774811926022046</v>
+        <v>0.072983929516057797</v>
       </c>
       <c r="FB4">
-        <v>0.06959078286566317</v>
+        <v>0.075424580438326866</v>
       </c>
       <c r="FC4">
-        <v>0.068273372629266096</v>
+        <v>0.074878339021715201</v>
       </c>
       <c r="FD4">
-        <v>0.071111403765078435</v>
+        <v>0.076996854659960215</v>
       </c>
       <c r="FE4">
-        <v>0.069590783403420758</v>
+        <v>0.074802951692194461</v>
       </c>
       <c r="FF4">
-        <v>0.070278239039233581</v>
+        <v>0.075108403240899665</v>
       </c>
       <c r="FG4">
-        <v>0.070101914826408471</v>
+        <v>0.07381081101465882</v>
       </c>
       <c r="FH4">
-        <v>0.070548578650177843</v>
+        <v>0.073292131231310051</v>
       </c>
       <c r="FI4">
-        <v>0.067510559128613118</v>
+        <v>0.073482833251457935</v>
       </c>
       <c r="FJ4">
-        <v>0.070920409243173083</v>
+        <v>0.07387798409467454</v>
       </c>
       <c r="FK4">
-        <v>0.0695907845275366</v>
+        <v>0.074082771942850817</v>
       </c>
       <c r="FL4">
-        <v>0.069590784724829935</v>
+        <v>0.074222090248653741</v>
       </c>
       <c r="FM4">
-        <v>0.068419177903283168</v>
+        <v>0.075586874435760898</v>
       </c>
       <c r="FN4">
-        <v>0.069184168318021391</v>
+        <v>0.075108404710742468</v>
       </c>
       <c r="FO4">
+        <v>0.074654078838087098</v>
+      </c>
+      <c r="FP4">
+        <v>0.078098503511380549</v>
+      </c>
+      <c r="FQ4">
+        <v>0.074292609090614234</v>
+      </c>
+      <c r="FR4">
+        <v>0.077188429608481005</v>
+      </c>
+      <c r="FS4">
+        <v>0.075344502107065087</v>
+      </c>
+      <c r="FT4">
+        <v>0.075186422537904016</v>
+      </c>
+      <c r="FU4">
+        <v>0.079691987724076832</v>
+      </c>
+      <c r="FV4">
+        <v>0.074728203444968958</v>
+      </c>
+      <c r="FW4">
+        <v>0.076902441087501799</v>
+      </c>
+      <c r="FX4">
+        <v>0.076265897523172838</v>
+      </c>
+      <c r="FY4">
+        <v>0.075752072560048941</v>
+      </c>
+      <c r="FZ4">
+        <v>0.076902441592197932</v>
+      </c>
+      <c r="GA4">
+        <v>0.078420595788178352</v>
+      </c>
+      <c r="GB4">
+        <v>0.076265898219221029</v>
+      </c>
+      <c r="GC4">
+        <v>0.076091499425864143</v>
+      </c>
+      <c r="GD4">
+        <v>0.077092184114805992</v>
+      </c>
+      <c r="GE4">
+        <v>0.077786066879733051</v>
+      </c>
+      <c r="GF4">
+        <v>0.078530184055787558</v>
+      </c>
+      <c r="GG4">
+        <v>0.078312132789005159</v>
+      </c>
+      <c r="GH4">
+        <v>0.075920253963028664</v>
+      </c>
+      <c r="GI4">
+        <v>0.077582921266060187</v>
+      </c>
+      <c r="GJ4">
+        <v>0.077092185140966149</v>
+      </c>
+      <c r="GK4">
+        <v>0.078980134062991592</v>
+      </c>
+      <c r="GL4">
+        <v>0.077482846221973434</v>
+      </c>
+      <c r="GM4">
+        <v>0.078865869855391152</v>
+      </c>
+      <c r="GN4">
+        <v>0.076178301372925292</v>
+      </c>
+      <c r="GO4">
+        <v>0.075669109717624528</v>
+      </c>
+      <c r="GP4">
+        <v>0.079449563784044427</v>
+      </c>
+      <c r="GQ4">
+        <v>0.078752803467664223</v>
+      </c>
+      <c r="GR4">
+        <v>0.078980135192221954</v>
+      </c>
+      <c r="GS4">
+        <v>0.078752803789909592</v>
+      </c>
+      <c r="GT4">
+        <v>0.077092186971012611</v>
+      </c>
+      <c r="GU4">
+        <v>0.07809850848520114</v>
+      </c>
+      <c r="GV4">
+        <v>0.078640915646049442</v>
+      </c>
+      <c r="GW4">
+        <v>0.077285618219541649</v>
+      </c>
+      <c r="GX4">
+        <v>0.076996862504167832</v>
+      </c>
+      <c r="GY4">
+        <v>0.077993312575941887</v>
+      </c>
+      <c r="GZ4">
+        <v>0.078098509436784258</v>
+      </c>
+      <c r="HA4">
+        <v>0.07898013677357274</v>
+      </c>
+      <c r="HB4">
+        <v>0.080065766817508627</v>
+      </c>
+      <c r="HC4">
+        <v>0.080717329230111934</v>
+      </c>
+      <c r="HD4">
+        <v>0.078865872791812994</v>
+      </c>
+      <c r="HE4">
+        <v>0.079691993233981753</v>
+      </c>
+      <c r="HF4">
+        <v>0.07864091746647707</v>
+      </c>
+      <c r="HG4">
+        <v>0.078640917660850129</v>
+      </c>
+      <c r="HH4">
+        <v>0.080717330044264443</v>
+      </c>
+      <c r="HI4">
+        <v>0.080321978513232667</v>
+      </c>
+      <c r="HJ4">
+        <v>0.079815211516944054</v>
+      </c>
+      <c r="HK4">
+        <v>0.080321978850525722</v>
+      </c>
+      <c r="HL4">
+        <v>0.079095620178329856</v>
+      </c>
+      <c r="HM4">
         <v>0</v>
       </c>
-      <c r="FP4">
+      <c r="HN4">
         <v>0</v>
       </c>
-      <c r="FQ4">
-        <v>0.049386514313963049</v>
+      <c r="HO4">
+        <v>0.056796216172157687</v>
       </c>
     </row>
   </sheetData>
@@ -6860,7 +8846,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FQ4"/>
+  <dimension ref="A1:HO4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7383,6 +9369,156 @@
       <c r="FQ1" t="s">
         <v>1</v>
       </c>
+      <c r="FR1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FT1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FW1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FY1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FZ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GA1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GF1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GG1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GH1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GI1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GJ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GK1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GL1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GM1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GN1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GO1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GP1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GQ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GR1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GS1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GT1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GU1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GV1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GW1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GX1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GY1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GZ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HA1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HB1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HC1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HD1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HE1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HF1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HG1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HH1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HI1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HJ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HK1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HL1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HM1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HN1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HO1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="B2" t="s">
@@ -7392,16 +9528,16 @@
         <v>176</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
         <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
@@ -7413,7 +9549,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
@@ -7893,12 +10029,162 @@
         <v>170</v>
       </c>
       <c r="FO2" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="FP2" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="FQ2" t="s">
+        <v>189</v>
+      </c>
+      <c r="FR2" t="s">
+        <v>190</v>
+      </c>
+      <c r="FS2" t="s">
+        <v>191</v>
+      </c>
+      <c r="FT2" t="s">
+        <v>192</v>
+      </c>
+      <c r="FU2" t="s">
+        <v>193</v>
+      </c>
+      <c r="FV2" t="s">
+        <v>194</v>
+      </c>
+      <c r="FW2" t="s">
+        <v>195</v>
+      </c>
+      <c r="FX2" t="s">
+        <v>196</v>
+      </c>
+      <c r="FY2" t="s">
+        <v>197</v>
+      </c>
+      <c r="FZ2" t="s">
+        <v>198</v>
+      </c>
+      <c r="GA2" t="s">
+        <v>199</v>
+      </c>
+      <c r="GB2" t="s">
+        <v>200</v>
+      </c>
+      <c r="GC2" t="s">
+        <v>201</v>
+      </c>
+      <c r="GD2" t="s">
+        <v>202</v>
+      </c>
+      <c r="GE2" t="s">
+        <v>203</v>
+      </c>
+      <c r="GF2" t="s">
+        <v>204</v>
+      </c>
+      <c r="GG2" t="s">
+        <v>205</v>
+      </c>
+      <c r="GH2" t="s">
+        <v>206</v>
+      </c>
+      <c r="GI2" t="s">
+        <v>207</v>
+      </c>
+      <c r="GJ2" t="s">
+        <v>208</v>
+      </c>
+      <c r="GK2" t="s">
+        <v>209</v>
+      </c>
+      <c r="GL2" t="s">
+        <v>210</v>
+      </c>
+      <c r="GM2" t="s">
+        <v>211</v>
+      </c>
+      <c r="GN2" t="s">
+        <v>212</v>
+      </c>
+      <c r="GO2" t="s">
+        <v>213</v>
+      </c>
+      <c r="GP2" t="s">
+        <v>214</v>
+      </c>
+      <c r="GQ2" t="s">
+        <v>215</v>
+      </c>
+      <c r="GR2" t="s">
+        <v>216</v>
+      </c>
+      <c r="GS2" t="s">
+        <v>217</v>
+      </c>
+      <c r="GT2" t="s">
+        <v>218</v>
+      </c>
+      <c r="GU2" t="s">
+        <v>219</v>
+      </c>
+      <c r="GV2" t="s">
+        <v>220</v>
+      </c>
+      <c r="GW2" t="s">
+        <v>221</v>
+      </c>
+      <c r="GX2" t="s">
+        <v>222</v>
+      </c>
+      <c r="GY2" t="s">
+        <v>223</v>
+      </c>
+      <c r="GZ2" t="s">
+        <v>224</v>
+      </c>
+      <c r="HA2" t="s">
+        <v>225</v>
+      </c>
+      <c r="HB2" t="s">
+        <v>226</v>
+      </c>
+      <c r="HC2" t="s">
+        <v>227</v>
+      </c>
+      <c r="HD2" t="s">
+        <v>228</v>
+      </c>
+      <c r="HE2" t="s">
+        <v>229</v>
+      </c>
+      <c r="HF2" t="s">
+        <v>230</v>
+      </c>
+      <c r="HG2" t="s">
+        <v>231</v>
+      </c>
+      <c r="HH2" t="s">
+        <v>232</v>
+      </c>
+      <c r="HI2" t="s">
+        <v>233</v>
+      </c>
+      <c r="HJ2" t="s">
+        <v>234</v>
+      </c>
+      <c r="HK2" t="s">
+        <v>235</v>
+      </c>
+      <c r="HL2" t="s">
+        <v>236</v>
+      </c>
+      <c r="HM2" t="s">
+        <v>237</v>
+      </c>
+      <c r="HN2" t="s">
+        <v>238</v>
+      </c>
+      <c r="HO2" t="s">
         <v>173</v>
       </c>
     </row>
@@ -7907,520 +10193,670 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>2.0650585834000648</v>
+        <v>1.9381831131069149</v>
       </c>
       <c r="C3">
-        <v>-1.3632673106204307</v>
+        <v>-0.42772728062970322</v>
       </c>
       <c r="D3">
-        <v>1.5519597622435901</v>
+        <v>-0.40726691773709556</v>
       </c>
       <c r="E3">
-        <v>-1.1918916302019527</v>
+        <v>-0.43198047795413486</v>
       </c>
       <c r="F3">
-        <v>1.5127621413655108</v>
+        <v>1.4442982986390489</v>
       </c>
       <c r="G3">
-        <v>-1.171413572980349</v>
+        <v>1.358659424461222</v>
       </c>
       <c r="H3">
-        <v>1.3059858494256746</v>
+        <v>1.1819524908485239</v>
       </c>
       <c r="I3">
-        <v>0.76869808249280214</v>
+        <v>0.81955310277587468</v>
       </c>
       <c r="J3">
-        <v>0.83616979388260948</v>
+        <v>0.70037400456214571</v>
       </c>
       <c r="K3">
-        <v>0.94926994779665852</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>-1.9417658419139547</v>
+        <v>-0.9208318004489835</v>
       </c>
       <c r="M3">
-        <v>-2.0113227863997301</v>
+        <v>-0.9511215699005211</v>
       </c>
       <c r="N3">
-        <v>-2.2226014663988751</v>
+        <v>-0.97511148106927137</v>
       </c>
       <c r="O3">
-        <v>-2.0101918120048508</v>
+        <v>-0.91998882280068128</v>
       </c>
       <c r="P3">
-        <v>-1.873719028022935</v>
+        <v>-0.87417156006398433</v>
       </c>
       <c r="Q3">
-        <v>-2.0365089701514743</v>
+        <v>-0.99299287002864067</v>
       </c>
       <c r="R3">
-        <v>-2.0643459995022546</v>
+        <v>-0.93316172869912939</v>
       </c>
       <c r="S3">
-        <v>-1.9807307026705983</v>
+        <v>-0.91410965009180423</v>
       </c>
       <c r="T3">
-        <v>-1.9889780775475563</v>
+        <v>-0.84194530360574005</v>
       </c>
       <c r="U3">
-        <v>-2.0340232572822918</v>
+        <v>-0.90406406555434093</v>
       </c>
       <c r="V3">
-        <v>-1.8309752383109852</v>
+        <v>-0.92002237454321456</v>
       </c>
       <c r="W3">
-        <v>-2.0141390008330222</v>
+        <v>-0.91502150159701057</v>
       </c>
       <c r="X3">
-        <v>-1.8845391643880904</v>
+        <v>-0.93124341350615802</v>
       </c>
       <c r="Y3">
-        <v>-1.8520694991977158</v>
+        <v>-0.87416484972993913</v>
       </c>
       <c r="Z3">
-        <v>-1.8750616795283455</v>
+        <v>-0.85917834744105515</v>
       </c>
       <c r="AA3">
-        <v>-1.8663743680574276</v>
+        <v>-0.78677495222079119</v>
       </c>
       <c r="AB3">
-        <v>-1.8736228797227583</v>
+        <v>-0.67065082657330921</v>
       </c>
       <c r="AC3">
-        <v>-1.982757760131497</v>
+        <v>-0.64139649176513913</v>
       </c>
       <c r="AD3">
-        <v>-1.744700269180234</v>
+        <v>-0.9210893291236979</v>
       </c>
       <c r="AE3">
-        <v>-1.8477212668119738</v>
+        <v>-0.75820962242411494</v>
       </c>
       <c r="AF3">
-        <v>-1.8868454259287974</v>
+        <v>-0.85551209483967183</v>
       </c>
       <c r="AG3">
-        <v>-1.7856295828019948</v>
+        <v>-0.96385708602094622</v>
       </c>
       <c r="AH3">
-        <v>-1.7070368712250981</v>
+        <v>-0.82273186561534517</v>
       </c>
       <c r="AI3">
-        <v>-1.8063133240736327</v>
+        <v>-0.68704104571918412</v>
       </c>
       <c r="AJ3">
-        <v>-1.6919026940627773</v>
+        <v>-0.85236656211922823</v>
       </c>
       <c r="AK3">
-        <v>-1.8587732248646742</v>
+        <v>-0.85754146958842303</v>
       </c>
       <c r="AL3">
-        <v>-1.7038337931503575</v>
+        <v>-0.75289186671259734</v>
       </c>
       <c r="AM3">
-        <v>-1.8031076559387109</v>
+        <v>-0.83738867097419445</v>
       </c>
       <c r="AN3">
-        <v>-1.7726945418976676</v>
+        <v>-0.79332180008056763</v>
       </c>
       <c r="AO3">
-        <v>-1.8167020189534415</v>
+        <v>-0.79163795304765794</v>
       </c>
       <c r="AP3">
-        <v>-1.6871414959751641</v>
+        <v>-0.73701593116514452</v>
       </c>
       <c r="AQ3">
-        <v>-2.0269090967034895</v>
+        <v>-0.67348412779342448</v>
       </c>
       <c r="AR3">
-        <v>-1.6923986015334727</v>
+        <v>-0.81218472934068786</v>
       </c>
       <c r="AS3">
-        <v>-1.6517809446728702</v>
+        <v>-0.69593304103728748</v>
       </c>
       <c r="AT3">
-        <v>-1.739115935925837</v>
+        <v>-0.6567344076263868</v>
       </c>
       <c r="AU3">
-        <v>-1.7382953143272488</v>
+        <v>-0.79047191665305594</v>
       </c>
       <c r="AV3">
-        <v>-1.7809766167797481</v>
+        <v>-0.69045753476488081</v>
       </c>
       <c r="AW3">
-        <v>-1.8814812994448145</v>
+        <v>-0.65690370435680612</v>
       </c>
       <c r="AX3">
-        <v>-1.8405889751931681</v>
+        <v>-0.82114584532749613</v>
       </c>
       <c r="AY3">
-        <v>-1.7567488408297562</v>
+        <v>-0.7268586775080762</v>
       </c>
       <c r="AZ3">
-        <v>-1.8957571265492204</v>
+        <v>-0.80771703179136956</v>
       </c>
       <c r="BA3">
-        <v>-1.9118684963500043</v>
+        <v>-0.83975800250205979</v>
       </c>
       <c r="BB3">
-        <v>-1.8298032043423196</v>
+        <v>-0.73098828390663551</v>
       </c>
       <c r="BC3">
-        <v>-1.7684056974024573</v>
+        <v>-0.73228046724886242</v>
       </c>
       <c r="BD3">
-        <v>-1.9011900039241856</v>
+        <v>-0.74292412445877731</v>
       </c>
       <c r="BE3">
-        <v>-1.970108968361528</v>
+        <v>-0.75374303044963076</v>
       </c>
       <c r="BF3">
-        <v>-1.8998408836175673</v>
+        <v>-0.74882880645644023</v>
       </c>
       <c r="BG3">
-        <v>-1.7954255260731649</v>
+        <v>-0.69478178400667345</v>
       </c>
       <c r="BH3">
-        <v>-1.8983665027932715</v>
+        <v>-0.77403704813493102</v>
       </c>
       <c r="BI3">
-        <v>-1.7863999097658587</v>
+        <v>-0.64151392913038263</v>
       </c>
       <c r="BJ3">
-        <v>-1.7931673522356975</v>
+        <v>-0.49492993591068296</v>
       </c>
       <c r="BK3">
-        <v>-1.7053431872561362</v>
+        <v>-0.48118044365755719</v>
       </c>
       <c r="BL3">
-        <v>-1.9830630025923903</v>
+        <v>-0.60161347680302935</v>
       </c>
       <c r="BM3">
-        <v>-1.8615422934373376</v>
+        <v>-0.52909659546085341</v>
       </c>
       <c r="BN3">
-        <v>-1.972558644442997</v>
+        <v>-0.4876616812772524</v>
       </c>
       <c r="BO3">
-        <v>-1.7378296652556267</v>
+        <v>-0.60769886335292556</v>
       </c>
       <c r="BP3">
-        <v>-1.9802227624029589</v>
+        <v>-0.5012378769911644</v>
       </c>
       <c r="BQ3">
-        <v>-1.8505999367792534</v>
+        <v>-0.60750105651932085</v>
       </c>
       <c r="BR3">
-        <v>-1.8025952633651123</v>
+        <v>-0.56948057702530586</v>
       </c>
       <c r="BS3">
-        <v>-1.7715079294057003</v>
+        <v>-0.62839891173184292</v>
       </c>
       <c r="BT3">
-        <v>-1.7558924553535147</v>
+        <v>-0.4983240535038686</v>
       </c>
       <c r="BU3">
-        <v>-1.7477564827268481</v>
+        <v>-0.082153335970186314</v>
       </c>
       <c r="BV3">
-        <v>-1.9133960508819219</v>
+        <v>-0.19383826671841844</v>
       </c>
       <c r="BW3">
-        <v>-1.9478099349669</v>
+        <v>-0.19026360570671483</v>
       </c>
       <c r="BX3">
-        <v>-1.8534257257050064</v>
+        <v>-0.16368264611784406</v>
       </c>
       <c r="BY3">
-        <v>-1.8857665497859881</v>
+        <v>-0.32140743740991512</v>
       </c>
       <c r="BZ3">
-        <v>-2.0198351854515608</v>
+        <v>-0.19495349758440778</v>
       </c>
       <c r="CA3">
-        <v>-1.6867504091009433</v>
+        <v>-0.27432767154553855</v>
       </c>
       <c r="CB3">
-        <v>-1.8505006841883775</v>
+        <v>-0.37204408858370885</v>
       </c>
       <c r="CC3">
-        <v>-1.8416663962143576</v>
+        <v>-0.31775025201229945</v>
       </c>
       <c r="CD3">
-        <v>-1.9338524039262541</v>
+        <v>-0.31994531788514219</v>
       </c>
       <c r="CE3">
-        <v>-1.8983789628282894</v>
+        <v>-0.027147365285804415</v>
       </c>
       <c r="CF3">
-        <v>-1.9593937158455412</v>
+        <v>-0.097698794236286038</v>
       </c>
       <c r="CG3">
-        <v>-1.9678708655247386</v>
+        <v>-0.10286179244272384</v>
       </c>
       <c r="CH3">
-        <v>-2.0336141370328478</v>
+        <v>-0.14221578122599482</v>
       </c>
       <c r="CI3">
-        <v>-2.052811538355356</v>
+        <v>-0.17623896354491583</v>
       </c>
       <c r="CJ3">
-        <v>-1.9478189319400752</v>
+        <v>-0.18013263305174829</v>
       </c>
       <c r="CK3">
-        <v>-1.7293484035415669</v>
+        <v>-0.11370861377189187</v>
       </c>
       <c r="CL3">
-        <v>-1.9196470651969373</v>
+        <v>-0.22225145438938262</v>
       </c>
       <c r="CM3">
-        <v>-1.8844638337011603</v>
+        <v>-0.30441673963113008</v>
       </c>
       <c r="CN3">
-        <v>-1.4210402475137758</v>
+        <v>-0.35543058057538529</v>
       </c>
       <c r="CO3">
-        <v>-1.455123104353331</v>
+        <v>0.17774644392907385</v>
       </c>
       <c r="CP3">
-        <v>-1.345503359935404</v>
+        <v>0.064408336162614141</v>
       </c>
       <c r="CQ3">
-        <v>-1.3852407086286944</v>
+        <v>0.077887478433961835</v>
       </c>
       <c r="CR3">
-        <v>-1.5553551118785827</v>
+        <v>0.074905651734716097</v>
       </c>
       <c r="CS3">
-        <v>-1.3861890532159158</v>
+        <v>0.023104724003700939</v>
       </c>
       <c r="CT3">
-        <v>-1.4510904961785327</v>
+        <v>0.11390765954461765</v>
       </c>
       <c r="CU3">
-        <v>-1.5767643460896796</v>
+        <v>0.095062335287418379</v>
       </c>
       <c r="CV3">
-        <v>-1.3103113079520254</v>
+        <v>-0.024854649283180017</v>
       </c>
       <c r="CW3">
-        <v>-1.5704601167503183</v>
+        <v>-0.08474512922511486</v>
       </c>
       <c r="CX3">
-        <v>-0.71860582382760041</v>
+        <v>-0.016144804167502254</v>
       </c>
       <c r="CY3">
-        <v>-0.41361085349160093</v>
+        <v>0.27740554627092429</v>
       </c>
       <c r="CZ3">
-        <v>-0.45421059720861445</v>
+        <v>0.17518265965672877</v>
       </c>
       <c r="DA3">
-        <v>-0.45019092774276315</v>
+        <v>0.11126847563130529</v>
       </c>
       <c r="DB3">
-        <v>-0.55667056942759119</v>
+        <v>0.10949296210277913</v>
       </c>
       <c r="DC3">
-        <v>-0.56419462911297968</v>
+        <v>0.021135328819477384</v>
       </c>
       <c r="DD3">
-        <v>-0.47308520346678629</v>
+        <v>0.12687060746347162</v>
       </c>
       <c r="DE3">
-        <v>-0.50197679882831647</v>
+        <v>0.14872863526223842</v>
       </c>
       <c r="DF3">
-        <v>-0.51006070054283104</v>
+        <v>0.10463975532072163</v>
       </c>
       <c r="DG3">
-        <v>-0.51756079934056687</v>
+        <v>0.11741567754995036</v>
       </c>
       <c r="DH3">
-        <v>-0.39606027434969954</v>
+        <v>0.052966955765271898</v>
       </c>
       <c r="DI3">
-        <v>-0.0030560965115420504</v>
+        <v>0.48234660171004812</v>
       </c>
       <c r="DJ3">
-        <v>0.047958431374591479</v>
+        <v>0.42972105196086463</v>
       </c>
       <c r="DK3">
-        <v>-0.083104526930295672</v>
+        <v>0.44480771041648598</v>
       </c>
       <c r="DL3">
-        <v>-0.098170908624778438</v>
+        <v>0.34556556291266982</v>
       </c>
       <c r="DM3">
-        <v>-0.15292971184323664</v>
+        <v>0.39841953850646539</v>
       </c>
       <c r="DN3">
-        <v>-0.20275439751807595</v>
+        <v>0.28447289420530492</v>
       </c>
       <c r="DO3">
-        <v>-0.2563053090171814</v>
+        <v>0.37308992630481896</v>
       </c>
       <c r="DP3">
-        <v>-0.31140897537982992</v>
+        <v>0.25438375135116903</v>
       </c>
       <c r="DQ3">
-        <v>-0.3007892851516375</v>
+        <v>0.33701896614413512</v>
       </c>
       <c r="DR3">
-        <v>-0.61093520196996531</v>
+        <v>0.30328770877530314</v>
       </c>
       <c r="DS3">
-        <v>-0.05529633698190406</v>
+        <v>0.21691846546638344</v>
       </c>
       <c r="DT3">
-        <v>-0.14289580887052283</v>
+        <v>0.19510228526271342</v>
       </c>
       <c r="DU3">
-        <v>-0.11719517164608695</v>
+        <v>0.28848807796378412</v>
       </c>
       <c r="DV3">
-        <v>-0.089518931398952506</v>
+        <v>0.24830846905945636</v>
       </c>
       <c r="DW3">
-        <v>-0.17343049783708819</v>
+        <v>0.24794272003595177</v>
       </c>
       <c r="DX3">
-        <v>-0.089524339173684325</v>
+        <v>0.1796302855952584</v>
       </c>
       <c r="DY3">
-        <v>-0.062828377177579997</v>
+        <v>0.1502428389119746</v>
       </c>
       <c r="DZ3">
-        <v>-0.067141954732981748</v>
+        <v>0.20674710902295684</v>
       </c>
       <c r="EA3">
-        <v>-0.14300692746305568</v>
+        <v>0.23110867534455876</v>
       </c>
       <c r="EB3">
-        <v>-0.15993630250494054</v>
+        <v>0.12087118943322109</v>
       </c>
       <c r="EC3">
-        <v>0.1951042306701036</v>
+        <v>0.28015020451236738</v>
       </c>
       <c r="ED3">
-        <v>0.20359386783706562</v>
+        <v>0.19568738775667407</v>
       </c>
       <c r="EE3">
-        <v>0.18766197625592682</v>
+        <v>0.21137829737678912</v>
       </c>
       <c r="EF3">
-        <v>0.085749810381449132</v>
+        <v>0.23793362491413131</v>
       </c>
       <c r="EG3">
-        <v>0.076883311349128555</v>
+        <v>0.10935189189144366</v>
       </c>
       <c r="EH3">
-        <v>-0.027369250952515099</v>
+        <v>0.17365678080724486</v>
       </c>
       <c r="EI3">
-        <v>0.0044954857972439571</v>
+        <v>0.20686630344458001</v>
       </c>
       <c r="EJ3">
-        <v>-0.059402807311294062</v>
+        <v>0.17877601722760508</v>
       </c>
       <c r="EK3">
-        <v>-0.046712021875395734</v>
+        <v>0.16350414077818815</v>
       </c>
       <c r="EL3">
-        <v>-0.1598525548374948</v>
+        <v>0.19540786048860251</v>
       </c>
       <c r="EM3">
-        <v>0.41953106698630416</v>
+        <v>0.1644242168247817</v>
       </c>
       <c r="EN3">
-        <v>0.31012106825937719</v>
+        <v>0.13199960804354713</v>
       </c>
       <c r="EO3">
-        <v>0.3232011087269161</v>
+        <v>0.10879622464233107</v>
       </c>
       <c r="EP3">
-        <v>0.2577919720239551</v>
+        <v>0.11080824288606794</v>
       </c>
       <c r="EQ3">
-        <v>0.3168815914715391</v>
+        <v>0.048441884418952051</v>
       </c>
       <c r="ER3">
-        <v>0.28309715377160943</v>
+        <v>0.11026414945985245</v>
       </c>
       <c r="ES3">
-        <v>0.21291311093443427</v>
+        <v>0.20935422847647492</v>
       </c>
       <c r="ET3">
-        <v>0.2693135885240317</v>
+        <v>0.1819390022225498</v>
       </c>
       <c r="EU3">
-        <v>0.25491382817423713</v>
+        <v>0.11697767677674277</v>
       </c>
       <c r="EV3">
-        <v>0.13147952907473698</v>
+        <v>0.034772587881809994</v>
       </c>
       <c r="EW3">
-        <v>0.2558736323373193</v>
+        <v>0.091805492438665884</v>
       </c>
       <c r="EX3">
-        <v>0.23921221880679908</v>
+        <v>0.16967379007345471</v>
       </c>
       <c r="EY3">
-        <v>0.093385762394065777</v>
+        <v>0.12257648550691065</v>
       </c>
       <c r="EZ3">
-        <v>0.036078296592900946</v>
+        <v>0.14208977630970313</v>
       </c>
       <c r="FA3">
-        <v>-0.0016478211088125575</v>
+        <v>0.201258129619794</v>
       </c>
       <c r="FB3">
-        <v>0.088269963545303781</v>
+        <v>0.055437657605205193</v>
       </c>
       <c r="FC3">
-        <v>0.12203103783394306</v>
+        <v>0.096839637797752093</v>
       </c>
       <c r="FD3">
-        <v>-0.026915631283380634</v>
+        <v>-0.039429638766751381</v>
       </c>
       <c r="FE3">
-        <v>0.10141129952690904</v>
+        <v>0.092970768345330593</v>
       </c>
       <c r="FF3">
-        <v>0.046610381511260152</v>
+        <v>0.07828690183249884</v>
       </c>
       <c r="FG3">
-        <v>0.051514502464713459</v>
+        <v>0.15319051399052611</v>
       </c>
       <c r="FH3">
-        <v>0.025052805434866512</v>
+        <v>0.19862451145438842</v>
       </c>
       <c r="FI3">
-        <v>0.15697691884194137</v>
+        <v>0.19465955629765666</v>
       </c>
       <c r="FJ3">
-        <v>-0.032688151692798505</v>
+        <v>0.16881528887007466</v>
       </c>
       <c r="FK3">
-        <v>0.021760165561602769</v>
+        <v>0.15769015795154342</v>
       </c>
       <c r="FL3">
-        <v>0.030593762451029551</v>
+        <v>0.15532073791937667</v>
       </c>
       <c r="FM3">
-        <v>0.11317342128271186</v>
+        <v>0.075138731290877253</v>
       </c>
       <c r="FN3">
-        <v>0.028461299006398037</v>
+        <v>0.10575019596715832</v>
       </c>
       <c r="FO3">
+        <v>0.12880112055329082</v>
+      </c>
+      <c r="FP3">
+        <v>-0.065678793709882041</v>
+      </c>
+      <c r="FQ3">
+        <v>0.16878767902959843</v>
+      </c>
+      <c r="FR3">
+        <v>-0.013123019511119789</v>
+      </c>
+      <c r="FS3">
+        <v>0.10400718609756796</v>
+      </c>
+      <c r="FT3">
+        <v>0.12506636203649904</v>
+      </c>
+      <c r="FU3">
+        <v>-0.12902040752750257</v>
+      </c>
+      <c r="FV3">
+        <v>0.15391467030934988</v>
+      </c>
+      <c r="FW3">
+        <v>0.030806986743755618</v>
+      </c>
+      <c r="FX3">
+        <v>0.073845453767645147</v>
+      </c>
+      <c r="FY3">
+        <v>0.098152993070858841</v>
+      </c>
+      <c r="FZ3">
+        <v>0.034747021824512267</v>
+      </c>
+      <c r="GA3">
+        <v>-0.036674359190815353</v>
+      </c>
+      <c r="GB3">
+        <v>0.08428202310534029</v>
+      </c>
+      <c r="GC3">
+        <v>0.093475374598116584</v>
+      </c>
+      <c r="GD3">
+        <v>0.04765411156986564</v>
+      </c>
+      <c r="GE3">
+        <v>0.0046970166223091123</v>
+      </c>
+      <c r="GF3">
+        <v>-0.023093388751615172</v>
+      </c>
+      <c r="GG3">
+        <v>-0.013644544263253251</v>
+      </c>
+      <c r="GH3">
+        <v>0.13032155059075676</v>
+      </c>
+      <c r="GI3">
+        <v>0.036795588598313347</v>
+      </c>
+      <c r="GJ3">
+        <v>0.059904445133150921</v>
+      </c>
+      <c r="GK3">
+        <v>-0.03626792540679076</v>
+      </c>
+      <c r="GL3">
+        <v>0.05098412328156738</v>
+      </c>
+      <c r="GM3">
+        <v>-0.02275464014457328</v>
+      </c>
+      <c r="GN3">
+        <v>0.13577017251249046</v>
+      </c>
+      <c r="GO3">
+        <v>0.16784434422934272</v>
+      </c>
+      <c r="GP3">
+        <v>-0.043884538740006335</v>
+      </c>
+      <c r="GQ3">
+        <v>-0.00090731093088989125</v>
+      </c>
+      <c r="GR3">
+        <v>-0.012160028846367795</v>
+      </c>
+      <c r="GS3">
+        <v>0.006496950170083989</v>
+      </c>
+      <c r="GT3">
+        <v>0.10385193407230095</v>
+      </c>
+      <c r="GU3">
+        <v>0.046563038290170597</v>
+      </c>
+      <c r="GV3">
+        <v>0.027165447289972351</v>
+      </c>
+      <c r="GW3">
+        <v>0.10208757223284234</v>
+      </c>
+      <c r="GX3">
+        <v>0.12255399471676451</v>
+      </c>
+      <c r="GY3">
+        <v>0.06837863613357345</v>
+      </c>
+      <c r="GZ3">
+        <v>0.066627097246436603</v>
+      </c>
+      <c r="HA3">
+        <v>0.026464552868787603</v>
+      </c>
+      <c r="HB3">
+        <v>-0.025382580910438175</v>
+      </c>
+      <c r="HC3">
+        <v>-0.057358367621039838</v>
+      </c>
+      <c r="HD3">
+        <v>0.040447301217351718</v>
+      </c>
+      <c r="HE3">
+        <v>0.0014261610494413035</v>
+      </c>
+      <c r="HF3">
+        <v>0.059988010912614388</v>
+      </c>
+      <c r="HG3">
+        <v>0.063945176787457786</v>
+      </c>
+      <c r="HH3">
+        <v>-0.038300579382068267</v>
+      </c>
+      <c r="HI3">
+        <v>-0.011907897695814837</v>
+      </c>
+      <c r="HJ3">
+        <v>0.014074282396710948</v>
+      </c>
+      <c r="HK3">
+        <v>-0.0044466644684247863</v>
+      </c>
+      <c r="HL3">
+        <v>0.061708234501618012</v>
+      </c>
+      <c r="HM3">
         <v>0</v>
       </c>
-      <c r="FP3">
+      <c r="HN3">
         <v>0</v>
       </c>
-      <c r="FQ3">
-        <v>-5.3667428604187091</v>
+      <c r="HO3">
+        <v>-5.5941944444269804</v>
       </c>
     </row>
     <row r="4">
@@ -8428,520 +10864,670 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.049916437657380471</v>
+        <v>0.049214404229793493</v>
       </c>
       <c r="C4">
-        <v>0.049263111190941615</v>
+        <v>0.033617650688334409</v>
       </c>
       <c r="D4">
-        <v>0.033911596701802958</v>
+        <v>0.042388848656814651</v>
       </c>
       <c r="E4">
-        <v>0.076412215401181996</v>
+        <v>0.054738529018863731</v>
       </c>
       <c r="F4">
-        <v>0.028785875265858487</v>
+        <v>0.032378842894303116</v>
       </c>
       <c r="G4">
-        <v>0.059477255053540047</v>
+        <v>0.027867083074065168</v>
       </c>
       <c r="H4">
-        <v>0.023525072324022085</v>
+        <v>0.02325974062845771</v>
       </c>
       <c r="I4">
-        <v>0.02766398063732765</v>
+        <v>0.02684684909604625</v>
       </c>
       <c r="J4">
-        <v>0.029749564830470365</v>
+        <v>0.028074394509320852</v>
       </c>
       <c r="K4">
-        <v>0.050766350337442971</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.10287995461922834</v>
+        <v>0.081841511638610295</v>
       </c>
       <c r="M4">
-        <v>0.10583297152153587</v>
+        <v>0.082522967577001269</v>
       </c>
       <c r="N4">
-        <v>0.11552343385720244</v>
+        <v>0.083079969676857546</v>
       </c>
       <c r="O4">
-        <v>0.1058329715247024</v>
+        <v>0.081915391507627444</v>
       </c>
       <c r="P4">
-        <v>0.10023081737129819</v>
+        <v>0.080988543465190785</v>
       </c>
       <c r="Q4">
-        <v>0.10703038426563356</v>
+        <v>0.083577564342677491</v>
       </c>
       <c r="R4">
-        <v>0.10828247028555757</v>
+        <v>0.082291616180300647</v>
       </c>
       <c r="S4">
-        <v>0.10468651442571991</v>
+        <v>0.081915391553684394</v>
       </c>
       <c r="T4">
-        <v>0.10506322004726551</v>
+        <v>0.080452247402004781</v>
       </c>
       <c r="U4">
-        <v>0.10703038427236451</v>
+        <v>0.081768077126107716</v>
       </c>
       <c r="V4">
-        <v>0.098708138554420163</v>
+        <v>0.082139744190103572</v>
       </c>
       <c r="W4">
-        <v>0.10622627122238695</v>
+        <v>0.082064503587556986</v>
       </c>
       <c r="X4">
-        <v>0.100867363113797</v>
+        <v>0.082445372102863471</v>
       </c>
       <c r="Y4">
-        <v>0.099610284729578599</v>
+        <v>0.081266162864418054</v>
       </c>
       <c r="Z4">
-        <v>0.10054704777471815</v>
+        <v>0.080988543590893566</v>
       </c>
       <c r="AA4">
-        <v>0.10023081739639307</v>
+        <v>0.079570101009856148</v>
       </c>
       <c r="AB4">
-        <v>0.10054704777959193</v>
+        <v>0.077433158969471283</v>
       </c>
       <c r="AC4">
-        <v>0.10506322006552714</v>
+        <v>0.076949521257173234</v>
       </c>
       <c r="AD4">
-        <v>0.09566588935477166</v>
+        <v>0.082445372182411492</v>
       </c>
       <c r="AE4">
-        <v>0.099610284744900995</v>
+        <v>0.079153803555708502</v>
       </c>
       <c r="AF4">
-        <v>0.10119184806342615</v>
+        <v>0.081126540462166399</v>
       </c>
       <c r="AG4">
-        <v>0.097276153432200738</v>
+        <v>0.083493288057200091</v>
       </c>
       <c r="AH4">
-        <v>0.094405667041642355</v>
+        <v>0.080517947596060221</v>
       </c>
       <c r="AI4">
-        <v>0.098124950117095808</v>
+        <v>0.077941092182460633</v>
       </c>
       <c r="AJ4">
-        <v>0.093920808578221854</v>
+        <v>0.081196146726034549</v>
       </c>
       <c r="AK4">
-        <v>0.1002308174227604</v>
+        <v>0.08133659313061796</v>
       </c>
       <c r="AL4">
-        <v>0.094405667055486336</v>
+        <v>0.079271148143806758</v>
       </c>
       <c r="AM4">
-        <v>0.098124950129175686</v>
+        <v>0.080988543780430508</v>
       </c>
       <c r="AN4">
-        <v>0.096999891392303347</v>
+        <v>0.080129264959373725</v>
       </c>
       <c r="AO4">
-        <v>0.098708138606668328</v>
+        <v>0.080129264975236911</v>
       </c>
       <c r="AP4">
-        <v>0.093920808599288891</v>
+        <v>0.079095600387742229</v>
       </c>
       <c r="AQ4">
-        <v>0.10744147726116454</v>
+        <v>0.077941092329013847</v>
       </c>
       <c r="AR4">
-        <v>0.09416191187073697</v>
+        <v>0.080650476996356996</v>
       </c>
       <c r="AS4">
-        <v>0.092753519617996577</v>
+        <v>0.078420581588099447</v>
       </c>
       <c r="AT4">
-        <v>0.095926573240459431</v>
+        <v>0.077734885682242127</v>
       </c>
       <c r="AU4">
-        <v>0.095926573243874338</v>
+        <v>0.080321960803201711</v>
       </c>
       <c r="AV4">
-        <v>0.097555708514791381</v>
+        <v>0.078420581646933926</v>
       </c>
       <c r="AW4">
-        <v>0.10152058969304714</v>
+        <v>0.077837473224868697</v>
       </c>
       <c r="AX4">
-        <v>0.099918589776239158</v>
+        <v>0.081057340950413462</v>
       </c>
       <c r="AY4">
-        <v>0.096726861203375814</v>
+        <v>0.079212318988873237</v>
       </c>
       <c r="AZ4">
-        <v>0.10219120387465065</v>
+        <v>0.080852144111609098</v>
       </c>
       <c r="BA4">
-        <v>0.10287995471411336</v>
+        <v>0.081550404295843787</v>
       </c>
       <c r="BB4">
-        <v>0.099610284809465918</v>
+        <v>0.079389760482550906</v>
       </c>
       <c r="BC4">
-        <v>0.097276153499876727</v>
+        <v>0.079449548432002456</v>
       </c>
       <c r="BD4">
-        <v>0.10253326367429405</v>
+        <v>0.079691975666958362</v>
       </c>
       <c r="BE4">
-        <v>0.10544533086721253</v>
+        <v>0.07993977695975843</v>
       </c>
       <c r="BF4">
-        <v>0.10253326367878605</v>
+        <v>0.07987731290077825</v>
       </c>
       <c r="BG4">
-        <v>0.098414767335632578</v>
+        <v>0.078865854503245375</v>
       </c>
       <c r="BH4">
-        <v>0.10253326368370622</v>
+        <v>0.080452248030234513</v>
       </c>
       <c r="BI4">
-        <v>0.09812495019340331</v>
+        <v>0.077941092690767308</v>
       </c>
       <c r="BJ4">
-        <v>0.098414767344102039</v>
+        <v>0.079920209443285831</v>
       </c>
       <c r="BK4">
-        <v>0.095153314894798266</v>
+        <v>0.07969947554989365</v>
       </c>
       <c r="BL4">
-        <v>0.10622627131196438</v>
+        <v>0.082069936743663086</v>
       </c>
       <c r="BM4">
-        <v>0.1011918481504411</v>
+        <v>0.080670528896842592</v>
       </c>
       <c r="BN4">
-        <v>0.10583297163417317</v>
+        <v>0.079920179088635662</v>
       </c>
       <c r="BO4">
-        <v>0.096457003287353266</v>
+        <v>0.082810951463350449</v>
       </c>
       <c r="BP4">
-        <v>0.10622627132043257</v>
+        <v>0.080778588562005274</v>
       </c>
       <c r="BQ4">
-        <v>0.10086736323149986</v>
+        <v>0.082878379918539913</v>
       </c>
       <c r="BR4">
-        <v>0.099005133940766848</v>
+        <v>0.083419833885567493</v>
       </c>
       <c r="BS4">
-        <v>0.097838619337088234</v>
+        <v>0.084635850249980424</v>
       </c>
       <c r="BT4">
-        <v>0.097276153550525407</v>
+        <v>0.075573510126685464</v>
       </c>
       <c r="BU4">
-        <v>0.096999891493188689</v>
+        <v>0.06747507468795709</v>
       </c>
       <c r="BV4">
-        <v>0.10358763666924577</v>
+        <v>0.068079535003097505</v>
       </c>
       <c r="BW4">
-        <v>0.10506322017148689</v>
+        <v>0.067061924589002175</v>
       </c>
       <c r="BX4">
-        <v>0.10119184817929884</v>
+        <v>0.066953001814788998</v>
       </c>
       <c r="BY4">
-        <v>0.10253326372627254</v>
+        <v>0.067989845692810122</v>
       </c>
       <c r="BZ4">
-        <v>0.10828247040650313</v>
+        <v>0.066837863116986071</v>
       </c>
       <c r="CA4">
-        <v>0.094901320475340792</v>
+        <v>0.067468854741325232</v>
       </c>
       <c r="CB4">
-        <v>0.10119184818981221</v>
+        <v>0.068298173578557192</v>
       </c>
       <c r="CC4">
-        <v>0.10086736326383434</v>
+        <v>0.06790903232417321</v>
       </c>
       <c r="CD4">
-        <v>0.1046865145694031</v>
+        <v>0.069637116540077149</v>
       </c>
       <c r="CE4">
-        <v>0.1032313778361604</v>
+        <v>0.071050638034063668</v>
       </c>
       <c r="CF4">
-        <v>0.10583297167445306</v>
+        <v>0.071727183482637791</v>
       </c>
       <c r="CG4">
-        <v>0.10622627135782436</v>
+        <v>0.071832986705893928</v>
       </c>
       <c r="CH4">
-        <v>0.10914957786490018</v>
+        <v>0.07225840830666734</v>
       </c>
       <c r="CI4">
-        <v>0.11004412194123611</v>
+        <v>0.072325876037653017</v>
       </c>
       <c r="CJ4">
-        <v>0.10544533093601201</v>
+        <v>0.074045341139214058</v>
       </c>
       <c r="CK4">
-        <v>0.096726861317597571</v>
+        <v>0.073417529365122622</v>
       </c>
       <c r="CL4">
-        <v>0.10431509306789907</v>
+        <v>0.075675978930243998</v>
       </c>
       <c r="CM4">
-        <v>0.10287995480621449</v>
+        <v>0.076676020912901779</v>
       </c>
       <c r="CN4">
-        <v>0.10373350276717198</v>
+        <v>0.074157781658768643</v>
       </c>
       <c r="CO4">
-        <v>0.1051817225410461</v>
+        <v>0.066957998488135634</v>
       </c>
       <c r="CP4">
-        <v>0.10074794580205407</v>
+        <v>0.067480456780195902</v>
       </c>
       <c r="CQ4">
-        <v>0.10236263403146867</v>
+        <v>0.066278817635788481</v>
       </c>
       <c r="CR4">
-        <v>0.109624744886181</v>
+        <v>0.066343536145218443</v>
       </c>
       <c r="CS4">
-        <v>0.10124411063501877</v>
+        <v>0.066660072781657032</v>
       </c>
       <c r="CT4">
-        <v>0.10386717627444127</v>
+        <v>0.065628210869995734</v>
       </c>
       <c r="CU4">
-        <v>0.10922059778878704</v>
+        <v>0.065792206403648967</v>
       </c>
       <c r="CV4">
-        <v>0.099214381676891616</v>
+        <v>0.066594394457061626</v>
       </c>
       <c r="CW4">
-        <v>0.10977929129389082</v>
+        <v>0.067058433081395655</v>
       </c>
       <c r="CX4">
-        <v>0.068382590663596823</v>
+        <v>0.066646014991953287</v>
       </c>
       <c r="CY4">
-        <v>0.059901647788216744</v>
+        <v>0.066810941053655259</v>
       </c>
       <c r="CZ4">
-        <v>0.060189800757965581</v>
+        <v>0.067566836437908007</v>
       </c>
       <c r="DA4">
-        <v>0.058530368374086345</v>
+        <v>0.068096873072894901</v>
       </c>
       <c r="DB4">
-        <v>0.059327132846814075</v>
+        <v>0.068163564669093429</v>
       </c>
       <c r="DC4">
-        <v>0.059444532895030516</v>
+        <v>0.068934143813718873</v>
       </c>
       <c r="DD4">
-        <v>0.058295966833813939</v>
+        <v>0.068835487793751218</v>
       </c>
       <c r="DE4">
-        <v>0.058606568009048114</v>
+        <v>0.068707113732332514</v>
       </c>
       <c r="DF4">
-        <v>0.058745829683040048</v>
+        <v>0.069131419157759805</v>
       </c>
       <c r="DG4">
-        <v>0.058881625192941836</v>
+        <v>0.069075096948589682</v>
       </c>
       <c r="DH4">
-        <v>0.061055257063228792</v>
+        <v>0.069698453098785682</v>
       </c>
       <c r="DI4">
-        <v>0.063939457226608612</v>
+        <v>0.066995822649380241</v>
       </c>
       <c r="DJ4">
-        <v>0.063545808243992294</v>
+        <v>0.067561097541776943</v>
       </c>
       <c r="DK4">
-        <v>0.064942221101882483</v>
+        <v>0.067469058383115524</v>
       </c>
       <c r="DL4">
-        <v>0.065193488753643655</v>
+        <v>0.068546098425034938</v>
       </c>
       <c r="DM4">
-        <v>0.065235512323590053</v>
+        <v>0.068046367607015851</v>
       </c>
       <c r="DN4">
-        <v>0.0663427193037779</v>
+        <v>0.069340405778281725</v>
       </c>
       <c r="DO4">
-        <v>0.067036400829120671</v>
+        <v>0.068420887052108581</v>
       </c>
       <c r="DP4">
-        <v>0.068515088029046073</v>
+        <v>0.069808737184169509</v>
       </c>
       <c r="DQ4">
-        <v>0.068482651174888318</v>
+        <v>0.068921722718541009</v>
       </c>
       <c r="DR4">
-        <v>0.066728805324021104</v>
+        <v>0.06935848596404684</v>
       </c>
       <c r="DS4">
-        <v>0.058860169740358077</v>
+        <v>0.070440928231103622</v>
       </c>
       <c r="DT4">
-        <v>0.059319319041574906</v>
+        <v>0.070769657342939024</v>
       </c>
       <c r="DU4">
-        <v>0.057364656748304925</v>
+        <v>0.069693148081046721</v>
       </c>
       <c r="DV4">
-        <v>0.057285203664002998</v>
+        <v>0.070230321404512033</v>
       </c>
       <c r="DW4">
-        <v>0.05779584145867965</v>
+        <v>0.070292811036479344</v>
       </c>
       <c r="DX4">
-        <v>0.056437644199374047</v>
+        <v>0.071209772271805957</v>
       </c>
       <c r="DY4">
-        <v>0.056340188135854521</v>
+        <v>0.071653402488400825</v>
       </c>
       <c r="DZ4">
-        <v>0.056437834055999579</v>
+        <v>0.070974696415220501</v>
       </c>
       <c r="EA4">
-        <v>0.057008131474638291</v>
+        <v>0.070724906189462672</v>
       </c>
       <c r="EB4">
-        <v>0.057197284375738656</v>
+        <v>0.072234652123357279</v>
       </c>
       <c r="EC4">
-        <v>0.057857549628034674</v>
+        <v>0.070230322917788954</v>
       </c>
       <c r="ED4">
-        <v>0.057859157181374181</v>
+        <v>0.071354642408498772</v>
       </c>
       <c r="EE4">
-        <v>0.058043622965112562</v>
+        <v>0.071209773674061796</v>
       </c>
       <c r="EF4">
-        <v>0.058919584409365032</v>
+        <v>0.070928609679500612</v>
       </c>
       <c r="EG4">
-        <v>0.059060579237682251</v>
+        <v>0.072716358534669581</v>
       </c>
       <c r="EH4">
-        <v>0.060256984788032278</v>
+        <v>0.071885749013783473</v>
       </c>
       <c r="EI4">
-        <v>0.060043632091662198</v>
+        <v>0.07150248885900716</v>
       </c>
       <c r="EJ4">
-        <v>0.060682636984729178</v>
+        <v>0.071938384207107589</v>
       </c>
       <c r="EK4">
-        <v>0.060632840015752809</v>
+        <v>0.072207235921441695</v>
       </c>
       <c r="EL4">
-        <v>0.06179699495817341</v>
+        <v>0.071833484137307294</v>
       </c>
       <c r="EM4">
-        <v>0.05745962581725049</v>
+        <v>0.07231750407923257</v>
       </c>
       <c r="EN4">
-        <v>0.058723088155230092</v>
+        <v>0.072834163482852862</v>
       </c>
       <c r="EO4">
-        <v>0.058647253301906087</v>
+        <v>0.073229538911813608</v>
       </c>
       <c r="EP4">
-        <v>0.059483478794662731</v>
+        <v>0.073260773095437229</v>
       </c>
       <c r="EQ4">
-        <v>0.058861928820335488</v>
+        <v>0.07425727301935886</v>
       </c>
       <c r="ER4">
-        <v>0.059330853896541497</v>
+        <v>0.073386923143538743</v>
       </c>
       <c r="ES4">
-        <v>0.060264274019358632</v>
+        <v>0.072044778820243502</v>
       </c>
       <c r="ET4">
-        <v>0.059639676249092631</v>
+        <v>0.072485937263920941</v>
       </c>
       <c r="EU4">
-        <v>0.059890047731416512</v>
+        <v>0.073482830515786815</v>
       </c>
       <c r="EV4">
-        <v>0.061566100374626023</v>
+        <v>0.074802950111662075</v>
       </c>
       <c r="EW4">
-        <v>0.060018749667224487</v>
+        <v>0.073979755976833525</v>
       </c>
       <c r="EX4">
-        <v>0.060302823378172297</v>
+        <v>0.072893732390140853</v>
       </c>
       <c r="EY4">
-        <v>0.062337078039758118</v>
+        <v>0.073645200833360611</v>
       </c>
       <c r="EZ4">
-        <v>0.063246117147215855</v>
+        <v>0.073418769060296707</v>
       </c>
       <c r="FA4">
-        <v>0.063891303273496791</v>
+        <v>0.072629154141833116</v>
       </c>
       <c r="FB4">
-        <v>0.062620336986346795</v>
+        <v>0.074878338777129461</v>
       </c>
       <c r="FC4">
-        <v>0.062211541836184624</v>
+        <v>0.07429260636974544</v>
       </c>
       <c r="FD4">
-        <v>0.064522090015773276</v>
+        <v>0.076578948862867799</v>
       </c>
       <c r="FE4">
-        <v>0.062646584471527211</v>
+        <v>0.074471464378070187</v>
       </c>
       <c r="FF4">
-        <v>0.06353341318381979</v>
+        <v>0.074765497066165795</v>
       </c>
       <c r="FG4">
-        <v>0.06353341348190622</v>
+        <v>0.07367806180809075</v>
       </c>
       <c r="FH4">
-        <v>0.064013934753902435</v>
+        <v>0.073075157894085307</v>
       </c>
       <c r="FI4">
-        <v>0.062137157281577357</v>
+        <v>0.073198428674874985</v>
       </c>
       <c r="FJ4">
-        <v>0.065095097126782089</v>
+        <v>0.073645202963063636</v>
       </c>
       <c r="FK4">
-        <v>0.064296219281415837</v>
+        <v>0.073877984237084929</v>
       </c>
       <c r="FL4">
-        <v>0.064232712856236343</v>
+        <v>0.073979758826449235</v>
       </c>
       <c r="FM4">
-        <v>0.063050649218929541</v>
+        <v>0.075304722436040236</v>
       </c>
       <c r="FN4">
-        <v>0.06442459721296058</v>
+        <v>0.074878340944936436</v>
       </c>
       <c r="FO4">
+        <v>0.074580575577496019</v>
+      </c>
+      <c r="FP4">
+        <v>0.077941105326464838</v>
+      </c>
+      <c r="FQ4">
+        <v>0.074082773063849333</v>
+      </c>
+      <c r="FR4">
+        <v>0.077140189723454364</v>
+      </c>
+      <c r="FS4">
+        <v>0.075225684764227391</v>
+      </c>
+      <c r="FT4">
+        <v>0.074954374187000211</v>
+      </c>
+      <c r="FU4">
+        <v>0.07950967337356829</v>
+      </c>
+      <c r="FV4">
+        <v>0.074617251478043572</v>
+      </c>
+      <c r="FW4">
+        <v>0.076716281840057396</v>
+      </c>
+      <c r="FX4">
+        <v>0.076048394756822443</v>
+      </c>
+      <c r="FY4">
+        <v>0.075710496963982299</v>
+      </c>
+      <c r="FZ4">
+        <v>0.076855569941045379</v>
+      </c>
+      <c r="GA4">
+        <v>0.07820477400409287</v>
+      </c>
+      <c r="GB4">
+        <v>0.076134799963544136</v>
+      </c>
+      <c r="GC4">
+        <v>0.076048395656547516</v>
+      </c>
+      <c r="GD4">
+        <v>0.076902442238841198</v>
+      </c>
+      <c r="GE4">
+        <v>0.07773490115062788</v>
+      </c>
+      <c r="GF4">
+        <v>0.078312132614057131</v>
+      </c>
+      <c r="GG4">
+        <v>0.07820477493719645</v>
+      </c>
+      <c r="GH4">
+        <v>0.075752074186170901</v>
+      </c>
+      <c r="GI4">
+        <v>0.077433175772327237</v>
+      </c>
+      <c r="GJ4">
+        <v>0.077092185117293599</v>
+      </c>
+      <c r="GK4">
+        <v>0.078922850893257554</v>
+      </c>
+      <c r="GL4">
+        <v>0.077383749173133523</v>
+      </c>
+      <c r="GM4">
+        <v>0.078809187823740912</v>
+      </c>
+      <c r="GN4">
+        <v>0.076048397719424829</v>
+      </c>
+      <c r="GO4">
+        <v>0.075586879622903391</v>
+      </c>
+      <c r="GP4">
+        <v>0.079449563766028408</v>
+      </c>
+      <c r="GQ4">
+        <v>0.078696712990390105</v>
+      </c>
+      <c r="GR4">
+        <v>0.078980135174035654</v>
+      </c>
+      <c r="GS4">
+        <v>0.078696713314050995</v>
+      </c>
+      <c r="GT4">
+        <v>0.076996861677047196</v>
+      </c>
+      <c r="GU4">
+        <v>0.07809850846738893</v>
+      </c>
+      <c r="GV4">
+        <v>0.078530186686184278</v>
+      </c>
+      <c r="GW4">
+        <v>0.077236908739600402</v>
+      </c>
+      <c r="GX4">
+        <v>0.076949541458021992</v>
+      </c>
+      <c r="GY4">
+        <v>0.077993312559702599</v>
+      </c>
+      <c r="GZ4">
+        <v>0.07809850942050868</v>
+      </c>
+      <c r="HA4">
+        <v>0.078922853619950897</v>
+      </c>
+      <c r="HB4">
+        <v>0.080002605105187252</v>
+      </c>
+      <c r="HC4">
+        <v>0.080717329216212844</v>
+      </c>
+      <c r="HD4">
+        <v>0.078865872776763241</v>
+      </c>
+      <c r="HE4">
+        <v>0.079691993219340784</v>
+      </c>
+      <c r="HF4">
+        <v>0.078640917451091044</v>
+      </c>
+      <c r="HG4">
+        <v>0.078640917645361727</v>
+      </c>
+      <c r="HH4">
+        <v>0.080717330029938111</v>
+      </c>
+      <c r="HI4">
+        <v>0.080257385165470971</v>
+      </c>
+      <c r="HJ4">
+        <v>0.079815211502470701</v>
+      </c>
+      <c r="HK4">
+        <v>0.080257385504494766</v>
+      </c>
+      <c r="HL4">
+        <v>0.079037726099655106</v>
+      </c>
+      <c r="HM4">
         <v>0</v>
       </c>
-      <c r="FP4">
+      <c r="HN4">
         <v>0</v>
       </c>
-      <c r="FQ4">
-        <v>0.045931562943395732</v>
+      <c r="HO4">
+        <v>0.056796216162723727</v>
       </c>
     </row>
   </sheetData>

--- a/tables/coefficients.xlsx
+++ b/tables/coefficients.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="29360" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="31148" uniqueCount="239">
   <si>
     <t>y1</t>
   </si>
@@ -2123,661 +2123,661 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>0.65629927303669733</v>
+        <v>0.64133756975113476</v>
       </c>
       <c r="C3">
-        <v>-0.9096979055463974</v>
+        <v>-0.89649573419368844</v>
       </c>
       <c r="D3">
-        <v>-0.91091878230776713</v>
+        <v>-0.87011812325635962</v>
       </c>
       <c r="E3">
-        <v>-0.91492090604766407</v>
+        <v>-0.89930491971483151</v>
       </c>
       <c r="F3">
-        <v>0.49383824676133303</v>
+        <v>0.55372805032910499</v>
       </c>
       <c r="G3">
-        <v>0.54472073002159815</v>
+        <v>0.53538704336016041</v>
       </c>
       <c r="H3">
-        <v>0.46185010295623907</v>
+        <v>0.47540634540473409</v>
       </c>
       <c r="I3">
-        <v>0.21537697562914193</v>
+        <v>0.20378561281725427</v>
       </c>
       <c r="J3">
-        <v>0.21892524380175163</v>
+        <v>0.24075103663586062</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>-1.6089181985733694</v>
+        <v>-1.7681987276900273</v>
       </c>
       <c r="M3">
-        <v>-1.4185539879680329</v>
+        <v>-1.6779342013395975</v>
       </c>
       <c r="N3">
-        <v>-1.5900244611138552</v>
+        <v>-1.6583771914050529</v>
       </c>
       <c r="O3">
-        <v>-1.6880361378155546</v>
+        <v>-1.5513480080497717</v>
       </c>
       <c r="P3">
-        <v>-1.4603504405836076</v>
+        <v>-1.6853553196579225</v>
       </c>
       <c r="Q3">
-        <v>-1.6225127806141038</v>
+        <v>-1.4691754129169519</v>
       </c>
       <c r="R3">
-        <v>-1.5784651211058855</v>
+        <v>-1.6460846168986472</v>
       </c>
       <c r="S3">
-        <v>-1.4808085495518537</v>
+        <v>-1.6640791671346706</v>
       </c>
       <c r="T3">
-        <v>-1.732470486280167</v>
+        <v>-1.564616877669001</v>
       </c>
       <c r="U3">
-        <v>-1.6106921037700246</v>
+        <v>-1.4739607229667417</v>
       </c>
       <c r="V3">
-        <v>-1.6548156512383008</v>
+        <v>-1.6156799544742899</v>
       </c>
       <c r="W3">
-        <v>-1.5496225799336023</v>
+        <v>-1.3339339298296427</v>
       </c>
       <c r="X3">
-        <v>-1.6351254382234117</v>
+        <v>-1.3817848342146</v>
       </c>
       <c r="Y3">
-        <v>-1.6525889149419075</v>
+        <v>-1.5518975405605986</v>
       </c>
       <c r="Z3">
-        <v>-1.6518760958492427</v>
+        <v>-1.509607733240566</v>
       </c>
       <c r="AA3">
-        <v>-1.4224380432068933</v>
+        <v>-1.5088006253110191</v>
       </c>
       <c r="AB3">
-        <v>-1.4511855785407577</v>
+        <v>-1.4148630116129757</v>
       </c>
       <c r="AC3">
-        <v>-1.5285112224939741</v>
+        <v>-1.4829981302213793</v>
       </c>
       <c r="AD3">
-        <v>-1.5607781925684674</v>
+        <v>-1.5062766741093987</v>
       </c>
       <c r="AE3">
-        <v>-1.4870604648457513</v>
+        <v>-1.2805964992265577</v>
       </c>
       <c r="AF3">
-        <v>-1.4478839669831014</v>
+        <v>-1.2926602491718757</v>
       </c>
       <c r="AG3">
-        <v>-1.5752370009927692</v>
+        <v>-1.4480761921451952</v>
       </c>
       <c r="AH3">
-        <v>-1.3461093703906906</v>
+        <v>-1.3874721748674224</v>
       </c>
       <c r="AI3">
-        <v>-1.4604288024120591</v>
+        <v>-1.3509526901966391</v>
       </c>
       <c r="AJ3">
-        <v>-1.5812215229149162</v>
+        <v>-1.4766257399889156</v>
       </c>
       <c r="AK3">
-        <v>-1.6519413315891733</v>
+        <v>-1.4142071628732031</v>
       </c>
       <c r="AL3">
-        <v>-1.5049893665593204</v>
+        <v>-1.4283637366210282</v>
       </c>
       <c r="AM3">
-        <v>-1.5366995482091614</v>
+        <v>-1.4274882887811762</v>
       </c>
       <c r="AN3">
-        <v>-1.5525727808964793</v>
+        <v>-1.4652435168618987</v>
       </c>
       <c r="AO3">
-        <v>-1.4035918211575864</v>
+        <v>-1.4182177937288967</v>
       </c>
       <c r="AP3">
-        <v>-1.509695907039605</v>
+        <v>-1.5202340517763873</v>
       </c>
       <c r="AQ3">
-        <v>-1.4091310505996462</v>
+        <v>-1.5278070576987877</v>
       </c>
       <c r="AR3">
-        <v>-1.4999286968313805</v>
+        <v>-1.3362413935943218</v>
       </c>
       <c r="AS3">
-        <v>-1.4990982643319082</v>
+        <v>-1.5011470653287504</v>
       </c>
       <c r="AT3">
-        <v>-1.3706972631702949</v>
+        <v>-1.3344673972313597</v>
       </c>
       <c r="AU3">
-        <v>-1.5549745694022608</v>
+        <v>-1.5584837999135928</v>
       </c>
       <c r="AV3">
-        <v>-1.3760367142187857</v>
+        <v>-1.3609213101619011</v>
       </c>
       <c r="AW3">
-        <v>-1.3966129145886248</v>
+        <v>-1.4813991687248902</v>
       </c>
       <c r="AX3">
-        <v>-1.6225588592798816</v>
+        <v>-1.3035578477218661</v>
       </c>
       <c r="AY3">
-        <v>-1.5431511050218301</v>
+        <v>-1.4635701140265922</v>
       </c>
       <c r="AZ3">
-        <v>-1.4772654710487858</v>
+        <v>-1.5199068704058905</v>
       </c>
       <c r="BA3">
-        <v>-1.5757111131843562</v>
+        <v>-1.3929030089585079</v>
       </c>
       <c r="BB3">
-        <v>-1.3430392148140133</v>
+        <v>-1.3274271655676178</v>
       </c>
       <c r="BC3">
-        <v>-1.3700549148635248</v>
+        <v>-1.4135104556282829</v>
       </c>
       <c r="BD3">
-        <v>-1.4580970166782896</v>
+        <v>-1.2780799876611995</v>
       </c>
       <c r="BE3">
-        <v>-1.472863128897024</v>
+        <v>-1.4192124516443565</v>
       </c>
       <c r="BF3">
-        <v>-1.472009903617798</v>
+        <v>-1.4977694748653261</v>
       </c>
       <c r="BG3">
-        <v>-1.410041341804541</v>
+        <v>-1.3228523171418782</v>
       </c>
       <c r="BH3">
-        <v>-1.5608813396010603</v>
+        <v>-1.6096831761220163</v>
       </c>
       <c r="BI3">
-        <v>-1.4461085917868597</v>
+        <v>-1.5035518484275745</v>
       </c>
       <c r="BJ3">
-        <v>-1.0098997078752323</v>
+        <v>-1.0575606869998244</v>
       </c>
       <c r="BK3">
-        <v>-0.98758993516662019</v>
+        <v>-1.0338499258421232</v>
       </c>
       <c r="BL3">
-        <v>-0.98660313858275073</v>
+        <v>-1.1275238106873817</v>
       </c>
       <c r="BM3">
-        <v>-1.0662872137937838</v>
+        <v>-1.1863233118898442</v>
       </c>
       <c r="BN3">
-        <v>-1.1448384869289334</v>
+        <v>-1.0541326293315256</v>
       </c>
       <c r="BO3">
-        <v>-1.1687561243863176</v>
+        <v>-1.1497618456852579</v>
       </c>
       <c r="BP3">
-        <v>-1.0710454913725627</v>
+        <v>-0.89101536545713311</v>
       </c>
       <c r="BQ3">
-        <v>-1.2556362688612732</v>
+        <v>-1.029139844690967</v>
       </c>
       <c r="BR3">
-        <v>-1.2084185588843088</v>
+        <v>-1.1897890946097318</v>
       </c>
       <c r="BS3">
-        <v>-1.1814083483503479</v>
+        <v>-1.0565478610681602</v>
       </c>
       <c r="BT3">
-        <v>-0.81103239306755992</v>
+        <v>-0.70095031426405929</v>
       </c>
       <c r="BU3">
-        <v>-0.65827574043064829</v>
+        <v>-0.68222005674853825</v>
       </c>
       <c r="BV3">
-        <v>-0.69342768219867723</v>
+        <v>-0.64742091099283128</v>
       </c>
       <c r="BW3">
-        <v>-0.72308942811142807</v>
+        <v>-0.5841021736212898</v>
       </c>
       <c r="BX3">
-        <v>-0.60499073897735078</v>
+        <v>-0.67457400380722388</v>
       </c>
       <c r="BY3">
-        <v>-0.75941264323066038</v>
+        <v>-0.59544101901576896</v>
       </c>
       <c r="BZ3">
-        <v>-0.66441322314435569</v>
+        <v>-0.53913389929768296</v>
       </c>
       <c r="CA3">
-        <v>-0.63683570751033647</v>
+        <v>-0.62987444402963899</v>
       </c>
       <c r="CB3">
-        <v>-0.75186302273499561</v>
+        <v>-0.69481938603180893</v>
       </c>
       <c r="CC3">
-        <v>-0.63675966573102605</v>
+        <v>-0.7743842575409603</v>
       </c>
       <c r="CD3">
-        <v>-0.42723134627553777</v>
+        <v>-0.46149039260018498</v>
       </c>
       <c r="CE3">
-        <v>-0.28424245108703994</v>
+        <v>-0.081008925562016165</v>
       </c>
       <c r="CF3">
-        <v>-0.29327029674155786</v>
+        <v>-0.19595721406675121</v>
       </c>
       <c r="CG3">
-        <v>-0.25702518679868175</v>
+        <v>-0.11294427683384059</v>
       </c>
       <c r="CH3">
-        <v>-0.242050899795163</v>
+        <v>-0.17776588789446954</v>
       </c>
       <c r="CI3">
-        <v>-0.20969067224460383</v>
+        <v>-0.11797653281797779</v>
       </c>
       <c r="CJ3">
-        <v>-0.24088115723342104</v>
+        <v>-0.18285607113204069</v>
       </c>
       <c r="CK3">
-        <v>-0.085348975631603943</v>
+        <v>-0.2600546447898755</v>
       </c>
       <c r="CL3">
-        <v>-0.21546942324331234</v>
+        <v>-0.14452601194123693</v>
       </c>
       <c r="CM3">
-        <v>-0.27472441446913781</v>
+        <v>-0.33387230221401665</v>
       </c>
       <c r="CN3">
-        <v>-0.39752240593772831</v>
+        <v>-0.38359894023336893</v>
       </c>
       <c r="CO3">
-        <v>-0.083670431965075676</v>
+        <v>-0.26307715526784564</v>
       </c>
       <c r="CP3">
-        <v>-0.19042334750282286</v>
+        <v>-0.20783064572509788</v>
       </c>
       <c r="CQ3">
-        <v>-0.25087819232798542</v>
+        <v>-0.23604257747409482</v>
       </c>
       <c r="CR3">
-        <v>-0.23958723289866227</v>
+        <v>-0.060700445035804872</v>
       </c>
       <c r="CS3">
-        <v>-0.2283045496314943</v>
+        <v>-0.22373810532800745</v>
       </c>
       <c r="CT3">
-        <v>-0.18356878459715553</v>
+        <v>-0.15662586048591343</v>
       </c>
       <c r="CU3">
-        <v>-0.13645006275010013</v>
+        <v>-0.020085116238026928</v>
       </c>
       <c r="CV3">
-        <v>-0.25953123722995991</v>
+        <v>-0.087971211472976846</v>
       </c>
       <c r="CW3">
-        <v>-0.33466923130230314</v>
+        <v>-0.19949268083157867</v>
       </c>
       <c r="CX3">
-        <v>-0.1463952121889889</v>
+        <v>-0.12160002589474851</v>
       </c>
       <c r="CY3">
-        <v>0.071030341864547153</v>
+        <v>0.062415664989026058</v>
       </c>
       <c r="CZ3">
-        <v>-0.056863405504543899</v>
+        <v>0.04557696942451072</v>
       </c>
       <c r="DA3">
-        <v>-0.099893239741073614</v>
+        <v>0.067513956430994684</v>
       </c>
       <c r="DB3">
-        <v>-0.056818791204155637</v>
+        <v>-0.027499625892097652</v>
       </c>
       <c r="DC3">
-        <v>-0.056735422004800438</v>
+        <v>0.014421281490531483</v>
       </c>
       <c r="DD3">
-        <v>-0.0056832075876203595</v>
+        <v>0.048867170263233076</v>
       </c>
       <c r="DE3">
-        <v>0.066143937743885467</v>
+        <v>0.035367433699454331</v>
       </c>
       <c r="DF3">
-        <v>-0.015645071692660838</v>
+        <v>-0.046862790262746902</v>
       </c>
       <c r="DG3">
-        <v>0.043248247667653755</v>
+        <v>0.0069275644182129857</v>
       </c>
       <c r="DH3">
-        <v>-0.05323597104019788</v>
+        <v>0.040589235738156731</v>
       </c>
       <c r="DI3">
-        <v>0.15630782844791843</v>
+        <v>0.1010468239457072</v>
       </c>
       <c r="DJ3">
-        <v>0.12780623354809215</v>
+        <v>0.089375633666364293</v>
       </c>
       <c r="DK3">
-        <v>0.17206158934729665</v>
+        <v>0.16224770182255494</v>
       </c>
       <c r="DL3">
-        <v>0.043189872549616766</v>
+        <v>0.044823832567648055</v>
       </c>
       <c r="DM3">
-        <v>0.17322373239590091</v>
+        <v>0.12499021787416358</v>
       </c>
       <c r="DN3">
-        <v>0.051513696123400808</v>
+        <v>0.22851609901972958</v>
       </c>
       <c r="DO3">
-        <v>0.15979433044724231</v>
+        <v>0.13373295969236948</v>
       </c>
       <c r="DP3">
-        <v>0.063875899079922985</v>
+        <v>0.18699404194607458</v>
       </c>
       <c r="DQ3">
-        <v>0.15334968376916885</v>
+        <v>0.036324139263710968</v>
       </c>
       <c r="DR3">
-        <v>0.10019685573438167</v>
+        <v>0.065591116739151675</v>
       </c>
       <c r="DS3">
-        <v>0.043324518356592651</v>
+        <v>0.044022588449644219</v>
       </c>
       <c r="DT3">
-        <v>0.017433362607951919</v>
+        <v>0.11439095614540083</v>
       </c>
       <c r="DU3">
-        <v>0.11594068984596802</v>
+        <v>0.19963507374223236</v>
       </c>
       <c r="DV3">
-        <v>0.088185566210157287</v>
+        <v>0.14288180159425437</v>
       </c>
       <c r="DW3">
-        <v>0.088191650984969741</v>
+        <v>0.021163800681486565</v>
       </c>
       <c r="DX3">
-        <v>0.071686714962369447</v>
+        <v>0.077185650493015193</v>
       </c>
       <c r="DY3">
-        <v>-0.0020840679296979915</v>
+        <v>0.010798412612387417</v>
       </c>
       <c r="DZ3">
-        <v>0.099987212075081863</v>
+        <v>0.16242659988567718</v>
       </c>
       <c r="EA3">
-        <v>0.12427021195819531</v>
+        <v>0.076318962702823887</v>
       </c>
       <c r="EB3">
-        <v>0.014456598310831936</v>
+        <v>0.22424592899074894</v>
       </c>
       <c r="EC3">
-        <v>0.21647860717393147</v>
+        <v>0.28321577746502907</v>
       </c>
       <c r="ED3">
-        <v>0.13290171484980273</v>
+        <v>0.067964130544593312</v>
       </c>
       <c r="EE3">
-        <v>0.10870015306382262</v>
+        <v>0.11489037045235931</v>
       </c>
       <c r="EF3">
-        <v>0.14531600811260631</v>
+        <v>0.035630627297155076</v>
       </c>
       <c r="EG3">
-        <v>0.017534528044264686</v>
+        <v>0.21138680512053301</v>
       </c>
       <c r="EH3">
-        <v>0.10432778112916159</v>
+        <v>0.17258228767350761</v>
       </c>
       <c r="EI3">
-        <v>0.1495415334320985</v>
+        <v>0.16070032478364901</v>
       </c>
       <c r="EJ3">
-        <v>0.11279427222394256</v>
+        <v>0.043389439691586623</v>
       </c>
       <c r="EK3">
-        <v>0.10430904109649532</v>
+        <v>0.22451093426940499</v>
       </c>
       <c r="EL3">
-        <v>0.1336052063503399</v>
+        <v>0.051787607645354033</v>
       </c>
       <c r="EM3">
-        <v>0.1169441831804363</v>
+        <v>0.069396622291524254</v>
       </c>
       <c r="EN3">
-        <v>0.09109144195952347</v>
+        <v>-0.057861386220428336</v>
       </c>
       <c r="EO3">
-        <v>0.050633648177229172</v>
+        <v>-0.018720065939740974</v>
       </c>
       <c r="EP3">
-        <v>0.0590985584476003</v>
+        <v>0.066602333814774484</v>
       </c>
       <c r="EQ3">
-        <v>-0.0025167856418685224</v>
+        <v>0.13748765042599945</v>
       </c>
       <c r="ER3">
-        <v>0.071294412827903594</v>
+        <v>0.070080972535282629</v>
       </c>
       <c r="ES3">
-        <v>0.17816852761811625</v>
+        <v>0.045778792785241551</v>
       </c>
       <c r="ET3">
-        <v>0.16204381373184301</v>
+        <v>0.17502705918158667</v>
       </c>
       <c r="EU3">
-        <v>0.075066668945287754</v>
+        <v>0.10964518613693278</v>
       </c>
       <c r="EV3">
-        <v>-0.0064400937423309875</v>
+        <v>0.11372721104808296</v>
       </c>
       <c r="EW3">
-        <v>0.064402247250813338</v>
+        <v>0.028178592451235548</v>
       </c>
       <c r="EX3">
-        <v>0.15286007941020288</v>
+        <v>-0.023872194561613175</v>
       </c>
       <c r="EY3">
-        <v>0.091106742341490896</v>
+        <v>0.069478781713098972</v>
       </c>
       <c r="EZ3">
-        <v>0.12215315523815712</v>
+        <v>0.044356047688927036</v>
       </c>
       <c r="FA3">
-        <v>0.17821317418150662</v>
+        <v>0.15963088957129545</v>
       </c>
       <c r="FB3">
-        <v>0.023275269855804109</v>
+        <v>0.081514502315614912</v>
       </c>
       <c r="FC3">
-        <v>0.061057606597804556</v>
+        <v>0.19819810962155193</v>
       </c>
       <c r="FD3">
-        <v>-0.061968684366554651</v>
+        <v>0.099440633890166219</v>
       </c>
       <c r="FE3">
-        <v>0.073283057293082543</v>
+        <v>0.16311957316139378</v>
       </c>
       <c r="FF3">
-        <v>0.05811638670500871</v>
+        <v>0.17629513327978735</v>
       </c>
       <c r="FG3">
-        <v>0.14562066197107443</v>
+        <v>0.18065911199376836</v>
       </c>
       <c r="FH3">
-        <v>0.18494800599655947</v>
+        <v>0.017248526820683983</v>
       </c>
       <c r="FI3">
-        <v>0.17644558465908117</v>
+        <v>0.1202549572779565</v>
       </c>
       <c r="FJ3">
-        <v>0.15440174843047744</v>
+        <v>0.060972245543227353</v>
       </c>
       <c r="FK3">
-        <v>0.14523962470770274</v>
+        <v>-0.002825569598500791</v>
       </c>
       <c r="FL3">
-        <v>0.14043977879286915</v>
+        <v>0.10800009103102502</v>
       </c>
       <c r="FM3">
-        <v>0.058786064837480848</v>
+        <v>0.1169045561866526</v>
       </c>
       <c r="FN3">
-        <v>0.092212120659206295</v>
+        <v>0.051197624470338841</v>
       </c>
       <c r="FO3">
-        <v>0.12493255320491362</v>
+        <v>0.085566391542290149</v>
       </c>
       <c r="FP3">
-        <v>-0.073468381279192141</v>
+        <v>0.032870820312689682</v>
       </c>
       <c r="FQ3">
-        <v>0.15587300759666203</v>
+        <v>0.14698244814113232</v>
       </c>
       <c r="FR3">
-        <v>-0.015129938937176634</v>
+        <v>0.12231148018688305</v>
       </c>
       <c r="FS3">
-        <v>0.097386009421423003</v>
+        <v>0.21527399441533843</v>
       </c>
       <c r="FT3">
-        <v>0.1112712567484528</v>
+        <v>0.091095046586634795</v>
       </c>
       <c r="FU3">
-        <v>-0.13773128661497205</v>
+        <v>0.010231962062451716</v>
       </c>
       <c r="FV3">
-        <v>0.14745696721054197</v>
+        <v>0.0027952807934091442</v>
       </c>
       <c r="FW3">
-        <v>0.020671836205789294</v>
+        <v>0.023114585179860214</v>
       </c>
       <c r="FX3">
-        <v>0.061492041978822888</v>
+        <v>0.075217190550657398</v>
       </c>
       <c r="FY3">
-        <v>0.096132202687646925</v>
+        <v>0.12529796209373847</v>
       </c>
       <c r="FZ3">
-        <v>0.032543269056799641</v>
+        <v>0.029426572150961988</v>
       </c>
       <c r="GA3">
-        <v>-0.047845196906658428</v>
+        <v>0.081814329956956144</v>
       </c>
       <c r="GB3">
-        <v>0.076963123146065515</v>
+        <v>0.020417806664760993</v>
       </c>
       <c r="GC3">
-        <v>0.09131905155828067</v>
+        <v>0.0013804046766098471</v>
       </c>
       <c r="GD3">
-        <v>0.037223637923186163</v>
+        <v>0.10887829725344818</v>
       </c>
       <c r="GE3">
-        <v>0.0022322807468535899</v>
+        <v>0.026247104935493152</v>
       </c>
       <c r="GF3">
-        <v>-0.034457886130859934</v>
+        <v>0.11150715194340807</v>
       </c>
       <c r="GG3">
-        <v>-0.019140193599033906</v>
+        <v>0.045348325386741974</v>
       </c>
       <c r="GH3">
-        <v>0.12049171900283297</v>
+        <v>-0.12123053456381343</v>
       </c>
       <c r="GI3">
-        <v>0.028686148059911279</v>
+        <v>0.10688455491239025</v>
       </c>
       <c r="GJ3">
-        <v>0.060125379415670997</v>
+        <v>0.0048014504051291165</v>
       </c>
       <c r="GK3">
-        <v>-0.039058528532543449</v>
+        <v>-0.090542856890078446</v>
       </c>
       <c r="GL3">
-        <v>0.045645985843242073</v>
+        <v>-3.899830444640821e-05</v>
       </c>
       <c r="GM3">
-        <v>-0.025557104495612635</v>
+        <v>-0.077062579904279491</v>
       </c>
       <c r="GN3">
-        <v>0.12823452133832858</v>
+        <v>0.012949988687612244</v>
       </c>
       <c r="GO3">
-        <v>0.16299736094581621</v>
+        <v>0.10185708703790702</v>
       </c>
       <c r="GP3">
-        <v>-0.043753819590569822</v>
+        <v>0.020704708046130831</v>
       </c>
       <c r="GQ3">
-        <v>-0.0037528825754025033</v>
+        <v>0.15229029457969495</v>
       </c>
       <c r="GR3">
-        <v>-0.01203835816292541</v>
+        <v>0.14605697567366754</v>
       </c>
       <c r="GS3">
-        <v>0.0036422750108984553</v>
+        <v>0.067884908495414106</v>
       </c>
       <c r="GT3">
-        <v>0.098533249996435729</v>
+        <v>0.15420609467423327</v>
       </c>
       <c r="GU3">
-        <v>0.046654223392313357</v>
+        <v>0.20485674627455042</v>
       </c>
       <c r="GV3">
-        <v>0.021346562177197728</v>
+        <v>0.015512790218603561</v>
       </c>
       <c r="GW3">
-        <v>0.099408892718531511</v>
+        <v>0.019227412319063889</v>
       </c>
       <c r="GX3">
-        <v>0.11990928011808351</v>
+        <v>0.082258793471947603</v>
       </c>
       <c r="GY3">
-        <v>0.068428109477010848</v>
+        <v>0.014633971890653621</v>
       </c>
       <c r="GZ3">
-        <v>0.066677342002826157</v>
+        <v>0.095684356068482052</v>
       </c>
       <c r="HA3">
-        <v>0.023502292254509578</v>
+        <v>0.099709674271810989</v>
       </c>
       <c r="HB3">
-        <v>-0.02852778093380582</v>
+        <v>0.074705795253225765</v>
       </c>
       <c r="HC3">
-        <v>-0.057329047128051445</v>
+        <v>0.084524133192036402</v>
       </c>
       <c r="HD3">
-        <v>0.040477262904569031</v>
+        <v>0.088504688544032234</v>
       </c>
       <c r="HE3">
-        <v>0.0014567848413348467</v>
+        <v>0.14389997696880383</v>
       </c>
       <c r="HF3">
-        <v>0.06001930604873746</v>
+        <v>0.10837686937123148</v>
       </c>
       <c r="HG3">
-        <v>0.063977166981577974</v>
+        <v>0.083066982986790813</v>
       </c>
       <c r="HH3">
-        <v>-0.038267924054881594</v>
+        <v>0.15059412911261821</v>
       </c>
       <c r="HI3">
-        <v>-0.015101132289416768</v>
+        <v>0.073239923442162555</v>
       </c>
       <c r="HJ3">
-        <v>0.014096377132869518</v>
+        <v>0.16991876779497175</v>
       </c>
       <c r="HK3">
-        <v>-0.0076505240143879584</v>
+        <v>-0.068883692125811274</v>
       </c>
       <c r="HL3">
-        <v>0.058687931082048492</v>
+        <v>0.066540175961398371</v>
       </c>
       <c r="HM3">
         <v>0</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="HO3">
-        <v>-5.5940504573414831</v>
+        <v>-5.6128490048096999</v>
       </c>
     </row>
     <row r="4">
@@ -2794,661 +2794,661 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.072171105974919769</v>
+        <v>0.07099779484748138</v>
       </c>
       <c r="C4">
-        <v>0.05158381771681677</v>
+        <v>0.051134397716099053</v>
       </c>
       <c r="D4">
-        <v>0.063326271087694591</v>
+        <v>0.061727476085624532</v>
       </c>
       <c r="E4">
-        <v>0.080305209872274713</v>
+        <v>0.079455130552617811</v>
       </c>
       <c r="F4">
-        <v>0.047100816214106736</v>
+        <v>0.048488138298797154</v>
       </c>
       <c r="G4">
-        <v>0.039627879834855821</v>
+        <v>0.038748835582053408</v>
       </c>
       <c r="H4">
-        <v>0.031498720316859991</v>
+        <v>0.030810766159539434</v>
       </c>
       <c r="I4">
-        <v>0.035054388900035358</v>
+        <v>0.034385665215633757</v>
       </c>
       <c r="J4">
-        <v>0.034775305388177823</v>
+        <v>0.034747537502286964</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.10918545116865479</v>
+        <v>0.11716624496491505</v>
       </c>
       <c r="M4">
-        <v>0.10207867192464637</v>
+        <v>0.11329197609885258</v>
       </c>
       <c r="N4">
-        <v>0.10850262267946374</v>
+        <v>0.11250358538571838</v>
       </c>
       <c r="O4">
-        <v>0.11251565583277688</v>
+        <v>0.10823411532180054</v>
       </c>
       <c r="P4">
-        <v>0.10365619919354624</v>
+        <v>0.11369541300341895</v>
       </c>
       <c r="Q4">
-        <v>0.10988797973963889</v>
+        <v>0.10518174934862777</v>
       </c>
       <c r="R4">
-        <v>0.10816832650338024</v>
+        <v>0.11211833747061928</v>
       </c>
       <c r="S4">
-        <v>0.10448980008927157</v>
+        <v>0.11289475007949701</v>
       </c>
       <c r="T4">
-        <v>0.1145722506873359</v>
+        <v>0.1088956882431852</v>
       </c>
       <c r="U4">
-        <v>0.10953419739685166</v>
+        <v>0.10546924864967429</v>
       </c>
       <c r="V4">
-        <v>0.11135583722707325</v>
+        <v>0.11099671778891844</v>
       </c>
       <c r="W4">
-        <v>0.10719269289945206</v>
+        <v>0.1005683030005526</v>
       </c>
       <c r="X4">
-        <v>0.11061111867812143</v>
+        <v>0.10224538913225395</v>
       </c>
       <c r="Y4">
-        <v>0.11135583723481821</v>
+        <v>0.10856260244307187</v>
       </c>
       <c r="Z4">
-        <v>0.1113558372359876</v>
+        <v>0.10696421690196789</v>
       </c>
       <c r="AA4">
-        <v>0.10259181611539839</v>
+        <v>0.10696421690529817</v>
       </c>
       <c r="AB4">
-        <v>0.1036561992352437</v>
+        <v>0.10353100911646161</v>
       </c>
       <c r="AC4">
-        <v>0.10656402729431087</v>
+        <v>0.10605550596823002</v>
       </c>
       <c r="AD4">
-        <v>0.10783863845230618</v>
+        <v>0.10696421691574394</v>
       </c>
       <c r="AE4">
-        <v>0.10506336484125771</v>
+        <v>0.099019033554125419</v>
       </c>
       <c r="AF4">
-        <v>0.10365619925045332</v>
+        <v>0.099449534311544213</v>
       </c>
       <c r="AG4">
-        <v>0.10850262273620503</v>
+        <v>0.10489790331479779</v>
       </c>
       <c r="AH4">
-        <v>0.10014255734316359</v>
+        <v>0.10275037357135641</v>
       </c>
       <c r="AI4">
-        <v>0.10420843743234239</v>
+        <v>0.10150994763871232</v>
       </c>
       <c r="AJ4">
-        <v>0.10884162920208557</v>
+        <v>0.10605550599568446</v>
       </c>
       <c r="AK4">
-        <v>0.11173660914408136</v>
+        <v>0.10379763490896976</v>
       </c>
       <c r="AL4">
-        <v>0.10595192601464339</v>
+        <v>0.104340883716925</v>
       </c>
       <c r="AM4">
-        <v>0.10719269295196639</v>
+        <v>0.10434088372098409</v>
       </c>
       <c r="AN4">
-        <v>0.10783863848508256</v>
+        <v>0.10576047546417411</v>
       </c>
       <c r="AO4">
-        <v>0.10233370650754853</v>
+        <v>0.104067571499252</v>
       </c>
       <c r="AP4">
-        <v>0.10625594926693376</v>
+        <v>0.1079101280301861</v>
       </c>
       <c r="AQ4">
-        <v>0.10259181617972862</v>
+        <v>0.10823411541518027</v>
       </c>
       <c r="AR4">
-        <v>0.10595192603647371</v>
+        <v>0.10127046426713669</v>
       </c>
       <c r="AS4">
-        <v>0.10595192604007711</v>
+        <v>0.10727527077251102</v>
       </c>
       <c r="AT4">
-        <v>0.10133145718993131</v>
+        <v>0.10127046427648631</v>
       </c>
       <c r="AU4">
-        <v>0.10816832659583575</v>
+        <v>0.10957606744770607</v>
       </c>
       <c r="AV4">
-        <v>0.10157760222992368</v>
+        <v>0.10224538923647813</v>
       </c>
       <c r="AW4">
-        <v>0.10233370654219553</v>
+        <v>0.1066572948630428</v>
       </c>
       <c r="AX4">
-        <v>0.11098071756324379</v>
+        <v>0.10033951996004083</v>
       </c>
       <c r="AY4">
-        <v>0.10783863852338324</v>
+        <v>0.10605550605303744</v>
       </c>
       <c r="AZ4">
-        <v>0.10535571362105051</v>
+        <v>0.10823411544751617</v>
       </c>
       <c r="BA4">
-        <v>0.1091854512949146</v>
+        <v>0.10353100922176105</v>
       </c>
       <c r="BB4">
-        <v>0.10060995198079344</v>
+        <v>0.10127046431391969</v>
       </c>
       <c r="BC4">
-        <v>0.10157760226080373</v>
+        <v>0.10434088378677384</v>
       </c>
       <c r="BD4">
-        <v>0.10477475192016968</v>
+        <v>0.09966834543979626</v>
       </c>
       <c r="BE4">
-        <v>0.10535571364090604</v>
+        <v>0.1046176382737851</v>
       </c>
       <c r="BF4">
-        <v>0.10535571364476881</v>
+        <v>0.10759054430843304</v>
       </c>
       <c r="BG4">
-        <v>0.10311749651726405</v>
+        <v>0.1012704643385285</v>
       </c>
       <c r="BH4">
-        <v>0.10884162928235167</v>
+        <v>0.11211833759935887</v>
       </c>
       <c r="BI4">
-        <v>0.10448980024708469</v>
+        <v>0.10791012809974278</v>
       </c>
       <c r="BJ4">
-        <v>0.10324656198157939</v>
+        <v>0.10604116575184037</v>
       </c>
       <c r="BK4">
-        <v>0.10250792602882597</v>
+        <v>0.10521989761793625</v>
       </c>
       <c r="BL4">
-        <v>0.10250813654657409</v>
+        <v>0.10870570417924745</v>
       </c>
       <c r="BM4">
-        <v>0.10535315769907859</v>
+        <v>0.11101526877489303</v>
       </c>
       <c r="BN4">
-        <v>0.10830589722330458</v>
+        <v>0.10604154574984002</v>
       </c>
       <c r="BO4">
-        <v>0.10982414215358896</v>
+        <v>0.10990595127773382</v>
       </c>
       <c r="BP4">
-        <v>0.10620320768599893</v>
+        <v>0.10084362431006129</v>
       </c>
       <c r="BQ4">
-        <v>0.11334057115183421</v>
+        <v>0.10553973641203641</v>
       </c>
       <c r="BR4">
-        <v>0.1124843289359323</v>
+        <v>0.11287674953206635</v>
       </c>
       <c r="BS4">
-        <v>0.11146285589953039</v>
+        <v>0.10790509054766344</v>
       </c>
       <c r="BT4">
-        <v>0.091465199716541046</v>
+        <v>0.090273434351123144</v>
       </c>
       <c r="BU4">
-        <v>0.082381191285773703</v>
+        <v>0.083610219056732688</v>
       </c>
       <c r="BV4">
-        <v>0.082993987899113691</v>
+        <v>0.083092057259731969</v>
       </c>
       <c r="BW4">
-        <v>0.081544015976317122</v>
+        <v>0.080090262909106771</v>
       </c>
       <c r="BX4">
-        <v>0.079667215029709859</v>
+        <v>0.081586323876640818</v>
       </c>
       <c r="BY4">
-        <v>0.082257844954717774</v>
+        <v>0.080344736221692359</v>
       </c>
       <c r="BZ4">
-        <v>0.079933606758981757</v>
+        <v>0.078563892442673561</v>
       </c>
       <c r="CA4">
-        <v>0.079502818341830331</v>
+        <v>0.080099840539172837</v>
       </c>
       <c r="CB4">
-        <v>0.081600133644093784</v>
+        <v>0.081281846636221386</v>
       </c>
       <c r="CC4">
-        <v>0.079584719770376261</v>
+        <v>0.082803748087495813</v>
       </c>
       <c r="CD4">
-        <v>0.082944685862233941</v>
+        <v>0.084024008103183348</v>
       </c>
       <c r="CE4">
-        <v>0.085790337115794271</v>
+        <v>0.083319681079103744</v>
       </c>
       <c r="CF4">
-        <v>0.086005881690905575</v>
+        <v>0.085213719755376116</v>
       </c>
       <c r="CG4">
-        <v>0.085425776303089299</v>
+        <v>0.083921957363702199</v>
       </c>
       <c r="CH4">
-        <v>0.085223451263200384</v>
+        <v>0.085025689825163536</v>
       </c>
       <c r="CI4">
-        <v>0.084392999819929287</v>
+        <v>0.083577813130822312</v>
       </c>
       <c r="CJ4">
-        <v>0.085504204013204826</v>
+        <v>0.08482927953636811</v>
       </c>
       <c r="CK4">
-        <v>0.083052800257969295</v>
+        <v>0.086185619738157693</v>
       </c>
       <c r="CL4">
-        <v>0.086609555300296501</v>
+        <v>0.085922158244504346</v>
       </c>
       <c r="CM4">
-        <v>0.087681676396367314</v>
+        <v>0.089198870388422891</v>
       </c>
       <c r="CN4">
-        <v>0.086607474559527192</v>
+        <v>0.08653977775720624</v>
       </c>
       <c r="CO4">
-        <v>0.075324207813539615</v>
+        <v>0.078351676213096827</v>
       </c>
       <c r="CP4">
-        <v>0.076555463238287866</v>
+        <v>0.077749599657682855</v>
       </c>
       <c r="CQ4">
-        <v>0.075452619457502923</v>
+        <v>0.075988605518059874</v>
       </c>
       <c r="CR4">
-        <v>0.075363651927126213</v>
+        <v>0.074033261597627201</v>
       </c>
       <c r="CS4">
-        <v>0.075275870911503867</v>
+        <v>0.075942956388940955</v>
       </c>
       <c r="CT4">
-        <v>0.073693228531720473</v>
+        <v>0.074053039044772284</v>
       </c>
       <c r="CU4">
-        <v>0.073168136271932832</v>
+        <v>0.072522825809630653</v>
       </c>
       <c r="CV4">
-        <v>0.074774473269988651</v>
+        <v>0.073339915398958774</v>
       </c>
       <c r="CW4">
-        <v>0.075857512943476688</v>
+        <v>0.074752706658921489</v>
       </c>
       <c r="CX4">
-        <v>0.073425505836002228</v>
+        <v>0.073835072524467318</v>
       </c>
       <c r="CY4">
-        <v>0.07262713733409222</v>
+        <v>0.073566950067042461</v>
       </c>
       <c r="CZ4">
-        <v>0.074235146307691235</v>
+        <v>0.073819342089765927</v>
       </c>
       <c r="DA4">
-        <v>0.074849581965106118</v>
+        <v>0.073608339523396918</v>
       </c>
       <c r="DB4">
-        <v>0.074333955519801237</v>
+        <v>0.074836071674864557</v>
       </c>
       <c r="DC4">
-        <v>0.07438388239890506</v>
+        <v>0.074355039218920768</v>
       </c>
       <c r="DD4">
-        <v>0.073728535005169099</v>
+        <v>0.073868464016565896</v>
       </c>
       <c r="DE4">
-        <v>0.072910046067639248</v>
+        <v>0.074083241396437322</v>
       </c>
       <c r="DF4">
-        <v>0.073961616777595898</v>
+        <v>0.075170137985853314</v>
       </c>
       <c r="DG4">
-        <v>0.073285137470936401</v>
+        <v>0.074534804647490141</v>
       </c>
       <c r="DH4">
-        <v>0.074554985292855411</v>
+        <v>0.074171151771190089</v>
       </c>
       <c r="DI4">
-        <v>0.07083733261378182</v>
+        <v>0.072503723298268888</v>
       </c>
       <c r="DJ4">
-        <v>0.07125773488376573</v>
+        <v>0.07271553592660869</v>
       </c>
       <c r="DK4">
-        <v>0.070747243739781487</v>
+        <v>0.071807264537843613</v>
       </c>
       <c r="DL4">
-        <v>0.07251436445251902</v>
+        <v>0.073447925905045452</v>
       </c>
       <c r="DM4">
-        <v>0.070837333299936564</v>
+        <v>0.072400045850025171</v>
       </c>
       <c r="DN4">
-        <v>0.072514364748290747</v>
+        <v>0.071130280264162835</v>
       </c>
       <c r="DO4">
-        <v>0.071114800922785631</v>
+        <v>0.072400046185382025</v>
       </c>
       <c r="DP4">
-        <v>0.072457603616717464</v>
+        <v>0.071760018235862949</v>
       </c>
       <c r="DQ4">
-        <v>0.071306024596173911</v>
+        <v>0.073872777565846329</v>
       </c>
       <c r="DR4">
-        <v>0.072071609404479042</v>
+        <v>0.073507243275684947</v>
       </c>
       <c r="DS4">
-        <v>0.072923679360709523</v>
+        <v>0.073872777834994768</v>
       </c>
       <c r="DT4">
-        <v>0.073355198579930378</v>
+        <v>0.072933510045756489</v>
       </c>
       <c r="DU4">
-        <v>0.072018034799418901</v>
+        <v>0.071854831942389272</v>
       </c>
       <c r="DV4">
-        <v>0.072457604528600311</v>
+        <v>0.072662017602389523</v>
       </c>
       <c r="DW4">
-        <v>0.072514366111854078</v>
+        <v>0.074454062340547036</v>
       </c>
       <c r="DX4">
-        <v>0.072804544703046772</v>
+        <v>0.073687914675315658</v>
       </c>
       <c r="DY4">
-        <v>0.073945690967369915</v>
+        <v>0.074726111952847132</v>
       </c>
       <c r="DZ4">
-        <v>0.072514366572061201</v>
+        <v>0.072608878815764735</v>
       </c>
       <c r="EA4">
-        <v>0.072234652274726668</v>
+        <v>0.073872779010387676</v>
       </c>
       <c r="EB4">
-        <v>0.073877978302996777</v>
+        <v>0.071902720725695743</v>
       </c>
       <c r="EC4">
-        <v>0.071114803376616478</v>
+        <v>0.071216773172465414</v>
       </c>
       <c r="ED4">
-        <v>0.072289786138931805</v>
+        <v>0.074190613974720473</v>
       </c>
       <c r="EE4">
-        <v>0.07268718105108278</v>
+        <v>0.073567011817228023</v>
       </c>
       <c r="EF4">
-        <v>0.072234653151155612</v>
+        <v>0.074795519260176593</v>
       </c>
       <c r="EG4">
-        <v>0.074152141968748503</v>
+        <v>0.072348753536841712</v>
       </c>
       <c r="EH4">
-        <v>0.072923681701374296</v>
+        <v>0.072933512417885857</v>
       </c>
       <c r="EI4">
-        <v>0.072345320669865584</v>
+        <v>0.073157921019377709</v>
       </c>
       <c r="EJ4">
-        <v>0.07292368204938765</v>
+        <v>0.074936054153374301</v>
       </c>
       <c r="EK4">
-        <v>0.073105794908094532</v>
+        <v>0.072400050037079264</v>
       </c>
       <c r="EL4">
-        <v>0.072745645823812738</v>
+        <v>0.074936054468805371</v>
       </c>
       <c r="EM4">
-        <v>0.073044629417245002</v>
+        <v>0.074726114098683086</v>
       </c>
       <c r="EN4">
-        <v>0.073482829441794364</v>
+        <v>0.076824072357450701</v>
       </c>
       <c r="EO4">
-        <v>0.074152143221350497</v>
+        <v>0.076231651104616036</v>
       </c>
       <c r="EP4">
-        <v>0.074082768216881187</v>
+        <v>0.074936055038320876</v>
       </c>
       <c r="EQ4">
-        <v>0.075108400862293132</v>
+        <v>0.073935360420753077</v>
       </c>
       <c r="ER4">
-        <v>0.074013954217856753</v>
+        <v>0.075007197842103079</v>
       </c>
       <c r="ES4">
-        <v>0.072514369912830084</v>
+        <v>0.075446784122584612</v>
       </c>
       <c r="ET4">
-        <v>0.072804548459207724</v>
+        <v>0.073567014367469333</v>
       </c>
       <c r="EU4">
-        <v>0.074152144200668346</v>
+        <v>0.074588989285191559</v>
       </c>
       <c r="EV4">
-        <v>0.075505367451906655</v>
+        <v>0.074588989456346358</v>
       </c>
       <c r="EW4">
-        <v>0.074435394958201617</v>
+        <v>0.075988940227628948</v>
       </c>
       <c r="EX4">
-        <v>0.07316743180442678</v>
+        <v>0.076911841608948511</v>
       </c>
       <c r="EY4">
-        <v>0.074152144870098816</v>
+        <v>0.07544678505479728</v>
       </c>
       <c r="EZ4">
-        <v>0.073744171357841212</v>
+        <v>0.075909454762886006</v>
       </c>
       <c r="FA4">
-        <v>0.072983929516058865</v>
+        <v>0.074190617758361305</v>
       </c>
       <c r="FB4">
-        <v>0.075424580438327851</v>
+        <v>0.075446785545398451</v>
       </c>
       <c r="FC4">
-        <v>0.074878339021716159</v>
+        <v>0.0737490680795993</v>
       </c>
       <c r="FD4">
-        <v>0.076996854659961228</v>
+        <v>0.075297780295299516</v>
       </c>
       <c r="FE4">
-        <v>0.074802951692195474</v>
+        <v>0.074387415588368755</v>
       </c>
       <c r="FF4">
-        <v>0.075108403240900692</v>
+        <v>0.074255697477590615</v>
       </c>
       <c r="FG4">
-        <v>0.073810811014659805</v>
+        <v>0.074255697683029309</v>
       </c>
       <c r="FH4">
-        <v>0.073292131231311064</v>
+        <v>0.076911843145483619</v>
       </c>
       <c r="FI4">
-        <v>0.073482833251458962</v>
+        <v>0.075297781197324887</v>
       </c>
       <c r="FJ4">
-        <v>0.073877984094675539</v>
+        <v>0.076314008688377857</v>
       </c>
       <c r="FK4">
-        <v>0.074082771942851844</v>
+        <v>0.077456032478684947</v>
       </c>
       <c r="FL4">
-        <v>0.07422209024865481</v>
+        <v>0.075675122875760767</v>
       </c>
       <c r="FM4">
-        <v>0.075586874435761869</v>
+        <v>0.075598356347473611</v>
       </c>
       <c r="FN4">
-        <v>0.07510840471074344</v>
+        <v>0.076737114320868757</v>
       </c>
       <c r="FO4">
-        <v>0.074654078838088112</v>
+        <v>0.076231655172897261</v>
       </c>
       <c r="FP4">
-        <v>0.078098503511381506</v>
+        <v>0.077180099370971852</v>
       </c>
       <c r="FQ4">
-        <v>0.074292609090615233</v>
+        <v>0.075371969147941587</v>
       </c>
       <c r="FR4">
-        <v>0.077188429608482073</v>
+        <v>0.075830665336700021</v>
       </c>
       <c r="FS4">
-        <v>0.075344502107066044</v>
+        <v>0.07445407057908128</v>
       </c>
       <c r="FT4">
-        <v>0.075186422537905001</v>
+        <v>0.076480954516495878</v>
       </c>
       <c r="FU4">
-        <v>0.079691987724077887</v>
+        <v>0.0779339208963645</v>
       </c>
       <c r="FV4">
-        <v>0.074728203444969984</v>
+        <v>0.078131691167420095</v>
       </c>
       <c r="FW4">
-        <v>0.076902441087502757</v>
+        <v>0.077836481796020623</v>
       </c>
       <c r="FX4">
-        <v>0.076265897523173795</v>
+        <v>0.077000431051354096</v>
       </c>
       <c r="FY4">
-        <v>0.075752072560049857</v>
+        <v>0.076231656960176503</v>
       </c>
       <c r="FZ4">
-        <v>0.076902441592198917</v>
+        <v>0.077933921682603949</v>
       </c>
       <c r="GA4">
-        <v>0.078420595788179268</v>
+        <v>0.077089845928291226</v>
       </c>
       <c r="GB4">
-        <v>0.076265898219222028</v>
+        <v>0.078232052059294024</v>
       </c>
       <c r="GC4">
-        <v>0.076091499425865114</v>
+        <v>0.078643679811302963</v>
       </c>
       <c r="GD4">
-        <v>0.077092184114806991</v>
+        <v>0.076824078959544337</v>
       </c>
       <c r="GE4">
-        <v>0.077786066879734037</v>
+        <v>0.078333415724768304</v>
       </c>
       <c r="GF4">
-        <v>0.078530184055788571</v>
+        <v>0.076911847183033719</v>
       </c>
       <c r="GG4">
-        <v>0.078312132789006131</v>
+        <v>0.078131692940875977</v>
       </c>
       <c r="GH4">
-        <v>0.075920253963029691</v>
+        <v>0.081378886202217657</v>
       </c>
       <c r="GI4">
-        <v>0.077582921266061242</v>
+        <v>0.077180102614122351</v>
       </c>
       <c r="GJ4">
-        <v>0.07709218514096712</v>
+        <v>0.079072382816301731</v>
       </c>
       <c r="GK4">
-        <v>0.078980134062992591</v>
+        <v>0.080981591803369279</v>
       </c>
       <c r="GL4">
-        <v>0.077482846221974405</v>
+        <v>0.079293478527304548</v>
       </c>
       <c r="GM4">
-        <v>0.078865869855392137</v>
+        <v>0.080852158153900761</v>
       </c>
       <c r="GN4">
-        <v>0.076178301372926388</v>
+        <v>0.079182354153814513</v>
       </c>
       <c r="GO4">
-        <v>0.075669109717625582</v>
+        <v>0.077644426457093615</v>
       </c>
       <c r="GP4">
-        <v>0.079449563784045385</v>
+        <v>0.079182354486628678</v>
       </c>
       <c r="GQ4">
-        <v>0.078752803467665181</v>
+        <v>0.076911849180148081</v>
       </c>
       <c r="GR4">
-        <v>0.078980135192222883</v>
+        <v>0.077089848989303822</v>
       </c>
       <c r="GS4">
-        <v>0.07875280378991055</v>
+        <v>0.078539215984060676</v>
       </c>
       <c r="GT4">
-        <v>0.077092186971013596</v>
+        <v>0.077089849406459215</v>
       </c>
       <c r="GU4">
-        <v>0.07809850848520225</v>
+        <v>0.076314015575420391</v>
       </c>
       <c r="GV4">
-        <v>0.078640915646050455</v>
+        <v>0.079749896151345645</v>
       </c>
       <c r="GW4">
-        <v>0.077285618219542676</v>
+        <v>0.079749896314635707</v>
       </c>
       <c r="GX4">
-        <v>0.076996862504168817</v>
+        <v>0.078643683383597826</v>
       </c>
       <c r="GY4">
-        <v>0.077993312575942858</v>
+        <v>0.079985531431268436</v>
       </c>
       <c r="GZ4">
-        <v>0.078098509436785257</v>
+        <v>0.078539217306985723</v>
       </c>
       <c r="HA4">
-        <v>0.078980136773573725</v>
+        <v>0.078539217504712586</v>
       </c>
       <c r="HB4">
-        <v>0.08006576681750957</v>
+        <v>0.079072385945579318</v>
       </c>
       <c r="HC4">
-        <v>0.080717329230112822</v>
+        <v>0.078963551144315275</v>
       </c>
       <c r="HD4">
-        <v>0.078865872791813951</v>
+        <v>0.078963551338939938</v>
       </c>
       <c r="HE4">
-        <v>0.079691993233982697</v>
+        <v>0.078032325655921039</v>
       </c>
       <c r="HF4">
-        <v>0.078640917466478069</v>
+        <v>0.078749218109176247</v>
       </c>
       <c r="HG4">
-        <v>0.078640917660851128</v>
+        <v>0.079293482295855464</v>
       </c>
       <c r="HH4">
-        <v>0.080717330044265373</v>
+        <v>0.078131698033636163</v>
       </c>
       <c r="HI4">
-        <v>0.080321978513233555</v>
+        <v>0.079633968143861047</v>
       </c>
       <c r="HJ4">
-        <v>0.079815211516944984</v>
+        <v>0.077933928455586207</v>
       </c>
       <c r="HK4">
-        <v>0.080321978850526679</v>
+        <v>0.082658285268406281</v>
       </c>
       <c r="HL4">
-        <v>0.079095620178330855</v>
+        <v>0.079985533844904477</v>
       </c>
       <c r="HM4">
         <v>0</v>
@@ -3457,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="HO4">
-        <v>0.056796216172159041</v>
+        <v>0.057543565718946144</v>
       </c>
     </row>
   </sheetData>
@@ -4813,661 +4813,661 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>0.3531260066293937</v>
+        <v>0.3626638945151322</v>
       </c>
       <c r="C3">
-        <v>-0.28747984593975739</v>
+        <v>-0.31635569119114904</v>
       </c>
       <c r="D3">
-        <v>-0.2536065264121215</v>
+        <v>-0.26188187704588761</v>
       </c>
       <c r="E3">
-        <v>-0.24956989588100881</v>
+        <v>-0.2985265248183947</v>
       </c>
       <c r="F3">
-        <v>0.27622248573865665</v>
+        <v>0.29142802686229202</v>
       </c>
       <c r="G3">
-        <v>0.30519527133486968</v>
+        <v>0.32455511944676468</v>
       </c>
       <c r="H3">
-        <v>0.26946656384602713</v>
+        <v>0.26272932390091691</v>
       </c>
       <c r="I3">
-        <v>0.16228663681094285</v>
+        <v>0.16671509257444991</v>
       </c>
       <c r="J3">
-        <v>0.17380636703028884</v>
+        <v>0.18855271036630339</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>-0.83018653376163287</v>
+        <v>-0.78149943154306933</v>
       </c>
       <c r="M3">
-        <v>-0.70415816476383997</v>
+        <v>-0.82758154746526447</v>
       </c>
       <c r="N3">
-        <v>-0.7625896170707035</v>
+        <v>-0.88806803599531048</v>
       </c>
       <c r="O3">
-        <v>-0.71037708752511497</v>
+        <v>-0.74495088647527163</v>
       </c>
       <c r="P3">
-        <v>-0.67625631482781612</v>
+        <v>-0.72941082058279139</v>
       </c>
       <c r="Q3">
-        <v>-0.9218116459615795</v>
+        <v>-0.70729113668549715</v>
       </c>
       <c r="R3">
-        <v>-0.65711826031294485</v>
+        <v>-0.72584766876847029</v>
       </c>
       <c r="S3">
-        <v>-0.63659368972499397</v>
+        <v>-0.7554136961565221</v>
       </c>
       <c r="T3">
-        <v>-0.68499707398881693</v>
+        <v>-0.70200493794391894</v>
       </c>
       <c r="U3">
-        <v>-0.78857462985998961</v>
+        <v>-0.59809751820903068</v>
       </c>
       <c r="V3">
-        <v>-0.78688251969866996</v>
+        <v>-0.72542186586663604</v>
       </c>
       <c r="W3">
-        <v>-0.68296678271649769</v>
+        <v>-0.68307019834818028</v>
       </c>
       <c r="X3">
-        <v>-0.73089324687055557</v>
+        <v>-0.6615335551851792</v>
       </c>
       <c r="Y3">
-        <v>-0.67929326227003317</v>
+        <v>-0.67273216954427595</v>
       </c>
       <c r="Z3">
-        <v>-0.71368701115060984</v>
+        <v>-0.71117821635213296</v>
       </c>
       <c r="AA3">
-        <v>-0.59172905212669036</v>
+        <v>-0.65274411075882444</v>
       </c>
       <c r="AB3">
-        <v>-0.55166773820752224</v>
+        <v>-0.52898773020084411</v>
       </c>
       <c r="AC3">
-        <v>-0.55527610131963234</v>
+        <v>-0.6950978720968285</v>
       </c>
       <c r="AD3">
-        <v>-0.77866208653177116</v>
+        <v>-0.60872819139128986</v>
       </c>
       <c r="AE3">
-        <v>-0.51461012165255282</v>
+        <v>-0.50314192347347497</v>
       </c>
       <c r="AF3">
-        <v>-0.59948841019305021</v>
+        <v>-0.57988912008838056</v>
       </c>
       <c r="AG3">
-        <v>-0.80948320575860844</v>
+        <v>-0.63095032454897992</v>
       </c>
       <c r="AH3">
-        <v>-0.57774918545927967</v>
+        <v>-0.59742640491065935</v>
       </c>
       <c r="AI3">
-        <v>-0.5579412593897356</v>
+        <v>-0.57388760216987078</v>
       </c>
       <c r="AJ3">
-        <v>-0.60684837449693874</v>
+        <v>-0.68441662071496345</v>
       </c>
       <c r="AK3">
-        <v>-0.69837513692694542</v>
+        <v>-0.58223085119526241</v>
       </c>
       <c r="AL3">
-        <v>-0.64062615340351148</v>
+        <v>-0.62748940298788114</v>
       </c>
       <c r="AM3">
-        <v>-0.62595282396960394</v>
+        <v>-0.57823813687477721</v>
       </c>
       <c r="AN3">
-        <v>-0.65604708831895331</v>
+        <v>-0.47102193470483267</v>
       </c>
       <c r="AO3">
-        <v>-0.57273826002705541</v>
+        <v>-0.54356974811831382</v>
       </c>
       <c r="AP3">
-        <v>-0.61050065197016523</v>
+        <v>-0.64857580177003382</v>
       </c>
       <c r="AQ3">
-        <v>-0.5776750818104045</v>
+        <v>-0.67021819881301747</v>
       </c>
       <c r="AR3">
-        <v>-0.69804464079398243</v>
+        <v>-0.54066018046190578</v>
       </c>
       <c r="AS3">
-        <v>-0.53213895737789041</v>
+        <v>-0.59082538382780081</v>
       </c>
       <c r="AT3">
-        <v>-0.49844050729316158</v>
+        <v>-0.54856889435039313</v>
       </c>
       <c r="AU3">
-        <v>-0.62543003533717056</v>
+        <v>-0.62204186977358489</v>
       </c>
       <c r="AV3">
-        <v>-0.59809437971078594</v>
+        <v>-0.58157529202943681</v>
       </c>
       <c r="AW3">
-        <v>-0.52074330443195871</v>
+        <v>-0.54549066654935252</v>
       </c>
       <c r="AX3">
-        <v>-0.59696775382843204</v>
+        <v>-0.61265360004960057</v>
       </c>
       <c r="AY3">
-        <v>-0.61712835639818286</v>
+        <v>-0.57858697795889269</v>
       </c>
       <c r="AZ3">
-        <v>-0.53203547431857956</v>
+        <v>-0.57338514788627215</v>
       </c>
       <c r="BA3">
-        <v>-0.66225167560404918</v>
+        <v>-0.53728341314949213</v>
       </c>
       <c r="BB3">
-        <v>-0.52203868823007848</v>
+        <v>-0.45057840696295409</v>
       </c>
       <c r="BC3">
-        <v>-0.55265470225600644</v>
+        <v>-0.59560067545449147</v>
       </c>
       <c r="BD3">
-        <v>-0.62937406920736194</v>
+        <v>-0.5585706574799516</v>
       </c>
       <c r="BE3">
-        <v>-0.59827911955028323</v>
+        <v>-0.53176141457711734</v>
       </c>
       <c r="BF3">
-        <v>-0.51954320664643705</v>
+        <v>-0.4646224054197664</v>
       </c>
       <c r="BG3">
-        <v>-0.51437938584168286</v>
+        <v>-0.53344045900739634</v>
       </c>
       <c r="BH3">
-        <v>-0.67830856050475752</v>
+        <v>-0.68713713645728502</v>
       </c>
       <c r="BI3">
-        <v>-0.50146830099915884</v>
+        <v>-0.61265914193557225</v>
       </c>
       <c r="BJ3">
-        <v>-0.32010769026145264</v>
+        <v>-0.43858221994327812</v>
       </c>
       <c r="BK3">
-        <v>-0.44267309817567918</v>
+        <v>-0.42681300618276286</v>
       </c>
       <c r="BL3">
-        <v>-0.41865379036555933</v>
+        <v>-0.4542388723616041</v>
       </c>
       <c r="BM3">
-        <v>-0.33901511255381334</v>
+        <v>-0.38782728017877099</v>
       </c>
       <c r="BN3">
-        <v>-0.51178195064999765</v>
+        <v>-0.38567855699964521</v>
       </c>
       <c r="BO3">
-        <v>-0.52141164348239366</v>
+        <v>-0.4718325610620987</v>
       </c>
       <c r="BP3">
-        <v>-0.38876705045471688</v>
+        <v>-0.31598119872317282</v>
       </c>
       <c r="BQ3">
-        <v>-0.46417279162797392</v>
+        <v>-0.32799866940570294</v>
       </c>
       <c r="BR3">
-        <v>-0.55866820771729331</v>
+        <v>-0.34187743512424434</v>
       </c>
       <c r="BS3">
-        <v>-0.38438065557774814</v>
+        <v>-0.43026901420129959</v>
       </c>
       <c r="BT3">
-        <v>-0.37295943302767259</v>
+        <v>-0.3117562601704707</v>
       </c>
       <c r="BU3">
-        <v>-0.34862166613691065</v>
+        <v>-0.2892738586432842</v>
       </c>
       <c r="BV3">
-        <v>-0.31703403956065035</v>
+        <v>-0.25464723105809117</v>
       </c>
       <c r="BW3">
-        <v>-0.35233084021088379</v>
+        <v>-0.28500551967437587</v>
       </c>
       <c r="BX3">
-        <v>-0.22500485132777009</v>
+        <v>-0.3684855736418769</v>
       </c>
       <c r="BY3">
-        <v>-0.42556999763341236</v>
+        <v>-0.24353640193892381</v>
       </c>
       <c r="BZ3">
-        <v>-0.3439896681854967</v>
+        <v>-0.19807687852228026</v>
       </c>
       <c r="CA3">
-        <v>-0.30325271409921656</v>
+        <v>-0.26917341596563699</v>
       </c>
       <c r="CB3">
-        <v>-0.41466638354414515</v>
+        <v>-0.28539708462340535</v>
       </c>
       <c r="CC3">
-        <v>-0.3122770658255537</v>
+        <v>-0.4412508258272449</v>
       </c>
       <c r="CD3">
-        <v>-0.25936519831568561</v>
+        <v>-0.23534247663328223</v>
       </c>
       <c r="CE3">
-        <v>-0.21023719604593738</v>
+        <v>-0.0070433212392378266</v>
       </c>
       <c r="CF3">
-        <v>-0.20470912309577968</v>
+        <v>-0.12788148581564451</v>
       </c>
       <c r="CG3">
-        <v>-0.15032091573554196</v>
+        <v>-0.060338888161974601</v>
       </c>
       <c r="CH3">
-        <v>-0.18875200469813277</v>
+        <v>-0.15826716341926841</v>
       </c>
       <c r="CI3">
-        <v>-0.13241660457621149</v>
+        <v>-0.059652848479661076</v>
       </c>
       <c r="CJ3">
-        <v>-0.19535150298820794</v>
+        <v>-0.12142384409264638</v>
       </c>
       <c r="CK3">
-        <v>-0.043779990058643845</v>
+        <v>-0.21611600170782067</v>
       </c>
       <c r="CL3">
-        <v>-0.15759984293425616</v>
+        <v>-0.10521329559480597</v>
       </c>
       <c r="CM3">
-        <v>-0.25726454665151771</v>
+        <v>-0.24833496038270228</v>
       </c>
       <c r="CN3">
-        <v>-0.20366664599572296</v>
+        <v>-0.20202154498986485</v>
       </c>
       <c r="CO3">
-        <v>0.045809896803310809</v>
+        <v>-0.10465916079928574</v>
       </c>
       <c r="CP3">
-        <v>-0.060943005762850284</v>
+        <v>-0.049412658732436186</v>
       </c>
       <c r="CQ3">
-        <v>-0.10607323262052298</v>
+        <v>-0.10832630004793919</v>
       </c>
       <c r="CR3">
-        <v>-0.094782274603256403</v>
+        <v>0.067015809722909034</v>
       </c>
       <c r="CS3">
-        <v>-0.083499592779322909</v>
+        <v>-0.096021829246353566</v>
       </c>
       <c r="CT3">
-        <v>-0.069996726821141844</v>
+        <v>-0.030901743339351501</v>
       </c>
       <c r="CU3">
-        <v>-0.022878009405394781</v>
+        <v>0.10563898469496089</v>
       </c>
       <c r="CV3">
-        <v>-0.14595917313355922</v>
+        <v>0.037752898073885766</v>
       </c>
       <c r="CW3">
-        <v>-0.22109716183093939</v>
+        <v>-0.073768559442670231</v>
       </c>
       <c r="CX3">
-        <v>-0.032823157873893116</v>
+        <v>0.0041240875050356542</v>
       </c>
       <c r="CY3">
-        <v>0.1000742229001043</v>
+        <v>0.082662809942403367</v>
       </c>
       <c r="CZ3">
-        <v>-0.027819522604860307</v>
+        <v>0.065824114553103039</v>
       </c>
       <c r="DA3">
-        <v>-0.070849356314019549</v>
+        <v>0.087761101330146848</v>
       </c>
       <c r="DB3">
-        <v>-0.027774908305041986</v>
+        <v>-0.0072524800679089115</v>
       </c>
       <c r="DC3">
-        <v>-0.027691539106753416</v>
+        <v>0.034668426928157955</v>
       </c>
       <c r="DD3">
-        <v>0.019083993013511328</v>
+        <v>0.077756579330114317</v>
       </c>
       <c r="DE3">
-        <v>0.090911137374817222</v>
+        <v>0.064256842998584099</v>
       </c>
       <c r="DF3">
-        <v>0.0091221290323588063</v>
+        <v>-0.017973379676670776</v>
       </c>
       <c r="DG3">
-        <v>0.068015447623106184</v>
+        <v>0.035816974186573231</v>
       </c>
       <c r="DH3">
-        <v>-0.028468769869302968</v>
+        <v>0.069478644948193405</v>
       </c>
       <c r="DI3">
-        <v>0.15630782844791671</v>
+        <v>0.10104682394572001</v>
       </c>
       <c r="DJ3">
-        <v>0.12780623354809018</v>
+        <v>0.089375633666376852</v>
       </c>
       <c r="DK3">
-        <v>0.17206158934729535</v>
+        <v>0.16224770182256806</v>
       </c>
       <c r="DL3">
-        <v>0.043189872549614497</v>
+        <v>0.0448238325676611</v>
       </c>
       <c r="DM3">
-        <v>0.17322373239589939</v>
+        <v>0.12499021787417657</v>
       </c>
       <c r="DN3">
-        <v>0.051513696123398699</v>
+        <v>0.22851609901974274</v>
       </c>
       <c r="DO3">
-        <v>0.15979433044724087</v>
+        <v>0.13373295969238247</v>
       </c>
       <c r="DP3">
-        <v>0.063875899079921736</v>
+        <v>0.18699404194608771</v>
       </c>
       <c r="DQ3">
-        <v>0.15334968376916724</v>
+        <v>0.036324139263723465</v>
       </c>
       <c r="DR3">
-        <v>0.10019685573438038</v>
+        <v>0.065591116739164582</v>
       </c>
       <c r="DS3">
-        <v>0.043324518356590888</v>
+        <v>0.044022588449656605</v>
       </c>
       <c r="DT3">
-        <v>0.01743336260795067</v>
+        <v>0.11439095614541395</v>
       </c>
       <c r="DU3">
-        <v>0.11594068984596644</v>
+        <v>0.19963507374224543</v>
       </c>
       <c r="DV3">
-        <v>0.088185566210156066</v>
+        <v>0.14288180159426758</v>
       </c>
       <c r="DW3">
-        <v>0.08819165098496877</v>
+        <v>0.021163800681499999</v>
       </c>
       <c r="DX3">
-        <v>0.071686714962367129</v>
+        <v>0.077185650493027613</v>
       </c>
       <c r="DY3">
-        <v>-0.0020840679297000381</v>
+        <v>0.010798412612399805</v>
       </c>
       <c r="DZ3">
-        <v>0.099987212075080462</v>
+        <v>0.16242659988569061</v>
       </c>
       <c r="EA3">
-        <v>0.1242702119581936</v>
+        <v>0.076318962702836973</v>
       </c>
       <c r="EB3">
-        <v>0.014456598310830619</v>
+        <v>0.2242459289907614</v>
       </c>
       <c r="EC3">
-        <v>0.21647860717393025</v>
+        <v>0.28321577746504212</v>
       </c>
       <c r="ED3">
-        <v>0.13290171484980193</v>
+        <v>0.067964130544606233</v>
       </c>
       <c r="EE3">
-        <v>0.10870015306382137</v>
+        <v>0.11489037045237188</v>
       </c>
       <c r="EF3">
-        <v>0.14531600811260456</v>
+        <v>0.035630627297168531</v>
       </c>
       <c r="EG3">
-        <v>0.01753452804426222</v>
+        <v>0.211386805120546</v>
       </c>
       <c r="EH3">
-        <v>0.10432778112915959</v>
+        <v>0.17258228767352041</v>
       </c>
       <c r="EI3">
-        <v>0.14954153343209692</v>
+        <v>0.1607003247836622</v>
       </c>
       <c r="EJ3">
-        <v>0.11279427222394099</v>
+        <v>0.043389439691599509</v>
       </c>
       <c r="EK3">
-        <v>0.10430904109649382</v>
+        <v>0.22451093426941843</v>
       </c>
       <c r="EL3">
-        <v>0.13360520635033885</v>
+        <v>0.05178760764536617</v>
       </c>
       <c r="EM3">
-        <v>0.11694418318043467</v>
+        <v>0.069396622291536147</v>
       </c>
       <c r="EN3">
-        <v>0.091091441959521402</v>
+        <v>-0.057861386220415957</v>
       </c>
       <c r="EO3">
-        <v>0.05063364817722768</v>
+        <v>-0.018720065939728921</v>
       </c>
       <c r="EP3">
-        <v>0.059098558447598044</v>
+        <v>0.066602333814787598</v>
       </c>
       <c r="EQ3">
-        <v>-0.002516785641870791</v>
+        <v>0.13748765042601344</v>
       </c>
       <c r="ER3">
-        <v>0.071294412827902096</v>
+        <v>0.070080972535295563</v>
       </c>
       <c r="ES3">
-        <v>0.17816852761811519</v>
+        <v>0.045778792785253819</v>
       </c>
       <c r="ET3">
-        <v>0.16204381373184162</v>
+        <v>0.175027059181599</v>
       </c>
       <c r="EU3">
-        <v>0.07506666894528656</v>
+        <v>0.10964518613694606</v>
       </c>
       <c r="EV3">
-        <v>-0.0064400937423321541</v>
+        <v>0.11372721104809631</v>
       </c>
       <c r="EW3">
-        <v>0.064402247250811909</v>
+        <v>0.02817859245124861</v>
       </c>
       <c r="EX3">
-        <v>0.15286007941020133</v>
+        <v>-0.023872194561600203</v>
       </c>
       <c r="EY3">
-        <v>0.091106742341489216</v>
+        <v>0.069478781713112267</v>
       </c>
       <c r="EZ3">
-        <v>0.12215315523815547</v>
+        <v>0.044356047688939401</v>
       </c>
       <c r="FA3">
-        <v>0.17821317418150512</v>
+        <v>0.15963088957130833</v>
       </c>
       <c r="FB3">
-        <v>0.023275269855802319</v>
+        <v>0.081514502315627596</v>
       </c>
       <c r="FC3">
-        <v>0.06105760659780305</v>
+        <v>0.19819810962156428</v>
       </c>
       <c r="FD3">
-        <v>-0.0619686843665559</v>
+        <v>0.099440633890179209</v>
       </c>
       <c r="FE3">
-        <v>0.073283057293080364</v>
+        <v>0.16311957316140696</v>
       </c>
       <c r="FF3">
-        <v>0.058116386705006379</v>
+        <v>0.17629513327979993</v>
       </c>
       <c r="FG3">
-        <v>0.1456206619710726</v>
+        <v>0.18065911199378162</v>
       </c>
       <c r="FH3">
-        <v>0.18494800599655747</v>
+        <v>0.017248526820696074</v>
       </c>
       <c r="FI3">
-        <v>0.1764455846590802</v>
+        <v>0.12025495727796962</v>
       </c>
       <c r="FJ3">
-        <v>0.15440174843047544</v>
+        <v>0.060972245543240856</v>
       </c>
       <c r="FK3">
-        <v>0.14523962470770041</v>
+        <v>-0.0028255695984876123</v>
       </c>
       <c r="FL3">
-        <v>0.14043977879286756</v>
+        <v>0.10800009103103822</v>
       </c>
       <c r="FM3">
-        <v>0.058786064837478828</v>
+        <v>0.1169045561866654</v>
       </c>
       <c r="FN3">
-        <v>0.092212120659205282</v>
+        <v>0.051197624470352365</v>
       </c>
       <c r="FO3">
-        <v>0.12493255320491173</v>
+        <v>0.085566391542303361</v>
       </c>
       <c r="FP3">
-        <v>-0.073468381279193667</v>
+        <v>0.032870820312702338</v>
       </c>
       <c r="FQ3">
-        <v>0.1558730075966597</v>
+        <v>0.14698244814114519</v>
       </c>
       <c r="FR3">
-        <v>-0.015129938937178769</v>
+        <v>0.12231148018689621</v>
       </c>
       <c r="FS3">
-        <v>0.097386009421421907</v>
+        <v>0.21527399441535092</v>
       </c>
       <c r="FT3">
-        <v>0.1112712567484502</v>
+        <v>0.091095046586647785</v>
       </c>
       <c r="FU3">
-        <v>-0.13773128661497375</v>
+        <v>0.010231962062464161</v>
       </c>
       <c r="FV3">
-        <v>0.14745696721054094</v>
+        <v>0.0027952807934221065</v>
       </c>
       <c r="FW3">
-        <v>0.020671836205787567</v>
+        <v>0.023114585179873089</v>
       </c>
       <c r="FX3">
-        <v>0.061492041978821313</v>
+        <v>0.075217190550670165</v>
       </c>
       <c r="FY3">
-        <v>0.096132202687645135</v>
+        <v>0.12529796209375135</v>
       </c>
       <c r="FZ3">
-        <v>0.032543269056798191</v>
+        <v>0.029426572150974762</v>
       </c>
       <c r="GA3">
-        <v>-0.047845196906659893</v>
+        <v>0.081814329956969162</v>
       </c>
       <c r="GB3">
-        <v>0.076963123146063822</v>
+        <v>0.020417806664774229</v>
       </c>
       <c r="GC3">
-        <v>0.091319051558279157</v>
+        <v>0.0013804046766226657</v>
       </c>
       <c r="GD3">
-        <v>0.037223637923184331</v>
+        <v>0.10887829725346164</v>
       </c>
       <c r="GE3">
-        <v>0.0022322807468518049</v>
+        <v>0.026247104935505437</v>
       </c>
       <c r="GF3">
-        <v>-0.03445788613086153</v>
+        <v>0.11150715194342081</v>
       </c>
       <c r="GG3">
-        <v>-0.019140193599035751</v>
+        <v>0.045348325386754582</v>
       </c>
       <c r="GH3">
-        <v>0.12049171900283133</v>
+        <v>-0.1212305345638001</v>
       </c>
       <c r="GI3">
-        <v>0.028686148059909579</v>
+        <v>0.10688455491240273</v>
       </c>
       <c r="GJ3">
-        <v>0.060125379415669318</v>
+        <v>0.0048014504051420862</v>
       </c>
       <c r="GK3">
-        <v>-0.039058528532545392</v>
+        <v>-0.090542856890065943</v>
       </c>
       <c r="GL3">
-        <v>0.045645985843240866</v>
+        <v>-3.8998304433009538e-05</v>
       </c>
       <c r="GM3">
-        <v>-0.025557104495614769</v>
+        <v>-0.077062579904266029</v>
       </c>
       <c r="GN3">
-        <v>0.12823452133832713</v>
+        <v>0.012949988687625391</v>
       </c>
       <c r="GO3">
-        <v>0.16299736094581474</v>
+        <v>0.10185708703791989</v>
       </c>
       <c r="GP3">
-        <v>-0.043753819590571653</v>
+        <v>0.020704708046143692</v>
       </c>
       <c r="GQ3">
-        <v>-0.0037528825754035836</v>
+        <v>0.15229029457970822</v>
       </c>
       <c r="GR3">
-        <v>-0.012038358162926923</v>
+        <v>0.14605697567368039</v>
       </c>
       <c r="GS3">
-        <v>0.0036422750108964443</v>
+        <v>0.06788490849542729</v>
       </c>
       <c r="GT3">
-        <v>0.09853324999643473</v>
+        <v>0.15420609467424623</v>
       </c>
       <c r="GU3">
-        <v>0.046654223392312032</v>
+        <v>0.20485674627456271</v>
       </c>
       <c r="GV3">
-        <v>0.021346562177196209</v>
+        <v>0.015512790218616979</v>
       </c>
       <c r="GW3">
-        <v>0.099408892718529845</v>
+        <v>0.019227412319077274</v>
       </c>
       <c r="GX3">
-        <v>0.11990928011808172</v>
+        <v>0.082258793471961147</v>
       </c>
       <c r="GY3">
-        <v>0.068428109477008725</v>
+        <v>0.014633971890666068</v>
       </c>
       <c r="GZ3">
-        <v>0.066677342002825324</v>
+        <v>0.095684356068494347</v>
       </c>
       <c r="HA3">
-        <v>0.023502292254507992</v>
+        <v>0.099709674271823673</v>
       </c>
       <c r="HB3">
-        <v>-0.028527780933807652</v>
+        <v>0.07470579525323956</v>
       </c>
       <c r="HC3">
-        <v>-0.057329047128053347</v>
+        <v>0.084524133192049419</v>
       </c>
       <c r="HD3">
-        <v>0.040477262904567574</v>
+        <v>0.088504688544045307</v>
       </c>
       <c r="HE3">
-        <v>0.0014567848413332841</v>
+        <v>0.14389997696881682</v>
       </c>
       <c r="HF3">
-        <v>0.060019306048735954</v>
+        <v>0.10837686937124458</v>
       </c>
       <c r="HG3">
-        <v>0.063977166981577127</v>
+        <v>0.083066982986803289</v>
       </c>
       <c r="HH3">
-        <v>-0.038267924054882906</v>
+        <v>0.15059412911263018</v>
       </c>
       <c r="HI3">
-        <v>-0.015101132289418756</v>
+        <v>0.07323992344217535</v>
       </c>
       <c r="HJ3">
-        <v>0.014096377132868012</v>
+        <v>0.16991876779498505</v>
       </c>
       <c r="HK3">
-        <v>-0.007650524014389694</v>
+        <v>-0.06888369212579834</v>
       </c>
       <c r="HL3">
-        <v>0.058687931082046819</v>
+        <v>0.066540175961411568</v>
       </c>
       <c r="HM3">
         <v>0</v>
@@ -5476,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="HO3">
-        <v>-5.5940504573414813</v>
+        <v>-5.6128490048097133</v>
       </c>
     </row>
     <row r="4">
@@ -5484,661 +5484,661 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.065857527443121816</v>
+        <v>0.065351979651616265</v>
       </c>
       <c r="C4">
-        <v>0.036383394800587512</v>
+        <v>0.036574230826564469</v>
       </c>
       <c r="D4">
-        <v>0.044640903246919848</v>
+        <v>0.044265252488279408</v>
       </c>
       <c r="E4">
-        <v>0.056319652919174894</v>
+        <v>0.056083406270645772</v>
       </c>
       <c r="F4">
-        <v>0.044036496073031992</v>
+        <v>0.044671271176274618</v>
       </c>
       <c r="G4">
-        <v>0.036773830908412498</v>
+        <v>0.036265428163638272</v>
       </c>
       <c r="H4">
-        <v>0.029260357754854839</v>
+        <v>0.028532193932346451</v>
       </c>
       <c r="I4">
-        <v>0.032142731014588949</v>
+        <v>0.031633355473897624</v>
       </c>
       <c r="J4">
-        <v>0.032308285588929231</v>
+        <v>0.032401425019643743</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.083079970904616746</v>
+        <v>0.083039100310105626</v>
       </c>
       <c r="M4">
-        <v>0.080452248780528202</v>
+        <v>0.084087224056993551</v>
       </c>
       <c r="N4">
-        <v>0.081695084911743876</v>
+        <v>0.085505922062247344</v>
       </c>
       <c r="O4">
-        <v>0.080650478047298801</v>
+        <v>0.082361915027903521</v>
       </c>
       <c r="P4">
-        <v>0.08000258928751823</v>
+        <v>0.082072653023020248</v>
       </c>
       <c r="Q4">
-        <v>0.085386483495137042</v>
+        <v>0.081651500655940443</v>
       </c>
       <c r="R4">
-        <v>0.079691976633103609</v>
+        <v>0.082072653061550274</v>
       </c>
       <c r="S4">
-        <v>0.079330295752836663</v>
+        <v>0.082733498212437473</v>
       </c>
       <c r="T4">
-        <v>0.080321961930315044</v>
+        <v>0.081651500714889289</v>
       </c>
       <c r="U4">
-        <v>0.082522969020251705</v>
+        <v>0.079633950068292506</v>
       </c>
       <c r="V4">
-        <v>0.08252296903778511</v>
+        <v>0.082216413904344754</v>
       </c>
       <c r="W4">
-        <v>0.080386921065135494</v>
+        <v>0.081378874235824433</v>
       </c>
       <c r="X4">
-        <v>0.081407442073601732</v>
+        <v>0.080981579156669342</v>
       </c>
       <c r="Y4">
-        <v>0.080386921108807727</v>
+        <v>0.081244917325651117</v>
       </c>
       <c r="Z4">
-        <v>0.081126541883272577</v>
+        <v>0.082072653223103531</v>
       </c>
       <c r="AA4">
-        <v>0.078752788513227465</v>
+        <v>0.08091667865474117</v>
       </c>
       <c r="AB4">
-        <v>0.07804576081101243</v>
+        <v>0.078591300875418421</v>
       </c>
       <c r="AC4">
-        <v>0.078151491645838053</v>
+        <v>0.081860206459868759</v>
       </c>
       <c r="AD4">
-        <v>0.082679618721109849</v>
+        <v>0.080165627155328059</v>
       </c>
       <c r="AE4">
-        <v>0.077482830960887858</v>
+        <v>0.078232038578660734</v>
       </c>
       <c r="AF4">
-        <v>0.079095601997480225</v>
+        <v>0.079691760502158024</v>
       </c>
       <c r="AG4">
-        <v>0.083493289425740344</v>
+        <v>0.080724167190295099</v>
       </c>
       <c r="AH4">
-        <v>0.078752788702419321</v>
+        <v>0.080105262386242992</v>
       </c>
       <c r="AI4">
-        <v>0.078420583295152085</v>
+        <v>0.079691760582350835</v>
       </c>
       <c r="AJ4">
-        <v>0.079389761950450485</v>
+        <v>0.081930601492341118</v>
       </c>
       <c r="AK4">
-        <v>0.081266164630011281</v>
+        <v>0.079926129013393243</v>
       </c>
       <c r="AL4">
-        <v>0.080129266647417458</v>
+        <v>0.080852145479253415</v>
       </c>
       <c r="AM4">
-        <v>0.079877314327694487</v>
+        <v>0.079926129066884538</v>
       </c>
       <c r="AN4">
-        <v>0.080517949383558218</v>
+        <v>0.077982986974376015</v>
       </c>
       <c r="AO4">
-        <v>0.078922837480290789</v>
+        <v>0.079349465658873575</v>
       </c>
       <c r="AP4">
-        <v>0.079691977226727662</v>
+        <v>0.081446437001862132</v>
       </c>
       <c r="AQ4">
-        <v>0.079095602294523573</v>
+        <v>0.081930601661275193</v>
       </c>
       <c r="AR4">
-        <v>0.081550405783106419</v>
+        <v>0.079405762129842322</v>
       </c>
       <c r="AS4">
-        <v>0.078312119573356487</v>
+        <v>0.08041042944118143</v>
       </c>
       <c r="AT4">
-        <v>0.077734887783100531</v>
+        <v>0.079633950733556197</v>
       </c>
       <c r="AU4">
-        <v>0.080193138326281888</v>
+        <v>0.081112495078625155</v>
       </c>
       <c r="AV4">
-        <v>0.079691977394256902</v>
+        <v>0.080348722050192362</v>
       </c>
       <c r="AW4">
-        <v>0.07825830355798255</v>
+        <v>0.079691760975123233</v>
       </c>
       <c r="AX4">
-        <v>0.079753416886877954</v>
+        <v>0.081046850699167935</v>
       </c>
       <c r="AY4">
-        <v>0.080193138436723141</v>
+        <v>0.080410429606779396</v>
       </c>
       <c r="AZ4">
-        <v>0.078585392106800434</v>
+        <v>0.080348722162357403</v>
       </c>
       <c r="BA4">
-        <v>0.081196148744991689</v>
+        <v>0.079691761092859512</v>
       </c>
       <c r="BB4">
-        <v>0.078475236103712029</v>
+        <v>0.078131679265581719</v>
       </c>
       <c r="BC4">
-        <v>0.079095602651521144</v>
+        <v>0.080916679383555762</v>
       </c>
       <c r="BD4">
-        <v>0.080650479042954207</v>
+        <v>0.080226324179123967</v>
       </c>
       <c r="BE4">
-        <v>0.080065752086718428</v>
+        <v>0.079749881582532295</v>
       </c>
       <c r="BF4">
-        <v>0.078585392295732012</v>
+        <v>0.078539200821769073</v>
       </c>
       <c r="BG4">
-        <v>0.07853017161833134</v>
+        <v>0.079867063239037223</v>
       </c>
       <c r="BH4">
-        <v>0.081841514065418453</v>
+        <v>0.08303910135311493</v>
       </c>
       <c r="BI4">
-        <v>0.078366212743070041</v>
+        <v>0.081514393674584934</v>
       </c>
       <c r="BJ4">
-        <v>0.0792046405942467</v>
+        <v>0.082571236185185123</v>
       </c>
       <c r="BK4">
-        <v>0.081514742412345159</v>
+        <v>0.082380224530156851</v>
       </c>
       <c r="BL4">
-        <v>0.081092952208969893</v>
+        <v>0.082963817956095698</v>
       </c>
       <c r="BM4">
-        <v>0.079658024686211248</v>
+        <v>0.081707133525197109</v>
       </c>
       <c r="BN4">
-        <v>0.083024412095334149</v>
+        <v>0.081707405988887011</v>
       </c>
       <c r="BO4">
-        <v>0.083813430751466703</v>
+        <v>0.083798146292965184</v>
       </c>
       <c r="BP4">
-        <v>0.081292052205983747</v>
+        <v>0.080924963361017288</v>
       </c>
       <c r="BQ4">
-        <v>0.082759461355914166</v>
+        <v>0.081178756417809569</v>
       </c>
       <c r="BR4">
-        <v>0.086066195106773546</v>
+        <v>0.083035737291465531</v>
       </c>
       <c r="BS4">
-        <v>0.082742513541917695</v>
+        <v>0.084721943497309646</v>
       </c>
       <c r="BT4">
-        <v>0.083243278423529646</v>
+        <v>0.08314356065608991</v>
       </c>
       <c r="BU4">
-        <v>0.078005974630989197</v>
+        <v>0.078110207373797549</v>
       </c>
       <c r="BV4">
-        <v>0.077601635164349439</v>
+        <v>0.077685791838396551</v>
       </c>
       <c r="BW4">
-        <v>0.076708615963613613</v>
+        <v>0.076461823214790059</v>
       </c>
       <c r="BX4">
-        <v>0.075015711446430364</v>
+        <v>0.077679334612282464</v>
       </c>
       <c r="BY4">
-        <v>0.07788300721635974</v>
+        <v>0.075984965748605277</v>
       </c>
       <c r="BZ4">
-        <v>0.075858213264148891</v>
+        <v>0.074658097933876802</v>
       </c>
       <c r="CA4">
-        <v>0.075308050155864906</v>
+        <v>0.075682706085854659</v>
       </c>
       <c r="CB4">
-        <v>0.077029594557221082</v>
+        <v>0.075959533282615649</v>
       </c>
       <c r="CC4">
-        <v>0.075523127034744647</v>
+        <v>0.078403574579795951</v>
       </c>
       <c r="CD4">
-        <v>0.078363293687636129</v>
+        <v>0.079002592541841637</v>
       </c>
       <c r="CE4">
-        <v>0.080156530589494041</v>
+        <v>0.078292415473275603</v>
       </c>
       <c r="CF4">
-        <v>0.080120800981203874</v>
+        <v>0.079979227618192344</v>
       </c>
       <c r="CG4">
-        <v>0.079374216912588308</v>
+        <v>0.079087919988217487</v>
       </c>
       <c r="CH4">
-        <v>0.079979645235835506</v>
+        <v>0.080518567375041761</v>
       </c>
       <c r="CI4">
-        <v>0.078938916779034848</v>
+        <v>0.078709122067497181</v>
       </c>
       <c r="CJ4">
-        <v>0.080406554794863916</v>
+        <v>0.080036729622648406</v>
       </c>
       <c r="CK4">
-        <v>0.078373001181842983</v>
+        <v>0.081454534375946255</v>
       </c>
       <c r="CL4">
-        <v>0.081600493228977333</v>
+        <v>0.081704246561339691</v>
       </c>
       <c r="CM4">
-        <v>0.083099134492345822</v>
+        <v>0.083833843816668058</v>
       </c>
       <c r="CN4">
-        <v>0.082583369652745681</v>
+        <v>0.083048484480084256</v>
       </c>
       <c r="CO4">
-        <v>0.073791409039532602</v>
+        <v>0.076450347451246806</v>
       </c>
       <c r="CP4">
-        <v>0.07504781554950192</v>
+        <v>0.075833177175568339</v>
       </c>
       <c r="CQ4">
-        <v>0.074244627137337635</v>
+        <v>0.074966826140466222</v>
       </c>
       <c r="CR4">
-        <v>0.074154210356526265</v>
+        <v>0.072984113161805989</v>
       </c>
       <c r="CS4">
-        <v>0.074064995979704618</v>
+        <v>0.074920554475935111</v>
       </c>
       <c r="CT4">
-        <v>0.073024147636824091</v>
+        <v>0.073369051771226962</v>
       </c>
       <c r="CU4">
-        <v>0.07249420932560946</v>
+        <v>0.071824268015851053</v>
       </c>
       <c r="CV4">
-        <v>0.074115153910803588</v>
+        <v>0.072649214570317783</v>
       </c>
       <c r="CW4">
-        <v>0.075207688701594291</v>
+        <v>0.07407518009264473</v>
       </c>
       <c r="CX4">
-        <v>0.072753962939677952</v>
+        <v>0.073149047223933603</v>
       </c>
       <c r="CY4">
-        <v>0.072110059508879651</v>
+        <v>0.073122723676531248</v>
       </c>
       <c r="CZ4">
-        <v>0.07372934648740026</v>
+        <v>0.073376643697113275</v>
       </c>
       <c r="DA4">
-        <v>0.074347962320122751</v>
+        <v>0.073164364438114152</v>
       </c>
       <c r="DB4">
-        <v>0.07382883264189917</v>
+        <v>0.074399423314331553</v>
       </c>
       <c r="DC4">
-        <v>0.073879100879355022</v>
+        <v>0.073915549293343388</v>
       </c>
       <c r="DD4">
-        <v>0.073295342665969668</v>
+        <v>0.073431418324240411</v>
       </c>
       <c r="DE4">
-        <v>0.072471961540968452</v>
+        <v>0.073647470253025454</v>
       </c>
       <c r="DF4">
-        <v>0.073529797616715853</v>
+        <v>0.074740704121290552</v>
       </c>
       <c r="DG4">
-        <v>0.0728493085954805</v>
+        <v>0.074101689039694177</v>
       </c>
       <c r="DH4">
-        <v>0.074126622806947068</v>
+        <v>0.073735900174275684</v>
       </c>
       <c r="DI4">
-        <v>0.070837332613779613</v>
+        <v>0.072503723298270165</v>
       </c>
       <c r="DJ4">
-        <v>0.071257734883763565</v>
+        <v>0.072715535926609939</v>
       </c>
       <c r="DK4">
-        <v>0.070747243739779267</v>
+        <v>0.071807264537844862</v>
       </c>
       <c r="DL4">
-        <v>0.072514364452516883</v>
+        <v>0.073447925905046688</v>
       </c>
       <c r="DM4">
-        <v>0.070837333299934371</v>
+        <v>0.072400045850026434</v>
       </c>
       <c r="DN4">
-        <v>0.072514364748288609</v>
+        <v>0.071130280264164125</v>
       </c>
       <c r="DO4">
-        <v>0.071114800922783425</v>
+        <v>0.072400046185383274</v>
       </c>
       <c r="DP4">
-        <v>0.072457603616715327</v>
+        <v>0.071760018235864212</v>
       </c>
       <c r="DQ4">
-        <v>0.071306024596171733</v>
+        <v>0.073872777565847592</v>
       </c>
       <c r="DR4">
-        <v>0.072071609404476905</v>
+        <v>0.073507243275686224</v>
       </c>
       <c r="DS4">
-        <v>0.072923679360707414</v>
+        <v>0.073872777834996003</v>
       </c>
       <c r="DT4">
-        <v>0.073355198579928296</v>
+        <v>0.072933510045757724</v>
       </c>
       <c r="DU4">
-        <v>0.072018034799416777</v>
+        <v>0.071854831942390521</v>
       </c>
       <c r="DV4">
-        <v>0.072457604528598202</v>
+        <v>0.072662017602390772</v>
       </c>
       <c r="DW4">
-        <v>0.072514366111851941</v>
+        <v>0.074454062340548258</v>
       </c>
       <c r="DX4">
-        <v>0.072804544703044677</v>
+        <v>0.073687914675316865</v>
       </c>
       <c r="DY4">
-        <v>0.073945690967367805</v>
+        <v>0.074726111952848326</v>
       </c>
       <c r="DZ4">
-        <v>0.072514366572059036</v>
+        <v>0.072608878815765998</v>
       </c>
       <c r="EA4">
-        <v>0.072234652274724531</v>
+        <v>0.073872779010388925</v>
       </c>
       <c r="EB4">
-        <v>0.07387797830299464</v>
+        <v>0.071902720725696992</v>
       </c>
       <c r="EC4">
-        <v>0.071114803376614258</v>
+        <v>0.071216773172466677</v>
       </c>
       <c r="ED4">
-        <v>0.07228978613892964</v>
+        <v>0.074190613974721695</v>
       </c>
       <c r="EE4">
-        <v>0.072687181051080671</v>
+        <v>0.073567011817229286</v>
       </c>
       <c r="EF4">
-        <v>0.072234653151153461</v>
+        <v>0.074795519260177787</v>
       </c>
       <c r="EG4">
-        <v>0.07415214196874638</v>
+        <v>0.072348753536842905</v>
       </c>
       <c r="EH4">
-        <v>0.072923681701372228</v>
+        <v>0.072933512417887078</v>
       </c>
       <c r="EI4">
-        <v>0.072345320669863433</v>
+        <v>0.073157921019378944</v>
       </c>
       <c r="EJ4">
-        <v>0.072923682049385485</v>
+        <v>0.074936054153375523</v>
       </c>
       <c r="EK4">
-        <v>0.073105794908092436</v>
+        <v>0.072400050037080527</v>
       </c>
       <c r="EL4">
-        <v>0.072745645823810615</v>
+        <v>0.074936054468806565</v>
       </c>
       <c r="EM4">
-        <v>0.073044629417242893</v>
+        <v>0.074726114098684349</v>
       </c>
       <c r="EN4">
-        <v>0.073482829441792338</v>
+        <v>0.076824072357451867</v>
       </c>
       <c r="EO4">
-        <v>0.074152143221348443</v>
+        <v>0.076231651104617243</v>
       </c>
       <c r="EP4">
-        <v>0.074082768216879133</v>
+        <v>0.074936055038322083</v>
       </c>
       <c r="EQ4">
-        <v>0.075108400862291091</v>
+        <v>0.073935360420754256</v>
       </c>
       <c r="ER4">
-        <v>0.074013954217854672</v>
+        <v>0.075007197842104273</v>
       </c>
       <c r="ES4">
-        <v>0.072514369912827947</v>
+        <v>0.075446784122585833</v>
       </c>
       <c r="ET4">
-        <v>0.072804548459205573</v>
+        <v>0.073567014367470582</v>
       </c>
       <c r="EU4">
-        <v>0.074152144200666278</v>
+        <v>0.074588989285192753</v>
       </c>
       <c r="EV4">
-        <v>0.075505367451904601</v>
+        <v>0.074588989456347579</v>
       </c>
       <c r="EW4">
-        <v>0.074435394958199522</v>
+        <v>0.075988940227630086</v>
       </c>
       <c r="EX4">
-        <v>0.073167431804424671</v>
+        <v>0.076911841608949733</v>
       </c>
       <c r="EY4">
-        <v>0.074152144870096776</v>
+        <v>0.075446785054798446</v>
       </c>
       <c r="EZ4">
-        <v>0.073744171357839131</v>
+        <v>0.075909454762887199</v>
       </c>
       <c r="FA4">
-        <v>0.072983929516056714</v>
+        <v>0.074190617758362526</v>
       </c>
       <c r="FB4">
-        <v>0.075424580438325797</v>
+        <v>0.075446785545399672</v>
       </c>
       <c r="FC4">
-        <v>0.074878339021714146</v>
+        <v>0.073749068079600549</v>
       </c>
       <c r="FD4">
-        <v>0.076996854659959243</v>
+        <v>0.075297780295300765</v>
       </c>
       <c r="FE4">
-        <v>0.074802951692193392</v>
+        <v>0.074387415588369976</v>
       </c>
       <c r="FF4">
-        <v>0.075108403240898639</v>
+        <v>0.07425569747759185</v>
       </c>
       <c r="FG4">
-        <v>0.073810811014657723</v>
+        <v>0.074255697683030544</v>
       </c>
       <c r="FH4">
-        <v>0.073292131231308982</v>
+        <v>0.076911843145484826</v>
       </c>
       <c r="FI4">
-        <v>0.073482833251456853</v>
+        <v>0.075297781197326066</v>
       </c>
       <c r="FJ4">
-        <v>0.073877984094673471</v>
+        <v>0.076314008688379079</v>
       </c>
       <c r="FK4">
-        <v>0.074082771942849734</v>
+        <v>0.077456032478686099</v>
       </c>
       <c r="FL4">
-        <v>0.074222090248652686</v>
+        <v>0.075675122875762016</v>
       </c>
       <c r="FM4">
-        <v>0.075586874435759843</v>
+        <v>0.075598356347474818</v>
       </c>
       <c r="FN4">
-        <v>0.075108404710741386</v>
+        <v>0.076737114320869881</v>
       </c>
       <c r="FO4">
-        <v>0.074654078838086058</v>
+        <v>0.076231655172898455</v>
       </c>
       <c r="FP4">
-        <v>0.078098503511379536</v>
+        <v>0.077180099370973032</v>
       </c>
       <c r="FQ4">
-        <v>0.074292609090613151</v>
+        <v>0.075371969147942794</v>
       </c>
       <c r="FR4">
-        <v>0.077188429608480005</v>
+        <v>0.075830665336701242</v>
       </c>
       <c r="FS4">
-        <v>0.075344502107064018</v>
+        <v>0.074454070579082474</v>
       </c>
       <c r="FT4">
-        <v>0.075186422537902947</v>
+        <v>0.076480954516497029</v>
       </c>
       <c r="FU4">
-        <v>0.07969198772407593</v>
+        <v>0.07793392089636568</v>
       </c>
       <c r="FV4">
-        <v>0.074728203444967903</v>
+        <v>0.078131691167421219</v>
       </c>
       <c r="FW4">
-        <v>0.0769024410875008</v>
+        <v>0.077836481796021817</v>
       </c>
       <c r="FX4">
-        <v>0.076265897523171769</v>
+        <v>0.077000431051355303</v>
       </c>
       <c r="FY4">
-        <v>0.075752072560047859</v>
+        <v>0.076231656960177654</v>
       </c>
       <c r="FZ4">
-        <v>0.076902441592196877</v>
+        <v>0.077933921682605031</v>
       </c>
       <c r="GA4">
-        <v>0.078420595788177352</v>
+        <v>0.077089845928292475</v>
       </c>
       <c r="GB4">
-        <v>0.076265898219220002</v>
+        <v>0.078232052059295148</v>
       </c>
       <c r="GC4">
-        <v>0.076091499425863102</v>
+        <v>0.078643679811304171</v>
       </c>
       <c r="GD4">
-        <v>0.077092184114804979</v>
+        <v>0.076824078959545447</v>
       </c>
       <c r="GE4">
-        <v>0.077786066879732066</v>
+        <v>0.078333415724769484</v>
       </c>
       <c r="GF4">
-        <v>0.078530184055786559</v>
+        <v>0.076911847183034912</v>
       </c>
       <c r="GG4">
-        <v>0.07831213278900416</v>
+        <v>0.07813169294087717</v>
       </c>
       <c r="GH4">
-        <v>0.075920253963027609</v>
+        <v>0.081378886202218823</v>
       </c>
       <c r="GI4">
-        <v>0.077582921266059202</v>
+        <v>0.077180102614123558</v>
       </c>
       <c r="GJ4">
-        <v>0.077092185140965108</v>
+        <v>0.079072382816302869</v>
       </c>
       <c r="GK4">
-        <v>0.078980134062990648</v>
+        <v>0.080981591803370417</v>
       </c>
       <c r="GL4">
-        <v>0.077482846221972421</v>
+        <v>0.079293478527305672</v>
       </c>
       <c r="GM4">
-        <v>0.078865869855390139</v>
+        <v>0.080852158153901843</v>
       </c>
       <c r="GN4">
-        <v>0.076178301372924348</v>
+        <v>0.079182354153815665</v>
       </c>
       <c r="GO4">
-        <v>0.075669109717623487</v>
+        <v>0.077644426457094753</v>
       </c>
       <c r="GP4">
-        <v>0.07944956378404347</v>
+        <v>0.079182354486629816</v>
       </c>
       <c r="GQ4">
-        <v>0.078752803467663141</v>
+        <v>0.076911849180149247</v>
       </c>
       <c r="GR4">
-        <v>0.078980135192220968</v>
+        <v>0.077089848989305015</v>
       </c>
       <c r="GS4">
-        <v>0.078752803789908607</v>
+        <v>0.078539215984061814</v>
       </c>
       <c r="GT4">
-        <v>0.07709218697101157</v>
+        <v>0.077089849406460423</v>
       </c>
       <c r="GU4">
-        <v>0.078098508485200155</v>
+        <v>0.076314015575421557</v>
       </c>
       <c r="GV4">
-        <v>0.07864091564604847</v>
+        <v>0.079749896151346852</v>
       </c>
       <c r="GW4">
-        <v>0.077285618219540719</v>
+        <v>0.079749896314636873</v>
       </c>
       <c r="GX4">
-        <v>0.076996862504166791</v>
+        <v>0.078643683383598978</v>
       </c>
       <c r="GY4">
-        <v>0.077993312575940874</v>
+        <v>0.079985531431269574</v>
       </c>
       <c r="GZ4">
-        <v>0.078098509436783287</v>
+        <v>0.078539217306986847</v>
       </c>
       <c r="HA4">
-        <v>0.078980136773571727</v>
+        <v>0.078539217504713765</v>
       </c>
       <c r="HB4">
-        <v>0.080065766817507641</v>
+        <v>0.079072385945580442</v>
       </c>
       <c r="HC4">
-        <v>0.080717329230110921</v>
+        <v>0.078963551144316385</v>
       </c>
       <c r="HD4">
-        <v>0.078865872791811995</v>
+        <v>0.078963551338941076</v>
       </c>
       <c r="HE4">
-        <v>0.079691993233980671</v>
+        <v>0.078032325655922163</v>
       </c>
       <c r="HF4">
-        <v>0.078640917466476057</v>
+        <v>0.078749218109177427</v>
       </c>
       <c r="HG4">
-        <v>0.078640917660849199</v>
+        <v>0.079293482295856629</v>
       </c>
       <c r="HH4">
-        <v>0.080717330044263569</v>
+        <v>0.078131698033637301</v>
       </c>
       <c r="HI4">
-        <v>0.080321978513231751</v>
+        <v>0.079633968143862144</v>
       </c>
       <c r="HJ4">
-        <v>0.079815211516943027</v>
+        <v>0.077933928455587387</v>
       </c>
       <c r="HK4">
-        <v>0.08032197885052475</v>
+        <v>0.08265828526840735</v>
       </c>
       <c r="HL4">
-        <v>0.079095620178328885</v>
+        <v>0.079985533844905574</v>
       </c>
       <c r="HM4">
         <v>0</v>
@@ -6147,7 +6147,7 @@
         <v>0</v>
       </c>
       <c r="HO4">
-        <v>0.0567962161721563</v>
+        <v>0.057543565718947726</v>
       </c>
     </row>
   </sheetData>
@@ -7503,661 +7503,661 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>4.5506121915916236</v>
+        <v>4.5222900925958598</v>
       </c>
       <c r="C3">
-        <v>-1.007719943821725</v>
+        <v>-1.0244068015094727</v>
       </c>
       <c r="D3">
-        <v>-1.0341649250222484</v>
+        <v>-1.0364319629962673</v>
       </c>
       <c r="E3">
-        <v>-0.91218946083919006</v>
+        <v>-1.0246274678376961</v>
       </c>
       <c r="F3">
-        <v>0.55798118186429102</v>
+        <v>0.59882807944567973</v>
       </c>
       <c r="G3">
-        <v>0.61866444375782803</v>
+        <v>0.62475424183748773</v>
       </c>
       <c r="H3">
-        <v>0.55995996982196816</v>
+        <v>0.53301106526311715</v>
       </c>
       <c r="I3">
-        <v>0.23913346852302192</v>
+        <v>0.24486586107362734</v>
       </c>
       <c r="J3">
-        <v>0.29610015858234179</v>
+        <v>0.27254656898981022</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>-2.0154702927184598</v>
+        <v>-1.8408480170622141</v>
       </c>
       <c r="M3">
-        <v>-1.8326032978668285</v>
+        <v>-1.7937347339942018</v>
       </c>
       <c r="N3">
-        <v>-1.8136532909173748</v>
+        <v>-1.7751032774984425</v>
       </c>
       <c r="O3">
-        <v>-1.8314012022553769</v>
+        <v>-1.73938204796717</v>
       </c>
       <c r="P3">
-        <v>-1.5499950887312188</v>
+        <v>-1.6882932322373285</v>
       </c>
       <c r="Q3">
-        <v>-1.7847449385511795</v>
+        <v>-1.655346302818147</v>
       </c>
       <c r="R3">
-        <v>-1.5987897273756864</v>
+        <v>-1.754765386727231</v>
       </c>
       <c r="S3">
-        <v>-1.7745548088861163</v>
+        <v>-2.0017651771553768</v>
       </c>
       <c r="T3">
-        <v>-1.6658992294944452</v>
+        <v>-1.7893696419400349</v>
       </c>
       <c r="U3">
-        <v>-1.8273043424553443</v>
+        <v>-1.5691840809850011</v>
       </c>
       <c r="V3">
-        <v>-1.8838808727723539</v>
+        <v>-1.6363993252225641</v>
       </c>
       <c r="W3">
-        <v>-1.8261402301669798</v>
+        <v>-1.7515590821082272</v>
       </c>
       <c r="X3">
-        <v>-1.9538314320339707</v>
+        <v>-1.6350547385336383</v>
       </c>
       <c r="Y3">
-        <v>-1.6787839111181382</v>
+        <v>-1.767918732750599</v>
       </c>
       <c r="Z3">
-        <v>-1.6780895283129003</v>
+        <v>-1.8129793734185258</v>
       </c>
       <c r="AA3">
-        <v>-1.6854296157672612</v>
+        <v>-1.6811495313967399</v>
       </c>
       <c r="AB3">
-        <v>-1.5351524378011712</v>
+        <v>-1.6642035986633585</v>
       </c>
       <c r="AC3">
-        <v>-1.6366686030172743</v>
+        <v>-1.6635121397698216</v>
       </c>
       <c r="AD3">
-        <v>-1.6282786806364282</v>
+        <v>-1.5704133812112466</v>
       </c>
       <c r="AE3">
-        <v>-1.6824835967899878</v>
+        <v>-1.4583835657228468</v>
       </c>
       <c r="AF3">
-        <v>-1.650031915920338</v>
+        <v>-1.5185950780506341</v>
       </c>
       <c r="AG3">
-        <v>-1.8192721702749459</v>
+        <v>-1.6208666001505576</v>
       </c>
       <c r="AH3">
-        <v>-1.633204115782704</v>
+        <v>-1.5821031073900782</v>
       </c>
       <c r="AI3">
-        <v>-1.4960123383619612</v>
+        <v>-1.5163224068063026</v>
       </c>
       <c r="AJ3">
-        <v>-1.7370405965697129</v>
+        <v>-1.5155207023548773</v>
       </c>
       <c r="AK3">
-        <v>-1.7800745915964979</v>
+        <v>-1.5872419289212027</v>
       </c>
       <c r="AL3">
-        <v>-1.71043182611494</v>
+        <v>-1.7233018247231138</v>
       </c>
       <c r="AM3">
-        <v>-1.701457474761112</v>
+        <v>-1.6971083240526517</v>
       </c>
       <c r="AN3">
-        <v>-1.6061864015829095</v>
+        <v>-1.6472321335267568</v>
       </c>
       <c r="AO3">
-        <v>-1.5757966807641306</v>
+        <v>-1.4911768362406312</v>
       </c>
       <c r="AP3">
-        <v>-1.5897387136985701</v>
+        <v>-1.7466664796575428</v>
       </c>
       <c r="AQ3">
-        <v>-1.524415798230214</v>
+        <v>-1.6776044925378957</v>
       </c>
       <c r="AR3">
-        <v>-1.7228073372479857</v>
+        <v>-1.5600155871482313</v>
       </c>
       <c r="AS3">
-        <v>-1.6099861316029134</v>
+        <v>-1.5891124264338183</v>
       </c>
       <c r="AT3">
-        <v>-1.4485542331913641</v>
+        <v>-1.6671761553976121</v>
       </c>
       <c r="AU3">
-        <v>-1.5933245828273574</v>
+        <v>-1.6502205745471219</v>
       </c>
       <c r="AV3">
-        <v>-1.548748658705704</v>
+        <v>-1.7424442414686112</v>
       </c>
       <c r="AW3">
-        <v>-1.6454498870490513</v>
+        <v>-1.7687207821765187</v>
       </c>
       <c r="AX3">
-        <v>-1.5762387056785545</v>
+        <v>-1.6322511033670812</v>
       </c>
       <c r="AY3">
-        <v>-1.7090488182342169</v>
+        <v>-1.7765193984066061</v>
       </c>
       <c r="AZ3">
-        <v>-1.5457967352431174</v>
+        <v>-1.6073801723014514</v>
       </c>
       <c r="BA3">
-        <v>-1.603866724556207</v>
+        <v>-1.5537859181266513</v>
       </c>
       <c r="BB3">
-        <v>-1.7152753127313911</v>
+        <v>-1.5603966522264592</v>
       </c>
       <c r="BC3">
-        <v>-1.5293952615486659</v>
+        <v>-1.4950654193650217</v>
       </c>
       <c r="BD3">
-        <v>-1.6402715368031033</v>
+        <v>-1.7019626711231084</v>
       </c>
       <c r="BE3">
-        <v>-1.6474579025726752</v>
+        <v>-1.4661702403905343</v>
       </c>
       <c r="BF3">
-        <v>-1.4723197466430185</v>
+        <v>-1.5647396559986952</v>
       </c>
       <c r="BG3">
-        <v>-1.5333670894889466</v>
+        <v>-1.4781748132060166</v>
       </c>
       <c r="BH3">
-        <v>-1.7022630672538588</v>
+        <v>-1.6652293524219983</v>
       </c>
       <c r="BI3">
-        <v>-1.6208673770127597</v>
+        <v>-1.6161249256826953</v>
       </c>
       <c r="BJ3">
-        <v>-1.1238841789665939</v>
+        <v>-1.2801744938370607</v>
       </c>
       <c r="BK3">
-        <v>-1.0956508598849477</v>
+        <v>-1.2149421303211212</v>
       </c>
       <c r="BL3">
-        <v>-1.1575484958567006</v>
+        <v>-1.3126993899029966</v>
       </c>
       <c r="BM3">
-        <v>-1.1567182324193064</v>
+        <v>-1.2372590899118541</v>
       </c>
       <c r="BN3">
-        <v>-1.1275291564841361</v>
+        <v>-1.1820265724899808</v>
       </c>
       <c r="BO3">
-        <v>-1.1624851440078983</v>
+        <v>-1.2568712876070649</v>
       </c>
       <c r="BP3">
-        <v>-1.2454175501183062</v>
+        <v>-1.2895098883614173</v>
       </c>
       <c r="BQ3">
-        <v>-1.2057549429808736</v>
+        <v>-1.1842687536124794</v>
       </c>
       <c r="BR3">
-        <v>-1.2014419726729144</v>
+        <v>-1.2912166270331733</v>
       </c>
       <c r="BS3">
-        <v>-1.2229806135801822</v>
+        <v>-1.2737378878662293</v>
       </c>
       <c r="BT3">
-        <v>-0.86367954305619155</v>
+        <v>-0.78748701454435022</v>
       </c>
       <c r="BU3">
-        <v>-0.78143337577801775</v>
+        <v>-0.75799587474540064</v>
       </c>
       <c r="BV3">
-        <v>-0.77598508785373921</v>
+        <v>-0.70890386035573572</v>
       </c>
       <c r="BW3">
-        <v>-0.82109506368425345</v>
+        <v>-0.72940832042843262</v>
       </c>
       <c r="BX3">
-        <v>-0.71740674426832263</v>
+        <v>-0.79707728474388084</v>
       </c>
       <c r="BY3">
-        <v>-0.89146778260162607</v>
+        <v>-0.73879860587637203</v>
       </c>
       <c r="BZ3">
-        <v>-0.81282607512431659</v>
+        <v>-0.6827567044890468</v>
       </c>
       <c r="CA3">
-        <v>-0.82431484158400326</v>
+        <v>-0.74357062374051286</v>
       </c>
       <c r="CB3">
-        <v>-0.88360579305762088</v>
+        <v>-0.74080346328015501</v>
       </c>
       <c r="CC3">
-        <v>-0.80494622343699684</v>
+        <v>-0.86979181466866473</v>
       </c>
       <c r="CD3">
-        <v>-0.55377270441467019</v>
+        <v>-0.52087955393025709</v>
       </c>
       <c r="CE3">
-        <v>-0.3046454532764602</v>
+        <v>-0.12083955401655018</v>
       </c>
       <c r="CF3">
-        <v>-0.31347151430509568</v>
+        <v>-0.24342427659560872</v>
       </c>
       <c r="CG3">
-        <v>-0.31038169657450254</v>
+        <v>-0.17911884921532506</v>
       </c>
       <c r="CH3">
-        <v>-0.29240089269981134</v>
+        <v>-0.28056005371756909</v>
       </c>
       <c r="CI3">
-        <v>-0.24491186669304649</v>
+        <v>-0.17214847586411908</v>
       </c>
       <c r="CJ3">
-        <v>-0.3371760544921763</v>
+        <v>-0.17081521864140334</v>
       </c>
       <c r="CK3">
-        <v>-0.18647303934132167</v>
+        <v>-0.31860471765551379</v>
       </c>
       <c r="CL3">
-        <v>-0.29742418632960615</v>
+        <v>-0.23845612735225749</v>
       </c>
       <c r="CM3">
-        <v>-0.43273129615175759</v>
+        <v>-0.32122559902276721</v>
       </c>
       <c r="CN3">
-        <v>-0.56847607512339504</v>
+        <v>-0.51300789716896977</v>
       </c>
       <c r="CO3">
-        <v>-0.12398541602341159</v>
+        <v>-0.29195040804856182</v>
       </c>
       <c r="CP3">
-        <v>-0.2307383365860293</v>
+        <v>-0.2367038968296708</v>
       </c>
       <c r="CQ3">
-        <v>-0.29830876778532422</v>
+        <v>-0.29333246836784549</v>
       </c>
       <c r="CR3">
-        <v>-0.28701780778689112</v>
+        <v>-0.11799032355595523</v>
       </c>
       <c r="CS3">
-        <v>-0.27573512393804656</v>
+        <v>-0.28102799548782786</v>
       </c>
       <c r="CT3">
-        <v>-0.24488694137779346</v>
+        <v>-0.19253892101855138</v>
       </c>
       <c r="CU3">
-        <v>-0.19776821649552231</v>
+        <v>-0.055998170979292071</v>
       </c>
       <c r="CV3">
-        <v>-0.32084939833970677</v>
+        <v>-0.12388426929105648</v>
       </c>
       <c r="CW3">
-        <v>-0.39598739609357753</v>
+        <v>-0.23540574287955363</v>
       </c>
       <c r="CX3">
-        <v>-0.207713366599069</v>
+        <v>-0.1575130850890647</v>
       </c>
       <c r="CY3">
-        <v>0.057808197581879994</v>
+        <v>0.03958140112026802</v>
       </c>
       <c r="CZ3">
-        <v>-0.070085550785954923</v>
+        <v>0.022742705321881228</v>
       </c>
       <c r="DA3">
-        <v>-0.11311538530503482</v>
+        <v>0.044679692634613591</v>
       </c>
       <c r="DB3">
-        <v>-0.070040936485260885</v>
+        <v>-0.050333890923188788</v>
       </c>
       <c r="DC3">
-        <v>-0.069957567285334823</v>
+        <v>-0.0084129830245872964</v>
       </c>
       <c r="DD3">
-        <v>-0.049211153501712401</v>
+        <v>0.030940505888379342</v>
       </c>
       <c r="DE3">
-        <v>0.022615993985417387</v>
+        <v>0.017440769156535092</v>
       </c>
       <c r="DF3">
-        <v>-0.059173017882009619</v>
+        <v>-0.064789455736958032</v>
       </c>
       <c r="DG3">
-        <v>-0.00027969681184424739</v>
+        <v>-0.010999100464263068</v>
       </c>
       <c r="DH3">
-        <v>-0.096763918220204817</v>
+        <v>0.022662571259708938</v>
       </c>
       <c r="DI3">
-        <v>0.15630782844791313</v>
+        <v>0.10104682394571121</v>
       </c>
       <c r="DJ3">
-        <v>0.12780623354808754</v>
+        <v>0.089375633666368054</v>
       </c>
       <c r="DK3">
-        <v>0.17206158934729254</v>
+        <v>0.16224770182255882</v>
       </c>
       <c r="DL3">
-        <v>0.043189872549611458</v>
+        <v>0.044823832567651968</v>
       </c>
       <c r="DM3">
-        <v>0.17322373239589622</v>
+        <v>0.12499021787416822</v>
       </c>
       <c r="DN3">
-        <v>0.051513696123395979</v>
+        <v>0.22851609901973313</v>
       </c>
       <c r="DO3">
-        <v>0.15979433044723718</v>
+        <v>0.13373295969237353</v>
       </c>
       <c r="DP3">
-        <v>0.06387589907991803</v>
+        <v>0.18699404194607855</v>
       </c>
       <c r="DQ3">
-        <v>0.15334968376916394</v>
+        <v>0.036324139263714521</v>
       </c>
       <c r="DR3">
-        <v>0.10019685573437667</v>
+        <v>0.065591116739155741</v>
       </c>
       <c r="DS3">
-        <v>0.043324518356587877</v>
+        <v>0.044022588449648188</v>
       </c>
       <c r="DT3">
-        <v>0.01743336260794702</v>
+        <v>0.11439095614540537</v>
       </c>
       <c r="DU3">
-        <v>0.1159406898459633</v>
+        <v>0.19963507374223644</v>
       </c>
       <c r="DV3">
-        <v>0.088185566210152694</v>
+        <v>0.14288180159425903</v>
       </c>
       <c r="DW3">
-        <v>0.088191650984965259</v>
+        <v>0.021163800681490673</v>
       </c>
       <c r="DX3">
-        <v>0.07168671496236409</v>
+        <v>0.077185650493018967</v>
       </c>
       <c r="DY3">
-        <v>-0.0020840679297030934</v>
+        <v>0.010798412612391126</v>
       </c>
       <c r="DZ3">
-        <v>0.099987212075077214</v>
+        <v>0.16242659988568084</v>
       </c>
       <c r="EA3">
-        <v>0.12427021195818988</v>
+        <v>0.076318962702827689</v>
       </c>
       <c r="EB3">
-        <v>0.014456598310827753</v>
+        <v>0.22424592899075282</v>
       </c>
       <c r="EC3">
-        <v>0.21647860717392692</v>
+        <v>0.28321577746503346</v>
       </c>
       <c r="ED3">
-        <v>0.13290171484979854</v>
+        <v>0.06796413054459774</v>
       </c>
       <c r="EE3">
-        <v>0.10870015306381872</v>
+        <v>0.11489037045236317</v>
       </c>
       <c r="EF3">
-        <v>0.14531600811260117</v>
+        <v>0.035630627297159545</v>
       </c>
       <c r="EG3">
-        <v>0.017534528044259996</v>
+        <v>0.21138680512053692</v>
       </c>
       <c r="EH3">
-        <v>0.1043277811291571</v>
+        <v>0.17258228767351202</v>
       </c>
       <c r="EI3">
-        <v>0.14954153343209334</v>
+        <v>0.16070032478365279</v>
       </c>
       <c r="EJ3">
-        <v>0.11279427222393765</v>
+        <v>0.043389439691591064</v>
       </c>
       <c r="EK3">
-        <v>0.10430904109649088</v>
+        <v>0.22451093426940974</v>
       </c>
       <c r="EL3">
-        <v>0.13360520635033571</v>
+        <v>0.051787607645357461</v>
       </c>
       <c r="EM3">
-        <v>0.11694418318043125</v>
+        <v>0.069396622291527946</v>
       </c>
       <c r="EN3">
-        <v>0.09109144195951871</v>
+        <v>-0.057861386220424693</v>
       </c>
       <c r="EO3">
-        <v>0.050633648177224953</v>
+        <v>-0.018720065939737202</v>
       </c>
       <c r="EP3">
-        <v>0.059098558447595394</v>
+        <v>0.066602333814778231</v>
       </c>
       <c r="EQ3">
-        <v>-0.0025167856418733376</v>
+        <v>0.13748765042600369</v>
       </c>
       <c r="ER3">
-        <v>0.071294412827898765</v>
+        <v>0.070080972535285904</v>
       </c>
       <c r="ES3">
-        <v>0.17816852761811205</v>
+        <v>0.045778792785244868</v>
       </c>
       <c r="ET3">
-        <v>0.16204381373183865</v>
+        <v>0.17502705918158989</v>
       </c>
       <c r="EU3">
-        <v>0.075066668945282952</v>
+        <v>0.109645186136937</v>
       </c>
       <c r="EV3">
-        <v>-0.0064400937423355707</v>
+        <v>0.11372721104808724</v>
       </c>
       <c r="EW3">
-        <v>0.064402247250808065</v>
+        <v>0.02817859245123976</v>
       </c>
       <c r="EX3">
-        <v>0.15286007941019802</v>
+        <v>-0.023872194561608925</v>
       </c>
       <c r="EY3">
-        <v>0.09110674234148633</v>
+        <v>0.069478781713102844</v>
       </c>
       <c r="EZ3">
-        <v>0.1221531552381524</v>
+        <v>0.044356047688930991</v>
       </c>
       <c r="FA3">
-        <v>0.17821317418150248</v>
+        <v>0.15963088957129859</v>
       </c>
       <c r="FB3">
-        <v>0.023275269855799165</v>
+        <v>0.081514502315618825</v>
       </c>
       <c r="FC3">
-        <v>0.061057606597800337</v>
+        <v>0.19819810962155604</v>
       </c>
       <c r="FD3">
-        <v>-0.061968684366558634</v>
+        <v>0.099440633890170452</v>
       </c>
       <c r="FE3">
-        <v>0.073283057293077769</v>
+        <v>0.16311957316139794</v>
       </c>
       <c r="FF3">
-        <v>0.058116386705003333</v>
+        <v>0.17629513327979074</v>
       </c>
       <c r="FG3">
-        <v>0.14562066197106943</v>
+        <v>0.1806591119937726</v>
       </c>
       <c r="FH3">
-        <v>0.18494800599655487</v>
+        <v>0.01724852682068706</v>
       </c>
       <c r="FI3">
-        <v>0.17644558465907698</v>
+        <v>0.12025495727795994</v>
       </c>
       <c r="FJ3">
-        <v>0.15440174843047255</v>
+        <v>0.060972245543231281</v>
       </c>
       <c r="FK3">
-        <v>0.14523962470769713</v>
+        <v>-0.0028255695984969889</v>
       </c>
       <c r="FL3">
-        <v>0.14043977879286507</v>
+        <v>0.10800009103103</v>
       </c>
       <c r="FM3">
-        <v>0.058786064837475359</v>
+        <v>0.11690455618665643</v>
       </c>
       <c r="FN3">
-        <v>0.09221212065920141</v>
+        <v>0.051197624470342699</v>
       </c>
       <c r="FO3">
-        <v>0.12493255320490908</v>
+        <v>0.085566391542294673</v>
       </c>
       <c r="FP3">
-        <v>-0.073468381279196596</v>
+        <v>0.03287082031269406</v>
       </c>
       <c r="FQ3">
-        <v>0.15587300759665712</v>
+        <v>0.14698244814113642</v>
       </c>
       <c r="FR3">
-        <v>-0.015129938937181391</v>
+        <v>0.12231148018688676</v>
       </c>
       <c r="FS3">
-        <v>0.09738600942141834</v>
+        <v>0.21527399441534162</v>
       </c>
       <c r="FT3">
-        <v>0.11127125674844815</v>
+        <v>0.091095046586638639</v>
       </c>
       <c r="FU3">
-        <v>-0.13773128661497644</v>
+        <v>0.010231962062455581</v>
       </c>
       <c r="FV3">
-        <v>0.14745696721053789</v>
+        <v>0.0027952807934127988</v>
       </c>
       <c r="FW3">
-        <v>0.020671836205784236</v>
+        <v>0.023114585179863867</v>
       </c>
       <c r="FX3">
-        <v>0.061492041978818045</v>
+        <v>0.075217190550660465</v>
       </c>
       <c r="FY3">
-        <v>0.096132202687641929</v>
+        <v>0.12529796209374247</v>
       </c>
       <c r="FZ3">
-        <v>0.032543269056795755</v>
+        <v>0.02942657215096561</v>
       </c>
       <c r="GA3">
-        <v>-0.047845196906663126</v>
+        <v>0.081814329956960641</v>
       </c>
       <c r="GB3">
-        <v>0.076963123146060367</v>
+        <v>0.020417806664764625</v>
       </c>
       <c r="GC3">
-        <v>0.091319051558276229</v>
+        <v>0.0013804046766130505</v>
       </c>
       <c r="GD3">
-        <v>0.037223637923180848</v>
+        <v>0.10887829725345266</v>
       </c>
       <c r="GE3">
-        <v>0.0022322807468487778</v>
+        <v>0.026247104935497152</v>
       </c>
       <c r="GF3">
-        <v>-0.034457886130865145</v>
+        <v>0.11150715194341224</v>
       </c>
       <c r="GG3">
-        <v>-0.019140193599039092</v>
+        <v>0.045348325386745846</v>
       </c>
       <c r="GH3">
-        <v>0.12049171900282821</v>
+        <v>-0.12123053456380956</v>
       </c>
       <c r="GI3">
-        <v>0.028686148059906765</v>
+        <v>0.10688455491239408</v>
       </c>
       <c r="GJ3">
-        <v>0.060125379415666418</v>
+        <v>0.0048014504051337699</v>
       </c>
       <c r="GK3">
-        <v>-0.039058528532548362</v>
+        <v>-0.090542856890074241</v>
       </c>
       <c r="GL3">
-        <v>0.045645985843237959</v>
+        <v>-3.8998304442054406e-05</v>
       </c>
       <c r="GM3">
-        <v>-0.025557104495617457</v>
+        <v>-0.077062579904275036</v>
       </c>
       <c r="GN3">
-        <v>0.12823452133832433</v>
+        <v>0.012949988687616249</v>
       </c>
       <c r="GO3">
-        <v>0.16299736094581127</v>
+        <v>0.10185708703791083</v>
       </c>
       <c r="GP3">
-        <v>-0.043753819590574373</v>
+        <v>0.020704708046134161</v>
       </c>
       <c r="GQ3">
-        <v>-0.0037528825754064138</v>
+        <v>0.1522902945796995</v>
       </c>
       <c r="GR3">
-        <v>-0.012038358162929783</v>
+        <v>0.14605697567367124</v>
       </c>
       <c r="GS3">
-        <v>0.0036422750108933699</v>
+        <v>0.06788490849541777</v>
       </c>
       <c r="GT3">
-        <v>0.098533249996430969</v>
+        <v>0.15420609467423743</v>
       </c>
       <c r="GU3">
-        <v>0.046654223392308382</v>
+        <v>0.20485674627455411</v>
       </c>
       <c r="GV3">
-        <v>0.021346562177193287</v>
+        <v>0.015512790218607469</v>
       </c>
       <c r="GW3">
-        <v>0.099408892718527264</v>
+        <v>0.019227412319067612</v>
       </c>
       <c r="GX3">
-        <v>0.11990928011807941</v>
+        <v>0.082258793471951572</v>
       </c>
       <c r="GY3">
-        <v>0.068428109477005672</v>
+        <v>0.014633971890657209</v>
       </c>
       <c r="GZ3">
-        <v>0.066677342002821591</v>
+        <v>0.095684356068485299</v>
       </c>
       <c r="HA3">
-        <v>0.02350229225450557</v>
+        <v>0.099709674271814319</v>
       </c>
       <c r="HB3">
-        <v>-0.028527780933810712</v>
+        <v>0.074705795253230428</v>
       </c>
       <c r="HC3">
-        <v>-0.057329047128056546</v>
+        <v>0.084524133192039705</v>
       </c>
       <c r="HD3">
-        <v>0.040477262904563709</v>
+        <v>0.088504688544035787</v>
       </c>
       <c r="HE3">
-        <v>0.001456784841329781</v>
+        <v>0.14389997696880749</v>
       </c>
       <c r="HF3">
-        <v>0.060019306048732478</v>
+        <v>0.10837686937123514</v>
       </c>
       <c r="HG3">
-        <v>0.063977166981573422</v>
+        <v>0.083066982986794574</v>
       </c>
       <c r="HH3">
-        <v>-0.038267924054886222</v>
+        <v>0.15059412911262152</v>
       </c>
       <c r="HI3">
-        <v>-0.015101132289422049</v>
+        <v>0.073239923442166274</v>
       </c>
       <c r="HJ3">
-        <v>0.014096377132864976</v>
+        <v>0.16991876779497558</v>
       </c>
       <c r="HK3">
-        <v>-0.0076505240143929822</v>
+        <v>-0.06888369212580743</v>
       </c>
       <c r="HL3">
-        <v>0.05868793108204326</v>
+        <v>0.066540175961402909</v>
       </c>
       <c r="HM3">
         <v>0</v>
@@ -8166,7 +8166,7 @@
         <v>0</v>
       </c>
       <c r="HO3">
-        <v>-5.5940504573414778</v>
+        <v>-5.6128490048097035</v>
       </c>
     </row>
     <row r="4">
@@ -8174,661 +8174,661 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.058758277591179131</v>
+        <v>0.057959269366863624</v>
       </c>
       <c r="C4">
-        <v>0.051375617742664109</v>
+        <v>0.051902698964808251</v>
       </c>
       <c r="D4">
-        <v>0.063143036457700044</v>
+        <v>0.063498889227917119</v>
       </c>
       <c r="E4">
-        <v>0.077269918945487848</v>
+        <v>0.080044137712035043</v>
       </c>
       <c r="F4">
-        <v>0.046977716596180649</v>
+        <v>0.047962429526578955</v>
       </c>
       <c r="G4">
-        <v>0.039597160001713268</v>
+        <v>0.038898235891713075</v>
       </c>
       <c r="H4">
-        <v>0.031777800735372529</v>
+        <v>0.030751923775758635</v>
       </c>
       <c r="I4">
-        <v>0.035048873656458639</v>
+        <v>0.034567299775469282</v>
       </c>
       <c r="J4">
-        <v>0.03421247135587524</v>
+        <v>0.03429159555442348</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.11973688450144047</v>
+        <v>0.11329197564609177</v>
       </c>
       <c r="M4">
-        <v>0.11173660861178207</v>
+        <v>0.11136503637097747</v>
       </c>
       <c r="N4">
-        <v>0.11098071697871138</v>
+        <v>0.11063378177120432</v>
       </c>
       <c r="O4">
-        <v>0.11173660861472626</v>
+        <v>0.10923347429311006</v>
       </c>
       <c r="P4">
-        <v>0.10108816710062016</v>
+        <v>0.10727527011446142</v>
       </c>
       <c r="Q4">
-        <v>0.10988797923828288</v>
+        <v>0.10605550534414131</v>
       </c>
       <c r="R4">
-        <v>0.10285305875085732</v>
+        <v>0.10992357377563523</v>
       </c>
       <c r="S4">
-        <v>0.10953419688323895</v>
+        <v>0.12061184535351577</v>
       </c>
       <c r="T4">
-        <v>0.10535571291544855</v>
+        <v>0.11136503638197108</v>
       </c>
       <c r="U4">
-        <v>0.11173660862481319</v>
+        <v>0.10300743846971934</v>
       </c>
       <c r="V4">
-        <v>0.11414785149664428</v>
+        <v>0.10546924805124812</v>
       </c>
       <c r="W4">
-        <v>0.11173660862769463</v>
+        <v>0.10992357378416862</v>
       </c>
       <c r="X4">
-        <v>0.11726945981276944</v>
+        <v>0.10546924805544598</v>
       </c>
       <c r="Y4">
-        <v>0.10595192538456449</v>
+        <v>0.11063378178983128</v>
       </c>
       <c r="Z4">
-        <v>0.1059519253866711</v>
+        <v>0.11250358494071587</v>
       </c>
       <c r="AA4">
-        <v>0.10625594863368173</v>
+        <v>0.10727527013532101</v>
       </c>
       <c r="AB4">
-        <v>0.10084768211291563</v>
+        <v>0.10665729419863684</v>
       </c>
       <c r="AC4">
-        <v>0.10448979950115928</v>
+        <v>0.10665729420071669</v>
       </c>
       <c r="AD4">
-        <v>0.10420843678331272</v>
+        <v>0.10326763038477135</v>
       </c>
       <c r="AE4">
-        <v>0.10625594864256728</v>
+        <v>0.099449533530431219</v>
       </c>
       <c r="AF4">
-        <v>0.10506336423194813</v>
+        <v>0.10150994690773515</v>
       </c>
       <c r="AG4">
-        <v>0.11173660864483108</v>
+        <v>0.1051817487815175</v>
       </c>
       <c r="AH4">
-        <v>0.1044897995123389</v>
+        <v>0.10379763423588992</v>
       </c>
       <c r="AI4">
-        <v>0.099685605559931612</v>
+        <v>0.1015099469160952</v>
       </c>
       <c r="AJ4">
-        <v>0.10850262219838</v>
+        <v>0.10150994691904887</v>
       </c>
       <c r="AK4">
-        <v>0.11024691330286532</v>
+        <v>0.1040675708244895</v>
       </c>
       <c r="AL4">
-        <v>0.10751345878021976</v>
+        <v>0.10923347433729085</v>
       </c>
       <c r="AM4">
-        <v>0.10719269237462321</v>
+        <v>0.10823411483197694</v>
       </c>
       <c r="AN4">
-        <v>0.10365619862329672</v>
+        <v>0.10635441826821684</v>
       </c>
       <c r="AO4">
-        <v>0.10259181548538782</v>
+        <v>0.10079968953132117</v>
       </c>
       <c r="AP4">
-        <v>0.10311749577199816</v>
+        <v>0.11027610700668894</v>
       </c>
       <c r="AQ4">
-        <v>0.10084768215290853</v>
+        <v>0.10759054366401623</v>
       </c>
       <c r="AR4">
-        <v>0.10816832602134052</v>
+        <v>0.1032676304207031</v>
       </c>
       <c r="AS4">
-        <v>0.10393059268709331</v>
+        <v>0.1043408830800185</v>
       </c>
       <c r="AT4">
-        <v>0.098373896360990906</v>
+        <v>0.10727527017699422</v>
       </c>
       <c r="AU4">
-        <v>0.10338518798231401</v>
+        <v>0.10665729424132711</v>
       </c>
       <c r="AV4">
-        <v>0.10182665508757574</v>
+        <v>0.11027610701817693</v>
       </c>
       <c r="AW4">
-        <v>0.10535571297964623</v>
+        <v>0.11136503643531323</v>
       </c>
       <c r="AX4">
-        <v>0.10285305882856939</v>
+        <v>0.10605550541582685</v>
       </c>
       <c r="AY4">
-        <v>0.10783863794397718</v>
+        <v>0.1117388659958768</v>
       </c>
       <c r="AZ4">
-        <v>0.10182665509839164</v>
+        <v>0.10518174882526218</v>
       </c>
       <c r="BA4">
-        <v>0.10393059270777197</v>
+        <v>0.1032676304425916</v>
       </c>
       <c r="BB4">
-        <v>0.10816832604314956</v>
+        <v>0.10353100852420012</v>
       </c>
       <c r="BC4">
-        <v>0.10133145648725565</v>
+        <v>0.10127046355126473</v>
       </c>
       <c r="BD4">
-        <v>0.10535571299640988</v>
+        <v>0.10889568778518692</v>
       </c>
       <c r="BE4">
-        <v>0.10565187384641622</v>
+        <v>0.10033951919441644</v>
       </c>
       <c r="BF4">
-        <v>0.09946093324856925</v>
+        <v>0.10379763429549324</v>
       </c>
       <c r="BG4">
-        <v>0.10157760153659787</v>
+        <v>0.10079968958169416</v>
       </c>
       <c r="BH4">
-        <v>0.10783863796409839</v>
+        <v>0.10759054370125164</v>
       </c>
       <c r="BI4">
-        <v>0.10477475127843322</v>
+        <v>0.10576047488940271</v>
       </c>
       <c r="BJ4">
-        <v>0.10180430516842179</v>
+        <v>0.10880797549067654</v>
       </c>
       <c r="BK4">
-        <v>0.10087829283007277</v>
+        <v>0.10638761258957408</v>
       </c>
       <c r="BL4">
-        <v>0.10302399253356995</v>
+        <v>0.11012036885817074</v>
       </c>
       <c r="BM4">
-        <v>0.10302420092710884</v>
+        <v>0.1072652708651967</v>
       </c>
       <c r="BN4">
-        <v>0.10204294315910289</v>
+        <v>0.10526920572988706</v>
       </c>
       <c r="BO4">
-        <v>0.1039564203037505</v>
+        <v>0.10860078110492602</v>
       </c>
       <c r="BP4">
-        <v>0.10697755608349234</v>
+        <v>0.10987265826265635</v>
       </c>
       <c r="BQ4">
-        <v>0.10555233278801247</v>
+        <v>0.10597658482790064</v>
       </c>
       <c r="BR4">
-        <v>0.10527203122136584</v>
+        <v>0.11067315281132492</v>
       </c>
       <c r="BS4">
-        <v>0.10605676757923641</v>
+        <v>0.11003303137377941</v>
       </c>
       <c r="BT4">
-        <v>0.081757366112246224</v>
+        <v>0.081696404970570818</v>
       </c>
       <c r="BU4">
-        <v>0.082029577166822035</v>
+        <v>0.082495412309104024</v>
       </c>
       <c r="BV4">
-        <v>0.081972596302987033</v>
+        <v>0.081760600231468722</v>
       </c>
       <c r="BW4">
-        <v>0.080880349386783595</v>
+        <v>0.080104783849282699</v>
       </c>
       <c r="BX4">
-        <v>0.0792439720010885</v>
+        <v>0.081240054243196413</v>
       </c>
       <c r="BY4">
-        <v>0.082179989800188064</v>
+        <v>0.080327075793756059</v>
       </c>
       <c r="BZ4">
-        <v>0.080049125745464897</v>
+        <v>0.078844639083768847</v>
       </c>
       <c r="CA4">
-        <v>0.080293732673057436</v>
+        <v>0.079903015817552839</v>
       </c>
       <c r="CB4">
-        <v>0.081415643726350476</v>
+        <v>0.079897053570588059</v>
       </c>
       <c r="CC4">
-        <v>0.080030992751517926</v>
+        <v>0.082267532860498302</v>
       </c>
       <c r="CD4">
-        <v>0.083511272405998843</v>
+        <v>0.084033780186057186</v>
       </c>
       <c r="CE4">
-        <v>0.085463413490445728</v>
+        <v>0.08333592296500654</v>
       </c>
       <c r="CF4">
-        <v>0.085671171144602654</v>
+        <v>0.085342348457005904</v>
       </c>
       <c r="CG4">
-        <v>0.085671912802212202</v>
+        <v>0.084347719669653182</v>
       </c>
       <c r="CH4">
-        <v>0.085414564636818582</v>
+        <v>0.086090872232678736</v>
       </c>
       <c r="CI4">
-        <v>0.084417358283352978</v>
+        <v>0.08398446358263896</v>
       </c>
       <c r="CJ4">
-        <v>0.085645266917300844</v>
+        <v>0.084152850546830901</v>
       </c>
       <c r="CK4">
-        <v>0.0832200256071077</v>
+        <v>0.086681119627261119</v>
       </c>
       <c r="CL4">
-        <v>0.086062161263327344</v>
+        <v>0.086791135711182965</v>
       </c>
       <c r="CM4">
-        <v>0.088458509841723668</v>
+        <v>0.088256636098056465</v>
       </c>
       <c r="CN4">
-        <v>0.081688334187440995</v>
+        <v>0.081650452725807454</v>
       </c>
       <c r="CO4">
-        <v>0.07556991384150312</v>
+        <v>0.078416430609069512</v>
       </c>
       <c r="CP4">
-        <v>0.076797230215023188</v>
+        <v>0.077814855050025888</v>
       </c>
       <c r="CQ4">
-        <v>0.075672492549794343</v>
+        <v>0.076280839785733662</v>
       </c>
       <c r="CR4">
-        <v>0.075583783818169006</v>
+        <v>0.074333183306898296</v>
       </c>
       <c r="CS4">
-        <v>0.075496258746462888</v>
+        <v>0.076235365635287045</v>
       </c>
       <c r="CT4">
-        <v>0.073934805243822899</v>
+        <v>0.074151330139556659</v>
       </c>
       <c r="CU4">
-        <v>0.073411440901267597</v>
+        <v>0.072623187927292457</v>
       </c>
       <c r="CV4">
-        <v>0.075012567986524781</v>
+        <v>0.073439160921245875</v>
       </c>
       <c r="CW4">
-        <v>0.076092218915677648</v>
+        <v>0.074850078991740468</v>
       </c>
       <c r="CX4">
-        <v>0.073667960463559293</v>
+        <v>0.073933653386479878</v>
       </c>
       <c r="CY4">
-        <v>0.072681494742506861</v>
+        <v>0.073684237693093083</v>
       </c>
       <c r="CZ4">
-        <v>0.074288327168642518</v>
+        <v>0.073936229348040616</v>
       </c>
       <c r="DA4">
-        <v>0.074902326586689993</v>
+        <v>0.073725561302221562</v>
       </c>
       <c r="DB4">
-        <v>0.074387065740353447</v>
+        <v>0.074951373388025114</v>
       </c>
       <c r="DC4">
-        <v>0.074436956997159021</v>
+        <v>0.0744710856869506</v>
       </c>
       <c r="DD4">
-        <v>0.073817415418470395</v>
+        <v>0.073871850206119194</v>
       </c>
       <c r="DE4">
-        <v>0.072999922971825518</v>
+        <v>0.074086617773805263</v>
       </c>
       <c r="DF4">
-        <v>0.074050217438920374</v>
+        <v>0.0751734655680453</v>
       </c>
       <c r="DG4">
-        <v>0.073374554946866316</v>
+        <v>0.07453816057897554</v>
       </c>
       <c r="DH4">
-        <v>0.074642881660802879</v>
+        <v>0.074174524146314619</v>
       </c>
       <c r="DI4">
-        <v>0.070837332613780737</v>
+        <v>0.072503723298266654</v>
       </c>
       <c r="DJ4">
-        <v>0.071257734883764662</v>
+        <v>0.072715535926606428</v>
       </c>
       <c r="DK4">
-        <v>0.070747243739780433</v>
+        <v>0.071807264537841337</v>
       </c>
       <c r="DL4">
-        <v>0.072514364452517965</v>
+        <v>0.073447925905043204</v>
       </c>
       <c r="DM4">
-        <v>0.070837333299935509</v>
+        <v>0.072400045850022937</v>
       </c>
       <c r="DN4">
-        <v>0.072514364748289692</v>
+        <v>0.071130280264160559</v>
       </c>
       <c r="DO4">
-        <v>0.071114800922784591</v>
+        <v>0.072400046185379791</v>
       </c>
       <c r="DP4">
-        <v>0.072457603616716423</v>
+        <v>0.071760018235860659</v>
       </c>
       <c r="DQ4">
-        <v>0.071306024596172843</v>
+        <v>0.07387277756584415</v>
       </c>
       <c r="DR4">
-        <v>0.072071609404477974</v>
+        <v>0.073507243275682713</v>
       </c>
       <c r="DS4">
-        <v>0.072923679360708468</v>
+        <v>0.073872777834992534</v>
       </c>
       <c r="DT4">
-        <v>0.073355198579929407</v>
+        <v>0.072933510045754199</v>
       </c>
       <c r="DU4">
-        <v>0.072018034799417832</v>
+        <v>0.071854831942386996</v>
       </c>
       <c r="DV4">
-        <v>0.07245760452859927</v>
+        <v>0.072662017602387247</v>
       </c>
       <c r="DW4">
-        <v>0.072514366111853024</v>
+        <v>0.07445406234054483</v>
       </c>
       <c r="DX4">
-        <v>0.072804544703045773</v>
+        <v>0.07368791467531341</v>
       </c>
       <c r="DY4">
-        <v>0.073945690967368888</v>
+        <v>0.074726111952844926</v>
       </c>
       <c r="DZ4">
-        <v>0.072514366572060132</v>
+        <v>0.072608878815762487</v>
       </c>
       <c r="EA4">
-        <v>0.072234652274725614</v>
+        <v>0.073872779010385456</v>
       </c>
       <c r="EB4">
-        <v>0.07387797830299575</v>
+        <v>0.071902720725693425</v>
       </c>
       <c r="EC4">
-        <v>0.07111480337661541</v>
+        <v>0.071216773172463138</v>
       </c>
       <c r="ED4">
-        <v>0.072289786138930723</v>
+        <v>0.074190613974718253</v>
       </c>
       <c r="EE4">
-        <v>0.07268718105108174</v>
+        <v>0.073567011817225789</v>
       </c>
       <c r="EF4">
-        <v>0.072234653151154543</v>
+        <v>0.074795519260174415</v>
       </c>
       <c r="EG4">
-        <v>0.07415214196874742</v>
+        <v>0.07234875353683938</v>
       </c>
       <c r="EH4">
-        <v>0.072923681701373297</v>
+        <v>0.072933512417883581</v>
       </c>
       <c r="EI4">
-        <v>0.072345320669864502</v>
+        <v>0.073157921019375474</v>
       </c>
       <c r="EJ4">
-        <v>0.072923682049386609</v>
+        <v>0.074936054153372095</v>
       </c>
       <c r="EK4">
-        <v>0.073105794908093519</v>
+        <v>0.07240005003707696</v>
       </c>
       <c r="EL4">
-        <v>0.072745645823811697</v>
+        <v>0.07493605446880322</v>
       </c>
       <c r="EM4">
-        <v>0.073044629417243975</v>
+        <v>0.074726114098680935</v>
       </c>
       <c r="EN4">
-        <v>0.073482829441793379</v>
+        <v>0.076824072357448578</v>
       </c>
       <c r="EO4">
-        <v>0.074152143221349512</v>
+        <v>0.076231651104613884</v>
       </c>
       <c r="EP4">
-        <v>0.074082768216880174</v>
+        <v>0.074936055038318697</v>
       </c>
       <c r="EQ4">
-        <v>0.075108400862292105</v>
+        <v>0.073935360420750801</v>
       </c>
       <c r="ER4">
-        <v>0.074013954217855712</v>
+        <v>0.075007197842100914</v>
       </c>
       <c r="ES4">
-        <v>0.072514369912828988</v>
+        <v>0.075446784122582475</v>
       </c>
       <c r="ET4">
-        <v>0.072804548459206656</v>
+        <v>0.07356701436746714</v>
       </c>
       <c r="EU4">
-        <v>0.074152144200667333</v>
+        <v>0.074588989285189353</v>
       </c>
       <c r="EV4">
-        <v>0.075505367451905711</v>
+        <v>0.074588989456344165</v>
       </c>
       <c r="EW4">
-        <v>0.074435394958200604</v>
+        <v>0.075988940227626783</v>
       </c>
       <c r="EX4">
-        <v>0.073167431804425767</v>
+        <v>0.076911841608946374</v>
       </c>
       <c r="EY4">
-        <v>0.074152144870097844</v>
+        <v>0.075446785054795087</v>
       </c>
       <c r="EZ4">
-        <v>0.073744171357840144</v>
+        <v>0.075909454762883827</v>
       </c>
       <c r="FA4">
-        <v>0.072983929516057797</v>
+        <v>0.074190617758359098</v>
       </c>
       <c r="FB4">
-        <v>0.075424580438326866</v>
+        <v>0.075446785545396314</v>
       </c>
       <c r="FC4">
-        <v>0.074878339021715201</v>
+        <v>0.073749068079597066</v>
       </c>
       <c r="FD4">
-        <v>0.076996854659960215</v>
+        <v>0.075297780295297351</v>
       </c>
       <c r="FE4">
-        <v>0.074802951692194461</v>
+        <v>0.074387415588366534</v>
       </c>
       <c r="FF4">
-        <v>0.075108403240899665</v>
+        <v>0.074255697477588423</v>
       </c>
       <c r="FG4">
-        <v>0.07381081101465882</v>
+        <v>0.074255697683027103</v>
       </c>
       <c r="FH4">
-        <v>0.073292131231310051</v>
+        <v>0.076911843145481537</v>
       </c>
       <c r="FI4">
-        <v>0.073482833251457935</v>
+        <v>0.075297781197322708</v>
       </c>
       <c r="FJ4">
-        <v>0.07387798409467454</v>
+        <v>0.076314008688375734</v>
       </c>
       <c r="FK4">
-        <v>0.074082771942850817</v>
+        <v>0.077456032478682935</v>
       </c>
       <c r="FL4">
-        <v>0.074222090248653741</v>
+        <v>0.075675122875758588</v>
       </c>
       <c r="FM4">
-        <v>0.075586874435760898</v>
+        <v>0.075598356347471446</v>
       </c>
       <c r="FN4">
-        <v>0.075108404710742468</v>
+        <v>0.076737114320866592</v>
       </c>
       <c r="FO4">
-        <v>0.074654078838087098</v>
+        <v>0.076231655172895138</v>
       </c>
       <c r="FP4">
-        <v>0.078098503511380549</v>
+        <v>0.077180099370969701</v>
       </c>
       <c r="FQ4">
-        <v>0.074292609090614234</v>
+        <v>0.075371969147939366</v>
       </c>
       <c r="FR4">
-        <v>0.077188429608481005</v>
+        <v>0.075830665336697897</v>
       </c>
       <c r="FS4">
-        <v>0.075344502107065087</v>
+        <v>0.074454070579079087</v>
       </c>
       <c r="FT4">
-        <v>0.075186422537904016</v>
+        <v>0.076480954516493713</v>
       </c>
       <c r="FU4">
-        <v>0.079691987724076832</v>
+        <v>0.077933920896362432</v>
       </c>
       <c r="FV4">
-        <v>0.074728203444968958</v>
+        <v>0.078131691167417971</v>
       </c>
       <c r="FW4">
-        <v>0.076902441087501799</v>
+        <v>0.077836481796018542</v>
       </c>
       <c r="FX4">
-        <v>0.076265897523172838</v>
+        <v>0.077000431051351972</v>
       </c>
       <c r="FY4">
-        <v>0.075752072560048941</v>
+        <v>0.076231656960174365</v>
       </c>
       <c r="FZ4">
-        <v>0.076902441592197932</v>
+        <v>0.077933921682601867</v>
       </c>
       <c r="GA4">
-        <v>0.078420595788178352</v>
+        <v>0.077089845928289186</v>
       </c>
       <c r="GB4">
-        <v>0.076265898219221029</v>
+        <v>0.078232052059291957</v>
       </c>
       <c r="GC4">
-        <v>0.076091499425864143</v>
+        <v>0.078643679811300896</v>
       </c>
       <c r="GD4">
-        <v>0.077092184114805992</v>
+        <v>0.076824078959542103</v>
       </c>
       <c r="GE4">
-        <v>0.077786066879733051</v>
+        <v>0.078333415724766181</v>
       </c>
       <c r="GF4">
-        <v>0.078530184055787558</v>
+        <v>0.076911847183031637</v>
       </c>
       <c r="GG4">
-        <v>0.078312132789005159</v>
+        <v>0.078131692940873895</v>
       </c>
       <c r="GH4">
-        <v>0.075920253963028664</v>
+        <v>0.081378886202215686</v>
       </c>
       <c r="GI4">
-        <v>0.077582921266060187</v>
+        <v>0.077180102614120213</v>
       </c>
       <c r="GJ4">
-        <v>0.077092185140966149</v>
+        <v>0.079072382816299677</v>
       </c>
       <c r="GK4">
-        <v>0.078980134062991592</v>
+        <v>0.080981591803367184</v>
       </c>
       <c r="GL4">
-        <v>0.077482846221973434</v>
+        <v>0.079293478527302425</v>
       </c>
       <c r="GM4">
-        <v>0.078865869855391152</v>
+        <v>0.080852158153898748</v>
       </c>
       <c r="GN4">
-        <v>0.076178301372925292</v>
+        <v>0.079182354153812431</v>
       </c>
       <c r="GO4">
-        <v>0.075669109717624528</v>
+        <v>0.077644426457091478</v>
       </c>
       <c r="GP4">
-        <v>0.079449563784044427</v>
+        <v>0.07918235448662661</v>
       </c>
       <c r="GQ4">
-        <v>0.078752803467664223</v>
+        <v>0.076911849180146</v>
       </c>
       <c r="GR4">
-        <v>0.078980135192221954</v>
+        <v>0.077089848989301671</v>
       </c>
       <c r="GS4">
-        <v>0.078752803789909592</v>
+        <v>0.078539215984058594</v>
       </c>
       <c r="GT4">
-        <v>0.077092186971012611</v>
+        <v>0.077089849406457134</v>
       </c>
       <c r="GU4">
-        <v>0.07809850848520114</v>
+        <v>0.076314015575418198</v>
       </c>
       <c r="GV4">
-        <v>0.078640915646049442</v>
+        <v>0.079749896151343647</v>
       </c>
       <c r="GW4">
-        <v>0.077285618219541649</v>
+        <v>0.079749896314633723</v>
       </c>
       <c r="GX4">
-        <v>0.076996862504167832</v>
+        <v>0.078643683383595731</v>
       </c>
       <c r="GY4">
-        <v>0.077993312575941887</v>
+        <v>0.079985531431266382</v>
       </c>
       <c r="GZ4">
-        <v>0.078098509436784258</v>
+        <v>0.078539217306983572</v>
       </c>
       <c r="HA4">
-        <v>0.07898013677357274</v>
+        <v>0.078539217504710518</v>
       </c>
       <c r="HB4">
-        <v>0.080065766817508627</v>
+        <v>0.079072385945577278</v>
       </c>
       <c r="HC4">
-        <v>0.080717329230111934</v>
+        <v>0.078963551144313193</v>
       </c>
       <c r="HD4">
-        <v>0.078865872791812994</v>
+        <v>0.078963551338937898</v>
       </c>
       <c r="HE4">
-        <v>0.079691993233981753</v>
+        <v>0.078032325655918999</v>
       </c>
       <c r="HF4">
-        <v>0.07864091746647707</v>
+        <v>0.078749218109174179</v>
       </c>
       <c r="HG4">
-        <v>0.078640917660850129</v>
+        <v>0.079293482295853465</v>
       </c>
       <c r="HH4">
-        <v>0.080717330044264443</v>
+        <v>0.078131698033634081</v>
       </c>
       <c r="HI4">
-        <v>0.080321978513232667</v>
+        <v>0.079633968143858966</v>
       </c>
       <c r="HJ4">
-        <v>0.079815211516944054</v>
+        <v>0.077933928455584153</v>
       </c>
       <c r="HK4">
-        <v>0.080321978850525722</v>
+        <v>0.082658285268404116</v>
       </c>
       <c r="HL4">
-        <v>0.079095620178329856</v>
+        <v>0.079985533844902368</v>
       </c>
       <c r="HM4">
         <v>0</v>
@@ -8837,7 +8837,7 @@
         <v>0</v>
       </c>
       <c r="HO4">
-        <v>0.056796216172157687</v>
+        <v>0.057543565718943326</v>
       </c>
     </row>
   </sheetData>
@@ -10193,661 +10193,661 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>1.9381831131069149</v>
+        <v>1.9238167120542797</v>
       </c>
       <c r="C3">
-        <v>-0.42772728062970322</v>
+        <v>-0.47939122231228648</v>
       </c>
       <c r="D3">
-        <v>-0.40726691773709556</v>
+        <v>-0.42402019069007552</v>
       </c>
       <c r="E3">
-        <v>-0.43198047795413486</v>
+        <v>-0.37704652268379324</v>
       </c>
       <c r="F3">
-        <v>1.4442982986390489</v>
+        <v>1.4488669206429683</v>
       </c>
       <c r="G3">
-        <v>1.358659424461222</v>
+        <v>1.3559116668557016</v>
       </c>
       <c r="H3">
-        <v>1.1819524908485239</v>
+        <v>1.1409625183506977</v>
       </c>
       <c r="I3">
-        <v>0.81955310277587468</v>
+        <v>0.79743332759539887</v>
       </c>
       <c r="J3">
-        <v>0.70037400456214571</v>
+        <v>0.70704613096513369</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>-0.9208318004489835</v>
+        <v>-0.95195740766251014</v>
       </c>
       <c r="M3">
-        <v>-0.9511215699005211</v>
+        <v>-0.93245091542245329</v>
       </c>
       <c r="N3">
-        <v>-0.97511148106927137</v>
+        <v>-1.0368442543774072</v>
       </c>
       <c r="O3">
-        <v>-0.91998882280068128</v>
+        <v>-0.99262916260221112</v>
       </c>
       <c r="P3">
-        <v>-0.87417156006398433</v>
+        <v>-0.86243336003509452</v>
       </c>
       <c r="Q3">
-        <v>-0.99299287002864067</v>
+        <v>-0.85753859762562323</v>
       </c>
       <c r="R3">
-        <v>-0.93316172869912939</v>
+        <v>-0.92886588728563557</v>
       </c>
       <c r="S3">
-        <v>-0.91410965009180423</v>
+        <v>-0.89553850306076532</v>
       </c>
       <c r="T3">
-        <v>-0.84194530360574005</v>
+        <v>-0.82337445407551824</v>
       </c>
       <c r="U3">
-        <v>-0.90406406555434093</v>
+        <v>-0.85816721281555564</v>
       </c>
       <c r="V3">
-        <v>-0.92002237454321456</v>
+        <v>-0.83660219971304206</v>
       </c>
       <c r="W3">
-        <v>-0.91502150159701057</v>
+        <v>-0.78351959491701173</v>
       </c>
       <c r="X3">
-        <v>-0.93124341350615802</v>
+        <v>-0.71510177958177967</v>
       </c>
       <c r="Y3">
-        <v>-0.87416484972993913</v>
+        <v>-0.93224485974631499</v>
       </c>
       <c r="Z3">
-        <v>-0.85917834744105515</v>
+        <v>-0.8040448100373413</v>
       </c>
       <c r="AA3">
-        <v>-0.78677495222079119</v>
+        <v>-0.82519356326358706</v>
       </c>
       <c r="AB3">
-        <v>-0.67065082657330921</v>
+        <v>-0.7086406006744258</v>
       </c>
       <c r="AC3">
-        <v>-0.64139649176513913</v>
+        <v>-0.80871176650208954</v>
       </c>
       <c r="AD3">
-        <v>-0.9210893291236979</v>
+        <v>-0.77510645065008499</v>
       </c>
       <c r="AE3">
-        <v>-0.75820962242411494</v>
+        <v>-0.68319292998794556</v>
       </c>
       <c r="AF3">
-        <v>-0.85551209483967183</v>
+        <v>-0.66990852529480449</v>
       </c>
       <c r="AG3">
-        <v>-0.96385708602094622</v>
+        <v>-0.8899490212710176</v>
       </c>
       <c r="AH3">
-        <v>-0.82273186561534517</v>
+        <v>-0.67510550483544529</v>
       </c>
       <c r="AI3">
-        <v>-0.68704104571918412</v>
+        <v>-0.74148134487544914</v>
       </c>
       <c r="AJ3">
-        <v>-0.85236656211922823</v>
+        <v>-0.76146581236772604</v>
       </c>
       <c r="AK3">
-        <v>-0.85754146958842303</v>
+        <v>-0.74110960841416818</v>
       </c>
       <c r="AL3">
-        <v>-0.75289186671259734</v>
+        <v>-0.67669850583234226</v>
       </c>
       <c r="AM3">
-        <v>-0.83738867097419445</v>
+        <v>-0.66907230391732664</v>
       </c>
       <c r="AN3">
-        <v>-0.79332180008056763</v>
+        <v>-0.6875398048626129</v>
       </c>
       <c r="AO3">
-        <v>-0.79163795304765794</v>
+        <v>-0.70048753281385334</v>
       </c>
       <c r="AP3">
-        <v>-0.73701593116514452</v>
+        <v>-0.77605991849067435</v>
       </c>
       <c r="AQ3">
-        <v>-0.67348412779342448</v>
+        <v>-0.81041881234401225</v>
       </c>
       <c r="AR3">
-        <v>-0.81218472934068786</v>
+        <v>-0.69239355062304608</v>
       </c>
       <c r="AS3">
-        <v>-0.69593304103728748</v>
+        <v>-0.73303401349578545</v>
       </c>
       <c r="AT3">
-        <v>-0.6567344076263868</v>
+        <v>-0.61718068747341381</v>
       </c>
       <c r="AU3">
-        <v>-0.79047191665305594</v>
+        <v>-0.80658198239321277</v>
       </c>
       <c r="AV3">
-        <v>-0.69045753476488081</v>
+        <v>-0.75915339910329738</v>
       </c>
       <c r="AW3">
-        <v>-0.65690370435680612</v>
+        <v>-0.7638591385318716</v>
       </c>
       <c r="AX3">
-        <v>-0.82114584532749613</v>
+        <v>-0.77511328854744554</v>
       </c>
       <c r="AY3">
-        <v>-0.7268586775080762</v>
+        <v>-0.69507453236879746</v>
       </c>
       <c r="AZ3">
-        <v>-0.80771703179136956</v>
+        <v>-0.71458029344321594</v>
       </c>
       <c r="BA3">
-        <v>-0.83975800250205979</v>
+        <v>-0.64723206031890079</v>
       </c>
       <c r="BB3">
-        <v>-0.73098828390663551</v>
+        <v>-0.62532789193043525</v>
       </c>
       <c r="BC3">
-        <v>-0.73228046724886242</v>
+        <v>-0.72757539145937411</v>
       </c>
       <c r="BD3">
-        <v>-0.74292412445877731</v>
+        <v>-0.66790303998854694</v>
       </c>
       <c r="BE3">
-        <v>-0.75374303044963076</v>
+        <v>-0.6749531879888232</v>
       </c>
       <c r="BF3">
-        <v>-0.74882880645644023</v>
+        <v>-0.6038342155418146</v>
       </c>
       <c r="BG3">
-        <v>-0.69478178400667345</v>
+        <v>-0.75195702209036741</v>
       </c>
       <c r="BH3">
-        <v>-0.77403704813493102</v>
+        <v>-0.79663964464650172</v>
       </c>
       <c r="BI3">
-        <v>-0.64151392913038263</v>
+        <v>-0.76491509728908891</v>
       </c>
       <c r="BJ3">
-        <v>-0.49492993591068296</v>
+        <v>-0.56827260028418625</v>
       </c>
       <c r="BK3">
-        <v>-0.48118044365755719</v>
+        <v>-0.56323492325260316</v>
       </c>
       <c r="BL3">
-        <v>-0.60161347680302935</v>
+        <v>-0.51269812909419443</v>
       </c>
       <c r="BM3">
-        <v>-0.52909659546085341</v>
+        <v>-0.64319313415981416</v>
       </c>
       <c r="BN3">
-        <v>-0.4876616812772524</v>
+        <v>-0.43881877689291265</v>
       </c>
       <c r="BO3">
-        <v>-0.60769886335292556</v>
+        <v>-0.61179429939127594</v>
       </c>
       <c r="BP3">
-        <v>-0.5012378769911644</v>
+        <v>-0.46279363731653989</v>
       </c>
       <c r="BQ3">
-        <v>-0.60750105651932085</v>
+        <v>-0.54474393868662729</v>
       </c>
       <c r="BR3">
-        <v>-0.56948057702530586</v>
+        <v>-0.44003212443754025</v>
       </c>
       <c r="BS3">
-        <v>-0.62839891173184292</v>
+        <v>-0.55343571800220714</v>
       </c>
       <c r="BT3">
-        <v>-0.4983240535038686</v>
+        <v>-0.38356453146436104</v>
       </c>
       <c r="BU3">
-        <v>-0.082153335970186314</v>
+        <v>-0.08332709231694807</v>
       </c>
       <c r="BV3">
-        <v>-0.19383826671841844</v>
+        <v>-0.119730801363487</v>
       </c>
       <c r="BW3">
-        <v>-0.19026360570671483</v>
+        <v>-0.1409709278431632</v>
       </c>
       <c r="BX3">
-        <v>-0.16368264611784406</v>
+        <v>-0.21357202915808784</v>
       </c>
       <c r="BY3">
-        <v>-0.32140743740991512</v>
+        <v>-0.20656580324073812</v>
       </c>
       <c r="BZ3">
-        <v>-0.19495349758440778</v>
+        <v>-0.09031984260334551</v>
       </c>
       <c r="CA3">
-        <v>-0.27432767154553855</v>
+        <v>-0.15790388204221362</v>
       </c>
       <c r="CB3">
-        <v>-0.37204408858370885</v>
+        <v>-0.23888741049186316</v>
       </c>
       <c r="CC3">
-        <v>-0.31775025201229945</v>
+        <v>-0.37078174953389903</v>
       </c>
       <c r="CD3">
-        <v>-0.31994531788514219</v>
+        <v>-0.27632207340218867</v>
       </c>
       <c r="CE3">
-        <v>-0.027147365285804415</v>
+        <v>0.03654333903982343</v>
       </c>
       <c r="CF3">
-        <v>-0.097698794236286038</v>
+        <v>-0.034227366721891903</v>
       </c>
       <c r="CG3">
-        <v>-0.10286179244272384</v>
+        <v>-0.0058089547603081271</v>
       </c>
       <c r="CH3">
-        <v>-0.14221578122599482</v>
+        <v>-0.13357960848311981</v>
       </c>
       <c r="CI3">
-        <v>-0.17623896354491583</v>
+        <v>-0.14713834454716682</v>
       </c>
       <c r="CJ3">
-        <v>-0.18013263305174829</v>
+        <v>-0.056023592793961199</v>
       </c>
       <c r="CK3">
-        <v>-0.11370861377189187</v>
+        <v>-0.23710963544404182</v>
       </c>
       <c r="CL3">
-        <v>-0.22225145438938262</v>
+        <v>-0.13196622979706665</v>
       </c>
       <c r="CM3">
-        <v>-0.30441673963113008</v>
+        <v>-0.33497591131061066</v>
       </c>
       <c r="CN3">
-        <v>-0.35543058057538529</v>
+        <v>-0.35895422366527779</v>
       </c>
       <c r="CO3">
-        <v>0.17774644392907385</v>
+        <v>0.12461868962971999</v>
       </c>
       <c r="CP3">
-        <v>0.064408336162614141</v>
+        <v>0.12287577716577845</v>
       </c>
       <c r="CQ3">
-        <v>0.077887478433961835</v>
+        <v>0.14167117585480632</v>
       </c>
       <c r="CR3">
-        <v>0.074905651734716097</v>
+        <v>0.14875093332661529</v>
       </c>
       <c r="CS3">
-        <v>0.023104724003700939</v>
+        <v>0.030429686206806004</v>
       </c>
       <c r="CT3">
-        <v>0.11390765954461765</v>
+        <v>0.20068297566204141</v>
       </c>
       <c r="CU3">
-        <v>0.095062335287418379</v>
+        <v>0.18248649540441533</v>
       </c>
       <c r="CV3">
-        <v>-0.024854649283180017</v>
+        <v>0.17149826331436183</v>
       </c>
       <c r="CW3">
-        <v>-0.08474512922511486</v>
+        <v>-0.011719622848363122</v>
       </c>
       <c r="CX3">
-        <v>-0.016144804167502254</v>
+        <v>0.071641174523694728</v>
       </c>
       <c r="CY3">
-        <v>0.27740554627092429</v>
+        <v>0.30195154568416815</v>
       </c>
       <c r="CZ3">
-        <v>0.17518265965672877</v>
+        <v>0.28024452502049685</v>
       </c>
       <c r="DA3">
-        <v>0.11126847563130529</v>
+        <v>0.20464037809844587</v>
       </c>
       <c r="DB3">
-        <v>0.10949296210277913</v>
+        <v>0.13475193987176998</v>
       </c>
       <c r="DC3">
-        <v>0.021135328819477384</v>
+        <v>0.096948651510193454</v>
       </c>
       <c r="DD3">
-        <v>0.12687060746347162</v>
+        <v>0.23767490578700798</v>
       </c>
       <c r="DE3">
-        <v>0.14872863526223842</v>
+        <v>0.11859748150787064</v>
       </c>
       <c r="DF3">
-        <v>0.10463975532072163</v>
+        <v>0.092591826954465023</v>
       </c>
       <c r="DG3">
-        <v>0.11741567754995036</v>
+        <v>0.069113283937698514</v>
       </c>
       <c r="DH3">
-        <v>0.052966955765271898</v>
+        <v>0.053603459234321908</v>
       </c>
       <c r="DI3">
-        <v>0.48234660171004812</v>
+        <v>0.45087491297756316</v>
       </c>
       <c r="DJ3">
-        <v>0.42972105196086463</v>
+        <v>0.44854426815571635</v>
       </c>
       <c r="DK3">
-        <v>0.44480771041648598</v>
+        <v>0.45157027937680699</v>
       </c>
       <c r="DL3">
-        <v>0.34556556291266982</v>
+        <v>0.33650329200405932</v>
       </c>
       <c r="DM3">
-        <v>0.39841953850646539</v>
+        <v>0.39374324284852197</v>
       </c>
       <c r="DN3">
-        <v>0.28447289420530492</v>
+        <v>0.42919045167569375</v>
       </c>
       <c r="DO3">
-        <v>0.37308992630481896</v>
+        <v>0.39750966961159367</v>
       </c>
       <c r="DP3">
-        <v>0.25438375135116903</v>
+        <v>0.38526111712001571</v>
       </c>
       <c r="DQ3">
-        <v>0.33701896614413512</v>
+        <v>0.26565609231190074</v>
       </c>
       <c r="DR3">
-        <v>0.30328770877530314</v>
+        <v>0.25000591737455985</v>
       </c>
       <c r="DS3">
-        <v>0.21691846546638344</v>
+        <v>0.27512675647739604</v>
       </c>
       <c r="DT3">
-        <v>0.19510228526271342</v>
+        <v>0.28162796368629045</v>
       </c>
       <c r="DU3">
-        <v>0.28848807796378412</v>
+        <v>0.34368552410724695</v>
       </c>
       <c r="DV3">
-        <v>0.24830846905945636</v>
+        <v>0.29331781607153945</v>
       </c>
       <c r="DW3">
-        <v>0.24794272003595177</v>
+        <v>0.15402011606817315</v>
       </c>
       <c r="DX3">
-        <v>0.1796302855952584</v>
+        <v>0.19445727241204291</v>
       </c>
       <c r="DY3">
-        <v>0.1502428389119746</v>
+        <v>0.149069327186551</v>
       </c>
       <c r="DZ3">
-        <v>0.20674710902295684</v>
+        <v>0.27180147789098297</v>
       </c>
       <c r="EA3">
-        <v>0.23110867534455876</v>
+        <v>0.20607691521683491</v>
       </c>
       <c r="EB3">
-        <v>0.12087118943322109</v>
+        <v>0.32216238376126349</v>
       </c>
       <c r="EC3">
-        <v>0.28015020451236738</v>
+        <v>0.36181645732705092</v>
       </c>
       <c r="ED3">
-        <v>0.19568738775667407</v>
+        <v>0.16105266132600532</v>
       </c>
       <c r="EE3">
-        <v>0.21137829737678912</v>
+        <v>0.21576200702463827</v>
       </c>
       <c r="EF3">
-        <v>0.23793362491413131</v>
+        <v>0.12931175291673361</v>
       </c>
       <c r="EG3">
-        <v>0.10935189189144366</v>
+        <v>0.27965450313818035</v>
       </c>
       <c r="EH3">
-        <v>0.17365678080724486</v>
+        <v>0.25174542626785601</v>
       </c>
       <c r="EI3">
-        <v>0.20686630344458001</v>
+        <v>0.22641717925120927</v>
       </c>
       <c r="EJ3">
-        <v>0.17877601722760508</v>
+        <v>0.118191831222063</v>
       </c>
       <c r="EK3">
-        <v>0.16350414077818815</v>
+        <v>0.27252887393349445</v>
       </c>
       <c r="EL3">
-        <v>0.19540786048860251</v>
+        <v>0.11423761988167708</v>
       </c>
       <c r="EM3">
-        <v>0.1644242168247817</v>
+        <v>0.12693950460630463</v>
       </c>
       <c r="EN3">
-        <v>0.13199960804354713</v>
+        <v>0.0033982121783397499</v>
       </c>
       <c r="EO3">
-        <v>0.10879622464233107</v>
+        <v>0.035831332521218576</v>
       </c>
       <c r="EP3">
-        <v>0.11080824288606794</v>
+        <v>0.11909565645116819</v>
       </c>
       <c r="EQ3">
-        <v>0.048441884418952051</v>
+        <v>0.17843186639872394</v>
       </c>
       <c r="ER3">
-        <v>0.11026414945985245</v>
+        <v>0.10104251804831128</v>
       </c>
       <c r="ES3">
-        <v>0.20935422847647492</v>
+        <v>0.089273406852873299</v>
       </c>
       <c r="ET3">
-        <v>0.1819390022225498</v>
+        <v>0.19291619020371006</v>
       </c>
       <c r="EU3">
-        <v>0.11697767677674277</v>
+        <v>0.12467079216711144</v>
       </c>
       <c r="EV3">
-        <v>0.034772587881809994</v>
+        <v>0.14639539760497056</v>
       </c>
       <c r="EW3">
-        <v>0.091805492438665884</v>
+        <v>0.073685915333069577</v>
       </c>
       <c r="EX3">
-        <v>0.16967379007345471</v>
+        <v>0.0044588413972162658</v>
       </c>
       <c r="EY3">
-        <v>0.12257648550691065</v>
+        <v>0.10684190915894216</v>
       </c>
       <c r="EZ3">
-        <v>0.14208977630970313</v>
+        <v>0.066371502068095153</v>
       </c>
       <c r="FA3">
-        <v>0.201258129619794</v>
+        <v>0.1941518667808185</v>
       </c>
       <c r="FB3">
-        <v>0.055437657605205193</v>
+        <v>0.12839284283437966</v>
       </c>
       <c r="FC3">
-        <v>0.096839637797752093</v>
+        <v>0.234044791187519</v>
       </c>
       <c r="FD3">
-        <v>-0.039429638766751381</v>
+        <v>0.12804361203326448</v>
       </c>
       <c r="FE3">
-        <v>0.092970768345330593</v>
+        <v>0.16602172996989226</v>
       </c>
       <c r="FF3">
-        <v>0.07828690183249884</v>
+        <v>0.19009955463646142</v>
       </c>
       <c r="FG3">
-        <v>0.15319051399052611</v>
+        <v>0.19234747565360091</v>
       </c>
       <c r="FH3">
-        <v>0.19862451145438842</v>
+        <v>0.036488221069982681</v>
       </c>
       <c r="FI3">
-        <v>0.19465955629765666</v>
+        <v>0.13531688334555955</v>
       </c>
       <c r="FJ3">
-        <v>0.16881528887007466</v>
+        <v>0.069707452422449717</v>
       </c>
       <c r="FK3">
-        <v>0.15769015795154342</v>
+        <v>0.011953597649985681</v>
       </c>
       <c r="FL3">
-        <v>0.15532073791937667</v>
+        <v>0.14012917607274145</v>
       </c>
       <c r="FM3">
-        <v>0.075138731290877253</v>
+        <v>0.12781246667992316</v>
       </c>
       <c r="FN3">
-        <v>0.10575019596715832</v>
+        <v>0.06555337261909458</v>
       </c>
       <c r="FO3">
-        <v>0.12880112055329082</v>
+        <v>0.10198546878150906</v>
       </c>
       <c r="FP3">
-        <v>-0.065678793709882041</v>
+        <v>0.052955187160830537</v>
       </c>
       <c r="FQ3">
-        <v>0.16878767902959843</v>
+        <v>0.15325865051973553</v>
       </c>
       <c r="FR3">
-        <v>-0.013123019511119789</v>
+        <v>0.13124400096316255</v>
       </c>
       <c r="FS3">
-        <v>0.10400718609756796</v>
+        <v>0.225638206718314</v>
       </c>
       <c r="FT3">
-        <v>0.12506636203649904</v>
+        <v>0.097982680987024839</v>
       </c>
       <c r="FU3">
-        <v>-0.12902040752750257</v>
+        <v>0.020555878062115829</v>
       </c>
       <c r="FV3">
-        <v>0.15391467030934988</v>
+        <v>0.010507956027367663</v>
       </c>
       <c r="FW3">
-        <v>0.030806986743755618</v>
+        <v>0.038874855153318101</v>
       </c>
       <c r="FX3">
-        <v>0.073845453767645147</v>
+        <v>0.079888745872058936</v>
       </c>
       <c r="FY3">
-        <v>0.098152993070858841</v>
+        <v>0.13720363406739794</v>
       </c>
       <c r="FZ3">
-        <v>0.034747021824512267</v>
+        <v>0.02893316225582802</v>
       </c>
       <c r="GA3">
-        <v>-0.036674359190815353</v>
+        <v>0.086578380738036545</v>
       </c>
       <c r="GB3">
-        <v>0.08428202310534029</v>
+        <v>0.022750947872302207</v>
       </c>
       <c r="GC3">
-        <v>0.093475374598116584</v>
+        <v>0.0095111025591760531</v>
       </c>
       <c r="GD3">
-        <v>0.04765411156986564</v>
+        <v>0.11361739184753493</v>
       </c>
       <c r="GE3">
-        <v>0.0046970166223091123</v>
+        <v>0.031471103152202765</v>
       </c>
       <c r="GF3">
-        <v>-0.023093388751615172</v>
+        <v>0.1137120088617728</v>
       </c>
       <c r="GG3">
-        <v>-0.013644544263253251</v>
+        <v>0.047750469986839447</v>
       </c>
       <c r="GH3">
-        <v>0.13032155059075676</v>
+        <v>-0.12161419953825983</v>
       </c>
       <c r="GI3">
-        <v>0.036795588598313347</v>
+        <v>0.1117869041387442</v>
       </c>
       <c r="GJ3">
-        <v>0.059904445133150921</v>
+        <v>0.0073778978259447939</v>
       </c>
       <c r="GK3">
-        <v>-0.03626792540679076</v>
+        <v>-0.087652599428660785</v>
       </c>
       <c r="GL3">
-        <v>0.05098412328156738</v>
+        <v>0.0055591883623296433</v>
       </c>
       <c r="GM3">
-        <v>-0.02275464014457328</v>
+        <v>-0.074163741868254474</v>
       </c>
       <c r="GN3">
-        <v>0.13577017251249046</v>
+        <v>0.021485155623622451</v>
       </c>
       <c r="GO3">
-        <v>0.16784434422934272</v>
+        <v>0.10157053074882917</v>
       </c>
       <c r="GP3">
-        <v>-0.043884538740006335</v>
+        <v>0.0233763433144927</v>
       </c>
       <c r="GQ3">
-        <v>-0.00090731093088989125</v>
+        <v>0.1520116802332063</v>
       </c>
       <c r="GR3">
-        <v>-0.012160028846367795</v>
+        <v>0.14577671636457087</v>
       </c>
       <c r="GS3">
-        <v>0.006496950170083989</v>
+        <v>0.067603064479005534</v>
       </c>
       <c r="GT3">
-        <v>0.10385193407230095</v>
+        <v>0.15918322891229247</v>
       </c>
       <c r="GU3">
-        <v>0.046563038290170597</v>
+        <v>0.21212042188860816</v>
       </c>
       <c r="GV3">
-        <v>0.027165447289972351</v>
+        <v>0.018332313955846891</v>
       </c>
       <c r="GW3">
-        <v>0.10208757223284234</v>
+        <v>0.025097619904615044</v>
       </c>
       <c r="GX3">
-        <v>0.12255399471676451</v>
+        <v>0.087802180541002015</v>
       </c>
       <c r="GY3">
-        <v>0.06837863613357345</v>
+        <v>0.017544350949312792</v>
       </c>
       <c r="GZ3">
-        <v>0.066627097246436603</v>
+        <v>0.095517715499280259</v>
       </c>
       <c r="HA3">
-        <v>0.026464552868787603</v>
+        <v>0.09954192292905327</v>
       </c>
       <c r="HB3">
-        <v>-0.025382580910438175</v>
+        <v>0.077479590964789707</v>
       </c>
       <c r="HC3">
-        <v>-0.057358367621039838</v>
+        <v>0.0843657913181491</v>
       </c>
       <c r="HD3">
-        <v>0.040447301217351718</v>
+        <v>0.099996669044877209</v>
       </c>
       <c r="HE3">
-        <v>0.0014261610494413035</v>
+        <v>0.14378629672267598</v>
       </c>
       <c r="HF3">
-        <v>0.059988010912614388</v>
+        <v>0.12263914522921145</v>
       </c>
       <c r="HG3">
-        <v>0.063945176787457786</v>
+        <v>0.088957054798544447</v>
       </c>
       <c r="HH3">
-        <v>-0.038300579382068267</v>
+        <v>0.15892344824430238</v>
       </c>
       <c r="HI3">
-        <v>-0.011907897695814837</v>
+        <v>0.073241588597840843</v>
       </c>
       <c r="HJ3">
-        <v>0.014074282396710948</v>
+        <v>0.16991998990245205</v>
       </c>
       <c r="HK3">
-        <v>-0.0044466644684247863</v>
+        <v>-0.068882886751960623</v>
       </c>
       <c r="HL3">
-        <v>0.061708234501618012</v>
+        <v>0.066540585967880483</v>
       </c>
       <c r="HM3">
         <v>0</v>
@@ -10856,7 +10856,7 @@
         <v>0</v>
       </c>
       <c r="HO3">
-        <v>-5.5941944444269804</v>
+        <v>-5.6129577933313124</v>
       </c>
     </row>
     <row r="4">
@@ -10864,661 +10864,661 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.049214404229793493</v>
+        <v>0.048526733685585514</v>
       </c>
       <c r="C4">
-        <v>0.033617650688334409</v>
+        <v>0.034190678136327229</v>
       </c>
       <c r="D4">
-        <v>0.042388848656814651</v>
+        <v>0.042588178496659954</v>
       </c>
       <c r="E4">
-        <v>0.054738529018863731</v>
+        <v>0.052730121498354807</v>
       </c>
       <c r="F4">
-        <v>0.032378842894303116</v>
+        <v>0.032436396884328131</v>
       </c>
       <c r="G4">
-        <v>0.027867083074065168</v>
+        <v>0.027581536548512052</v>
       </c>
       <c r="H4">
-        <v>0.02325974062845771</v>
+        <v>0.022603928337839321</v>
       </c>
       <c r="I4">
-        <v>0.02684684909604625</v>
+        <v>0.026634640752234449</v>
       </c>
       <c r="J4">
-        <v>0.028074394509320852</v>
+        <v>0.028129892348093002</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.081841511638610295</v>
+        <v>0.083431993833867138</v>
       </c>
       <c r="M4">
-        <v>0.082522967577001269</v>
+        <v>0.083039098995884339</v>
       </c>
       <c r="N4">
-        <v>0.083079969676857546</v>
+        <v>0.085412682056187406</v>
       </c>
       <c r="O4">
-        <v>0.081915391507627444</v>
+        <v>0.084427817868600222</v>
       </c>
       <c r="P4">
-        <v>0.080988543465190785</v>
+        <v>0.081651499170611569</v>
       </c>
       <c r="Q4">
-        <v>0.083577564342677491</v>
+        <v>0.081582744673505403</v>
       </c>
       <c r="R4">
-        <v>0.082291616180300647</v>
+        <v>0.083116694353153428</v>
       </c>
       <c r="S4">
-        <v>0.081915391553684394</v>
+        <v>0.082435327121284208</v>
       </c>
       <c r="T4">
-        <v>0.080452247402004781</v>
+        <v>0.080981577511269026</v>
       </c>
       <c r="U4">
-        <v>0.081768077126107716</v>
+        <v>0.0817206583047968</v>
       </c>
       <c r="V4">
-        <v>0.082139744190103572</v>
+        <v>0.081311700729300912</v>
       </c>
       <c r="W4">
-        <v>0.082064503587556986</v>
+        <v>0.080287352175788904</v>
       </c>
       <c r="X4">
-        <v>0.082445372102863471</v>
+        <v>0.079017808458461486</v>
       </c>
       <c r="Y4">
-        <v>0.081266162864418054</v>
+        <v>0.083431993979364377</v>
       </c>
       <c r="Z4">
-        <v>0.080988543590893566</v>
+        <v>0.08078797406468452</v>
       </c>
       <c r="AA4">
-        <v>0.079570101009856148</v>
+        <v>0.081244915780957092</v>
       </c>
       <c r="AB4">
-        <v>0.077433158969471283</v>
+        <v>0.079017808522579114</v>
       </c>
       <c r="AC4">
-        <v>0.076949521257173234</v>
+        <v>0.08098157763889885</v>
       </c>
       <c r="AD4">
-        <v>0.082445372182411492</v>
+        <v>0.080348719864426515</v>
       </c>
       <c r="AE4">
-        <v>0.079153803555708502</v>
+        <v>0.07864366463331178</v>
       </c>
       <c r="AF4">
-        <v>0.081126540462166399</v>
+        <v>0.078435781833858007</v>
       </c>
       <c r="AG4">
-        <v>0.083493288057200091</v>
+        <v>0.082809189766021349</v>
       </c>
       <c r="AH4">
-        <v>0.080517947596060221</v>
+        <v>0.078591299088125205</v>
       </c>
       <c r="AI4">
-        <v>0.077941092182460633</v>
+        <v>0.079867060735159021</v>
       </c>
       <c r="AJ4">
-        <v>0.081196146726034549</v>
+        <v>0.080287352379759452</v>
       </c>
       <c r="AK4">
-        <v>0.08133659313061796</v>
+        <v>0.079926127191146362</v>
       </c>
       <c r="AL4">
-        <v>0.079271148143806758</v>
+        <v>0.078749198055433248</v>
       </c>
       <c r="AM4">
-        <v>0.080988543780430508</v>
+        <v>0.078643664781498576</v>
       </c>
       <c r="AN4">
-        <v>0.080129264959373725</v>
+        <v>0.079017808737839396</v>
       </c>
       <c r="AO4">
-        <v>0.080129264975236911</v>
+        <v>0.079293462814819429</v>
       </c>
       <c r="AP4">
-        <v>0.079095600387742229</v>
+        <v>0.080787974319430952</v>
       </c>
       <c r="AQ4">
-        <v>0.077941092329013847</v>
+        <v>0.081514391490315183</v>
       </c>
       <c r="AR4">
-        <v>0.080650476996356996</v>
+        <v>0.079237755080837732</v>
       </c>
       <c r="AS4">
-        <v>0.078420581588099447</v>
+        <v>0.080045224595653885</v>
       </c>
       <c r="AT4">
-        <v>0.077734885682242127</v>
+        <v>0.077933906528071029</v>
       </c>
       <c r="AU4">
-        <v>0.080321960803201711</v>
+        <v>0.081582745112911761</v>
       </c>
       <c r="AV4">
-        <v>0.078420581646933926</v>
+        <v>0.080660714793247296</v>
       </c>
       <c r="AW4">
-        <v>0.077837473224868697</v>
+        <v>0.080787974435036478</v>
       </c>
       <c r="AX4">
-        <v>0.081057340950413462</v>
+        <v>0.081046848875005753</v>
       </c>
       <c r="AY4">
-        <v>0.079212318988873237</v>
+        <v>0.079519249119460664</v>
       </c>
       <c r="AZ4">
-        <v>0.080852144111609098</v>
+        <v>0.079926127455674789</v>
       </c>
       <c r="BA4">
-        <v>0.081550404295843787</v>
+        <v>0.078696297321850572</v>
       </c>
       <c r="BB4">
-        <v>0.079389760482550906</v>
+        <v>0.078333400347369311</v>
       </c>
       <c r="BC4">
-        <v>0.079449548432002456</v>
+        <v>0.080287352711276169</v>
       </c>
       <c r="BD4">
-        <v>0.079691975666958362</v>
+        <v>0.079182338310461647</v>
       </c>
       <c r="BE4">
-        <v>0.07993977695975843</v>
+        <v>0.079349464024995653</v>
       </c>
       <c r="BF4">
-        <v>0.07987731290077825</v>
+        <v>0.078081868571669127</v>
       </c>
       <c r="BG4">
-        <v>0.078865854503245375</v>
+        <v>0.080916677565319256</v>
       </c>
       <c r="BH4">
-        <v>0.080452248030234513</v>
+        <v>0.081860205401511135</v>
       </c>
       <c r="BI4">
-        <v>0.077941092690767308</v>
+        <v>0.081244916333856027</v>
       </c>
       <c r="BJ4">
-        <v>0.079920209443285831</v>
+        <v>0.082627019956496656</v>
       </c>
       <c r="BK4">
-        <v>0.07969947554989365</v>
+        <v>0.082559759381952758</v>
       </c>
       <c r="BL4">
-        <v>0.082069936743663086</v>
+        <v>0.081593024179578158</v>
       </c>
       <c r="BM4">
-        <v>0.080670528896842592</v>
+        <v>0.08429730200513684</v>
       </c>
       <c r="BN4">
-        <v>0.079920179088635662</v>
+        <v>0.080258506514462938</v>
       </c>
       <c r="BO4">
-        <v>0.082810951463350449</v>
+        <v>0.083930691838682708</v>
       </c>
       <c r="BP4">
-        <v>0.080778588562005274</v>
+        <v>0.081069609052270286</v>
       </c>
       <c r="BQ4">
-        <v>0.082878379918539913</v>
+        <v>0.082657833027663372</v>
       </c>
       <c r="BR4">
-        <v>0.083419833885567493</v>
+        <v>0.08147639079888809</v>
       </c>
       <c r="BS4">
-        <v>0.084635850249980424</v>
+        <v>0.083597306815768657</v>
       </c>
       <c r="BT4">
-        <v>0.075573510126685464</v>
+        <v>0.075425829144256273</v>
       </c>
       <c r="BU4">
-        <v>0.06747507468795709</v>
+        <v>0.068219434436490353</v>
       </c>
       <c r="BV4">
-        <v>0.068079535003097505</v>
+        <v>0.068436107547279759</v>
       </c>
       <c r="BW4">
-        <v>0.067061924589002175</v>
+        <v>0.067470453070033062</v>
       </c>
       <c r="BX4">
-        <v>0.066953001814788998</v>
+        <v>0.067947411710796893</v>
       </c>
       <c r="BY4">
-        <v>0.067989845692810122</v>
+        <v>0.067951894756988443</v>
       </c>
       <c r="BZ4">
-        <v>0.066837863116986071</v>
+        <v>0.06694972567527524</v>
       </c>
       <c r="CA4">
-        <v>0.067468854741325232</v>
+        <v>0.067466055680644052</v>
       </c>
       <c r="CB4">
-        <v>0.068298173578557192</v>
+        <v>0.068117885321247115</v>
       </c>
       <c r="CC4">
-        <v>0.06790903232417321</v>
+        <v>0.069252114026625552</v>
       </c>
       <c r="CD4">
-        <v>0.069637116540077149</v>
+        <v>0.070298691844565719</v>
       </c>
       <c r="CE4">
-        <v>0.071050638034063668</v>
+        <v>0.071534913296543323</v>
       </c>
       <c r="CF4">
-        <v>0.071727183482637791</v>
+        <v>0.072202137585887158</v>
       </c>
       <c r="CG4">
-        <v>0.071832986705893928</v>
+        <v>0.072011085883879694</v>
       </c>
       <c r="CH4">
-        <v>0.07225840830666734</v>
+        <v>0.073252782752152121</v>
       </c>
       <c r="CI4">
-        <v>0.072325876037653017</v>
+        <v>0.07301221721802921</v>
       </c>
       <c r="CJ4">
-        <v>0.074045341139214058</v>
+        <v>0.07360295310166079</v>
       </c>
       <c r="CK4">
-        <v>0.073417529365122622</v>
+        <v>0.075554708898247058</v>
       </c>
       <c r="CL4">
-        <v>0.075675978930243998</v>
+        <v>0.075247320579170093</v>
       </c>
       <c r="CM4">
-        <v>0.076676020912901779</v>
+        <v>0.077562638757003144</v>
       </c>
       <c r="CN4">
-        <v>0.074157781658768643</v>
+        <v>0.074469897779948516</v>
       </c>
       <c r="CO4">
-        <v>0.066957998488135634</v>
+        <v>0.067911434235225804</v>
       </c>
       <c r="CP4">
-        <v>0.067480456780195902</v>
+        <v>0.067961307068283197</v>
       </c>
       <c r="CQ4">
-        <v>0.066278817635788481</v>
+        <v>0.066648841136964954</v>
       </c>
       <c r="CR4">
-        <v>0.066343536145218443</v>
+        <v>0.066665116298212118</v>
       </c>
       <c r="CS4">
-        <v>0.066660072781657032</v>
+        <v>0.06730895190894888</v>
       </c>
       <c r="CT4">
-        <v>0.065628210869995734</v>
+        <v>0.065914848161534909</v>
       </c>
       <c r="CU4">
-        <v>0.065792206403648967</v>
+        <v>0.066071192228818187</v>
       </c>
       <c r="CV4">
-        <v>0.066594394457061626</v>
+        <v>0.066189167874709451</v>
       </c>
       <c r="CW4">
-        <v>0.067058433081395655</v>
+        <v>0.067400067053486196</v>
       </c>
       <c r="CX4">
-        <v>0.066646014991953287</v>
+        <v>0.066902394171331273</v>
       </c>
       <c r="CY4">
-        <v>0.066810941053655259</v>
+        <v>0.0674763844912913</v>
       </c>
       <c r="CZ4">
-        <v>0.067566836437908007</v>
+        <v>0.067673018399618756</v>
       </c>
       <c r="DA4">
-        <v>0.068096873072894901</v>
+        <v>0.068257216792040221</v>
       </c>
       <c r="DB4">
-        <v>0.068163564669093429</v>
+        <v>0.0688386267306412</v>
       </c>
       <c r="DC4">
-        <v>0.068934143813718873</v>
+        <v>0.069193752804048811</v>
       </c>
       <c r="DD4">
-        <v>0.068835487793751218</v>
+        <v>0.068768392056164238</v>
       </c>
       <c r="DE4">
-        <v>0.068707113732332514</v>
+        <v>0.069783427096414885</v>
       </c>
       <c r="DF4">
-        <v>0.069131419157759805</v>
+        <v>0.070061731675037764</v>
       </c>
       <c r="DG4">
-        <v>0.069075096948589682</v>
+        <v>0.070324101606607861</v>
       </c>
       <c r="DH4">
-        <v>0.069698453098785682</v>
+        <v>0.070519009344721106</v>
       </c>
       <c r="DI4">
-        <v>0.066995822649380241</v>
+        <v>0.068177445010173962</v>
       </c>
       <c r="DJ4">
-        <v>0.067561097541776943</v>
+        <v>0.068256681135996755</v>
       </c>
       <c r="DK4">
-        <v>0.067469058383115524</v>
+        <v>0.068283358209969169</v>
       </c>
       <c r="DL4">
-        <v>0.068546098425034938</v>
+        <v>0.069538877734073454</v>
       </c>
       <c r="DM4">
-        <v>0.068046367607015851</v>
+        <v>0.068981472073934458</v>
       </c>
       <c r="DN4">
-        <v>0.069340405778281725</v>
+        <v>0.068671391541642243</v>
       </c>
       <c r="DO4">
-        <v>0.068420887052108581</v>
+        <v>0.069057885044035899</v>
       </c>
       <c r="DP4">
-        <v>0.069808737184169509</v>
+        <v>0.069245541661454496</v>
       </c>
       <c r="DQ4">
-        <v>0.068921722718541009</v>
+        <v>0.070653643914528733</v>
       </c>
       <c r="DR4">
-        <v>0.06935848596404684</v>
+        <v>0.070898032139156672</v>
       </c>
       <c r="DS4">
-        <v>0.070440928231103622</v>
+        <v>0.070653644344125147</v>
       </c>
       <c r="DT4">
-        <v>0.070769657342939024</v>
+        <v>0.070633685844888577</v>
       </c>
       <c r="DU4">
-        <v>0.069693148081046721</v>
+        <v>0.069971790800628444</v>
       </c>
       <c r="DV4">
-        <v>0.070230321404512033</v>
+        <v>0.070613788843833847</v>
       </c>
       <c r="DW4">
-        <v>0.070292811036479344</v>
+        <v>0.072425830020415166</v>
       </c>
       <c r="DX4">
-        <v>0.071209772271805957</v>
+        <v>0.071950932259433442</v>
       </c>
       <c r="DY4">
-        <v>0.071653402488400825</v>
+        <v>0.072608878258828294</v>
       </c>
       <c r="DZ4">
-        <v>0.070974696415220501</v>
+        <v>0.071087450123636597</v>
       </c>
       <c r="EA4">
-        <v>0.070724906189462672</v>
+        <v>0.07197516215627292</v>
       </c>
       <c r="EB4">
-        <v>0.072234652123357279</v>
+        <v>0.070593953665812878</v>
       </c>
       <c r="EC4">
-        <v>0.070230322917788954</v>
+        <v>0.070190986165000455</v>
       </c>
       <c r="ED4">
-        <v>0.071354642408498772</v>
+        <v>0.072769443994918012</v>
       </c>
       <c r="EE4">
-        <v>0.071209773674061796</v>
+        <v>0.072097556360749854</v>
       </c>
       <c r="EF4">
-        <v>0.070928609679500612</v>
+        <v>0.073330625447899062</v>
       </c>
       <c r="EG4">
-        <v>0.072716358534669581</v>
+        <v>0.071393134889793611</v>
       </c>
       <c r="EH4">
-        <v>0.071885749013783473</v>
+        <v>0.071807268395965837</v>
       </c>
       <c r="EI4">
-        <v>0.07150248885900716</v>
+        <v>0.072196994115429111</v>
       </c>
       <c r="EJ4">
-        <v>0.071938384207107589</v>
+        <v>0.073749064548485843</v>
       </c>
       <c r="EK4">
-        <v>0.072207235921441695</v>
+        <v>0.071713090114573358</v>
       </c>
       <c r="EL4">
-        <v>0.071833484137307294</v>
+        <v>0.073935359442692958</v>
       </c>
       <c r="EM4">
-        <v>0.07231750407923257</v>
+        <v>0.07381068452391934</v>
       </c>
       <c r="EN4">
-        <v>0.072834163482852862</v>
+        <v>0.075752551998660878</v>
       </c>
       <c r="EO4">
-        <v>0.073229538911813608</v>
+        <v>0.075297777750946177</v>
       </c>
       <c r="EP4">
-        <v>0.073260773095437229</v>
+        <v>0.074093955637690542</v>
       </c>
       <c r="EQ4">
-        <v>0.07425727301935886</v>
+        <v>0.07330157499099775</v>
       </c>
       <c r="ER4">
-        <v>0.073386923143538743</v>
+        <v>0.074487592661588622</v>
       </c>
       <c r="ES4">
-        <v>0.072044778820243502</v>
+        <v>0.074726114875837579</v>
       </c>
       <c r="ET4">
-        <v>0.072485937263920941</v>
+        <v>0.073272631207032313</v>
       </c>
       <c r="EU4">
-        <v>0.073482830515786815</v>
+        <v>0.074321292289564675</v>
       </c>
       <c r="EV4">
-        <v>0.074802950111662075</v>
+        <v>0.074061989125750627</v>
       </c>
       <c r="EW4">
-        <v>0.073979755976833525</v>
+        <v>0.07522421694898479</v>
       </c>
       <c r="EX4">
-        <v>0.072893732390140853</v>
+        <v>0.076397102753780421</v>
       </c>
       <c r="EY4">
-        <v>0.073645200833360611</v>
+        <v>0.074830439130740944</v>
       </c>
       <c r="EZ4">
-        <v>0.073418769060296707</v>
+        <v>0.075522244974071895</v>
       </c>
       <c r="FA4">
-        <v>0.072629154141833116</v>
+        <v>0.073657520464933762</v>
       </c>
       <c r="FB4">
-        <v>0.074878338777129461</v>
+        <v>0.074691625407216924</v>
       </c>
       <c r="FC4">
-        <v>0.07429260636974544</v>
+        <v>0.073215066183811017</v>
       </c>
       <c r="FD4">
-        <v>0.076578948862867799</v>
+        <v>0.074830440041322999</v>
       </c>
       <c r="FE4">
-        <v>0.074471464378070187</v>
+        <v>0.074321294117958125</v>
       </c>
       <c r="FF4">
-        <v>0.074765497066165795</v>
+        <v>0.074030148416544858</v>
       </c>
       <c r="FG4">
-        <v>0.07367806180809075</v>
+        <v>0.074061991228003915</v>
       </c>
       <c r="FH4">
-        <v>0.073075157894085307</v>
+        <v>0.076565562820484032</v>
       </c>
       <c r="FI4">
-        <v>0.073198428674874985</v>
+        <v>0.075042993987709611</v>
       </c>
       <c r="FJ4">
-        <v>0.073645202963063636</v>
+        <v>0.076150031642939126</v>
       </c>
       <c r="FK4">
-        <v>0.073877984237084929</v>
+        <v>0.077180098528699184</v>
       </c>
       <c r="FL4">
-        <v>0.073979758826449235</v>
+        <v>0.075151274017668551</v>
       </c>
       <c r="FM4">
-        <v>0.075304722436040236</v>
+        <v>0.075409298316694337</v>
       </c>
       <c r="FN4">
-        <v>0.074878340944936436</v>
+        <v>0.076480953405563462</v>
       </c>
       <c r="FO4">
-        <v>0.074580575577496019</v>
+        <v>0.075949112946138889</v>
       </c>
       <c r="FP4">
-        <v>0.077941105326464838</v>
+        <v>0.076824076486170192</v>
       </c>
       <c r="FQ4">
-        <v>0.074082773063849333</v>
+        <v>0.075260923998141438</v>
       </c>
       <c r="FR4">
-        <v>0.077140189723454364</v>
+        <v>0.075675123912246789</v>
       </c>
       <c r="FS4">
-        <v>0.075225684764227391</v>
+        <v>0.074288433303394991</v>
       </c>
       <c r="FT4">
-        <v>0.074954374187000211</v>
+        <v>0.076355465062308225</v>
       </c>
       <c r="FU4">
-        <v>0.07950967337356829</v>
+        <v>0.077739986835069191</v>
       </c>
       <c r="FV4">
-        <v>0.074617251478043572</v>
+        <v>0.077982999419564603</v>
       </c>
       <c r="FW4">
-        <v>0.076716281840057396</v>
+        <v>0.077549776925378108</v>
       </c>
       <c r="FX4">
-        <v>0.076048394756822443</v>
+        <v>0.07691184573300669</v>
       </c>
       <c r="FY4">
-        <v>0.075710496963982299</v>
+        <v>0.076028950832147696</v>
       </c>
       <c r="FZ4">
-        <v>0.076855569941045379</v>
+        <v>0.077933921652342739</v>
       </c>
       <c r="GA4">
-        <v>0.07820477400409287</v>
+        <v>0.077000431545592954</v>
       </c>
       <c r="GB4">
-        <v>0.076134799963544136</v>
+        <v>0.078181747601906215</v>
       </c>
       <c r="GC4">
-        <v>0.076048395656547516</v>
+        <v>0.078487374959530357</v>
       </c>
       <c r="GD4">
-        <v>0.076902442238841198</v>
+        <v>0.076737117057860627</v>
       </c>
       <c r="GE4">
-        <v>0.07773490115062788</v>
+        <v>0.078232052513821412</v>
       </c>
       <c r="GF4">
-        <v>0.078312132614057131</v>
+        <v>0.076867861768096596</v>
       </c>
       <c r="GG4">
-        <v>0.07820477493719645</v>
+        <v>0.078081884442337879</v>
       </c>
       <c r="GH4">
-        <v>0.075752074186170901</v>
+        <v>0.081378886179848148</v>
       </c>
       <c r="GI4">
-        <v>0.077433175772327237</v>
+        <v>0.077089847297213354</v>
       </c>
       <c r="GJ4">
-        <v>0.077092185117293599</v>
+        <v>0.079017824439205492</v>
       </c>
       <c r="GK4">
-        <v>0.078922850893257554</v>
+        <v>0.080916691264158888</v>
       </c>
       <c r="GL4">
-        <v>0.077383749173133523</v>
+        <v>0.079182353831770705</v>
       </c>
       <c r="GM4">
-        <v>0.078809187823740912</v>
+        <v>0.080787988690064358</v>
       </c>
       <c r="GN4">
-        <v>0.076048397719424829</v>
+        <v>0.079017825037587572</v>
       </c>
       <c r="GO4">
-        <v>0.075586879622903391</v>
+        <v>0.077644426433110328</v>
       </c>
       <c r="GP4">
-        <v>0.079449563766028408</v>
+        <v>0.079127225999707243</v>
       </c>
       <c r="GQ4">
-        <v>0.078696712990390105</v>
+        <v>0.076911849155199608</v>
       </c>
       <c r="GR4">
-        <v>0.078980135174035654</v>
+        <v>0.077089848964368823</v>
       </c>
       <c r="GS4">
-        <v>0.078696713314050995</v>
+        <v>0.078539215960896899</v>
       </c>
       <c r="GT4">
-        <v>0.076996861677047196</v>
+        <v>0.077000435053027269</v>
       </c>
       <c r="GU4">
-        <v>0.07809850846738893</v>
+        <v>0.076190759105635039</v>
       </c>
       <c r="GV4">
-        <v>0.078530186686184278</v>
+        <v>0.079691775822039485</v>
       </c>
       <c r="GW4">
-        <v>0.077236908739600402</v>
+        <v>0.079633965888311675</v>
       </c>
       <c r="GX4">
-        <v>0.076949541458021992</v>
+        <v>0.078539216914054993</v>
       </c>
       <c r="GY4">
-        <v>0.077993312559702599</v>
+        <v>0.079926144472820829</v>
       </c>
       <c r="GZ4">
-        <v>0.07809850942050868</v>
+        <v>0.078539217288421143</v>
       </c>
       <c r="HA4">
-        <v>0.078922853619950897</v>
+        <v>0.078539217485984456</v>
       </c>
       <c r="HB4">
-        <v>0.080002605105187252</v>
+        <v>0.079017827586401718</v>
       </c>
       <c r="HC4">
-        <v>0.080717329216212844</v>
+        <v>0.07896355112624362</v>
       </c>
       <c r="HD4">
-        <v>0.078865872776763241</v>
+        <v>0.078749217677961156</v>
       </c>
       <c r="HE4">
-        <v>0.079691993219340784</v>
+        <v>0.078032325639068686</v>
       </c>
       <c r="HF4">
-        <v>0.078640917451091044</v>
+        <v>0.078487380174447605</v>
       </c>
       <c r="HG4">
-        <v>0.078640917645361727</v>
+        <v>0.079182357639157638</v>
       </c>
       <c r="HH4">
-        <v>0.080717330029938111</v>
+        <v>0.07798300637964789</v>
       </c>
       <c r="HI4">
-        <v>0.080257385165470971</v>
+        <v>0.079633968133596869</v>
       </c>
       <c r="HJ4">
-        <v>0.079815211502470701</v>
+        <v>0.07793392844450571</v>
       </c>
       <c r="HK4">
-        <v>0.080257385504494766</v>
+        <v>0.082658285259115949</v>
       </c>
       <c r="HL4">
-        <v>0.079037726099655106</v>
+        <v>0.07998553383459811</v>
       </c>
       <c r="HM4">
         <v>0</v>
@@ -11527,7 +11527,7 @@
         <v>0</v>
       </c>
       <c r="HO4">
-        <v>0.056796216162723727</v>
+        <v>0.057543565711994434</v>
       </c>
     </row>
   </sheetData>

--- a/tables/coefficients.xlsx
+++ b/tables/coefficients.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="31148" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="38300" uniqueCount="239">
   <si>
     <t>y1</t>
   </si>
@@ -2123,661 +2123,661 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>0.64133756975113476</v>
+        <v>0.66711050556659479</v>
       </c>
       <c r="C3">
-        <v>-0.89649573419368844</v>
+        <v>-0.88878894535288033</v>
       </c>
       <c r="D3">
-        <v>-0.87011812325635962</v>
+        <v>-1.0103526696985614</v>
       </c>
       <c r="E3">
-        <v>-0.89930491971483151</v>
+        <v>-0.87153309177477611</v>
       </c>
       <c r="F3">
-        <v>0.55372805032910499</v>
+        <v>0.52295646509120819</v>
       </c>
       <c r="G3">
-        <v>0.53538704336016041</v>
+        <v>0.51166470908425243</v>
       </c>
       <c r="H3">
-        <v>0.47540634540473409</v>
+        <v>0.45176780687253854</v>
       </c>
       <c r="I3">
-        <v>0.20378561281725427</v>
+        <v>0.19148999154052754</v>
       </c>
       <c r="J3">
-        <v>0.24075103663586062</v>
+        <v>0.24173986207094042</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>-1.7681987276900273</v>
+        <v>-1.6599919949911244</v>
       </c>
       <c r="M3">
-        <v>-1.6779342013395975</v>
+        <v>-1.874069949118901</v>
       </c>
       <c r="N3">
-        <v>-1.6583771914050529</v>
+        <v>-1.650225281125185</v>
       </c>
       <c r="O3">
-        <v>-1.5513480080497717</v>
+        <v>-1.7184645795298257</v>
       </c>
       <c r="P3">
-        <v>-1.6853553196579225</v>
+        <v>-1.831104161044856</v>
       </c>
       <c r="Q3">
-        <v>-1.4691754129169519</v>
+        <v>-1.5082464371493431</v>
       </c>
       <c r="R3">
-        <v>-1.6460846168986472</v>
+        <v>-1.5904503188890808</v>
       </c>
       <c r="S3">
-        <v>-1.6640791671346706</v>
+        <v>-1.8489368608048775</v>
       </c>
       <c r="T3">
-        <v>-1.564616877669001</v>
+        <v>-1.7604071047790917</v>
       </c>
       <c r="U3">
-        <v>-1.4739607229667417</v>
+        <v>-1.7785839034740316</v>
       </c>
       <c r="V3">
-        <v>-1.6156799544742899</v>
+        <v>-1.6277820371465912</v>
       </c>
       <c r="W3">
-        <v>-1.3339339298296427</v>
+        <v>-1.6107177005258941</v>
       </c>
       <c r="X3">
-        <v>-1.3817848342146</v>
+        <v>-1.6344075339957025</v>
       </c>
       <c r="Y3">
-        <v>-1.5518975405605986</v>
+        <v>-1.6336155246553843</v>
       </c>
       <c r="Z3">
-        <v>-1.509607733240566</v>
+        <v>-1.7652234998767735</v>
       </c>
       <c r="AA3">
-        <v>-1.5088006253110191</v>
+        <v>-1.5450805386609088</v>
       </c>
       <c r="AB3">
-        <v>-1.4148630116129757</v>
+        <v>-1.8119976586304329</v>
       </c>
       <c r="AC3">
-        <v>-1.4829981302213793</v>
+        <v>-1.5511592150338214</v>
       </c>
       <c r="AD3">
-        <v>-1.5062766741093987</v>
+        <v>-1.4282275741057398</v>
       </c>
       <c r="AE3">
-        <v>-1.2805964992265577</v>
+        <v>-1.5647165282922326</v>
       </c>
       <c r="AF3">
-        <v>-1.2926602491718757</v>
+        <v>-1.6963446140257603</v>
       </c>
       <c r="AG3">
-        <v>-1.4480761921451952</v>
+        <v>-1.6608008888018024</v>
       </c>
       <c r="AH3">
-        <v>-1.3874721748674224</v>
+        <v>-1.3658256895973997</v>
       </c>
       <c r="AI3">
-        <v>-1.3509526901966391</v>
+        <v>-1.5535900511455729</v>
       </c>
       <c r="AJ3">
-        <v>-1.4766257399889156</v>
+        <v>-1.5450651695394182</v>
       </c>
       <c r="AK3">
-        <v>-1.4142071628732031</v>
+        <v>-1.5290406899458033</v>
       </c>
       <c r="AL3">
-        <v>-1.4283637366210282</v>
+        <v>-1.6649758551174547</v>
       </c>
       <c r="AM3">
-        <v>-1.4274882887811762</v>
+        <v>-1.4689551656012616</v>
       </c>
       <c r="AN3">
-        <v>-1.4652435168618987</v>
+        <v>-1.5965552918896617</v>
       </c>
       <c r="AO3">
-        <v>-1.4182177937288967</v>
+        <v>-1.6038332453660671</v>
       </c>
       <c r="AP3">
-        <v>-1.5202340517763873</v>
+        <v>-1.5949161048280196</v>
       </c>
       <c r="AQ3">
-        <v>-1.5278070576987877</v>
+        <v>-1.3580182185598333</v>
       </c>
       <c r="AR3">
-        <v>-1.3362413935943218</v>
+        <v>-1.5850125078921669</v>
       </c>
       <c r="AS3">
-        <v>-1.5011470653287504</v>
+        <v>-1.442617526886089</v>
       </c>
       <c r="AT3">
-        <v>-1.3344673972313597</v>
+        <v>-1.5673408885083027</v>
       </c>
       <c r="AU3">
-        <v>-1.5584837999135928</v>
+        <v>-1.3607282183994738</v>
       </c>
       <c r="AV3">
-        <v>-1.3609213101619011</v>
+        <v>-1.6389850838663782</v>
       </c>
       <c r="AW3">
-        <v>-1.4813991687248902</v>
+        <v>-1.4888368745489675</v>
       </c>
       <c r="AX3">
-        <v>-1.3035578477218661</v>
+        <v>-1.6543817028208512</v>
       </c>
       <c r="AY3">
-        <v>-1.4635701140265922</v>
+        <v>-1.6365042320267196</v>
       </c>
       <c r="AZ3">
-        <v>-1.5199068704058905</v>
+        <v>-1.4364980709560624</v>
       </c>
       <c r="BA3">
-        <v>-1.3929030089585079</v>
+        <v>-1.5851314726934387</v>
       </c>
       <c r="BB3">
-        <v>-1.3274271655676178</v>
+        <v>-1.4700567130763234</v>
       </c>
       <c r="BC3">
-        <v>-1.4135104556282829</v>
+        <v>-1.6245408132514154</v>
       </c>
       <c r="BD3">
-        <v>-1.2780799876611995</v>
+        <v>-1.5988333067837661</v>
       </c>
       <c r="BE3">
-        <v>-1.4192124516443565</v>
+        <v>-1.5268060316044216</v>
       </c>
       <c r="BF3">
-        <v>-1.4977694748653261</v>
+        <v>-1.7098475611978905</v>
       </c>
       <c r="BG3">
-        <v>-1.3228523171418782</v>
+        <v>-1.7657522439895394</v>
       </c>
       <c r="BH3">
-        <v>-1.6096831761220163</v>
+        <v>-1.5168869854980771</v>
       </c>
       <c r="BI3">
-        <v>-1.5035518484275745</v>
+        <v>-1.671474424978415</v>
       </c>
       <c r="BJ3">
-        <v>-1.0575606869998244</v>
+        <v>-1.0049062577201433</v>
       </c>
       <c r="BK3">
-        <v>-1.0338499258421232</v>
+        <v>-1.144049129157156</v>
       </c>
       <c r="BL3">
-        <v>-1.1275238106873817</v>
+        <v>-1.2628396822775376</v>
       </c>
       <c r="BM3">
-        <v>-1.1863233118898442</v>
+        <v>-1.188440078758132</v>
       </c>
       <c r="BN3">
-        <v>-1.0541326293315256</v>
+        <v>-1.2195549727053836</v>
       </c>
       <c r="BO3">
-        <v>-1.1497618456852579</v>
+        <v>-1.1590291860233548</v>
       </c>
       <c r="BP3">
-        <v>-0.89101536545713311</v>
+        <v>-1.1822343275806608</v>
       </c>
       <c r="BQ3">
-        <v>-1.029139844690967</v>
+        <v>-1.3207831922398654</v>
       </c>
       <c r="BR3">
-        <v>-1.1897890946097318</v>
+        <v>-1.0638253188553362</v>
       </c>
       <c r="BS3">
-        <v>-1.0565478610681602</v>
+        <v>-1.0981980268531817</v>
       </c>
       <c r="BT3">
-        <v>-0.70095031426405929</v>
+        <v>-0.77077414577628889</v>
       </c>
       <c r="BU3">
-        <v>-0.68222005674853825</v>
+        <v>-0.65793170169391979</v>
       </c>
       <c r="BV3">
-        <v>-0.64742091099283128</v>
+        <v>-0.74265533742495615</v>
       </c>
       <c r="BW3">
-        <v>-0.5841021736212898</v>
+        <v>-0.76719128423692617</v>
       </c>
       <c r="BX3">
-        <v>-0.67457400380722388</v>
+        <v>-0.73477411896561418</v>
       </c>
       <c r="BY3">
-        <v>-0.59544101901576896</v>
+        <v>-0.83167690099927549</v>
       </c>
       <c r="BZ3">
-        <v>-0.53913389929768296</v>
+        <v>-0.66522782364940658</v>
       </c>
       <c r="CA3">
-        <v>-0.62987444402963899</v>
+        <v>-0.73976325928426157</v>
       </c>
       <c r="CB3">
-        <v>-0.69481938603180893</v>
+        <v>-0.69870323915756083</v>
       </c>
       <c r="CC3">
-        <v>-0.7743842575409603</v>
+        <v>-0.7256206490516417</v>
       </c>
       <c r="CD3">
-        <v>-0.46149039260018498</v>
+        <v>-0.42000798939722589</v>
       </c>
       <c r="CE3">
-        <v>-0.081008925562016165</v>
+        <v>-0.30819901501012636</v>
       </c>
       <c r="CF3">
-        <v>-0.19595721406675121</v>
+        <v>-0.24074471170438794</v>
       </c>
       <c r="CG3">
-        <v>-0.11294427683384059</v>
+        <v>-0.30450679452826102</v>
       </c>
       <c r="CH3">
-        <v>-0.17776588789446954</v>
+        <v>-0.29260483470853133</v>
       </c>
       <c r="CI3">
-        <v>-0.11797653281797779</v>
+        <v>-0.1567009551059767</v>
       </c>
       <c r="CJ3">
-        <v>-0.18285607113204069</v>
+        <v>-0.21815929839651732</v>
       </c>
       <c r="CK3">
-        <v>-0.2600546447898755</v>
+        <v>-0.16016599088980116</v>
       </c>
       <c r="CL3">
-        <v>-0.14452601194123693</v>
+        <v>-0.26184389028594562</v>
       </c>
       <c r="CM3">
-        <v>-0.33387230221401665</v>
+        <v>-0.30258903113345453</v>
       </c>
       <c r="CN3">
-        <v>-0.38359894023336893</v>
+        <v>-0.39547236860472329</v>
       </c>
       <c r="CO3">
-        <v>-0.26307715526784564</v>
+        <v>-0.21934071201837588</v>
       </c>
       <c r="CP3">
-        <v>-0.20783064572509788</v>
+        <v>-0.31576776848983984</v>
       </c>
       <c r="CQ3">
-        <v>-0.23604257747409482</v>
+        <v>-0.26526775648717493</v>
       </c>
       <c r="CR3">
-        <v>-0.060700445035804872</v>
+        <v>-0.3764883611164519</v>
       </c>
       <c r="CS3">
-        <v>-0.22373810532800745</v>
+        <v>-0.17635434230607305</v>
       </c>
       <c r="CT3">
-        <v>-0.15662586048591343</v>
+        <v>-0.24072938540206773</v>
       </c>
       <c r="CU3">
-        <v>-0.020085116238026928</v>
+        <v>-0.20818969917409938</v>
       </c>
       <c r="CV3">
-        <v>-0.087971211472976846</v>
+        <v>-0.24324649019802638</v>
       </c>
       <c r="CW3">
-        <v>-0.19949268083157867</v>
+        <v>-0.19634631893259183</v>
       </c>
       <c r="CX3">
-        <v>-0.12160002589474851</v>
+        <v>-0.22758959431078535</v>
       </c>
       <c r="CY3">
-        <v>0.062415664989026058</v>
+        <v>-0.12453453082051837</v>
       </c>
       <c r="CZ3">
-        <v>0.04557696942451072</v>
+        <v>-0.23761763019929585</v>
       </c>
       <c r="DA3">
-        <v>0.067513956430994684</v>
+        <v>-0.029509654404781815</v>
       </c>
       <c r="DB3">
-        <v>-0.027499625892097652</v>
+        <v>-0.01127216325406866</v>
       </c>
       <c r="DC3">
-        <v>0.014421281490531483</v>
+        <v>0.04027014954954445</v>
       </c>
       <c r="DD3">
-        <v>0.048867170263233076</v>
+        <v>-0.036891455658297795</v>
       </c>
       <c r="DE3">
-        <v>0.035367433699454331</v>
+        <v>-0.018658256009617413</v>
       </c>
       <c r="DF3">
-        <v>-0.046862790262746902</v>
+        <v>-0.063189407601140779</v>
       </c>
       <c r="DG3">
-        <v>0.0069275644182129857</v>
+        <v>-0.10666595496721966</v>
       </c>
       <c r="DH3">
-        <v>0.040589235738156731</v>
+        <v>-0.10251059583746247</v>
       </c>
       <c r="DI3">
-        <v>0.1010468239457072</v>
+        <v>-0.056682150271885667</v>
       </c>
       <c r="DJ3">
-        <v>0.089375633666364293</v>
+        <v>0.099282190390816816</v>
       </c>
       <c r="DK3">
-        <v>0.16224770182255494</v>
+        <v>0.011429853290751739</v>
       </c>
       <c r="DL3">
-        <v>0.044823832567648055</v>
+        <v>0.090086644635843441</v>
       </c>
       <c r="DM3">
-        <v>0.12499021787416358</v>
+        <v>-0.098986956790431513</v>
       </c>
       <c r="DN3">
-        <v>0.22851609901972958</v>
+        <v>0.039035682389386962</v>
       </c>
       <c r="DO3">
-        <v>0.13373295969236948</v>
+        <v>0.062138036960030035</v>
       </c>
       <c r="DP3">
-        <v>0.18699404194607458</v>
+        <v>-0.035793769748687899</v>
       </c>
       <c r="DQ3">
-        <v>0.036324139263710968</v>
+        <v>0.055320116545115511</v>
       </c>
       <c r="DR3">
-        <v>0.065591116739151675</v>
+        <v>0.051997820133832251</v>
       </c>
       <c r="DS3">
-        <v>0.044022588449644219</v>
+        <v>-0.044207289696023722</v>
       </c>
       <c r="DT3">
-        <v>0.11439095614540083</v>
+        <v>-0.019397911436613118</v>
       </c>
       <c r="DU3">
-        <v>0.19963507374223236</v>
+        <v>0.10904565594293693</v>
       </c>
       <c r="DV3">
-        <v>0.14288180159425437</v>
+        <v>0.033669009913487639</v>
       </c>
       <c r="DW3">
-        <v>0.021163800681486565</v>
+        <v>0.069073049645216517</v>
       </c>
       <c r="DX3">
-        <v>0.077185650493015193</v>
+        <v>0.061845390281572203</v>
       </c>
       <c r="DY3">
-        <v>0.010798412612387417</v>
+        <v>0.054450950598120731</v>
       </c>
       <c r="DZ3">
-        <v>0.16242659988567718</v>
+        <v>0.022737783169478325</v>
       </c>
       <c r="EA3">
-        <v>0.076318962702823887</v>
+        <v>0.12758953880979262</v>
       </c>
       <c r="EB3">
-        <v>0.22424592899074894</v>
+        <v>0.03151886553531983</v>
       </c>
       <c r="EC3">
-        <v>0.28321577746502907</v>
+        <v>-0.19705224126023696</v>
       </c>
       <c r="ED3">
-        <v>0.067964130544593312</v>
+        <v>-0.086627329958174987</v>
       </c>
       <c r="EE3">
-        <v>0.11489037045235931</v>
+        <v>0.034605008392006982</v>
       </c>
       <c r="EF3">
-        <v>0.035630627297155076</v>
+        <v>0.038815335404216465</v>
       </c>
       <c r="EG3">
-        <v>0.21138680512053301</v>
+        <v>-0.051638634305412323</v>
       </c>
       <c r="EH3">
-        <v>0.17258228767350761</v>
+        <v>0.02615764816098266</v>
       </c>
       <c r="EI3">
-        <v>0.16070032478364901</v>
+        <v>0.042832952776856031</v>
       </c>
       <c r="EJ3">
-        <v>0.043389439691586623</v>
+        <v>0.051210658481136408</v>
       </c>
       <c r="EK3">
-        <v>0.22451093426940499</v>
+        <v>-0.11002063334401528</v>
       </c>
       <c r="EL3">
-        <v>0.051787607645354033</v>
+        <v>-0.022448757735691875</v>
       </c>
       <c r="EM3">
-        <v>0.069396622291524254</v>
+        <v>0.042276921974867383</v>
       </c>
       <c r="EN3">
-        <v>-0.057861386220428336</v>
+        <v>-0.10303606629176713</v>
       </c>
       <c r="EO3">
-        <v>-0.018720065939740974</v>
+        <v>-0.05165034332874776</v>
       </c>
       <c r="EP3">
-        <v>0.066602333814774484</v>
+        <v>-0.090631572673576175</v>
       </c>
       <c r="EQ3">
-        <v>0.13748765042599945</v>
+        <v>0.078602149387306197</v>
       </c>
       <c r="ER3">
-        <v>0.070080972535282629</v>
+        <v>0.014745471269968065</v>
       </c>
       <c r="ES3">
-        <v>0.045778792785241551</v>
+        <v>0.027663067886491449</v>
       </c>
       <c r="ET3">
-        <v>0.17502705918158667</v>
+        <v>0.11977553367185451</v>
       </c>
       <c r="EU3">
-        <v>0.10964518613693278</v>
+        <v>-0.0083134793720293643</v>
       </c>
       <c r="EV3">
-        <v>0.11372721104808296</v>
+        <v>0.057815695531470618</v>
       </c>
       <c r="EW3">
-        <v>0.028178592451235548</v>
+        <v>-0.042019243068246115</v>
       </c>
       <c r="EX3">
-        <v>-0.023872194561613175</v>
+        <v>0.074590791170927428</v>
       </c>
       <c r="EY3">
-        <v>0.069478781713098972</v>
+        <v>0.026447225335660629</v>
       </c>
       <c r="EZ3">
-        <v>0.044356047688927036</v>
+        <v>0.030623273505057707</v>
       </c>
       <c r="FA3">
-        <v>0.15963088957129545</v>
+        <v>-0.03978709363768558</v>
       </c>
       <c r="FB3">
-        <v>0.081514502315614912</v>
+        <v>0.1081686738370998</v>
       </c>
       <c r="FC3">
-        <v>0.19819810962155193</v>
+        <v>-0.10671422609831423</v>
       </c>
       <c r="FD3">
-        <v>0.099440633890166219</v>
+        <v>-0.11355017695638325</v>
       </c>
       <c r="FE3">
-        <v>0.16311957316139378</v>
+        <v>0.027818619745167757</v>
       </c>
       <c r="FF3">
-        <v>0.17629513327978735</v>
+        <v>0.013442865249314461</v>
       </c>
       <c r="FG3">
-        <v>0.18065911199376836</v>
+        <v>-0.1016189864310556</v>
       </c>
       <c r="FH3">
-        <v>0.017248526820683983</v>
+        <v>0.089130343587225033</v>
       </c>
       <c r="FI3">
-        <v>0.1202549572779565</v>
+        <v>-0.017368724327218837</v>
       </c>
       <c r="FJ3">
-        <v>0.060972245543227353</v>
+        <v>-0.094791493345685471</v>
       </c>
       <c r="FK3">
-        <v>-0.002825569598500791</v>
+        <v>-0.07531533969665799</v>
       </c>
       <c r="FL3">
-        <v>0.10800009103102502</v>
+        <v>-0.050885417371573129</v>
       </c>
       <c r="FM3">
-        <v>0.1169045561866526</v>
+        <v>-0.041921784572809893</v>
       </c>
       <c r="FN3">
-        <v>0.051197624470338841</v>
+        <v>-0.079558391549023277</v>
       </c>
       <c r="FO3">
-        <v>0.085566391542290149</v>
+        <v>0.0056192725707118465</v>
       </c>
       <c r="FP3">
-        <v>0.032870820312689682</v>
+        <v>-0.010036041246966465</v>
       </c>
       <c r="FQ3">
-        <v>0.14698244814113232</v>
+        <v>-0.094549863457960473</v>
       </c>
       <c r="FR3">
-        <v>0.12231148018688305</v>
+        <v>-0.080019531604926919</v>
       </c>
       <c r="FS3">
-        <v>0.21527399441533843</v>
+        <v>-0.087097196436756036</v>
       </c>
       <c r="FT3">
-        <v>0.091095046586634795</v>
+        <v>-0.020069399771254184</v>
       </c>
       <c r="FU3">
-        <v>0.010231962062451716</v>
+        <v>0.043462317645626129</v>
       </c>
       <c r="FV3">
-        <v>0.0027952807934091442</v>
+        <v>0.047710182251819756</v>
       </c>
       <c r="FW3">
-        <v>0.023114585179860214</v>
+        <v>-0.038723054481696065</v>
       </c>
       <c r="FX3">
-        <v>0.075217190550657398</v>
+        <v>-0.07791100625171446</v>
       </c>
       <c r="FY3">
-        <v>0.12529796209373847</v>
+        <v>0.025345634275446689</v>
       </c>
       <c r="FZ3">
-        <v>0.029426572150961988</v>
+        <v>-0.037481222334374419</v>
       </c>
       <c r="GA3">
-        <v>0.081814329956956144</v>
+        <v>-0.022961283259971668</v>
       </c>
       <c r="GB3">
-        <v>0.020417806664760993</v>
+        <v>-0.029590050108974444</v>
       </c>
       <c r="GC3">
-        <v>0.0013804046766098471</v>
+        <v>0.04633120743669672</v>
       </c>
       <c r="GD3">
-        <v>0.10887829725344818</v>
+        <v>-0.24759112935814379</v>
       </c>
       <c r="GE3">
-        <v>0.026247104935493152</v>
+        <v>-0.10151736597413288</v>
       </c>
       <c r="GF3">
-        <v>0.11150715194340807</v>
+        <v>-0.014533714816716366</v>
       </c>
       <c r="GG3">
-        <v>0.045348325386741974</v>
+        <v>-0.032074667780264257</v>
       </c>
       <c r="GH3">
-        <v>-0.12123053456381343</v>
+        <v>-0.033596806446710051</v>
       </c>
       <c r="GI3">
-        <v>0.10688455491239025</v>
+        <v>-0.10349243185793795</v>
       </c>
       <c r="GJ3">
-        <v>0.0048014504051291165</v>
+        <v>-0.13582307943906258</v>
       </c>
       <c r="GK3">
-        <v>-0.090542856890078446</v>
+        <v>-0.10218711204007712</v>
       </c>
       <c r="GL3">
-        <v>-3.899830444640821e-05</v>
+        <v>-0.063563430643582483</v>
       </c>
       <c r="GM3">
-        <v>-0.077062579904279491</v>
+        <v>-0.1066271918467515</v>
       </c>
       <c r="GN3">
-        <v>0.012949988687612244</v>
+        <v>0.031570659659274428</v>
       </c>
       <c r="GO3">
-        <v>0.10185708703790702</v>
+        <v>-0.14795377826243322</v>
       </c>
       <c r="GP3">
-        <v>0.020704708046130831</v>
+        <v>-0.037002611674584372</v>
       </c>
       <c r="GQ3">
-        <v>0.15229029457969495</v>
+        <v>-0.03308380636209745</v>
       </c>
       <c r="GR3">
-        <v>0.14605697567366754</v>
+        <v>-0.012309013848846233</v>
       </c>
       <c r="GS3">
-        <v>0.067884908495414106</v>
+        <v>-0.030809674168186894</v>
       </c>
       <c r="GT3">
-        <v>0.15420609467423327</v>
+        <v>-0.079457803080051709</v>
       </c>
       <c r="GU3">
-        <v>0.20485674627455042</v>
+        <v>-0.023110488153031142</v>
       </c>
       <c r="GV3">
-        <v>0.015512790218603561</v>
+        <v>-0.20635382506305933</v>
       </c>
       <c r="GW3">
-        <v>0.019227412319063889</v>
+        <v>-0.010151232712498891</v>
       </c>
       <c r="GX3">
-        <v>0.082258793471947603</v>
+        <v>-0.00048033335881882009</v>
       </c>
       <c r="GY3">
-        <v>0.014633971890653621</v>
+        <v>-0.10951245223063</v>
       </c>
       <c r="GZ3">
-        <v>0.095684356068482052</v>
+        <v>-0.015544700547216881</v>
       </c>
       <c r="HA3">
-        <v>0.099709674271810989</v>
+        <v>-0.052683017003757465</v>
       </c>
       <c r="HB3">
-        <v>0.074705795253225765</v>
+        <v>-0.025109203830883241</v>
       </c>
       <c r="HC3">
-        <v>0.084524133192036402</v>
+        <v>-0.038877897997629196</v>
       </c>
       <c r="HD3">
-        <v>0.088504688544032234</v>
+        <v>-0.017231833200416196</v>
       </c>
       <c r="HE3">
-        <v>0.14389997696880383</v>
+        <v>-0.061241784856016938</v>
       </c>
       <c r="HF3">
-        <v>0.10837686937123148</v>
+        <v>-0.0035667913585181866</v>
       </c>
       <c r="HG3">
-        <v>0.083066982986790813</v>
+        <v>-0.017145692212484642</v>
       </c>
       <c r="HH3">
-        <v>0.15059412911261821</v>
+        <v>-0.0013595610515132379</v>
       </c>
       <c r="HI3">
-        <v>0.073239923442162555</v>
+        <v>-0.11530765467614995</v>
       </c>
       <c r="HJ3">
-        <v>0.16991876779497175</v>
+        <v>-0.10511518587770828</v>
       </c>
       <c r="HK3">
-        <v>-0.068883692125811274</v>
+        <v>-0.031894383958007526</v>
       </c>
       <c r="HL3">
-        <v>0.066540175961398371</v>
+        <v>-0.065299150471212</v>
       </c>
       <c r="HM3">
         <v>0</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="HO3">
-        <v>-5.6128490048096999</v>
+        <v>-5.5069258697098862</v>
       </c>
     </row>
     <row r="4">
@@ -2794,661 +2794,661 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.07099779484748138</v>
+        <v>0.068446917381840944</v>
       </c>
       <c r="C4">
-        <v>0.051134397716099053</v>
+        <v>0.050589606345832587</v>
       </c>
       <c r="D4">
-        <v>0.061727476085624532</v>
+        <v>0.063440529624355299</v>
       </c>
       <c r="E4">
-        <v>0.079455130552617811</v>
+        <v>0.075427809218709216</v>
       </c>
       <c r="F4">
-        <v>0.048488138298797154</v>
+        <v>0.046990535897416121</v>
       </c>
       <c r="G4">
-        <v>0.038748835582053408</v>
+        <v>0.03924240062469557</v>
       </c>
       <c r="H4">
-        <v>0.030810766159539434</v>
+        <v>0.030590870265208348</v>
       </c>
       <c r="I4">
-        <v>0.034385665215633757</v>
+        <v>0.034375374605709545</v>
       </c>
       <c r="J4">
-        <v>0.034747537502286964</v>
+        <v>0.034284554627742651</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.11716624496491505</v>
+        <v>0.10667500327191713</v>
       </c>
       <c r="M4">
-        <v>0.11329197609885258</v>
+        <v>0.11572753157766608</v>
       </c>
       <c r="N4">
-        <v>0.11250358538571838</v>
+        <v>0.10634626611471233</v>
       </c>
       <c r="O4">
-        <v>0.10823411532180054</v>
+        <v>0.10910896564562886</v>
       </c>
       <c r="P4">
-        <v>0.11369541300341895</v>
+        <v>0.11391310246823359</v>
       </c>
       <c r="Q4">
-        <v>0.10518174934862777</v>
+        <v>0.10110673498938595</v>
       </c>
       <c r="R4">
-        <v>0.11211833747061928</v>
+        <v>0.10416434494872392</v>
       </c>
       <c r="S4">
-        <v>0.11289475007949701</v>
+        <v>0.11480538550600991</v>
       </c>
       <c r="T4">
-        <v>0.1088956882431852</v>
+        <v>0.11100445636744111</v>
       </c>
       <c r="U4">
-        <v>0.10546924864967429</v>
+        <v>0.11180341881239944</v>
       </c>
       <c r="V4">
-        <v>0.11099671778891844</v>
+        <v>0.1057020165692836</v>
       </c>
       <c r="W4">
-        <v>0.1005683030005526</v>
+        <v>0.10507478828049834</v>
       </c>
       <c r="X4">
-        <v>0.10224538913225395</v>
+        <v>0.10602196849277244</v>
       </c>
       <c r="Y4">
-        <v>0.10856260244307187</v>
+        <v>0.10602196849599935</v>
       </c>
       <c r="Z4">
-        <v>0.10696421690196789</v>
+        <v>0.11140088511751839</v>
       </c>
       <c r="AA4">
-        <v>0.10696421690529817</v>
+        <v>0.1027226976395732</v>
       </c>
       <c r="AB4">
-        <v>0.10353100911646161</v>
+        <v>0.11347768513258907</v>
       </c>
       <c r="AC4">
-        <v>0.10605550596823002</v>
+        <v>0.10300380002069899</v>
       </c>
       <c r="AD4">
-        <v>0.10696421691574394</v>
+        <v>0.098655723864678593</v>
       </c>
       <c r="AE4">
-        <v>0.099019033554125419</v>
+        <v>0.10357670110333171</v>
       </c>
       <c r="AF4">
-        <v>0.099449534311544213</v>
+        <v>0.10874627576149794</v>
       </c>
       <c r="AG4">
-        <v>0.10489790331479779</v>
+        <v>0.1073461854561088</v>
       </c>
       <c r="AH4">
-        <v>0.10275037357135641</v>
+        <v>0.096672756670974233</v>
       </c>
       <c r="AI4">
-        <v>0.10150994763871232</v>
+        <v>0.10328844430077048</v>
       </c>
       <c r="AJ4">
-        <v>0.10605550599568446</v>
+        <v>0.10300380004873216</v>
       </c>
       <c r="AK4">
-        <v>0.10379763490896976</v>
+        <v>0.10244506839593556</v>
       </c>
       <c r="AL4">
-        <v>0.104340883716925</v>
+        <v>0.10768883247691102</v>
       </c>
       <c r="AM4">
-        <v>0.10434088372098409</v>
+        <v>0.10034138557341102</v>
       </c>
       <c r="AN4">
-        <v>0.10576047546417411</v>
+        <v>0.10507478834077845</v>
       </c>
       <c r="AO4">
-        <v>0.104067571499252</v>
+        <v>0.10538631938603858</v>
       </c>
       <c r="AP4">
-        <v>0.1079101280301861</v>
+        <v>0.10507478834797819</v>
       </c>
       <c r="AQ4">
-        <v>0.10823411541518027</v>
+        <v>0.096672756717310807</v>
       </c>
       <c r="AR4">
-        <v>0.10127046426713669</v>
+        <v>0.10476733757588504</v>
       </c>
       <c r="AS4">
-        <v>0.10727527077251102</v>
+        <v>0.099602407291416367</v>
       </c>
       <c r="AT4">
-        <v>0.10127046427648631</v>
+        <v>0.10416434505069037</v>
       </c>
       <c r="AU4">
-        <v>0.10957606744770607</v>
+        <v>0.096883701160460828</v>
       </c>
       <c r="AV4">
-        <v>0.10224538923647813</v>
+        <v>0.10700827664854798</v>
       </c>
       <c r="AW4">
-        <v>0.1066572948630428</v>
+        <v>0.10136796902666187</v>
       </c>
       <c r="AX4">
-        <v>0.10033951996004083</v>
+        <v>0.1076888325190254</v>
       </c>
       <c r="AY4">
-        <v>0.10605550605303744</v>
+        <v>0.10700827665873948</v>
       </c>
       <c r="AZ4">
-        <v>0.10823411544751617</v>
+        <v>0.099602407324321324</v>
       </c>
       <c r="BA4">
-        <v>0.10353100922176105</v>
+        <v>0.10507478839084475</v>
       </c>
       <c r="BB4">
-        <v>0.10127046431391969</v>
+        <v>0.10084859784755335</v>
       </c>
       <c r="BC4">
-        <v>0.10434088378677384</v>
+        <v>0.10667500341553791</v>
       </c>
       <c r="BD4">
-        <v>0.09966834543979626</v>
+        <v>0.10570201669160713</v>
       </c>
       <c r="BE4">
-        <v>0.1046176382737851</v>
+        <v>0.10300380013480132</v>
       </c>
       <c r="BF4">
-        <v>0.10759054430843304</v>
+        <v>0.11022933774718668</v>
       </c>
       <c r="BG4">
-        <v>0.1012704643385285</v>
+        <v>0.11262740703544932</v>
       </c>
       <c r="BH4">
-        <v>0.11211833759935887</v>
+        <v>0.10272269777315104</v>
       </c>
       <c r="BI4">
-        <v>0.10791012809974278</v>
+        <v>0.1087462758572547</v>
       </c>
       <c r="BJ4">
-        <v>0.10604116575184037</v>
+        <v>0.098744726093925844</v>
       </c>
       <c r="BK4">
-        <v>0.10521989761793625</v>
+        <v>0.10360182225128531</v>
       </c>
       <c r="BL4">
-        <v>0.10870570417924745</v>
+        <v>0.10811639834590302</v>
       </c>
       <c r="BM4">
-        <v>0.11101526877489303</v>
+        <v>0.10530290138776811</v>
       </c>
       <c r="BN4">
-        <v>0.10604154574984002</v>
+        <v>0.10651211233789064</v>
       </c>
       <c r="BO4">
-        <v>0.10990595127773382</v>
+        <v>0.10596505872617132</v>
       </c>
       <c r="BP4">
-        <v>0.10084362431006129</v>
+        <v>0.10687496262655241</v>
       </c>
       <c r="BQ4">
-        <v>0.10553973641203641</v>
+        <v>0.11241894474481345</v>
       </c>
       <c r="BR4">
-        <v>0.11287674953206635</v>
+        <v>0.10229395475439948</v>
       </c>
       <c r="BS4">
-        <v>0.10790509054766344</v>
+        <v>0.10350780640037972</v>
       </c>
       <c r="BT4">
-        <v>0.090273434351123144</v>
+        <v>0.086901409159430218</v>
       </c>
       <c r="BU4">
-        <v>0.083610219056732688</v>
+        <v>0.07931265547502421</v>
       </c>
       <c r="BV4">
-        <v>0.083092057259731969</v>
+        <v>0.08067900538394436</v>
       </c>
       <c r="BW4">
-        <v>0.080090262909106771</v>
+        <v>0.079501464041851391</v>
       </c>
       <c r="BX4">
-        <v>0.081586323876640818</v>
+        <v>0.078994839541487047</v>
       </c>
       <c r="BY4">
-        <v>0.080344736221692359</v>
+        <v>0.080719368620955301</v>
       </c>
       <c r="BZ4">
-        <v>0.078563892442673561</v>
+        <v>0.07686819087562892</v>
       </c>
       <c r="CA4">
-        <v>0.080099840539172837</v>
+        <v>0.078198195799097994</v>
       </c>
       <c r="CB4">
-        <v>0.081281846636221386</v>
+        <v>0.077524829451049743</v>
       </c>
       <c r="CC4">
-        <v>0.082803748087495813</v>
+        <v>0.078039865744314846</v>
       </c>
       <c r="CD4">
-        <v>0.084024008103183348</v>
+        <v>0.079675638313306638</v>
       </c>
       <c r="CE4">
-        <v>0.083319681079103744</v>
+        <v>0.083284217635273758</v>
       </c>
       <c r="CF4">
-        <v>0.085213719755376116</v>
+        <v>0.082202316298126632</v>
       </c>
       <c r="CG4">
-        <v>0.083921957363702199</v>
+        <v>0.083335452900694426</v>
       </c>
       <c r="CH4">
-        <v>0.085025689825163536</v>
+        <v>0.083186938761681109</v>
       </c>
       <c r="CI4">
-        <v>0.083577813130822312</v>
+        <v>0.081151027856622204</v>
       </c>
       <c r="CJ4">
-        <v>0.08482927953636811</v>
+        <v>0.082093946942996029</v>
       </c>
       <c r="CK4">
-        <v>0.086185619738157693</v>
+        <v>0.081239395118616789</v>
       </c>
       <c r="CL4">
-        <v>0.085922158244504346</v>
+        <v>0.083623269655909119</v>
       </c>
       <c r="CM4">
-        <v>0.089198870388422891</v>
+        <v>0.084357541522513554</v>
       </c>
       <c r="CN4">
-        <v>0.08653977775720624</v>
+        <v>0.082796914052833778</v>
       </c>
       <c r="CO4">
-        <v>0.078351676213096827</v>
+        <v>0.074140122917730589</v>
       </c>
       <c r="CP4">
-        <v>0.077749599657682855</v>
+        <v>0.075308766197192567</v>
       </c>
       <c r="CQ4">
-        <v>0.075988605518059874</v>
+        <v>0.073024039608595742</v>
       </c>
       <c r="CR4">
-        <v>0.074033261597627201</v>
+        <v>0.074475688582248234</v>
       </c>
       <c r="CS4">
-        <v>0.075942956388940955</v>
+        <v>0.0720850020437169</v>
       </c>
       <c r="CT4">
-        <v>0.074053039044772284</v>
+        <v>0.071583380163120505</v>
       </c>
       <c r="CU4">
-        <v>0.072522825809630653</v>
+        <v>0.071231109698658993</v>
       </c>
       <c r="CV4">
-        <v>0.073339915398958774</v>
+        <v>0.071720296986342524</v>
       </c>
       <c r="CW4">
-        <v>0.074752706658921489</v>
+        <v>0.071188338699009729</v>
       </c>
       <c r="CX4">
-        <v>0.073835072524467318</v>
+        <v>0.071628719012376982</v>
       </c>
       <c r="CY4">
-        <v>0.073566950067042461</v>
+        <v>0.072331479545328717</v>
       </c>
       <c r="CZ4">
-        <v>0.073819342089765927</v>
+        <v>0.073942235279460783</v>
       </c>
       <c r="DA4">
-        <v>0.073608339523396918</v>
+        <v>0.071224032218480601</v>
       </c>
       <c r="DB4">
-        <v>0.074836071674864557</v>
+        <v>0.07105572180751743</v>
       </c>
       <c r="DC4">
-        <v>0.074355039218920768</v>
+        <v>0.070498559898432858</v>
       </c>
       <c r="DD4">
-        <v>0.073868464016565896</v>
+        <v>0.071239760750931913</v>
       </c>
       <c r="DE4">
-        <v>0.074083241396437322</v>
+        <v>0.07107379548159945</v>
       </c>
       <c r="DF4">
-        <v>0.075170137985853314</v>
+        <v>0.071673665765841485</v>
       </c>
       <c r="DG4">
-        <v>0.074534804647490141</v>
+        <v>0.072282078194158744</v>
       </c>
       <c r="DH4">
-        <v>0.074171151771190089</v>
+        <v>0.072282078338985895</v>
       </c>
       <c r="DI4">
-        <v>0.072503723298268888</v>
+        <v>0.07088989632334991</v>
       </c>
       <c r="DJ4">
-        <v>0.07271553592660869</v>
+        <v>0.068824130138056383</v>
       </c>
       <c r="DK4">
-        <v>0.071807264537843613</v>
+        <v>0.070047835107174605</v>
       </c>
       <c r="DL4">
-        <v>0.073447925905045452</v>
+        <v>0.069052966644935584</v>
       </c>
       <c r="DM4">
-        <v>0.072400045850025171</v>
+        <v>0.071764267243967839</v>
       </c>
       <c r="DN4">
-        <v>0.071130280264162835</v>
+        <v>0.069837941460458811</v>
       </c>
       <c r="DO4">
-        <v>0.072400046185382025</v>
+        <v>0.069583540461173585</v>
       </c>
       <c r="DP4">
-        <v>0.071760018235862949</v>
+        <v>0.071009245201774096</v>
       </c>
       <c r="DQ4">
-        <v>0.073872777565846329</v>
+        <v>0.06978636585557825</v>
       </c>
       <c r="DR4">
-        <v>0.073507243275684947</v>
+        <v>0.069889873477802178</v>
       </c>
       <c r="DS4">
-        <v>0.073872777834994768</v>
+        <v>0.0713155092088128</v>
       </c>
       <c r="DT4">
-        <v>0.072933510045756489</v>
+        <v>0.071009245821483519</v>
       </c>
       <c r="DU4">
-        <v>0.071854831942389272</v>
+        <v>0.06928935845453503</v>
       </c>
       <c r="DV4">
-        <v>0.072662017602389523</v>
+        <v>0.07037387333530648</v>
       </c>
       <c r="DW4">
-        <v>0.074454062340547036</v>
+        <v>0.069942164628651868</v>
       </c>
       <c r="DX4">
-        <v>0.073687914675315658</v>
+        <v>0.070101227293668161</v>
       </c>
       <c r="DY4">
-        <v>0.074726111952847132</v>
+        <v>0.070263659713848375</v>
       </c>
       <c r="DZ4">
-        <v>0.072608878815764735</v>
+        <v>0.07077229547266535</v>
       </c>
       <c r="EA4">
-        <v>0.073872779010387676</v>
+        <v>0.069386116135660342</v>
       </c>
       <c r="EB4">
-        <v>0.071902720725695743</v>
+        <v>0.070772295838136295</v>
       </c>
       <c r="EC4">
-        <v>0.071216773172465414</v>
+        <v>0.074433188154482841</v>
       </c>
       <c r="ED4">
-        <v>0.074190613974720473</v>
+        <v>0.072665980256392496</v>
       </c>
       <c r="EE4">
-        <v>0.073567011817228023</v>
+        <v>0.070889899871359158</v>
       </c>
       <c r="EF4">
-        <v>0.074795519260176593</v>
+        <v>0.070889900051148175</v>
       </c>
       <c r="EG4">
-        <v>0.072348753536841712</v>
+        <v>0.072308018932734822</v>
       </c>
       <c r="EH4">
-        <v>0.072933512417885857</v>
+        <v>0.071191627292920584</v>
       </c>
       <c r="EI4">
-        <v>0.073157921019377709</v>
+        <v>0.07100924836753833</v>
       </c>
       <c r="EJ4">
-        <v>0.074936054153374301</v>
+        <v>0.070949354184826771</v>
       </c>
       <c r="EK4">
-        <v>0.072400050037079264</v>
+        <v>0.073507698244216851</v>
       </c>
       <c r="EL4">
-        <v>0.074936054468805371</v>
+        <v>0.072168832248396542</v>
       </c>
       <c r="EM4">
-        <v>0.074726114098683086</v>
+        <v>0.07125333701529063</v>
       </c>
       <c r="EN4">
-        <v>0.076824072357450701</v>
+        <v>0.073588189787652719</v>
       </c>
       <c r="EO4">
-        <v>0.076231651104616036</v>
+        <v>0.072813314962205958</v>
       </c>
       <c r="EP4">
-        <v>0.074936055038320876</v>
+        <v>0.073507698963294663</v>
       </c>
       <c r="EQ4">
-        <v>0.073935360420753077</v>
+        <v>0.070949355426554839</v>
       </c>
       <c r="ER4">
-        <v>0.075007197842103079</v>
+        <v>0.071964163632209491</v>
       </c>
       <c r="ES4">
-        <v>0.075446784122584612</v>
+        <v>0.071830382447852961</v>
       </c>
       <c r="ET4">
-        <v>0.073567014367469333</v>
+        <v>0.07054217213783967</v>
       </c>
       <c r="EU4">
-        <v>0.074588989285191559</v>
+        <v>0.072521049817173555</v>
       </c>
       <c r="EV4">
-        <v>0.074588989456346358</v>
+        <v>0.071568991993658224</v>
       </c>
       <c r="EW4">
-        <v>0.075988940227628948</v>
+        <v>0.073192553905848626</v>
       </c>
       <c r="EX4">
-        <v>0.076911841608948511</v>
+        <v>0.071441287267208012</v>
       </c>
       <c r="EY4">
-        <v>0.07544678505479728</v>
+        <v>0.072238149704718799</v>
       </c>
       <c r="EZ4">
-        <v>0.075909454762886006</v>
+        <v>0.072238149893090187</v>
       </c>
       <c r="FA4">
-        <v>0.074190617758361305</v>
+        <v>0.073427900424112971</v>
       </c>
       <c r="FB4">
-        <v>0.075446785545398451</v>
+        <v>0.071191631080864889</v>
       </c>
       <c r="FC4">
-        <v>0.0737490680795993</v>
+        <v>0.074701834755217869</v>
       </c>
       <c r="FD4">
-        <v>0.075297780295299516</v>
+        <v>0.074885087883170831</v>
       </c>
       <c r="FE4">
-        <v>0.074387415588368755</v>
+        <v>0.072593221939696043</v>
       </c>
       <c r="FF4">
-        <v>0.074255697477590615</v>
+        <v>0.072887903346034871</v>
       </c>
       <c r="FG4">
-        <v>0.074255697683029309</v>
+        <v>0.074885088347293183</v>
       </c>
       <c r="FH4">
-        <v>0.076911843145483619</v>
+        <v>0.071830385332088575</v>
       </c>
       <c r="FI4">
-        <v>0.075297781197324887</v>
+        <v>0.073588193247264649</v>
       </c>
       <c r="FJ4">
-        <v>0.076314008688377857</v>
+        <v>0.074977998181185626</v>
       </c>
       <c r="FK4">
-        <v>0.077456032478684947</v>
+        <v>0.074701836007876637</v>
       </c>
       <c r="FL4">
-        <v>0.075675122875760767</v>
+        <v>0.074345263013293042</v>
       </c>
       <c r="FM4">
-        <v>0.075598356347473611</v>
+        <v>0.07425812299815733</v>
       </c>
       <c r="FN4">
-        <v>0.076737114320868757</v>
+        <v>0.074977998800946868</v>
       </c>
       <c r="FO4">
-        <v>0.076231655172897261</v>
+        <v>0.073588194280998803</v>
       </c>
       <c r="FP4">
-        <v>0.077180099370971852</v>
+        <v>0.073917251689181895</v>
       </c>
       <c r="FQ4">
-        <v>0.075371969147941587</v>
+        <v>0.075455874212894555</v>
       </c>
       <c r="FR4">
-        <v>0.075830665336700021</v>
+        <v>0.075262007339403664</v>
       </c>
       <c r="FS4">
-        <v>0.07445407057908128</v>
+        <v>0.07545587452011536</v>
       </c>
       <c r="FT4">
-        <v>0.076480954516495878</v>
+        <v>0.074345264365536123</v>
       </c>
       <c r="FU4">
-        <v>0.0779339208963645</v>
+        <v>0.073348785366030539</v>
       </c>
       <c r="FV4">
-        <v>0.078131691167420095</v>
+        <v>0.073348785575367365</v>
       </c>
       <c r="FW4">
-        <v>0.077836481796020623</v>
+        <v>0.074885090985715219</v>
       </c>
       <c r="FX4">
-        <v>0.077000431051354096</v>
+        <v>0.075653489910792016</v>
       </c>
       <c r="FY4">
-        <v>0.076231656960176503</v>
+        <v>0.073917253349190012</v>
       </c>
       <c r="FZ4">
-        <v>0.077933921682603949</v>
+        <v>0.075071781760006062</v>
       </c>
       <c r="GA4">
-        <v>0.077089845928291226</v>
+        <v>0.074885091700572004</v>
       </c>
       <c r="GB4">
-        <v>0.078232052059294024</v>
+        <v>0.075071782118859343</v>
       </c>
       <c r="GC4">
-        <v>0.078643679811302963</v>
+        <v>0.073833906938586269</v>
       </c>
       <c r="GD4">
-        <v>0.076824078959544337</v>
+        <v>0.07943255430514401</v>
       </c>
       <c r="GE4">
-        <v>0.078333415724768304</v>
+        <v>0.076592239882091545</v>
       </c>
       <c r="GF4">
-        <v>0.076911847183033719</v>
+        <v>0.075071782819463292</v>
       </c>
       <c r="GG4">
-        <v>0.078131692940875977</v>
+        <v>0.075455876935727709</v>
       </c>
       <c r="GH4">
-        <v>0.081378886202217657</v>
+        <v>0.075554209051349366</v>
       </c>
       <c r="GI4">
-        <v>0.077180102614122351</v>
+        <v>0.076924471493105093</v>
       </c>
       <c r="GJ4">
-        <v>0.079072382816301731</v>
+        <v>0.077620733304643252</v>
       </c>
       <c r="GK4">
-        <v>0.080981591803369279</v>
+        <v>0.077037508744869185</v>
       </c>
       <c r="GL4">
-        <v>0.079293478527304548</v>
+        <v>0.076376310937004435</v>
       </c>
       <c r="GM4">
-        <v>0.080852158153900761</v>
+        <v>0.077267133103508717</v>
       </c>
       <c r="GN4">
-        <v>0.079182354153814513</v>
+        <v>0.074793044036073369</v>
       </c>
       <c r="GO4">
-        <v>0.077644426457093615</v>
+        <v>0.078235873232422412</v>
       </c>
       <c r="GP4">
-        <v>0.079182354486628678</v>
+        <v>0.076164669759267778</v>
       </c>
       <c r="GQ4">
-        <v>0.076911849180148081</v>
+        <v>0.076164669945272462</v>
       </c>
       <c r="GR4">
-        <v>0.077089848989303822</v>
+        <v>0.07585496726982556</v>
       </c>
       <c r="GS4">
-        <v>0.078539215984060676</v>
+        <v>0.076269963412728958</v>
       </c>
       <c r="GT4">
-        <v>0.077089849406459215</v>
+        <v>0.077267134303396073</v>
       </c>
       <c r="GU4">
-        <v>0.076314015575420391</v>
+        <v>0.076269963785721206</v>
       </c>
       <c r="GV4">
-        <v>0.079749896151345645</v>
+        <v>0.080005344865585526</v>
       </c>
       <c r="GW4">
-        <v>0.079749896314635707</v>
+        <v>0.076164671063477601</v>
       </c>
       <c r="GX4">
-        <v>0.078643683383597826</v>
+        <v>0.076060417942808628</v>
       </c>
       <c r="GY4">
-        <v>0.079985531431268436</v>
+        <v>0.07823587487233305</v>
       </c>
       <c r="GZ4">
-        <v>0.078539217306985723</v>
+        <v>0.076483734241852924</v>
       </c>
       <c r="HA4">
-        <v>0.078539217504712586</v>
+        <v>0.07726713555139067</v>
       </c>
       <c r="HB4">
-        <v>0.079072385945579318</v>
+        <v>0.076812596536881203</v>
       </c>
       <c r="HC4">
-        <v>0.078963551144315275</v>
+        <v>0.077151725952007338</v>
       </c>
       <c r="HD4">
-        <v>0.078963551338939938</v>
+        <v>0.076812596931431956</v>
       </c>
       <c r="HE4">
-        <v>0.078032325655921039</v>
+        <v>0.077741127785089403</v>
       </c>
       <c r="HF4">
-        <v>0.078749218109176247</v>
+        <v>0.076701859609913034</v>
       </c>
       <c r="HG4">
-        <v>0.079293482295855464</v>
+        <v>0.077037512728448443</v>
       </c>
       <c r="HH4">
-        <v>0.078131698033636163</v>
+        <v>0.076812597745552741</v>
       </c>
       <c r="HI4">
-        <v>0.079633968143861047</v>
+        <v>0.079155996810658005</v>
       </c>
       <c r="HJ4">
-        <v>0.077933928455586207</v>
+        <v>0.079020073734519636</v>
       </c>
       <c r="HK4">
-        <v>0.082658285268406281</v>
+        <v>0.077620738051332211</v>
       </c>
       <c r="HL4">
-        <v>0.079985533844904477</v>
+        <v>0.078362971712240673</v>
       </c>
       <c r="HM4">
         <v>0</v>
@@ -3457,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="HO4">
-        <v>0.057543565718946144</v>
+        <v>0.054554510001437316</v>
       </c>
     </row>
   </sheetData>
@@ -4813,661 +4813,661 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>0.3626638945151322</v>
+        <v>0.4085572849451522</v>
       </c>
       <c r="C3">
-        <v>-0.31635569119114904</v>
+        <v>-0.28777766650464115</v>
       </c>
       <c r="D3">
-        <v>-0.26188187704588761</v>
+        <v>-0.32778262408570713</v>
       </c>
       <c r="E3">
-        <v>-0.2985265248183947</v>
+        <v>-0.28647672996438195</v>
       </c>
       <c r="F3">
-        <v>0.29142802686229202</v>
+        <v>0.3035675837648214</v>
       </c>
       <c r="G3">
-        <v>0.32455511944676468</v>
+        <v>0.30237751191987911</v>
       </c>
       <c r="H3">
-        <v>0.26272932390091691</v>
+        <v>0.26234327039197081</v>
       </c>
       <c r="I3">
-        <v>0.16671509257444991</v>
+        <v>0.14576199520330188</v>
       </c>
       <c r="J3">
-        <v>0.18855271036630339</v>
+        <v>0.17756453422853746</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>-0.78149943154306933</v>
+        <v>-0.86847820546028109</v>
       </c>
       <c r="M3">
-        <v>-0.82758154746526447</v>
+        <v>-0.83906643745626919</v>
       </c>
       <c r="N3">
-        <v>-0.88806803599531048</v>
+        <v>-0.88273313749236804</v>
       </c>
       <c r="O3">
-        <v>-0.74495088647527163</v>
+        <v>-0.93615774271078656</v>
       </c>
       <c r="P3">
-        <v>-0.72941082058279139</v>
+        <v>-0.92704013219928538</v>
       </c>
       <c r="Q3">
-        <v>-0.70729113668549715</v>
+        <v>-0.84618842922527671</v>
       </c>
       <c r="R3">
-        <v>-0.72584766876847029</v>
+        <v>-0.79709720100532899</v>
       </c>
       <c r="S3">
-        <v>-0.7554136961565221</v>
+        <v>-0.95617594283341445</v>
       </c>
       <c r="T3">
-        <v>-0.70200493794391894</v>
+        <v>-0.87629895609112729</v>
       </c>
       <c r="U3">
-        <v>-0.59809751820903068</v>
+        <v>-0.7821525929812676</v>
       </c>
       <c r="V3">
-        <v>-0.72542186586663604</v>
+        <v>-0.84445505903390028</v>
       </c>
       <c r="W3">
-        <v>-0.68307019834818028</v>
+        <v>-0.86385502093194311</v>
       </c>
       <c r="X3">
-        <v>-0.6615335551851792</v>
+        <v>-0.75739962168192643</v>
       </c>
       <c r="Y3">
-        <v>-0.67273216954427595</v>
+        <v>-0.81157461713822188</v>
       </c>
       <c r="Z3">
-        <v>-0.71117821635213296</v>
+        <v>-0.73777654484348076</v>
       </c>
       <c r="AA3">
-        <v>-0.65274411075882444</v>
+        <v>-0.63384514611287024</v>
       </c>
       <c r="AB3">
-        <v>-0.52898773020084411</v>
+        <v>-0.76902909351411752</v>
       </c>
       <c r="AC3">
-        <v>-0.6950978720968285</v>
+        <v>-0.75092311109177445</v>
       </c>
       <c r="AD3">
-        <v>-0.60872819139128986</v>
+        <v>-0.74258945962731926</v>
       </c>
       <c r="AE3">
-        <v>-0.50314192347347497</v>
+        <v>-0.81704960964652951</v>
       </c>
       <c r="AF3">
-        <v>-0.57988912008838056</v>
+        <v>-0.70738154047905721</v>
       </c>
       <c r="AG3">
-        <v>-0.63095032454897992</v>
+        <v>-0.64232438780268852</v>
       </c>
       <c r="AH3">
-        <v>-0.59742640491065935</v>
+        <v>-0.62861375128503827</v>
       </c>
       <c r="AI3">
-        <v>-0.57388760216987078</v>
+        <v>-0.70417887019883085</v>
       </c>
       <c r="AJ3">
-        <v>-0.68441662071496345</v>
+        <v>-0.70216983375596531</v>
       </c>
       <c r="AK3">
-        <v>-0.58223085119526241</v>
+        <v>-0.61098318097452164</v>
       </c>
       <c r="AL3">
-        <v>-0.62748940298788114</v>
+        <v>-0.71995234448338385</v>
       </c>
       <c r="AM3">
-        <v>-0.57823813687477721</v>
+        <v>-0.59830384938877113</v>
       </c>
       <c r="AN3">
-        <v>-0.47102193470483267</v>
+        <v>-0.70625320137296854</v>
       </c>
       <c r="AO3">
-        <v>-0.54356974811831382</v>
+        <v>-0.71373654882407334</v>
       </c>
       <c r="AP3">
-        <v>-0.64857580177003382</v>
+        <v>-0.66517916676202515</v>
       </c>
       <c r="AQ3">
-        <v>-0.67021819881301747</v>
+        <v>-0.58436140473043863</v>
       </c>
       <c r="AR3">
-        <v>-0.54066018046190578</v>
+        <v>-0.5990649739480649</v>
       </c>
       <c r="AS3">
-        <v>-0.59082538382780081</v>
+        <v>-0.62870865656322528</v>
       </c>
       <c r="AT3">
-        <v>-0.54856889435039313</v>
+        <v>-0.69350641517980005</v>
       </c>
       <c r="AU3">
-        <v>-0.62204186977358489</v>
+        <v>-0.55074031680093072</v>
       </c>
       <c r="AV3">
-        <v>-0.58157529202943681</v>
+        <v>-0.76768211026317545</v>
       </c>
       <c r="AW3">
-        <v>-0.54549066654935252</v>
+        <v>-0.60566835365767446</v>
       </c>
       <c r="AX3">
-        <v>-0.61265360004960057</v>
+        <v>-0.66323471719356353</v>
       </c>
       <c r="AY3">
-        <v>-0.57858697795889269</v>
+        <v>-0.67979506104750109</v>
       </c>
       <c r="AZ3">
-        <v>-0.57338514788627215</v>
+        <v>-0.57351743151791257</v>
       </c>
       <c r="BA3">
-        <v>-0.53728341314949213</v>
+        <v>-0.67544685985007769</v>
       </c>
       <c r="BB3">
-        <v>-0.45057840696295409</v>
+        <v>-0.70202722437188581</v>
       </c>
       <c r="BC3">
-        <v>-0.59560067545449147</v>
+        <v>-0.66199557296567446</v>
       </c>
       <c r="BD3">
-        <v>-0.5585706574799516</v>
+        <v>-0.62027851903304021</v>
       </c>
       <c r="BE3">
-        <v>-0.53176141457711734</v>
+        <v>-0.67022814770729044</v>
       </c>
       <c r="BF3">
-        <v>-0.4646224054197664</v>
+        <v>-0.86203983966324516</v>
       </c>
       <c r="BG3">
-        <v>-0.53344045900739634</v>
+        <v>-0.80460225804420604</v>
       </c>
       <c r="BH3">
-        <v>-0.68713713645728502</v>
+        <v>-0.62450708767695073</v>
       </c>
       <c r="BI3">
-        <v>-0.61265914193557225</v>
+        <v>-0.72411141695360415</v>
       </c>
       <c r="BJ3">
-        <v>-0.43858221994327812</v>
+        <v>-0.40815730910695291</v>
       </c>
       <c r="BK3">
-        <v>-0.42681300618276286</v>
+        <v>-0.43712839779900065</v>
       </c>
       <c r="BL3">
-        <v>-0.4542388723616041</v>
+        <v>-0.50679726538921321</v>
       </c>
       <c r="BM3">
-        <v>-0.38782728017877099</v>
+        <v>-0.42980442479740266</v>
       </c>
       <c r="BN3">
-        <v>-0.38567855699964521</v>
+        <v>-0.48693316296395972</v>
       </c>
       <c r="BO3">
-        <v>-0.4718325610620987</v>
+        <v>-0.59800633366484302</v>
       </c>
       <c r="BP3">
-        <v>-0.31598119872317282</v>
+        <v>-0.5253927283726797</v>
       </c>
       <c r="BQ3">
-        <v>-0.32799866940570294</v>
+        <v>-0.5733096208522156</v>
       </c>
       <c r="BR3">
-        <v>-0.34187743512424434</v>
+        <v>-0.42571812408592502</v>
       </c>
       <c r="BS3">
-        <v>-0.43026901420129959</v>
+        <v>-0.56664641587783837</v>
       </c>
       <c r="BT3">
-        <v>-0.3117562601704707</v>
+        <v>-0.41283457294668557</v>
       </c>
       <c r="BU3">
-        <v>-0.2892738586432842</v>
+        <v>-0.31695992491011665</v>
       </c>
       <c r="BV3">
-        <v>-0.25464723105809117</v>
+        <v>-0.42186001580232629</v>
       </c>
       <c r="BW3">
-        <v>-0.28500551967437587</v>
+        <v>-0.48034055384622071</v>
       </c>
       <c r="BX3">
-        <v>-0.3684855736418769</v>
+        <v>-0.41257901624862342</v>
       </c>
       <c r="BY3">
-        <v>-0.24353640193892381</v>
+        <v>-0.46472237656873722</v>
       </c>
       <c r="BZ3">
-        <v>-0.19807687852228026</v>
+        <v>-0.38299017361374721</v>
       </c>
       <c r="CA3">
-        <v>-0.26917341596563699</v>
+        <v>-0.39929045177821593</v>
       </c>
       <c r="CB3">
-        <v>-0.28539708462340535</v>
+        <v>-0.35083612023442484</v>
       </c>
       <c r="CC3">
-        <v>-0.4412508258272449</v>
+        <v>-0.38602456075538683</v>
       </c>
       <c r="CD3">
-        <v>-0.23534247663328223</v>
+        <v>-0.25592647950305158</v>
       </c>
       <c r="CE3">
-        <v>-0.0070433212392378266</v>
+        <v>-0.23734365998781515</v>
       </c>
       <c r="CF3">
-        <v>-0.12788148581564451</v>
+        <v>-0.25485740967394255</v>
       </c>
       <c r="CG3">
-        <v>-0.060338888161974601</v>
+        <v>-0.22854584154174837</v>
       </c>
       <c r="CH3">
-        <v>-0.15826716341926841</v>
+        <v>-0.17411216257281187</v>
       </c>
       <c r="CI3">
-        <v>-0.059652848479661076</v>
+        <v>-0.068041552946231876</v>
       </c>
       <c r="CJ3">
-        <v>-0.12142384409264638</v>
+        <v>-0.16898515147676699</v>
       </c>
       <c r="CK3">
-        <v>-0.21611600170782067</v>
+        <v>-0.10453968621730544</v>
       </c>
       <c r="CL3">
-        <v>-0.10521329559480597</v>
+        <v>-0.18166622963301232</v>
       </c>
       <c r="CM3">
-        <v>-0.24833496038270228</v>
+        <v>-0.17380269532366965</v>
       </c>
       <c r="CN3">
-        <v>-0.20202154498986485</v>
+        <v>-0.21831403917388476</v>
       </c>
       <c r="CO3">
-        <v>-0.10465916079928574</v>
+        <v>-0.087318690317831946</v>
       </c>
       <c r="CP3">
-        <v>-0.049412658732436186</v>
+        <v>-0.18374573482735035</v>
       </c>
       <c r="CQ3">
-        <v>-0.10832630004793919</v>
+        <v>-0.13963572307507693</v>
       </c>
       <c r="CR3">
-        <v>0.067015809722909034</v>
+        <v>-0.25085631618719417</v>
       </c>
       <c r="CS3">
-        <v>-0.096021829246353566</v>
+        <v>-0.050722320132699707</v>
       </c>
       <c r="CT3">
-        <v>-0.030901743339351501</v>
+        <v>-0.12929787617717395</v>
       </c>
       <c r="CU3">
-        <v>0.10563898469496089</v>
+        <v>-0.096758192996075368</v>
       </c>
       <c r="CV3">
-        <v>0.037752898073885766</v>
+        <v>-0.13181498074559295</v>
       </c>
       <c r="CW3">
-        <v>-0.073768559442670231</v>
+        <v>-0.084914813913670409</v>
       </c>
       <c r="CX3">
-        <v>0.0041240875050356542</v>
+        <v>-0.1161580862924108</v>
       </c>
       <c r="CY3">
-        <v>0.082662809942403367</v>
+        <v>-0.099747443546756076</v>
       </c>
       <c r="CZ3">
-        <v>0.065824114553103039</v>
+        <v>-0.21283054191472964</v>
       </c>
       <c r="DA3">
-        <v>0.087761101330146848</v>
+        <v>-0.0047225681762539488</v>
       </c>
       <c r="DB3">
-        <v>-0.0072524800679089115</v>
+        <v>0.013514922750121731</v>
       </c>
       <c r="DC3">
-        <v>0.034668426928157955</v>
+        <v>0.065057234873634295</v>
       </c>
       <c r="DD3">
-        <v>0.077756579330114317</v>
+        <v>-0.0014527288397416459</v>
       </c>
       <c r="DE3">
-        <v>0.064256842998584099</v>
+        <v>0.016780470403418336</v>
       </c>
       <c r="DF3">
-        <v>-0.017973379676670776</v>
+        <v>-0.027750680223136048</v>
       </c>
       <c r="DG3">
-        <v>0.035816974186573231</v>
+        <v>-0.071227226726480866</v>
       </c>
       <c r="DH3">
-        <v>0.069478644948193405</v>
+        <v>-0.067071867675977032</v>
       </c>
       <c r="DI3">
-        <v>0.10104682394572001</v>
+        <v>-0.056682150271891968</v>
       </c>
       <c r="DJ3">
-        <v>0.089375633666376852</v>
+        <v>0.099282190390810834</v>
       </c>
       <c r="DK3">
-        <v>0.16224770182256806</v>
+        <v>0.01142985329074574</v>
       </c>
       <c r="DL3">
-        <v>0.0448238325676611</v>
+        <v>0.09008664463583789</v>
       </c>
       <c r="DM3">
-        <v>0.12499021787417657</v>
+        <v>-0.098986956790437841</v>
       </c>
       <c r="DN3">
-        <v>0.22851609901974274</v>
+        <v>0.039035682389380745</v>
       </c>
       <c r="DO3">
-        <v>0.13373295969238247</v>
+        <v>0.062138036960023894</v>
       </c>
       <c r="DP3">
-        <v>0.18699404194608771</v>
+        <v>-0.035793769748694353</v>
       </c>
       <c r="DQ3">
-        <v>0.036324139263723465</v>
+        <v>0.055320116545109842</v>
       </c>
       <c r="DR3">
-        <v>0.065591116739164582</v>
+        <v>0.051997820133826284</v>
       </c>
       <c r="DS3">
-        <v>0.044022588449656605</v>
+        <v>-0.044207289696029113</v>
       </c>
       <c r="DT3">
-        <v>0.11439095614541395</v>
+        <v>-0.019397911436618551</v>
       </c>
       <c r="DU3">
-        <v>0.19963507374224543</v>
+        <v>0.10904565594293036</v>
       </c>
       <c r="DV3">
-        <v>0.14288180159426758</v>
+        <v>0.033669009913481408</v>
       </c>
       <c r="DW3">
-        <v>0.021163800681499999</v>
+        <v>0.069073049645210147</v>
       </c>
       <c r="DX3">
-        <v>0.077185650493027613</v>
+        <v>0.061845390281566492</v>
       </c>
       <c r="DY3">
-        <v>0.010798412612399805</v>
+        <v>0.0544509505981145</v>
       </c>
       <c r="DZ3">
-        <v>0.16242659988569061</v>
+        <v>0.02273778316947319</v>
       </c>
       <c r="EA3">
-        <v>0.076318962702836973</v>
+        <v>0.12758953880978696</v>
       </c>
       <c r="EB3">
-        <v>0.2242459289907614</v>
+        <v>0.031518865535314314</v>
       </c>
       <c r="EC3">
-        <v>0.28321577746504212</v>
+        <v>-0.19705224126024279</v>
       </c>
       <c r="ED3">
-        <v>0.067964130544606233</v>
+        <v>-0.086627329958181287</v>
       </c>
       <c r="EE3">
-        <v>0.11489037045237188</v>
+        <v>0.034605008392001112</v>
       </c>
       <c r="EF3">
-        <v>0.035630627297168531</v>
+        <v>0.038815335404211011</v>
       </c>
       <c r="EG3">
-        <v>0.211386805120546</v>
+        <v>-0.051638634305418887</v>
       </c>
       <c r="EH3">
-        <v>0.17258228767352041</v>
+        <v>0.026157648160976078</v>
       </c>
       <c r="EI3">
-        <v>0.1607003247836622</v>
+        <v>0.04283295277685082</v>
       </c>
       <c r="EJ3">
-        <v>0.043389439691599509</v>
+        <v>0.051210658481130503</v>
       </c>
       <c r="EK3">
-        <v>0.22451093426941843</v>
+        <v>-0.1100206333440219</v>
       </c>
       <c r="EL3">
-        <v>0.05178760764536617</v>
+        <v>-0.022448757735698321</v>
       </c>
       <c r="EM3">
-        <v>0.069396622291536147</v>
+        <v>0.042276921974861811</v>
       </c>
       <c r="EN3">
-        <v>-0.057861386220415957</v>
+        <v>-0.10303606629177307</v>
       </c>
       <c r="EO3">
-        <v>-0.018720065939728921</v>
+        <v>-0.051650343328753963</v>
       </c>
       <c r="EP3">
-        <v>0.066602333814787598</v>
+        <v>-0.090631572673582364</v>
       </c>
       <c r="EQ3">
-        <v>0.13748765042601344</v>
+        <v>0.078602149387299758</v>
       </c>
       <c r="ER3">
-        <v>0.070080972535295563</v>
+        <v>0.014745471269962744</v>
       </c>
       <c r="ES3">
-        <v>0.045778792785253819</v>
+        <v>0.027663067886485915</v>
       </c>
       <c r="ET3">
-        <v>0.175027059181599</v>
+        <v>0.11977553367184796</v>
       </c>
       <c r="EU3">
-        <v>0.10964518613694606</v>
+        <v>-0.008313479372035637</v>
       </c>
       <c r="EV3">
-        <v>0.11372721104809631</v>
+        <v>0.057815695531464283</v>
       </c>
       <c r="EW3">
-        <v>0.02817859245124861</v>
+        <v>-0.042019243068252533</v>
       </c>
       <c r="EX3">
-        <v>-0.023872194561600203</v>
+        <v>0.074590791170921503</v>
       </c>
       <c r="EY3">
-        <v>0.069478781713112267</v>
+        <v>0.026447225335654953</v>
       </c>
       <c r="EZ3">
-        <v>0.044356047688939401</v>
+        <v>0.030623273505051514</v>
       </c>
       <c r="FA3">
-        <v>0.15963088957130833</v>
+        <v>-0.039787093637691756</v>
       </c>
       <c r="FB3">
-        <v>0.081514502315627596</v>
+        <v>0.10816867383709367</v>
       </c>
       <c r="FC3">
-        <v>0.19819810962156428</v>
+        <v>-0.10671422609832019</v>
       </c>
       <c r="FD3">
-        <v>0.099440633890179209</v>
+        <v>-0.11355017695638896</v>
       </c>
       <c r="FE3">
-        <v>0.16311957316140696</v>
+        <v>0.02781861974516199</v>
       </c>
       <c r="FF3">
-        <v>0.17629513327979993</v>
+        <v>0.013442865249308582</v>
       </c>
       <c r="FG3">
-        <v>0.18065911199378162</v>
+        <v>-0.10161898643106199</v>
       </c>
       <c r="FH3">
-        <v>0.017248526820696074</v>
+        <v>0.089130343587219038</v>
       </c>
       <c r="FI3">
-        <v>0.12025495727796962</v>
+        <v>-0.017368724327224583</v>
       </c>
       <c r="FJ3">
-        <v>0.060972245543240856</v>
+        <v>-0.094791493345690953</v>
       </c>
       <c r="FK3">
-        <v>-0.0028255695984876123</v>
+        <v>-0.075315339696663416</v>
       </c>
       <c r="FL3">
-        <v>0.10800009103103822</v>
+        <v>-0.050885417371578583</v>
       </c>
       <c r="FM3">
-        <v>0.1169045561866654</v>
+        <v>-0.041921784572815375</v>
       </c>
       <c r="FN3">
-        <v>0.051197624470352365</v>
+        <v>-0.07955839154902955</v>
       </c>
       <c r="FO3">
-        <v>0.085566391542303361</v>
+        <v>0.0056192725707062503</v>
       </c>
       <c r="FP3">
-        <v>0.032870820312702338</v>
+        <v>-0.010036041246972608</v>
       </c>
       <c r="FQ3">
-        <v>0.14698244814114519</v>
+        <v>-0.094549863457966607</v>
       </c>
       <c r="FR3">
-        <v>0.12231148018689621</v>
+        <v>-0.080019531604932567</v>
       </c>
       <c r="FS3">
-        <v>0.21527399441535092</v>
+        <v>-0.087097196436761504</v>
       </c>
       <c r="FT3">
-        <v>0.091095046586647785</v>
+        <v>-0.020069399771259877</v>
       </c>
       <c r="FU3">
-        <v>0.010231962062464161</v>
+        <v>0.043462317645621043</v>
       </c>
       <c r="FV3">
-        <v>0.0027952807934221065</v>
+        <v>0.047710182251813803</v>
       </c>
       <c r="FW3">
-        <v>0.023114585179873089</v>
+        <v>-0.038723054481702684</v>
       </c>
       <c r="FX3">
-        <v>0.075217190550670165</v>
+        <v>-0.077911006251720191</v>
       </c>
       <c r="FY3">
-        <v>0.12529796209375135</v>
+        <v>0.025345634275441484</v>
       </c>
       <c r="FZ3">
-        <v>0.029426572150974762</v>
+        <v>-0.037481222334380754</v>
       </c>
       <c r="GA3">
-        <v>0.081814329956969162</v>
+        <v>-0.0229612832599775</v>
       </c>
       <c r="GB3">
-        <v>0.020417806664774229</v>
+        <v>-0.029590050108980782</v>
       </c>
       <c r="GC3">
-        <v>0.0013804046766226657</v>
+        <v>0.046331207436691217</v>
       </c>
       <c r="GD3">
-        <v>0.10887829725346164</v>
+        <v>-0.24759112935815011</v>
       </c>
       <c r="GE3">
-        <v>0.026247104935505437</v>
+        <v>-0.1015173659741381</v>
       </c>
       <c r="GF3">
-        <v>0.11150715194342081</v>
+        <v>-0.014533714816722287</v>
       </c>
       <c r="GG3">
-        <v>0.045348325386754582</v>
+        <v>-0.032074667780270329</v>
       </c>
       <c r="GH3">
-        <v>-0.1212305345638001</v>
+        <v>-0.03359680644671624</v>
       </c>
       <c r="GI3">
-        <v>0.10688455491240273</v>
+        <v>-0.10349243185794407</v>
       </c>
       <c r="GJ3">
-        <v>0.0048014504051420862</v>
+        <v>-0.13582307943906813</v>
       </c>
       <c r="GK3">
-        <v>-0.090542856890065943</v>
+        <v>-0.10218711204008307</v>
       </c>
       <c r="GL3">
-        <v>-3.8998304433009538e-05</v>
+        <v>-0.063563430643588492</v>
       </c>
       <c r="GM3">
-        <v>-0.077062579904266029</v>
+        <v>-0.10662719184675794</v>
       </c>
       <c r="GN3">
-        <v>0.012949988687625391</v>
+        <v>0.031570659659268585</v>
       </c>
       <c r="GO3">
-        <v>0.10185708703791989</v>
+        <v>-0.14795377826243974</v>
       </c>
       <c r="GP3">
-        <v>0.020704708046143692</v>
+        <v>-0.03700261167458975</v>
       </c>
       <c r="GQ3">
-        <v>0.15229029457970822</v>
+        <v>-0.033083806362103417</v>
       </c>
       <c r="GR3">
-        <v>0.14605697567368039</v>
+        <v>-0.012309013848852399</v>
       </c>
       <c r="GS3">
-        <v>0.06788490849542729</v>
+        <v>-0.030809674168193069</v>
       </c>
       <c r="GT3">
-        <v>0.15420609467424623</v>
+        <v>-0.079457803080057399</v>
       </c>
       <c r="GU3">
-        <v>0.20485674627456271</v>
+        <v>-0.023110488153037095</v>
       </c>
       <c r="GV3">
-        <v>0.015512790218616979</v>
+        <v>-0.20635382506306532</v>
       </c>
       <c r="GW3">
-        <v>0.019227412319077274</v>
+        <v>-0.010151232712504706</v>
       </c>
       <c r="GX3">
-        <v>0.082258793471961147</v>
+        <v>-0.00048033335882545107</v>
       </c>
       <c r="GY3">
-        <v>0.014633971890666068</v>
+        <v>-0.10951245223063613</v>
       </c>
       <c r="GZ3">
-        <v>0.095684356068494347</v>
+        <v>-0.015544700547222998</v>
       </c>
       <c r="HA3">
-        <v>0.099709674271823673</v>
+        <v>-0.052683017003763023</v>
       </c>
       <c r="HB3">
-        <v>0.07470579525323956</v>
+        <v>-0.025109203830889392</v>
       </c>
       <c r="HC3">
-        <v>0.084524133192049419</v>
+        <v>-0.038877897997635059</v>
       </c>
       <c r="HD3">
-        <v>0.088504688544045307</v>
+        <v>-0.017231833200422181</v>
       </c>
       <c r="HE3">
-        <v>0.14389997696881682</v>
+        <v>-0.061241784856022358</v>
       </c>
       <c r="HF3">
-        <v>0.10837686937124458</v>
+        <v>-0.0035667913585245578</v>
       </c>
       <c r="HG3">
-        <v>0.083066982986803289</v>
+        <v>-0.017145692212490904</v>
       </c>
       <c r="HH3">
-        <v>0.15059412911263018</v>
+        <v>-0.0013595610515187099</v>
       </c>
       <c r="HI3">
-        <v>0.07323992344217535</v>
+        <v>-0.115307654676156</v>
       </c>
       <c r="HJ3">
-        <v>0.16991876779498505</v>
+        <v>-0.10511518587771465</v>
       </c>
       <c r="HK3">
-        <v>-0.06888369212579834</v>
+        <v>-0.031894383958013084</v>
       </c>
       <c r="HL3">
-        <v>0.066540175961411568</v>
+        <v>-0.065299150471218273</v>
       </c>
       <c r="HM3">
         <v>0</v>
@@ -5476,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="HO3">
-        <v>-5.6128490048097133</v>
+        <v>-5.50692586970988</v>
       </c>
     </row>
     <row r="4">
@@ -5484,661 +5484,661 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.065351979651616265</v>
+        <v>0.06340558283348155</v>
       </c>
       <c r="C4">
-        <v>0.036574230826564469</v>
+        <v>0.035596599561492394</v>
       </c>
       <c r="D4">
-        <v>0.044265252488279408</v>
+        <v>0.044725386540743622</v>
       </c>
       <c r="E4">
-        <v>0.056083406270645772</v>
+        <v>0.054694167479598488</v>
       </c>
       <c r="F4">
-        <v>0.044671271176274618</v>
+        <v>0.043864012318400147</v>
       </c>
       <c r="G4">
-        <v>0.036265428163638272</v>
+        <v>0.036766092052744552</v>
       </c>
       <c r="H4">
-        <v>0.028532193932346451</v>
+        <v>0.028442840546213068</v>
       </c>
       <c r="I4">
-        <v>0.031633355473897624</v>
+        <v>0.031474013549284821</v>
       </c>
       <c r="J4">
-        <v>0.032401425019643743</v>
+        <v>0.031915257855820674</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.083039100310105626</v>
+        <v>0.080529294913515986</v>
       </c>
       <c r="M4">
-        <v>0.084087224056993551</v>
+        <v>0.079932250809923347</v>
       </c>
       <c r="N4">
-        <v>0.085505922062247344</v>
+        <v>0.080917389798119271</v>
       </c>
       <c r="O4">
-        <v>0.082361915027903521</v>
+        <v>0.082157046342051204</v>
       </c>
       <c r="P4">
-        <v>0.082072653023020248</v>
+        <v>0.081984838346067304</v>
       </c>
       <c r="Q4">
-        <v>0.081651500655940443</v>
+        <v>0.080227196437581805</v>
       </c>
       <c r="R4">
-        <v>0.082072653061550274</v>
+        <v>0.079224525965503403</v>
       </c>
       <c r="S4">
-        <v>0.082733498212437473</v>
+        <v>0.082777801008124832</v>
       </c>
       <c r="T4">
-        <v>0.081651500714889289</v>
+        <v>0.080996449335244997</v>
       </c>
       <c r="U4">
-        <v>0.079633950068292506</v>
+        <v>0.079020056671015165</v>
       </c>
       <c r="V4">
-        <v>0.082216413904344754</v>
+        <v>0.080377335129190222</v>
       </c>
       <c r="W4">
-        <v>0.081378874235824433</v>
+        <v>0.080838816732512517</v>
       </c>
       <c r="X4">
-        <v>0.080981579156669342</v>
+        <v>0.078621394885244764</v>
       </c>
       <c r="Y4">
-        <v>0.081244917325651117</v>
+        <v>0.079787379878703393</v>
       </c>
       <c r="Z4">
-        <v>0.082072653223103531</v>
+        <v>0.078299231695409199</v>
       </c>
       <c r="AA4">
-        <v>0.08091667865474117</v>
+        <v>0.076322988091981042</v>
       </c>
       <c r="AB4">
-        <v>0.078591300875418421</v>
+        <v>0.079020056828957949</v>
       </c>
       <c r="AC4">
-        <v>0.081860206459868759</v>
+        <v>0.078686908873794634</v>
       </c>
       <c r="AD4">
-        <v>0.080165627155328059</v>
+        <v>0.07855624566869264</v>
       </c>
       <c r="AE4">
-        <v>0.078232038578660734</v>
+        <v>0.08015279999581755</v>
       </c>
       <c r="AF4">
-        <v>0.079691760502158024</v>
+        <v>0.077924135069361231</v>
       </c>
       <c r="AG4">
-        <v>0.080724167190295099</v>
+        <v>0.076701840981748121</v>
       </c>
       <c r="AH4">
-        <v>0.080105262386242992</v>
+        <v>0.076483716579730548</v>
       </c>
       <c r="AI4">
-        <v>0.079691760582350835</v>
+        <v>0.077985804260033903</v>
       </c>
       <c r="AJ4">
-        <v>0.081930601492341118</v>
+        <v>0.077985804286943669</v>
       </c>
       <c r="AK4">
-        <v>0.079926129013393243</v>
+        <v>0.076269946908345362</v>
       </c>
       <c r="AL4">
-        <v>0.080852145479253415</v>
+        <v>0.078427028304336247</v>
       </c>
       <c r="AM4">
-        <v>0.079926129066884538</v>
+        <v>0.076112398060494371</v>
       </c>
       <c r="AN4">
-        <v>0.077982986974376015</v>
+        <v>0.078235859430096685</v>
       </c>
       <c r="AO4">
-        <v>0.079349465658873575</v>
+        <v>0.078427028386657188</v>
       </c>
       <c r="AP4">
-        <v>0.081446437001862132</v>
+        <v>0.077501604444820002</v>
       </c>
       <c r="AQ4">
-        <v>0.081930601661275193</v>
+        <v>0.076008658747279662</v>
       </c>
       <c r="AR4">
-        <v>0.079405762129842322</v>
+        <v>0.076322988611267295</v>
       </c>
       <c r="AS4">
-        <v>0.08041042944118143</v>
+        <v>0.076924457620623596</v>
       </c>
       <c r="AT4">
-        <v>0.079633950733556197</v>
+        <v>0.078235859603571073</v>
       </c>
       <c r="AU4">
-        <v>0.081112495078625155</v>
+        <v>0.075554194094193491</v>
       </c>
       <c r="AV4">
-        <v>0.080348722050192362</v>
+        <v>0.079859602498961166</v>
       </c>
       <c r="AW4">
-        <v>0.079691760975123233</v>
+        <v>0.076646894725077561</v>
       </c>
       <c r="AX4">
-        <v>0.081046850699167935</v>
+        <v>0.077801791492298891</v>
       </c>
       <c r="AY4">
-        <v>0.080410429606779396</v>
+        <v>0.078172833545985518</v>
       </c>
       <c r="AZ4">
-        <v>0.080348722162357403</v>
+        <v>0.076164654203830576</v>
       </c>
       <c r="BA4">
-        <v>0.079691761092859512</v>
+        <v>0.078172833607721967</v>
       </c>
       <c r="BB4">
-        <v>0.078131679265581719</v>
+        <v>0.078752791065518996</v>
       </c>
       <c r="BC4">
-        <v>0.080916679383555762</v>
+        <v>0.077985804848391446</v>
       </c>
       <c r="BD4">
-        <v>0.080226324179123967</v>
+        <v>0.077209263520995067</v>
       </c>
       <c r="BE4">
-        <v>0.079749881582532295</v>
+        <v>0.07823585993201293</v>
       </c>
       <c r="BF4">
-        <v>0.078539200821769073</v>
+        <v>0.082419593477309663</v>
       </c>
       <c r="BG4">
-        <v>0.079867063239037223</v>
+        <v>0.081156046330940299</v>
       </c>
       <c r="BH4">
-        <v>0.08303910135311493</v>
+        <v>0.077442519245324637</v>
       </c>
       <c r="BI4">
-        <v>0.081514393674584934</v>
+        <v>0.079502687034084751</v>
       </c>
       <c r="BJ4">
-        <v>0.082571236185185123</v>
+        <v>0.077595572940789059</v>
       </c>
       <c r="BK4">
-        <v>0.082380224530156851</v>
+        <v>0.078167425942383142</v>
       </c>
       <c r="BL4">
-        <v>0.082963817956095698</v>
+        <v>0.07953361015248675</v>
       </c>
       <c r="BM4">
-        <v>0.081707133525197109</v>
+        <v>0.07811436823438124</v>
       </c>
       <c r="BN4">
-        <v>0.081707405988887011</v>
+        <v>0.079234457442097977</v>
       </c>
       <c r="BO4">
-        <v>0.083798146292965184</v>
+        <v>0.08263408932971178</v>
       </c>
       <c r="BP4">
-        <v>0.080924963361017288</v>
+        <v>0.081184232092191666</v>
       </c>
       <c r="BQ4">
-        <v>0.081178756417809569</v>
+        <v>0.08220157839587719</v>
       </c>
       <c r="BR4">
-        <v>0.083035737291465531</v>
+        <v>0.080320455492991952</v>
       </c>
       <c r="BS4">
-        <v>0.084721943497309646</v>
+        <v>0.083050581310296148</v>
       </c>
       <c r="BT4">
-        <v>0.08314356065608991</v>
+        <v>0.080437228615718545</v>
       </c>
       <c r="BU4">
-        <v>0.078110207373797549</v>
+        <v>0.074644212388013775</v>
       </c>
       <c r="BV4">
-        <v>0.077685791838396551</v>
+        <v>0.076107906624101523</v>
       </c>
       <c r="BW4">
-        <v>0.076461823214790059</v>
+        <v>0.075729453574449893</v>
       </c>
       <c r="BX4">
-        <v>0.077679334612282464</v>
+        <v>0.074769388069371265</v>
       </c>
       <c r="BY4">
-        <v>0.075984965748605277</v>
+        <v>0.075580450167423888</v>
       </c>
       <c r="BZ4">
-        <v>0.074658097933876802</v>
+        <v>0.073457899058624126</v>
       </c>
       <c r="CA4">
-        <v>0.075682706085854659</v>
+        <v>0.073744547302599717</v>
       </c>
       <c r="CB4">
-        <v>0.075959533282615649</v>
+        <v>0.073081313658103553</v>
       </c>
       <c r="CC4">
-        <v>0.078403574579795951</v>
+        <v>0.073641064861728334</v>
       </c>
       <c r="CD4">
-        <v>0.079002592541841637</v>
+        <v>0.075345012400589662</v>
       </c>
       <c r="CE4">
-        <v>0.078292415473275603</v>
+        <v>0.077667540984038358</v>
       </c>
       <c r="CF4">
-        <v>0.079979227618192344</v>
+        <v>0.07797519743792522</v>
       </c>
       <c r="CG4">
-        <v>0.079087919988217487</v>
+        <v>0.077633889541635429</v>
       </c>
       <c r="CH4">
-        <v>0.080518567375041761</v>
+        <v>0.076899988080785256</v>
       </c>
       <c r="CI4">
-        <v>0.078709122067497181</v>
+        <v>0.07575383044408987</v>
       </c>
       <c r="CJ4">
-        <v>0.080036729622648406</v>
+        <v>0.077527234435203901</v>
       </c>
       <c r="CK4">
-        <v>0.081454534375946255</v>
+        <v>0.076703407875768209</v>
       </c>
       <c r="CL4">
-        <v>0.081704246561339691</v>
+        <v>0.07908321926411363</v>
       </c>
       <c r="CM4">
-        <v>0.083833843816668058</v>
+        <v>0.079027949457464497</v>
       </c>
       <c r="CN4">
-        <v>0.083048484480084256</v>
+        <v>0.079624242017677163</v>
       </c>
       <c r="CO4">
-        <v>0.076450347451246806</v>
+        <v>0.07254789569350685</v>
       </c>
       <c r="CP4">
-        <v>0.075833177175568339</v>
+        <v>0.073741775975976392</v>
       </c>
       <c r="CQ4">
-        <v>0.074966826140466222</v>
+        <v>0.071955127278755054</v>
       </c>
       <c r="CR4">
-        <v>0.072984113161805989</v>
+        <v>0.07342791101122359</v>
       </c>
       <c r="CS4">
-        <v>0.074920554475935111</v>
+        <v>0.071001954577233656</v>
       </c>
       <c r="CT4">
-        <v>0.073369051771226962</v>
+        <v>0.070945074856609017</v>
       </c>
       <c r="CU4">
-        <v>0.071824268015851053</v>
+        <v>0.070589619126889103</v>
       </c>
       <c r="CV4">
-        <v>0.072649214570317783</v>
+        <v>0.07108322115140632</v>
       </c>
       <c r="CW4">
-        <v>0.07407518009264473</v>
+        <v>0.070546459223989305</v>
       </c>
       <c r="CX4">
-        <v>0.073149047223933603</v>
+        <v>0.070990821380943384</v>
       </c>
       <c r="CY4">
-        <v>0.073122723676531248</v>
+        <v>0.071849401535620111</v>
       </c>
       <c r="CZ4">
-        <v>0.073376643697113275</v>
+        <v>0.073470726924826396</v>
       </c>
       <c r="DA4">
-        <v>0.073164364438114152</v>
+        <v>0.070734407078217917</v>
       </c>
       <c r="DB4">
-        <v>0.074399423314331553</v>
+        <v>0.070564928847618821</v>
       </c>
       <c r="DC4">
-        <v>0.073915549293343388</v>
+        <v>0.070003860871556606</v>
       </c>
       <c r="DD4">
-        <v>0.073431418324240411</v>
+        <v>0.07076751620031406</v>
       </c>
       <c r="DE4">
-        <v>0.073647470253025454</v>
+        <v>0.070600440824617666</v>
       </c>
       <c r="DF4">
-        <v>0.074740704121290552</v>
+        <v>0.071204299006399907</v>
       </c>
       <c r="DG4">
-        <v>0.074101689039694177</v>
+        <v>0.071816687850490682</v>
       </c>
       <c r="DH4">
-        <v>0.073735900174275684</v>
+        <v>0.071816688000105447</v>
       </c>
       <c r="DI4">
-        <v>0.072503723298270165</v>
+        <v>0.070889896323352145</v>
       </c>
       <c r="DJ4">
-        <v>0.072715535926609939</v>
+        <v>0.068824130138058673</v>
       </c>
       <c r="DK4">
-        <v>0.071807264537844862</v>
+        <v>0.070047835107176881</v>
       </c>
       <c r="DL4">
-        <v>0.073447925905046688</v>
+        <v>0.069052966644937902</v>
       </c>
       <c r="DM4">
-        <v>0.072400045850026434</v>
+        <v>0.071764267243970017</v>
       </c>
       <c r="DN4">
-        <v>0.071130280264164125</v>
+        <v>0.069837941460461073</v>
       </c>
       <c r="DO4">
-        <v>0.072400046185383274</v>
+        <v>0.069583540461175875</v>
       </c>
       <c r="DP4">
-        <v>0.071760018235864212</v>
+        <v>0.07100924520177633</v>
       </c>
       <c r="DQ4">
-        <v>0.073872777565847592</v>
+        <v>0.069786365855580526</v>
       </c>
       <c r="DR4">
-        <v>0.073507243275686224</v>
+        <v>0.069889873477804412</v>
       </c>
       <c r="DS4">
-        <v>0.073872777834996003</v>
+        <v>0.071315509208814978</v>
       </c>
       <c r="DT4">
-        <v>0.072933510045757724</v>
+        <v>0.071009245821485739</v>
       </c>
       <c r="DU4">
-        <v>0.071854831942390521</v>
+        <v>0.069289358454537361</v>
       </c>
       <c r="DV4">
-        <v>0.072662017602390772</v>
+        <v>0.070373873335308743</v>
       </c>
       <c r="DW4">
-        <v>0.074454062340548258</v>
+        <v>0.069942164628654116</v>
       </c>
       <c r="DX4">
-        <v>0.073687914675316865</v>
+        <v>0.070101227293670437</v>
       </c>
       <c r="DY4">
-        <v>0.074726111952848326</v>
+        <v>0.070263659713850624</v>
       </c>
       <c r="DZ4">
-        <v>0.072608878815765998</v>
+        <v>0.070772295472667571</v>
       </c>
       <c r="EA4">
-        <v>0.073872779010388925</v>
+        <v>0.069386116135662618</v>
       </c>
       <c r="EB4">
-        <v>0.071902720725696992</v>
+        <v>0.070772295838138516</v>
       </c>
       <c r="EC4">
-        <v>0.071216773172466677</v>
+        <v>0.074433188154484964</v>
       </c>
       <c r="ED4">
-        <v>0.074190613974721695</v>
+        <v>0.072665980256394716</v>
       </c>
       <c r="EE4">
-        <v>0.073567011817229286</v>
+        <v>0.070889899871361392</v>
       </c>
       <c r="EF4">
-        <v>0.074795519260177787</v>
+        <v>0.070889900051150409</v>
       </c>
       <c r="EG4">
-        <v>0.072348753536842905</v>
+        <v>0.072308018932737014</v>
       </c>
       <c r="EH4">
-        <v>0.072933512417887078</v>
+        <v>0.071191627292922804</v>
       </c>
       <c r="EI4">
-        <v>0.073157921019378944</v>
+        <v>0.071009248367540578</v>
       </c>
       <c r="EJ4">
-        <v>0.074936054153375523</v>
+        <v>0.070949354184828978</v>
       </c>
       <c r="EK4">
-        <v>0.072400050037080527</v>
+        <v>0.073507698244219002</v>
       </c>
       <c r="EL4">
-        <v>0.074936054468806565</v>
+        <v>0.072168832248398734</v>
       </c>
       <c r="EM4">
-        <v>0.074726114098684349</v>
+        <v>0.071253337015292795</v>
       </c>
       <c r="EN4">
-        <v>0.076824072357451867</v>
+        <v>0.073588189787654898</v>
       </c>
       <c r="EO4">
-        <v>0.076231651104617243</v>
+        <v>0.072813314962208123</v>
       </c>
       <c r="EP4">
-        <v>0.074936055038322083</v>
+        <v>0.073507698963296869</v>
       </c>
       <c r="EQ4">
-        <v>0.073935360420754256</v>
+        <v>0.070949355426557087</v>
       </c>
       <c r="ER4">
-        <v>0.075007197842104273</v>
+        <v>0.07196416363221167</v>
       </c>
       <c r="ES4">
-        <v>0.075446784122585833</v>
+        <v>0.071830382447855168</v>
       </c>
       <c r="ET4">
-        <v>0.073567014367470582</v>
+        <v>0.070542172137841933</v>
       </c>
       <c r="EU4">
-        <v>0.074588989285192753</v>
+        <v>0.07252104981717572</v>
       </c>
       <c r="EV4">
-        <v>0.074588989456347579</v>
+        <v>0.071568991993660444</v>
       </c>
       <c r="EW4">
-        <v>0.075988940227630086</v>
+        <v>0.073192553905850791</v>
       </c>
       <c r="EX4">
-        <v>0.076911841608949733</v>
+        <v>0.07144128726721026</v>
       </c>
       <c r="EY4">
-        <v>0.075446785054798446</v>
+        <v>0.072238149704720991</v>
       </c>
       <c r="EZ4">
-        <v>0.075909454762887199</v>
+        <v>0.072238149893092407</v>
       </c>
       <c r="FA4">
-        <v>0.074190617758362526</v>
+        <v>0.073427900424115081</v>
       </c>
       <c r="FB4">
-        <v>0.075446785545399672</v>
+        <v>0.071191631080867096</v>
       </c>
       <c r="FC4">
-        <v>0.073749068079600549</v>
+        <v>0.074701834755219965</v>
       </c>
       <c r="FD4">
-        <v>0.075297780295300765</v>
+        <v>0.074885087883172941</v>
       </c>
       <c r="FE4">
-        <v>0.074387415588369976</v>
+        <v>0.072593221939698194</v>
       </c>
       <c r="FF4">
-        <v>0.07425569747759185</v>
+        <v>0.072887903346037036</v>
       </c>
       <c r="FG4">
-        <v>0.074255697683030544</v>
+        <v>0.074885088347295306</v>
       </c>
       <c r="FH4">
-        <v>0.076911843145484826</v>
+        <v>0.071830385332090782</v>
       </c>
       <c r="FI4">
-        <v>0.075297781197326066</v>
+        <v>0.073588193247266856</v>
       </c>
       <c r="FJ4">
-        <v>0.076314008688379079</v>
+        <v>0.074977998181187777</v>
       </c>
       <c r="FK4">
-        <v>0.077456032478686099</v>
+        <v>0.074701836007878747</v>
       </c>
       <c r="FL4">
-        <v>0.075675122875762016</v>
+        <v>0.074345263013295165</v>
       </c>
       <c r="FM4">
-        <v>0.075598356347474818</v>
+        <v>0.074258122998159468</v>
       </c>
       <c r="FN4">
-        <v>0.076737114320869881</v>
+        <v>0.074977998800949033</v>
       </c>
       <c r="FO4">
-        <v>0.076231655172898455</v>
+        <v>0.073588194281000954</v>
       </c>
       <c r="FP4">
-        <v>0.077180099370973032</v>
+        <v>0.07391725168918406</v>
       </c>
       <c r="FQ4">
-        <v>0.075371969147942794</v>
+        <v>0.075455874212896679</v>
       </c>
       <c r="FR4">
-        <v>0.075830665336701242</v>
+        <v>0.075262007339405787</v>
       </c>
       <c r="FS4">
-        <v>0.074454070579082474</v>
+        <v>0.075455874520117497</v>
       </c>
       <c r="FT4">
-        <v>0.076480954516497029</v>
+        <v>0.074345264365538205</v>
       </c>
       <c r="FU4">
-        <v>0.07793392089636568</v>
+        <v>0.073348785366032718</v>
       </c>
       <c r="FV4">
-        <v>0.078131691167421219</v>
+        <v>0.073348785575369488</v>
       </c>
       <c r="FW4">
-        <v>0.077836481796021817</v>
+        <v>0.074885090985717329</v>
       </c>
       <c r="FX4">
-        <v>0.077000431051355303</v>
+        <v>0.075653489910794097</v>
       </c>
       <c r="FY4">
-        <v>0.076231656960177654</v>
+        <v>0.07391725334919215</v>
       </c>
       <c r="FZ4">
-        <v>0.077933921682605031</v>
+        <v>0.075071781760008158</v>
       </c>
       <c r="GA4">
-        <v>0.077089845928292475</v>
+        <v>0.074885091700574086</v>
       </c>
       <c r="GB4">
-        <v>0.078232052059295148</v>
+        <v>0.075071782118861521</v>
       </c>
       <c r="GC4">
-        <v>0.078643679811304171</v>
+        <v>0.07383390693858842</v>
       </c>
       <c r="GD4">
-        <v>0.076824078959545447</v>
+        <v>0.07943255430514605</v>
       </c>
       <c r="GE4">
-        <v>0.078333415724769484</v>
+        <v>0.076592239882093599</v>
       </c>
       <c r="GF4">
-        <v>0.076911847183034912</v>
+        <v>0.075071782819465374</v>
       </c>
       <c r="GG4">
-        <v>0.07813169294087717</v>
+        <v>0.075455876935729818</v>
       </c>
       <c r="GH4">
-        <v>0.081378886202218823</v>
+        <v>0.075554209051351393</v>
       </c>
       <c r="GI4">
-        <v>0.077180102614123558</v>
+        <v>0.076924471493107133</v>
       </c>
       <c r="GJ4">
-        <v>0.079072382816302869</v>
+        <v>0.077620733304645306</v>
       </c>
       <c r="GK4">
-        <v>0.080981591803370417</v>
+        <v>0.077037508744871183</v>
       </c>
       <c r="GL4">
-        <v>0.079293478527305672</v>
+        <v>0.076376310937006475</v>
       </c>
       <c r="GM4">
-        <v>0.080852158153901843</v>
+        <v>0.077267133103510841</v>
       </c>
       <c r="GN4">
-        <v>0.079182354153815665</v>
+        <v>0.074793044036075479</v>
       </c>
       <c r="GO4">
-        <v>0.077644426457094753</v>
+        <v>0.078235873232424438</v>
       </c>
       <c r="GP4">
-        <v>0.079182354486629816</v>
+        <v>0.076164669759269818</v>
       </c>
       <c r="GQ4">
-        <v>0.076911849180149247</v>
+        <v>0.076164669945274516</v>
       </c>
       <c r="GR4">
-        <v>0.077089848989305015</v>
+        <v>0.075854967269827545</v>
       </c>
       <c r="GS4">
-        <v>0.078539215984061814</v>
+        <v>0.076269963412731109</v>
       </c>
       <c r="GT4">
-        <v>0.077089849406460423</v>
+        <v>0.077267134303398016</v>
       </c>
       <c r="GU4">
-        <v>0.076314015575421557</v>
+        <v>0.076269963785723385</v>
       </c>
       <c r="GV4">
-        <v>0.079749896151346852</v>
+        <v>0.080005344865587455</v>
       </c>
       <c r="GW4">
-        <v>0.079749896314636873</v>
+        <v>0.076164671063479641</v>
       </c>
       <c r="GX4">
-        <v>0.078643683383598978</v>
+        <v>0.076060417942810682</v>
       </c>
       <c r="GY4">
-        <v>0.079985531431269574</v>
+        <v>0.078235874872335118</v>
       </c>
       <c r="GZ4">
-        <v>0.078539217306986847</v>
+        <v>0.076483734241855075</v>
       </c>
       <c r="HA4">
-        <v>0.078539217504713765</v>
+        <v>0.077267135551392752</v>
       </c>
       <c r="HB4">
-        <v>0.079072385945580442</v>
+        <v>0.076812596536883271</v>
       </c>
       <c r="HC4">
-        <v>0.078963551144316385</v>
+        <v>0.077151725952009337</v>
       </c>
       <c r="HD4">
-        <v>0.078963551338941076</v>
+        <v>0.076812596931434066</v>
       </c>
       <c r="HE4">
-        <v>0.078032325655922163</v>
+        <v>0.077741127785091457</v>
       </c>
       <c r="HF4">
-        <v>0.078749218109177427</v>
+        <v>0.076701859609915088</v>
       </c>
       <c r="HG4">
-        <v>0.079293482295856629</v>
+        <v>0.077037512728450566</v>
       </c>
       <c r="HH4">
-        <v>0.078131698033637301</v>
+        <v>0.076812597745554781</v>
       </c>
       <c r="HI4">
-        <v>0.079633968143862144</v>
+        <v>0.079155996810660045</v>
       </c>
       <c r="HJ4">
-        <v>0.077933928455587387</v>
+        <v>0.079020073734521648</v>
       </c>
       <c r="HK4">
-        <v>0.08265828526840735</v>
+        <v>0.077620738051334265</v>
       </c>
       <c r="HL4">
-        <v>0.079985533844905574</v>
+        <v>0.078362971712242588</v>
       </c>
       <c r="HM4">
         <v>0</v>
@@ -6147,7 +6147,7 @@
         <v>0</v>
       </c>
       <c r="HO4">
-        <v>0.057543565718947726</v>
+        <v>0.054554510001440203</v>
       </c>
     </row>
   </sheetData>
@@ -7503,661 +7503,661 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>4.5222900925958598</v>
+        <v>3.9307444203556337</v>
       </c>
       <c r="C3">
-        <v>-1.0244068015094727</v>
+        <v>-0.93676409774487168</v>
       </c>
       <c r="D3">
-        <v>-1.0364319629962673</v>
+        <v>-0.99421304264563526</v>
       </c>
       <c r="E3">
-        <v>-1.0246274678376961</v>
+        <v>-0.94698612936550497</v>
       </c>
       <c r="F3">
-        <v>0.59882807944567973</v>
+        <v>0.57120314149805496</v>
       </c>
       <c r="G3">
-        <v>0.62475424183748773</v>
+        <v>0.55657722061626325</v>
       </c>
       <c r="H3">
-        <v>0.53301106526311715</v>
+        <v>0.49567073542236179</v>
       </c>
       <c r="I3">
-        <v>0.24486586107362734</v>
+        <v>0.21556149571517436</v>
       </c>
       <c r="J3">
-        <v>0.27254656898981022</v>
+        <v>0.26268637606103556</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>-1.8408480170622141</v>
+        <v>-1.8863635667760197</v>
       </c>
       <c r="M3">
-        <v>-1.7937347339942018</v>
+        <v>-1.8392133294603761</v>
       </c>
       <c r="N3">
-        <v>-1.7751032774984425</v>
+        <v>-1.8946751177844101</v>
       </c>
       <c r="O3">
-        <v>-1.73938204796717</v>
+        <v>-1.8656179119404581</v>
       </c>
       <c r="P3">
-        <v>-1.6882932322373285</v>
+        <v>-1.9326686626698284</v>
       </c>
       <c r="Q3">
-        <v>-1.655346302818147</v>
+        <v>-1.8276886113190174</v>
       </c>
       <c r="R3">
-        <v>-1.754765386727231</v>
+        <v>-1.9018605914743065</v>
       </c>
       <c r="S3">
-        <v>-2.0017651771553768</v>
+        <v>-1.9012545022823522</v>
       </c>
       <c r="T3">
-        <v>-1.7893696419400349</v>
+        <v>-2.0467818989488213</v>
       </c>
       <c r="U3">
-        <v>-1.5691840809850011</v>
+        <v>-1.8620120890746674</v>
       </c>
       <c r="V3">
-        <v>-1.6363993252225641</v>
+        <v>-1.7720067624804192</v>
       </c>
       <c r="W3">
-        <v>-1.7515590821082272</v>
+        <v>-1.6736427189982435</v>
       </c>
       <c r="X3">
-        <v>-1.6350547385336383</v>
+        <v>-1.7878028180466281</v>
       </c>
       <c r="Y3">
-        <v>-1.767918732750599</v>
+        <v>-1.6416532801115247</v>
       </c>
       <c r="Z3">
-        <v>-1.8129793734185258</v>
+        <v>-1.710961174212394</v>
       </c>
       <c r="AA3">
-        <v>-1.6811495313967399</v>
+        <v>-1.6629569100015411</v>
       </c>
       <c r="AB3">
-        <v>-1.6642035986633585</v>
+        <v>-1.7257243047061863</v>
       </c>
       <c r="AC3">
-        <v>-1.6635121397698216</v>
+        <v>-1.5731361374754274</v>
       </c>
       <c r="AD3">
-        <v>-1.5704133812112466</v>
+        <v>-1.7406946502890221</v>
       </c>
       <c r="AE3">
-        <v>-1.4583835657228468</v>
+        <v>-1.6147718828437687</v>
       </c>
       <c r="AF3">
-        <v>-1.5185950780506341</v>
+        <v>-1.6514365820130656</v>
       </c>
       <c r="AG3">
-        <v>-1.6208666001505576</v>
+        <v>-1.772309688353664</v>
       </c>
       <c r="AH3">
-        <v>-1.5821031073900782</v>
+        <v>-1.6051665114342806</v>
       </c>
       <c r="AI3">
-        <v>-1.5163224068063026</v>
+        <v>-1.4243850679318251</v>
       </c>
       <c r="AJ3">
-        <v>-1.5155207023548773</v>
+        <v>-1.6950768359746637</v>
       </c>
       <c r="AK3">
-        <v>-1.5872419289212027</v>
+        <v>-1.7268665910238481</v>
       </c>
       <c r="AL3">
-        <v>-1.7233018247231138</v>
+        <v>-1.777020881570476</v>
       </c>
       <c r="AM3">
-        <v>-1.6971083240526517</v>
+        <v>-1.5105264414281003</v>
       </c>
       <c r="AN3">
-        <v>-1.6472321335267568</v>
+        <v>-1.5858241906127781</v>
       </c>
       <c r="AO3">
-        <v>-1.4911768362406312</v>
+        <v>-1.7320317894361925</v>
       </c>
       <c r="AP3">
-        <v>-1.7466664796575428</v>
+        <v>-1.5558917001991985</v>
       </c>
       <c r="AQ3">
-        <v>-1.6776044925378957</v>
+        <v>-1.4615918271423414</v>
       </c>
       <c r="AR3">
-        <v>-1.5600155871482313</v>
+        <v>-1.6967135928603319</v>
       </c>
       <c r="AS3">
-        <v>-1.5891124264338183</v>
+        <v>-1.6035600916088191</v>
       </c>
       <c r="AT3">
-        <v>-1.6671761553976121</v>
+        <v>-1.7532813051122349</v>
       </c>
       <c r="AU3">
-        <v>-1.6502205745471219</v>
+        <v>-1.6626886892296397</v>
       </c>
       <c r="AV3">
-        <v>-1.7424442414686112</v>
+        <v>-1.5580798466149228</v>
       </c>
       <c r="AW3">
-        <v>-1.7687207821765187</v>
+        <v>-1.5785871522434252</v>
       </c>
       <c r="AX3">
-        <v>-1.6322511033670812</v>
+        <v>-1.7331603869508438</v>
       </c>
       <c r="AY3">
-        <v>-1.7765193984066061</v>
+        <v>-1.5988602036909441</v>
       </c>
       <c r="AZ3">
-        <v>-1.6073801723014514</v>
+        <v>-1.5478286425650929</v>
       </c>
       <c r="BA3">
-        <v>-1.5537859181266513</v>
+        <v>-1.5825710298868489</v>
       </c>
       <c r="BB3">
-        <v>-1.5603966522264592</v>
+        <v>-1.596341713532051</v>
       </c>
       <c r="BC3">
-        <v>-1.4950654193650217</v>
+        <v>-1.6798934052722041</v>
       </c>
       <c r="BD3">
-        <v>-1.7019626711231084</v>
+        <v>-1.6632572202335878</v>
       </c>
       <c r="BE3">
-        <v>-1.4661702403905343</v>
+        <v>-1.7192043053239794</v>
       </c>
       <c r="BF3">
-        <v>-1.5647396559986952</v>
+        <v>-1.5642653580261594</v>
       </c>
       <c r="BG3">
-        <v>-1.4781748132060166</v>
+        <v>-1.6688187996202644</v>
       </c>
       <c r="BH3">
-        <v>-1.6652293524219983</v>
+        <v>-1.534467503242035</v>
       </c>
       <c r="BI3">
-        <v>-1.6161249256826953</v>
+        <v>-1.7159867599801923</v>
       </c>
       <c r="BJ3">
-        <v>-1.2801744938370607</v>
+        <v>-1.1836908181203982</v>
       </c>
       <c r="BK3">
-        <v>-1.2149421303211212</v>
+        <v>-1.2189393668525679</v>
       </c>
       <c r="BL3">
-        <v>-1.3126993899029966</v>
+        <v>-1.3686207563140624</v>
       </c>
       <c r="BM3">
-        <v>-1.2372590899118541</v>
+        <v>-1.1060647335076326</v>
       </c>
       <c r="BN3">
-        <v>-1.1820265724899808</v>
+        <v>-1.1732032627936815</v>
       </c>
       <c r="BO3">
-        <v>-1.2568712876070649</v>
+        <v>-1.4969167398557046</v>
       </c>
       <c r="BP3">
-        <v>-1.2895098883614173</v>
+        <v>-1.1554712501596076</v>
       </c>
       <c r="BQ3">
-        <v>-1.1842687536124794</v>
+        <v>-1.3313543165567456</v>
       </c>
       <c r="BR3">
-        <v>-1.2912166270331733</v>
+        <v>-1.2030014250747172</v>
       </c>
       <c r="BS3">
-        <v>-1.2737378878662293</v>
+        <v>-1.2469520085315047</v>
       </c>
       <c r="BT3">
-        <v>-0.78748701454435022</v>
+        <v>-0.7909294189090561</v>
       </c>
       <c r="BU3">
-        <v>-0.75799587474540064</v>
+        <v>-0.72819091425948179</v>
       </c>
       <c r="BV3">
-        <v>-0.70890386035573572</v>
+        <v>-0.82043631293390895</v>
       </c>
       <c r="BW3">
-        <v>-0.72940832042843262</v>
+        <v>-0.8625637096827935</v>
       </c>
       <c r="BX3">
-        <v>-0.79707728474388084</v>
+        <v>-0.83233954501408758</v>
       </c>
       <c r="BY3">
-        <v>-0.73879860587637203</v>
+        <v>-0.84860478246224824</v>
       </c>
       <c r="BZ3">
-        <v>-0.6827567044890468</v>
+        <v>-0.73678457703883882</v>
       </c>
       <c r="CA3">
-        <v>-0.74357062374051286</v>
+        <v>-0.85949106915478823</v>
       </c>
       <c r="CB3">
-        <v>-0.74080346328015501</v>
+        <v>-0.73632566389355592</v>
       </c>
       <c r="CC3">
-        <v>-0.86979181466866473</v>
+        <v>-0.80282093663783449</v>
       </c>
       <c r="CD3">
-        <v>-0.52087955393025709</v>
+        <v>-0.46491091024852005</v>
       </c>
       <c r="CE3">
-        <v>-0.12083955401655018</v>
+        <v>-0.36539673313922361</v>
       </c>
       <c r="CF3">
-        <v>-0.24342427659560872</v>
+        <v>-0.30227223997117658</v>
       </c>
       <c r="CG3">
-        <v>-0.17911884921532506</v>
+        <v>-0.293489856659925</v>
       </c>
       <c r="CH3">
-        <v>-0.28056005371756909</v>
+        <v>-0.30970907439125622</v>
       </c>
       <c r="CI3">
-        <v>-0.17214847586411908</v>
+        <v>-0.21075810673269529</v>
       </c>
       <c r="CJ3">
-        <v>-0.17081521864140334</v>
+        <v>-0.24791442905182307</v>
       </c>
       <c r="CK3">
-        <v>-0.31860471765551379</v>
+        <v>-0.18113049021657812</v>
       </c>
       <c r="CL3">
-        <v>-0.23845612735225749</v>
+        <v>-0.29479269765844063</v>
       </c>
       <c r="CM3">
-        <v>-0.32122559902276721</v>
+        <v>-0.30229030632799919</v>
       </c>
       <c r="CN3">
-        <v>-0.51300789716896977</v>
+        <v>-0.47679993549667288</v>
       </c>
       <c r="CO3">
-        <v>-0.29195040804856182</v>
+        <v>-0.24990263729991832</v>
       </c>
       <c r="CP3">
-        <v>-0.2367038968296708</v>
+        <v>-0.34632969712270534</v>
       </c>
       <c r="CQ3">
-        <v>-0.29333246836784549</v>
+        <v>-0.293582323465926</v>
       </c>
       <c r="CR3">
-        <v>-0.11799032355595523</v>
+        <v>-0.40480293122443384</v>
       </c>
       <c r="CS3">
-        <v>-0.28102799548782786</v>
+        <v>-0.20466890623121228</v>
       </c>
       <c r="CT3">
-        <v>-0.19253892101855138</v>
+        <v>-0.26778495828443721</v>
       </c>
       <c r="CU3">
-        <v>-0.055998170979292071</v>
+        <v>-0.23524527114643662</v>
       </c>
       <c r="CV3">
-        <v>-0.12388426929105648</v>
+        <v>-0.27030206314835437</v>
       </c>
       <c r="CW3">
-        <v>-0.23540574287955363</v>
+        <v>-0.22340189055872717</v>
       </c>
       <c r="CX3">
-        <v>-0.1575130850890647</v>
+        <v>-0.25464516683278993</v>
       </c>
       <c r="CY3">
-        <v>0.03958140112026802</v>
+        <v>-0.13779084744766754</v>
       </c>
       <c r="CZ3">
-        <v>0.022742705321881228</v>
+        <v>-0.25087394746597491</v>
       </c>
       <c r="DA3">
-        <v>0.044679692634613591</v>
+        <v>-0.042765970370615733</v>
       </c>
       <c r="DB3">
-        <v>-0.050333890923188788</v>
+        <v>-0.024528479077966032</v>
       </c>
       <c r="DC3">
-        <v>-0.0084129830245872964</v>
+        <v>0.027013834155944015</v>
       </c>
       <c r="DD3">
-        <v>0.030940505888379342</v>
+        <v>-0.048678486012149351</v>
       </c>
       <c r="DE3">
-        <v>0.017440769156535092</v>
+        <v>-0.030445286205226105</v>
       </c>
       <c r="DF3">
-        <v>-0.064789455736958032</v>
+        <v>-0.074976438173299645</v>
       </c>
       <c r="DG3">
-        <v>-0.010999100464263068</v>
+        <v>-0.11845298587603413</v>
       </c>
       <c r="DH3">
-        <v>0.022662571259708938</v>
+        <v>-0.11429762671535097</v>
       </c>
       <c r="DI3">
-        <v>0.10104682394571121</v>
+        <v>-0.056682150271880623</v>
       </c>
       <c r="DJ3">
-        <v>0.089375633666368054</v>
+        <v>0.099282190390822783</v>
       </c>
       <c r="DK3">
-        <v>0.16224770182255882</v>
+        <v>0.011429853290756907</v>
       </c>
       <c r="DL3">
-        <v>0.044823832567651968</v>
+        <v>0.090086644635848992</v>
       </c>
       <c r="DM3">
-        <v>0.12499021787416822</v>
+        <v>-0.098986956790426364</v>
       </c>
       <c r="DN3">
-        <v>0.22851609901973313</v>
+        <v>0.039035682389392298</v>
       </c>
       <c r="DO3">
-        <v>0.13373295969237353</v>
+        <v>0.062138036960035281</v>
       </c>
       <c r="DP3">
-        <v>0.18699404194607855</v>
+        <v>-0.035793769748682494</v>
       </c>
       <c r="DQ3">
-        <v>0.036324139263714521</v>
+        <v>0.055320116545121069</v>
       </c>
       <c r="DR3">
-        <v>0.065591116739155741</v>
+        <v>0.05199782013383808</v>
       </c>
       <c r="DS3">
-        <v>0.044022588449648188</v>
+        <v>-0.044207289696017664</v>
       </c>
       <c r="DT3">
-        <v>0.11439095614540537</v>
+        <v>-0.019397911436607174</v>
       </c>
       <c r="DU3">
-        <v>0.19963507374223644</v>
+        <v>0.10904565594294197</v>
       </c>
       <c r="DV3">
-        <v>0.14288180159425903</v>
+        <v>0.03366900991349283</v>
       </c>
       <c r="DW3">
-        <v>0.021163800681490673</v>
+        <v>0.069073049645222193</v>
       </c>
       <c r="DX3">
-        <v>0.077185650493018967</v>
+        <v>0.061845390281577692</v>
       </c>
       <c r="DY3">
-        <v>0.010798412612391126</v>
+        <v>0.054450950598126463</v>
       </c>
       <c r="DZ3">
-        <v>0.16242659988568084</v>
+        <v>0.022737783169484903</v>
       </c>
       <c r="EA3">
-        <v>0.076318962702827689</v>
+        <v>0.12758953880979804</v>
       </c>
       <c r="EB3">
-        <v>0.22424592899075282</v>
+        <v>0.031518865535325867</v>
       </c>
       <c r="EC3">
-        <v>0.28321577746503346</v>
+        <v>-0.19705224126023144</v>
       </c>
       <c r="ED3">
-        <v>0.06796413054459774</v>
+        <v>-0.086627329958169491</v>
       </c>
       <c r="EE3">
-        <v>0.11489037045236317</v>
+        <v>0.034605008392012297</v>
       </c>
       <c r="EF3">
-        <v>0.035630627297159545</v>
+        <v>0.038815335404222683</v>
       </c>
       <c r="EG3">
-        <v>0.21138680512053692</v>
+        <v>-0.051638634305407119</v>
       </c>
       <c r="EH3">
-        <v>0.17258228767351202</v>
+        <v>0.026157648160987822</v>
       </c>
       <c r="EI3">
-        <v>0.16070032478365279</v>
+        <v>0.042832952776861728</v>
       </c>
       <c r="EJ3">
-        <v>0.043389439691591064</v>
+        <v>0.051210658481141626</v>
       </c>
       <c r="EK3">
-        <v>0.22451093426940974</v>
+        <v>-0.11002063334401027</v>
       </c>
       <c r="EL3">
-        <v>0.051787607645357461</v>
+        <v>-0.022448757735686272</v>
       </c>
       <c r="EM3">
-        <v>0.069396622291527946</v>
+        <v>0.042276921974873129</v>
       </c>
       <c r="EN3">
-        <v>-0.057861386220424693</v>
+        <v>-0.10303606629176137</v>
       </c>
       <c r="EO3">
-        <v>-0.018720065939737202</v>
+        <v>-0.051650343328742084</v>
       </c>
       <c r="EP3">
-        <v>0.066602333814778231</v>
+        <v>-0.090631572673570637</v>
       </c>
       <c r="EQ3">
-        <v>0.13748765042600369</v>
+        <v>0.078602149387311734</v>
       </c>
       <c r="ER3">
-        <v>0.070080972535285904</v>
+        <v>0.014745471269973831</v>
       </c>
       <c r="ES3">
-        <v>0.045778792785244868</v>
+        <v>0.027663067886497403</v>
       </c>
       <c r="ET3">
-        <v>0.17502705918158989</v>
+        <v>0.1197755336718596</v>
       </c>
       <c r="EU3">
-        <v>0.109645186136937</v>
+        <v>-0.0083134793720234107</v>
       </c>
       <c r="EV3">
-        <v>0.11372721104808724</v>
+        <v>0.057815695531475877</v>
       </c>
       <c r="EW3">
-        <v>0.02817859245123976</v>
+        <v>-0.042019243068241091</v>
       </c>
       <c r="EX3">
-        <v>-0.023872194561608925</v>
+        <v>0.074590791170933063</v>
       </c>
       <c r="EY3">
-        <v>0.069478781713102844</v>
+        <v>0.02644722533566668</v>
       </c>
       <c r="EZ3">
-        <v>0.044356047688930991</v>
+        <v>0.030623273505063917</v>
       </c>
       <c r="FA3">
-        <v>0.15963088957129859</v>
+        <v>-0.039787093637680168</v>
       </c>
       <c r="FB3">
-        <v>0.081514502315618825</v>
+        <v>0.10816867383710539</v>
       </c>
       <c r="FC3">
-        <v>0.19819810962155604</v>
+        <v>-0.10671422609830847</v>
       </c>
       <c r="FD3">
-        <v>0.099440633890170452</v>
+        <v>-0.11355017695637747</v>
       </c>
       <c r="FE3">
-        <v>0.16311957316139794</v>
+        <v>0.027818619745173877</v>
       </c>
       <c r="FF3">
-        <v>0.17629513327979074</v>
+        <v>0.01344286524932059</v>
       </c>
       <c r="FG3">
-        <v>0.1806591119937726</v>
+        <v>-0.10161898643105033</v>
       </c>
       <c r="FH3">
-        <v>0.01724852682068706</v>
+        <v>0.08913034358723107</v>
       </c>
       <c r="FI3">
-        <v>0.12025495727795994</v>
+        <v>-0.017368724327213491</v>
       </c>
       <c r="FJ3">
-        <v>0.060972245543231281</v>
+        <v>-0.094791493345679462</v>
       </c>
       <c r="FK3">
-        <v>-0.0028255695984969889</v>
+        <v>-0.075315339696652328</v>
       </c>
       <c r="FL3">
-        <v>0.10800009103103</v>
+        <v>-0.050885417371567571</v>
       </c>
       <c r="FM3">
-        <v>0.11690455618665643</v>
+        <v>-0.041921784572803496</v>
       </c>
       <c r="FN3">
-        <v>0.051197624470342699</v>
+        <v>-0.07955839154901749</v>
       </c>
       <c r="FO3">
-        <v>0.085566391542294673</v>
+        <v>0.0056192725707173569</v>
       </c>
       <c r="FP3">
-        <v>0.03287082031269406</v>
+        <v>-0.010036041246961013</v>
       </c>
       <c r="FQ3">
-        <v>0.14698244814113642</v>
+        <v>-0.094549863457954603</v>
       </c>
       <c r="FR3">
-        <v>0.12231148018688676</v>
+        <v>-0.080019531604920952</v>
       </c>
       <c r="FS3">
-        <v>0.21527399441534162</v>
+        <v>-0.087097196436750249</v>
       </c>
       <c r="FT3">
-        <v>0.091095046586638639</v>
+        <v>-0.020069399771248438</v>
       </c>
       <c r="FU3">
-        <v>0.010231962062455581</v>
+        <v>0.043462317645632235</v>
       </c>
       <c r="FV3">
-        <v>0.0027952807934127988</v>
+        <v>0.047710182251825439</v>
       </c>
       <c r="FW3">
-        <v>0.023114585179863867</v>
+        <v>-0.038723054481690861</v>
       </c>
       <c r="FX3">
-        <v>0.075217190550660465</v>
+        <v>-0.077911006251708409</v>
       </c>
       <c r="FY3">
-        <v>0.12529796209374247</v>
+        <v>0.025345634275452576</v>
       </c>
       <c r="FZ3">
-        <v>0.02942657215096561</v>
+        <v>-0.037481222334368743</v>
       </c>
       <c r="GA3">
-        <v>0.081814329956960641</v>
+        <v>-0.022961283259966003</v>
       </c>
       <c r="GB3">
-        <v>0.020417806664764625</v>
+        <v>-0.029590050108969247</v>
       </c>
       <c r="GC3">
-        <v>0.0013804046766130505</v>
+        <v>0.046331207436703166</v>
       </c>
       <c r="GD3">
-        <v>0.10887829725345266</v>
+        <v>-0.24759112935813785</v>
       </c>
       <c r="GE3">
-        <v>0.026247104935497152</v>
+        <v>-0.10151736597412665</v>
       </c>
       <c r="GF3">
-        <v>0.11150715194341224</v>
+        <v>-0.014533714816709844</v>
       </c>
       <c r="GG3">
-        <v>0.045348325386745846</v>
+        <v>-0.032074667780258088</v>
       </c>
       <c r="GH3">
-        <v>-0.12123053456380956</v>
+        <v>-0.033596806446704236</v>
       </c>
       <c r="GI3">
-        <v>0.10688455491239408</v>
+        <v>-0.1034924318579321</v>
       </c>
       <c r="GJ3">
-        <v>0.0048014504051337699</v>
+        <v>-0.13582307943905636</v>
       </c>
       <c r="GK3">
-        <v>-0.090542856890074241</v>
+        <v>-0.10218711204007136</v>
       </c>
       <c r="GL3">
-        <v>-3.8998304442054406e-05</v>
+        <v>-0.063563430643576321</v>
       </c>
       <c r="GM3">
-        <v>-0.077062579904275036</v>
+        <v>-0.10662719184674574</v>
       </c>
       <c r="GN3">
-        <v>0.012949988687616249</v>
+        <v>0.031570659659280416</v>
       </c>
       <c r="GO3">
-        <v>0.10185708703791083</v>
+        <v>-0.14795377826242756</v>
       </c>
       <c r="GP3">
-        <v>0.020704708046134161</v>
+        <v>-0.037002611674578613</v>
       </c>
       <c r="GQ3">
-        <v>0.1522902945796995</v>
+        <v>-0.033083806362091565</v>
       </c>
       <c r="GR3">
-        <v>0.14605697567367124</v>
+        <v>-0.012309013848840367</v>
       </c>
       <c r="GS3">
-        <v>0.06788490849541777</v>
+        <v>-0.030809674168181665</v>
       </c>
       <c r="GT3">
-        <v>0.15420609467423743</v>
+        <v>-0.079457803080045963</v>
       </c>
       <c r="GU3">
-        <v>0.20485674627455411</v>
+        <v>-0.023110488153025584</v>
       </c>
       <c r="GV3">
-        <v>0.015512790218607469</v>
+        <v>-0.20635382506305405</v>
       </c>
       <c r="GW3">
-        <v>0.019227412319067612</v>
+        <v>-0.010151232712493132</v>
       </c>
       <c r="GX3">
-        <v>0.082258793471951572</v>
+        <v>-0.00048033335881319161</v>
       </c>
       <c r="GY3">
-        <v>0.014633971890657209</v>
+        <v>-0.1095124522306242</v>
       </c>
       <c r="GZ3">
-        <v>0.095684356068485299</v>
+        <v>-0.015544700547211177</v>
       </c>
       <c r="HA3">
-        <v>0.099709674271814319</v>
+        <v>-0.052683017003751408</v>
       </c>
       <c r="HB3">
-        <v>0.074705795253230428</v>
+        <v>-0.025109203830877842</v>
       </c>
       <c r="HC3">
-        <v>0.084524133192039705</v>
+        <v>-0.038877897997623333</v>
       </c>
       <c r="HD3">
-        <v>0.088504688544035787</v>
+        <v>-0.017231833200409795</v>
       </c>
       <c r="HE3">
-        <v>0.14389997696880749</v>
+        <v>-0.06124178485601052</v>
       </c>
       <c r="HF3">
-        <v>0.10837686937123514</v>
+        <v>-0.0035667913585128645</v>
       </c>
       <c r="HG3">
-        <v>0.083066982986794574</v>
+        <v>-0.017145692212478875</v>
       </c>
       <c r="HH3">
-        <v>0.15059412911262152</v>
+        <v>-0.0013595610515075901</v>
       </c>
       <c r="HI3">
-        <v>0.073239923442166274</v>
+        <v>-0.11530765467614434</v>
       </c>
       <c r="HJ3">
-        <v>0.16991876779497558</v>
+        <v>-0.10511518587770283</v>
       </c>
       <c r="HK3">
-        <v>-0.06888369212580743</v>
+        <v>-0.031894383958001704</v>
       </c>
       <c r="HL3">
-        <v>0.066540175961402909</v>
+        <v>-0.06529915047120699</v>
       </c>
       <c r="HM3">
         <v>0</v>
@@ -8166,7 +8166,7 @@
         <v>0</v>
       </c>
       <c r="HO3">
-        <v>-5.6128490048097035</v>
+        <v>-5.5069258697098915</v>
       </c>
     </row>
     <row r="4">
@@ -8174,661 +8174,661 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.057959269366863624</v>
+        <v>0.056061515332623865</v>
       </c>
       <c r="C4">
-        <v>0.051902698964808251</v>
+        <v>0.050054741902196213</v>
       </c>
       <c r="D4">
-        <v>0.063498889227917119</v>
+        <v>0.061787490514184654</v>
       </c>
       <c r="E4">
-        <v>0.080044137712035043</v>
+        <v>0.075968729608671431</v>
       </c>
       <c r="F4">
-        <v>0.047962429526578955</v>
+        <v>0.046970006798871103</v>
       </c>
       <c r="G4">
-        <v>0.038898235891713075</v>
+        <v>0.039208930985804205</v>
       </c>
       <c r="H4">
-        <v>0.030751923775758635</v>
+        <v>0.030589360952461231</v>
       </c>
       <c r="I4">
-        <v>0.034567299775469282</v>
+        <v>0.034294635903010011</v>
       </c>
       <c r="J4">
-        <v>0.03429159555442348</v>
+        <v>0.033664956416641252</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.11329197564609177</v>
+        <v>0.11180341848908391</v>
       </c>
       <c r="M4">
-        <v>0.11136503637097747</v>
+        <v>0.1098503708125432</v>
       </c>
       <c r="N4">
-        <v>0.11063378177120432</v>
+        <v>0.1122122073363966</v>
       </c>
       <c r="O4">
-        <v>0.10923347429311006</v>
+        <v>0.11100445604314914</v>
       </c>
       <c r="P4">
-        <v>0.10727527011446142</v>
+        <v>0.11391310218338235</v>
       </c>
       <c r="Q4">
-        <v>0.10605550534414131</v>
+        <v>0.10947695597794539</v>
       </c>
       <c r="R4">
-        <v>0.10992357377563523</v>
+        <v>0.11262740662289507</v>
       </c>
       <c r="S4">
-        <v>0.12061184535351577</v>
+        <v>0.11262740662449437</v>
       </c>
       <c r="T4">
-        <v>0.11136503638197108</v>
+        <v>0.11921472172064199</v>
       </c>
       <c r="U4">
-        <v>0.10300743846971934</v>
+        <v>0.11100445605317188</v>
       </c>
       <c r="V4">
-        <v>0.10546924805124812</v>
+        <v>0.10734618506277452</v>
       </c>
       <c r="W4">
-        <v>0.10992357378416862</v>
+        <v>0.10357670066348747</v>
       </c>
       <c r="X4">
-        <v>0.10546924805544598</v>
+        <v>0.1080363229178278</v>
       </c>
       <c r="Y4">
-        <v>0.11063378178983128</v>
+        <v>0.10244506791958882</v>
       </c>
       <c r="Z4">
-        <v>0.11250358494071587</v>
+        <v>0.1050747878986972</v>
       </c>
       <c r="AA4">
-        <v>0.10727527013532101</v>
+        <v>0.10328844385162289</v>
       </c>
       <c r="AB4">
-        <v>0.10665729419863684</v>
+        <v>0.10570201620421632</v>
       </c>
       <c r="AC4">
-        <v>0.10665729420071669</v>
+        <v>0.10009219998782645</v>
       </c>
       <c r="AD4">
-        <v>0.10326763038477135</v>
+        <v>0.10634626578654711</v>
       </c>
       <c r="AE4">
-        <v>0.099449533530431219</v>
+        <v>0.10163235772827572</v>
       </c>
       <c r="AF4">
-        <v>0.10150994690773515</v>
+        <v>0.10300379960526916</v>
       </c>
       <c r="AG4">
-        <v>0.1051817487815175</v>
+        <v>0.10768883209697662</v>
       </c>
       <c r="AH4">
-        <v>0.10379763423588992</v>
+        <v>0.10136796850438438</v>
       </c>
       <c r="AI4">
-        <v>0.1015099469160952</v>
+        <v>0.095256265000543155</v>
       </c>
       <c r="AJ4">
-        <v>0.10150994691904887</v>
+        <v>0.10476733714095035</v>
       </c>
       <c r="AK4">
-        <v>0.1040675708244895</v>
+        <v>0.10602196814908396</v>
       </c>
       <c r="AL4">
-        <v>0.10923347433729085</v>
+        <v>0.10803632295154421</v>
       </c>
       <c r="AM4">
-        <v>0.10823411483197694</v>
+        <v>0.098198073679059916</v>
       </c>
       <c r="AN4">
-        <v>0.10635441826821684</v>
+        <v>0.10084859731264276</v>
       </c>
       <c r="AO4">
-        <v>0.10079968953132117</v>
+        <v>0.10634626581542843</v>
       </c>
       <c r="AP4">
-        <v>0.11027610700668894</v>
+        <v>0.09984589116166856</v>
       </c>
       <c r="AQ4">
-        <v>0.10759054366401623</v>
+        <v>0.096672756157756445</v>
       </c>
       <c r="AR4">
-        <v>0.1032676304207031</v>
+        <v>0.10507478794839914</v>
       </c>
       <c r="AS4">
-        <v>0.1043408830800185</v>
+        <v>0.10163235777283856</v>
       </c>
       <c r="AT4">
-        <v>0.10727527017699422</v>
+        <v>0.10734618512303383</v>
       </c>
       <c r="AU4">
-        <v>0.10665729424132711</v>
+        <v>0.10386864275188358</v>
       </c>
       <c r="AV4">
-        <v>0.11027610701817693</v>
+        <v>0.10009220005134188</v>
       </c>
       <c r="AW4">
-        <v>0.11136503643531323</v>
+        <v>0.10084859734257628</v>
       </c>
       <c r="AX4">
-        <v>0.10605550541582685</v>
+        <v>0.10667500300582367</v>
       </c>
       <c r="AY4">
-        <v>0.1117388659958768</v>
+        <v>0.10163235779181817</v>
       </c>
       <c r="AZ4">
-        <v>0.10518174882526218</v>
+        <v>0.099845891196460229</v>
       </c>
       <c r="BA4">
-        <v>0.1032676304425916</v>
+        <v>0.10110673465664291</v>
       </c>
       <c r="BB4">
-        <v>0.10353100852420012</v>
+        <v>0.10163235780206174</v>
       </c>
       <c r="BC4">
-        <v>0.10127046355126473</v>
+        <v>0.10476733719541112</v>
       </c>
       <c r="BD4">
-        <v>0.10889568778518692</v>
+        <v>0.10416434465662729</v>
       </c>
       <c r="BE4">
-        <v>0.10033951919441644</v>
+        <v>0.10634626585921152</v>
       </c>
       <c r="BF4">
-        <v>0.10379763429549324</v>
+        <v>0.1005934994600844</v>
       </c>
       <c r="BG4">
-        <v>0.10079968958169416</v>
+        <v>0.10446388316051529</v>
       </c>
       <c r="BH4">
-        <v>0.10759054370125164</v>
+        <v>0.099602406842994123</v>
       </c>
       <c r="BI4">
-        <v>0.10576047488940271</v>
+        <v>0.10634626587036221</v>
       </c>
       <c r="BJ4">
-        <v>0.10880797549067654</v>
+        <v>0.10137705569910287</v>
       </c>
       <c r="BK4">
-        <v>0.10638761258957408</v>
+        <v>0.10265509212019137</v>
       </c>
       <c r="BL4">
-        <v>0.11012036885817074</v>
+        <v>0.10831516131767581</v>
       </c>
       <c r="BM4">
-        <v>0.1072652708651967</v>
+        <v>0.098813726950027575</v>
       </c>
       <c r="BN4">
-        <v>0.10526920572988706</v>
+        <v>0.10113101789282697</v>
       </c>
       <c r="BO4">
-        <v>0.10860078110492602</v>
+        <v>0.11476279117622928</v>
       </c>
       <c r="BP4">
-        <v>0.10987265826265635</v>
+        <v>0.1015468118659789</v>
       </c>
       <c r="BQ4">
-        <v>0.10597658482790064</v>
+        <v>0.10804121150031991</v>
       </c>
       <c r="BR4">
-        <v>0.11067315281132492</v>
+        <v>0.10368281165657933</v>
       </c>
       <c r="BS4">
-        <v>0.11003303137377941</v>
+        <v>0.10528285547686389</v>
       </c>
       <c r="BT4">
-        <v>0.081696404970570818</v>
+        <v>0.078294830232388521</v>
       </c>
       <c r="BU4">
-        <v>0.082495412309104024</v>
+        <v>0.078934853811503794</v>
       </c>
       <c r="BV4">
-        <v>0.081760600231468722</v>
+        <v>0.080421853880873126</v>
       </c>
       <c r="BW4">
-        <v>0.080104783849282699</v>
+        <v>0.079656438864371987</v>
       </c>
       <c r="BX4">
-        <v>0.081240054243196413</v>
+        <v>0.079174249510834183</v>
       </c>
       <c r="BY4">
-        <v>0.080327075793756059</v>
+        <v>0.07949332036684166</v>
       </c>
       <c r="BZ4">
-        <v>0.078844639083768847</v>
+        <v>0.076686840820679475</v>
       </c>
       <c r="CA4">
-        <v>0.079903015817552839</v>
+        <v>0.078885072862838801</v>
       </c>
       <c r="CB4">
-        <v>0.079897053570588059</v>
+        <v>0.07676131519701021</v>
       </c>
       <c r="CC4">
-        <v>0.082267532860498302</v>
+        <v>0.077952001418487515</v>
       </c>
       <c r="CD4">
-        <v>0.084033780186057186</v>
+        <v>0.079566828471215628</v>
       </c>
       <c r="CE4">
-        <v>0.08333592296500654</v>
+        <v>0.083611233743878383</v>
       </c>
       <c r="CF4">
-        <v>0.085342348457005904</v>
+        <v>0.082582520683662272</v>
       </c>
       <c r="CG4">
-        <v>0.084347719669653182</v>
+        <v>0.08249083331839363</v>
       </c>
       <c r="CH4">
-        <v>0.086090872232678736</v>
+        <v>0.08281929373515938</v>
       </c>
       <c r="CI4">
-        <v>0.08398446358263896</v>
+        <v>0.081151251775372815</v>
       </c>
       <c r="CJ4">
-        <v>0.084152850546830901</v>
+        <v>0.081652498810739493</v>
       </c>
       <c r="CK4">
-        <v>0.086681119627261119</v>
+        <v>0.080674916566194216</v>
       </c>
       <c r="CL4">
-        <v>0.086791135711182965</v>
+        <v>0.08365592642017855</v>
       </c>
       <c r="CM4">
-        <v>0.088256636098056465</v>
+        <v>0.083842106217975915</v>
       </c>
       <c r="CN4">
-        <v>0.081650452725807454</v>
+        <v>0.078156801091669087</v>
       </c>
       <c r="CO4">
-        <v>0.078416430609069512</v>
+        <v>0.074345856680262862</v>
       </c>
       <c r="CP4">
-        <v>0.077814855050025888</v>
+        <v>0.07551131610361593</v>
       </c>
       <c r="CQ4">
-        <v>0.076280839785733662</v>
+        <v>0.073155766880691489</v>
       </c>
       <c r="CR4">
-        <v>0.074333183306898296</v>
+        <v>0.074604852827537274</v>
       </c>
       <c r="CS4">
-        <v>0.076235365635287045</v>
+        <v>0.07221844209472407</v>
       </c>
       <c r="CT4">
-        <v>0.074151330139556659</v>
+        <v>0.071666721153479052</v>
       </c>
       <c r="CU4">
-        <v>0.072623187927292457</v>
+        <v>0.071314862355848885</v>
       </c>
       <c r="CV4">
-        <v>0.073439160921245875</v>
+        <v>0.071803479062195169</v>
       </c>
       <c r="CW4">
-        <v>0.074850078991740468</v>
+        <v>0.071272141614376311</v>
       </c>
       <c r="CX4">
-        <v>0.073933653386479878</v>
+        <v>0.071712007310476944</v>
       </c>
       <c r="CY4">
-        <v>0.073684237693093083</v>
+        <v>0.072373301974777135</v>
       </c>
       <c r="CZ4">
-        <v>0.073936229348040616</v>
+        <v>0.073983147183636161</v>
       </c>
       <c r="DA4">
-        <v>0.073725561302221562</v>
+        <v>0.071266504525646826</v>
       </c>
       <c r="DB4">
-        <v>0.074951373388025114</v>
+        <v>0.071098294653649613</v>
       </c>
       <c r="DC4">
-        <v>0.0744710856869506</v>
+        <v>0.07054146898388336</v>
       </c>
       <c r="DD4">
-        <v>0.073871850206119194</v>
+        <v>0.071193173235528567</v>
       </c>
       <c r="DE4">
-        <v>0.074086617773805263</v>
+        <v>0.071027099105277866</v>
       </c>
       <c r="DF4">
-        <v>0.0751734655680453</v>
+        <v>0.071627360473409035</v>
       </c>
       <c r="DG4">
-        <v>0.07453816057897554</v>
+        <v>0.072236162916868726</v>
       </c>
       <c r="DH4">
-        <v>0.074174524146314619</v>
+        <v>0.0722361630614968</v>
       </c>
       <c r="DI4">
-        <v>0.072503723298266654</v>
+        <v>0.070889896323353213</v>
       </c>
       <c r="DJ4">
-        <v>0.072715535926606428</v>
+        <v>0.068824130138059783</v>
       </c>
       <c r="DK4">
-        <v>0.071807264537841337</v>
+        <v>0.070047835107177964</v>
       </c>
       <c r="DL4">
-        <v>0.073447925905043204</v>
+        <v>0.069052966644939012</v>
       </c>
       <c r="DM4">
-        <v>0.072400045850022937</v>
+        <v>0.071764267243971058</v>
       </c>
       <c r="DN4">
-        <v>0.071130280264160559</v>
+        <v>0.069837941460462197</v>
       </c>
       <c r="DO4">
-        <v>0.072400046185379791</v>
+        <v>0.069583540461176957</v>
       </c>
       <c r="DP4">
-        <v>0.071760018235860659</v>
+        <v>0.071009245201777399</v>
       </c>
       <c r="DQ4">
-        <v>0.07387277756584415</v>
+        <v>0.069786365855581622</v>
       </c>
       <c r="DR4">
-        <v>0.073507243275682713</v>
+        <v>0.069889873477805495</v>
       </c>
       <c r="DS4">
-        <v>0.073872777834992534</v>
+        <v>0.071315509208816033</v>
       </c>
       <c r="DT4">
-        <v>0.072933510045754199</v>
+        <v>0.071009245821486766</v>
       </c>
       <c r="DU4">
-        <v>0.071854831942386996</v>
+        <v>0.06928935845453843</v>
       </c>
       <c r="DV4">
-        <v>0.072662017602387247</v>
+        <v>0.070373873335309797</v>
       </c>
       <c r="DW4">
-        <v>0.07445406234054483</v>
+        <v>0.069942164628655185</v>
       </c>
       <c r="DX4">
-        <v>0.07368791467531341</v>
+        <v>0.070101227293671478</v>
       </c>
       <c r="DY4">
-        <v>0.074726111952844926</v>
+        <v>0.070263659713851692</v>
       </c>
       <c r="DZ4">
-        <v>0.072608878815762487</v>
+        <v>0.070772295472668653</v>
       </c>
       <c r="EA4">
-        <v>0.073872779010385456</v>
+        <v>0.069386116135663728</v>
       </c>
       <c r="EB4">
-        <v>0.071902720725693425</v>
+        <v>0.070772295838139598</v>
       </c>
       <c r="EC4">
-        <v>0.071216773172463138</v>
+        <v>0.074433188154485963</v>
       </c>
       <c r="ED4">
-        <v>0.074190613974718253</v>
+        <v>0.072665980256395701</v>
       </c>
       <c r="EE4">
-        <v>0.073567011817225789</v>
+        <v>0.070889899871362433</v>
       </c>
       <c r="EF4">
-        <v>0.074795519260174415</v>
+        <v>0.070889900051151464</v>
       </c>
       <c r="EG4">
-        <v>0.07234875353683938</v>
+        <v>0.072308018932738055</v>
       </c>
       <c r="EH4">
-        <v>0.072933512417883581</v>
+        <v>0.071191627292923804</v>
       </c>
       <c r="EI4">
-        <v>0.073157921019375474</v>
+        <v>0.071009248367541661</v>
       </c>
       <c r="EJ4">
-        <v>0.074936054153372095</v>
+        <v>0.070949354184830046</v>
       </c>
       <c r="EK4">
-        <v>0.07240005003707696</v>
+        <v>0.073507698244219988</v>
       </c>
       <c r="EL4">
-        <v>0.07493605446880322</v>
+        <v>0.072168832248399761</v>
       </c>
       <c r="EM4">
-        <v>0.074726114098680935</v>
+        <v>0.071253337015293849</v>
       </c>
       <c r="EN4">
-        <v>0.076824072357448578</v>
+        <v>0.073588189787655897</v>
       </c>
       <c r="EO4">
-        <v>0.076231651104613884</v>
+        <v>0.072813314962209136</v>
       </c>
       <c r="EP4">
-        <v>0.074936055038318697</v>
+        <v>0.073507698963297841</v>
       </c>
       <c r="EQ4">
-        <v>0.073935360420750801</v>
+        <v>0.070949355426558128</v>
       </c>
       <c r="ER4">
-        <v>0.075007197842100914</v>
+        <v>0.071964163632212724</v>
       </c>
       <c r="ES4">
-        <v>0.075446784122582475</v>
+        <v>0.071830382447856195</v>
       </c>
       <c r="ET4">
-        <v>0.07356701436746714</v>
+        <v>0.070542172137842987</v>
       </c>
       <c r="EU4">
-        <v>0.074588989285189353</v>
+        <v>0.072521049817176761</v>
       </c>
       <c r="EV4">
-        <v>0.074588989456344165</v>
+        <v>0.071568991993661499</v>
       </c>
       <c r="EW4">
-        <v>0.075988940227626783</v>
+        <v>0.073192553905851845</v>
       </c>
       <c r="EX4">
-        <v>0.076911841608946374</v>
+        <v>0.071441287267211315</v>
       </c>
       <c r="EY4">
-        <v>0.075446785054795087</v>
+        <v>0.072238149704722032</v>
       </c>
       <c r="EZ4">
-        <v>0.075909454762883827</v>
+        <v>0.072238149893093392</v>
       </c>
       <c r="FA4">
-        <v>0.074190617758359098</v>
+        <v>0.073427900424116094</v>
       </c>
       <c r="FB4">
-        <v>0.075446785545396314</v>
+        <v>0.071191631080868123</v>
       </c>
       <c r="FC4">
-        <v>0.073749068079597066</v>
+        <v>0.074701834755220922</v>
       </c>
       <c r="FD4">
-        <v>0.075297780295297351</v>
+        <v>0.074885087883173967</v>
       </c>
       <c r="FE4">
-        <v>0.074387415588366534</v>
+        <v>0.072593221939699235</v>
       </c>
       <c r="FF4">
-        <v>0.074255697477588423</v>
+        <v>0.072887903346038035</v>
       </c>
       <c r="FG4">
-        <v>0.074255697683027103</v>
+        <v>0.074885088347296319</v>
       </c>
       <c r="FH4">
-        <v>0.076911843145481537</v>
+        <v>0.071830385332091781</v>
       </c>
       <c r="FI4">
-        <v>0.075297781197322708</v>
+        <v>0.073588193247267855</v>
       </c>
       <c r="FJ4">
-        <v>0.076314008688375734</v>
+        <v>0.074977998181188762</v>
       </c>
       <c r="FK4">
-        <v>0.077456032478682935</v>
+        <v>0.074701836007879746</v>
       </c>
       <c r="FL4">
-        <v>0.075675122875758588</v>
+        <v>0.074345263013296178</v>
       </c>
       <c r="FM4">
-        <v>0.075598356347471446</v>
+        <v>0.074258122998160453</v>
       </c>
       <c r="FN4">
-        <v>0.076737114320866592</v>
+        <v>0.074977998800950005</v>
       </c>
       <c r="FO4">
-        <v>0.076231655172895138</v>
+        <v>0.073588194281001995</v>
       </c>
       <c r="FP4">
-        <v>0.077180099370969701</v>
+        <v>0.073917251689185073</v>
       </c>
       <c r="FQ4">
-        <v>0.075371969147939366</v>
+        <v>0.075455874212897706</v>
       </c>
       <c r="FR4">
-        <v>0.075830665336697897</v>
+        <v>0.075262007339406731</v>
       </c>
       <c r="FS4">
-        <v>0.074454070579079087</v>
+        <v>0.075455874520118454</v>
       </c>
       <c r="FT4">
-        <v>0.076480954516493713</v>
+        <v>0.074345264365539246</v>
       </c>
       <c r="FU4">
-        <v>0.077933920896362432</v>
+        <v>0.073348785366033648</v>
       </c>
       <c r="FV4">
-        <v>0.078131691167417971</v>
+        <v>0.073348785575370598</v>
       </c>
       <c r="FW4">
-        <v>0.077836481796018542</v>
+        <v>0.074885090985718314</v>
       </c>
       <c r="FX4">
-        <v>0.077000431051351972</v>
+        <v>0.075653489910795083</v>
       </c>
       <c r="FY4">
-        <v>0.076231656960174365</v>
+        <v>0.073917253349193218</v>
       </c>
       <c r="FZ4">
-        <v>0.077933921682601867</v>
+        <v>0.075071781760009185</v>
       </c>
       <c r="GA4">
-        <v>0.077089845928289186</v>
+        <v>0.074885091700575113</v>
       </c>
       <c r="GB4">
-        <v>0.078232052059291957</v>
+        <v>0.075071782118862534</v>
       </c>
       <c r="GC4">
-        <v>0.078643679811300896</v>
+        <v>0.073833906938589405</v>
       </c>
       <c r="GD4">
-        <v>0.076824078959542103</v>
+        <v>0.079432554305146869</v>
       </c>
       <c r="GE4">
-        <v>0.078333415724766181</v>
+        <v>0.076592239882094598</v>
       </c>
       <c r="GF4">
-        <v>0.076911847183031637</v>
+        <v>0.075071782819466429</v>
       </c>
       <c r="GG4">
-        <v>0.078131692940873895</v>
+        <v>0.075455876935730845</v>
       </c>
       <c r="GH4">
-        <v>0.081378886202215686</v>
+        <v>0.075554209051352419</v>
       </c>
       <c r="GI4">
-        <v>0.077180102614120213</v>
+        <v>0.076924471493108132</v>
       </c>
       <c r="GJ4">
-        <v>0.079072382816299677</v>
+        <v>0.077620733304646333</v>
       </c>
       <c r="GK4">
-        <v>0.080981591803367184</v>
+        <v>0.077037508744872168</v>
       </c>
       <c r="GL4">
-        <v>0.079293478527302425</v>
+        <v>0.076376310937007405</v>
       </c>
       <c r="GM4">
-        <v>0.080852158153898748</v>
+        <v>0.077267133103511784</v>
       </c>
       <c r="GN4">
-        <v>0.079182354153812431</v>
+        <v>0.074793044036076464</v>
       </c>
       <c r="GO4">
-        <v>0.077644426457091478</v>
+        <v>0.078235873232425479</v>
       </c>
       <c r="GP4">
-        <v>0.07918235448662661</v>
+        <v>0.076164669759270845</v>
       </c>
       <c r="GQ4">
-        <v>0.076911849180146</v>
+        <v>0.076164669945275598</v>
       </c>
       <c r="GR4">
-        <v>0.077089848989301671</v>
+        <v>0.075854967269828585</v>
       </c>
       <c r="GS4">
-        <v>0.078539215984058594</v>
+        <v>0.076269963412732095</v>
       </c>
       <c r="GT4">
-        <v>0.077089849406457134</v>
+        <v>0.077267134303398988</v>
       </c>
       <c r="GU4">
-        <v>0.076314015575418198</v>
+        <v>0.076269963785724385</v>
       </c>
       <c r="GV4">
-        <v>0.079749896151343647</v>
+        <v>0.080005344865588524</v>
       </c>
       <c r="GW4">
-        <v>0.079749896314633723</v>
+        <v>0.076164671063480613</v>
       </c>
       <c r="GX4">
-        <v>0.078643683383595731</v>
+        <v>0.076060417942811626</v>
       </c>
       <c r="GY4">
-        <v>0.079985531431266382</v>
+        <v>0.078235874872336061</v>
       </c>
       <c r="GZ4">
-        <v>0.078539217306983572</v>
+        <v>0.076483734241856061</v>
       </c>
       <c r="HA4">
-        <v>0.078539217504710518</v>
+        <v>0.077267135551393751</v>
       </c>
       <c r="HB4">
-        <v>0.079072385945577278</v>
+        <v>0.07681259653688427</v>
       </c>
       <c r="HC4">
-        <v>0.078963551144313193</v>
+        <v>0.07715172595201028</v>
       </c>
       <c r="HD4">
-        <v>0.078963551338937898</v>
+        <v>0.076812596931434995</v>
       </c>
       <c r="HE4">
-        <v>0.078032325655918999</v>
+        <v>0.077741127785092373</v>
       </c>
       <c r="HF4">
-        <v>0.078749218109174179</v>
+        <v>0.076701859609916073</v>
       </c>
       <c r="HG4">
-        <v>0.079293482295853465</v>
+        <v>0.077037512728451579</v>
       </c>
       <c r="HH4">
-        <v>0.078131698033634081</v>
+        <v>0.07681259774555578</v>
       </c>
       <c r="HI4">
-        <v>0.079633968143858966</v>
+        <v>0.079155996810660947</v>
       </c>
       <c r="HJ4">
-        <v>0.077933928455584153</v>
+        <v>0.079020073734522536</v>
       </c>
       <c r="HK4">
-        <v>0.082658285268404116</v>
+        <v>0.077620738051335125</v>
       </c>
       <c r="HL4">
-        <v>0.079985533844902368</v>
+        <v>0.078362971712243559</v>
       </c>
       <c r="HM4">
         <v>0</v>
@@ -8837,7 +8837,7 @@
         <v>0</v>
       </c>
       <c r="HO4">
-        <v>0.057543565718943326</v>
+        <v>0.05455451000144159</v>
       </c>
     </row>
   </sheetData>
@@ -10193,661 +10193,661 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>1.9238167120542797</v>
+        <v>1.8205612785930259</v>
       </c>
       <c r="C3">
-        <v>-0.47939122231228648</v>
+        <v>-1.0359996570798127</v>
       </c>
       <c r="D3">
-        <v>-0.42402019069007552</v>
+        <v>-0.96285065505826395</v>
       </c>
       <c r="E3">
-        <v>-0.37704652268379324</v>
+        <v>-0.98673665326488147</v>
       </c>
       <c r="F3">
-        <v>1.4488669206429683</v>
+        <v>1.3807349683637808</v>
       </c>
       <c r="G3">
-        <v>1.3559116668557016</v>
+        <v>1.2582257338196672</v>
       </c>
       <c r="H3">
-        <v>1.1409625183506977</v>
+        <v>1.0941431739408112</v>
       </c>
       <c r="I3">
-        <v>0.79743332759539887</v>
+        <v>0.64735080827403957</v>
       </c>
       <c r="J3">
-        <v>0.70704613096513369</v>
+        <v>0.58882641249375012</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>-0.95195740766251014</v>
+        <v>-1.9345441673723807</v>
       </c>
       <c r="M3">
-        <v>-0.93245091542245329</v>
+        <v>-1.9958506377357206</v>
       </c>
       <c r="N3">
-        <v>-1.0368442543774072</v>
+        <v>-1.847201851606237</v>
       </c>
       <c r="O3">
-        <v>-0.99262916260221112</v>
+        <v>-1.7842988897262777</v>
       </c>
       <c r="P3">
-        <v>-0.86243336003509452</v>
+        <v>-1.9320842713727102</v>
       </c>
       <c r="Q3">
-        <v>-0.85753859762562323</v>
+        <v>-1.8545117160744515</v>
       </c>
       <c r="R3">
-        <v>-0.92886588728563557</v>
+        <v>-1.7484804542832397</v>
       </c>
       <c r="S3">
-        <v>-0.89553850306076532</v>
+        <v>-2.0027457030774758</v>
       </c>
       <c r="T3">
-        <v>-0.82337445407551824</v>
+        <v>-1.8619272467938737</v>
       </c>
       <c r="U3">
-        <v>-0.85816721281555564</v>
+        <v>-1.6588572517933282</v>
       </c>
       <c r="V3">
-        <v>-0.83660219971304206</v>
+        <v>-1.8605237749424957</v>
       </c>
       <c r="W3">
-        <v>-0.78351959491701173</v>
+        <v>-1.8322317694183565</v>
       </c>
       <c r="X3">
-        <v>-0.71510177958177967</v>
+        <v>-1.626713731700222</v>
       </c>
       <c r="Y3">
-        <v>-0.93224485974631499</v>
+        <v>-1.6483974089287532</v>
       </c>
       <c r="Z3">
-        <v>-0.8040448100373413</v>
+        <v>-1.7682888682092897</v>
       </c>
       <c r="AA3">
-        <v>-0.82519356326358706</v>
+        <v>-1.6934615747892898</v>
       </c>
       <c r="AB3">
-        <v>-0.7086406006744258</v>
+        <v>-1.676960786383805</v>
       </c>
       <c r="AC3">
-        <v>-0.80871176650208954</v>
+        <v>-1.707962422445769</v>
       </c>
       <c r="AD3">
-        <v>-0.77510645065008499</v>
+        <v>-1.6754660974444302</v>
       </c>
       <c r="AE3">
-        <v>-0.68319292998794556</v>
+        <v>-1.9018407224480376</v>
       </c>
       <c r="AF3">
-        <v>-0.66990852529480449</v>
+        <v>-1.8348388043977952</v>
       </c>
       <c r="AG3">
-        <v>-0.8899490212710176</v>
+        <v>-1.5625928671397993</v>
       </c>
       <c r="AH3">
-        <v>-0.67510550483544529</v>
+        <v>-1.6193356152090919</v>
       </c>
       <c r="AI3">
-        <v>-0.74148134487544914</v>
+        <v>-1.8234005502677517</v>
       </c>
       <c r="AJ3">
-        <v>-0.76146581236772604</v>
+        <v>-1.6253140513280768</v>
       </c>
       <c r="AK3">
-        <v>-0.74110960841416818</v>
+        <v>-1.6860966456216253</v>
       </c>
       <c r="AL3">
-        <v>-0.67669850583234226</v>
+        <v>-1.7258509138378884</v>
       </c>
       <c r="AM3">
-        <v>-0.66907230391732664</v>
+        <v>-1.6767137405297301</v>
       </c>
       <c r="AN3">
-        <v>-0.6875398048626129</v>
+        <v>-1.6759546250587429</v>
       </c>
       <c r="AO3">
-        <v>-0.70048753281385334</v>
+        <v>-1.6831031052016234</v>
       </c>
       <c r="AP3">
-        <v>-0.77605991849067435</v>
+        <v>-1.6282606393559242</v>
       </c>
       <c r="AQ3">
-        <v>-0.81041881234401225</v>
+        <v>-1.4551429735927623</v>
       </c>
       <c r="AR3">
-        <v>-0.69239355062304608</v>
+        <v>-1.5680816346758057</v>
       </c>
       <c r="AS3">
-        <v>-0.73303401349578545</v>
+        <v>-1.6256701582440709</v>
       </c>
       <c r="AT3">
-        <v>-0.61718068747341381</v>
+        <v>-1.6632051637085659</v>
       </c>
       <c r="AU3">
-        <v>-0.80658198239321277</v>
+        <v>-1.6392596380679234</v>
       </c>
       <c r="AV3">
-        <v>-0.75915339910329738</v>
+        <v>-1.7687848926810799</v>
       </c>
       <c r="AW3">
-        <v>-0.7638591385318716</v>
+        <v>-1.5293247046752982</v>
       </c>
       <c r="AX3">
-        <v>-0.77511328854744554</v>
+        <v>-1.64456539353658</v>
       </c>
       <c r="AY3">
-        <v>-0.69507453236879746</v>
+        <v>-1.6830172658322138</v>
       </c>
       <c r="AZ3">
-        <v>-0.71458029344321594</v>
+        <v>-1.583283722538702</v>
       </c>
       <c r="BA3">
-        <v>-0.64723206031890079</v>
+        <v>-1.6975648909266647</v>
       </c>
       <c r="BB3">
-        <v>-0.62532789193043525</v>
+        <v>-1.6414501823226193</v>
       </c>
       <c r="BC3">
-        <v>-0.72757539145937411</v>
+        <v>-1.7546504382055883</v>
       </c>
       <c r="BD3">
-        <v>-0.66790303998854694</v>
+        <v>-1.7713460584367278</v>
       </c>
       <c r="BE3">
-        <v>-0.6749531879888232</v>
+        <v>-1.6015155359299726</v>
       </c>
       <c r="BF3">
-        <v>-0.6038342155418146</v>
+        <v>-1.7875427792722747</v>
       </c>
       <c r="BG3">
-        <v>-0.75195702209036741</v>
+        <v>-1.832548539883166</v>
       </c>
       <c r="BH3">
-        <v>-0.79663964464650172</v>
+        <v>-1.6924948870480487</v>
       </c>
       <c r="BI3">
-        <v>-0.76491509728908891</v>
+        <v>-1.708147550233128</v>
       </c>
       <c r="BJ3">
-        <v>-0.56827260028418625</v>
+        <v>-1.2682628816770554</v>
       </c>
       <c r="BK3">
-        <v>-0.56323492325260316</v>
+        <v>-1.1837549143052117</v>
       </c>
       <c r="BL3">
-        <v>-0.51269812909419443</v>
+        <v>-1.2277120944359621</v>
       </c>
       <c r="BM3">
-        <v>-0.64319313415981416</v>
+        <v>-1.174815282066378</v>
       </c>
       <c r="BN3">
-        <v>-0.43881877689291265</v>
+        <v>-1.2033626537168576</v>
       </c>
       <c r="BO3">
-        <v>-0.61179429939127594</v>
+        <v>-1.3844806561609881</v>
       </c>
       <c r="BP3">
-        <v>-0.46279363731653989</v>
+        <v>-1.1227064246394654</v>
       </c>
       <c r="BQ3">
-        <v>-0.54474393868662729</v>
+        <v>-1.4186814613764709</v>
       </c>
       <c r="BR3">
-        <v>-0.44003212443754025</v>
+        <v>-1.2138243003436455</v>
       </c>
       <c r="BS3">
-        <v>-0.55343571800220714</v>
+        <v>-1.1691640408308726</v>
       </c>
       <c r="BT3">
-        <v>-0.38356453146436104</v>
+        <v>-0.74157712222989158</v>
       </c>
       <c r="BU3">
-        <v>-0.08332709231694807</v>
+        <v>-0.45839649758510426</v>
       </c>
       <c r="BV3">
-        <v>-0.119730801363487</v>
+        <v>-0.57208250114775228</v>
       </c>
       <c r="BW3">
-        <v>-0.1409709278431632</v>
+        <v>-0.54398536169203537</v>
       </c>
       <c r="BX3">
-        <v>-0.21357202915808784</v>
+        <v>-0.57582948178649218</v>
       </c>
       <c r="BY3">
-        <v>-0.20656580324073812</v>
+        <v>-0.67435430166263444</v>
       </c>
       <c r="BZ3">
-        <v>-0.09031984260334551</v>
+        <v>-0.57190156452877183</v>
       </c>
       <c r="CA3">
-        <v>-0.15790388204221362</v>
+        <v>-0.60851419015177366</v>
       </c>
       <c r="CB3">
-        <v>-0.23888741049186316</v>
+        <v>-0.59792884394031209</v>
       </c>
       <c r="CC3">
-        <v>-0.37078174953389903</v>
+        <v>-0.71419271828002651</v>
       </c>
       <c r="CD3">
-        <v>-0.27632207340218867</v>
+        <v>-0.45587136236896386</v>
       </c>
       <c r="CE3">
-        <v>0.03654333903982343</v>
+        <v>-0.20534862126660924</v>
       </c>
       <c r="CF3">
-        <v>-0.034227366721891903</v>
+        <v>-0.2084445416364363</v>
       </c>
       <c r="CG3">
-        <v>-0.0058089547603081271</v>
+        <v>-0.25411169729428684</v>
       </c>
       <c r="CH3">
-        <v>-0.13357960848311981</v>
+        <v>-0.24673347316883315</v>
       </c>
       <c r="CI3">
-        <v>-0.14713834454716682</v>
+        <v>-0.23891564280363073</v>
       </c>
       <c r="CJ3">
-        <v>-0.056023592793961199</v>
+        <v>-0.18376728114006746</v>
       </c>
       <c r="CK3">
-        <v>-0.23710963544404182</v>
+        <v>-0.19131672695925525</v>
       </c>
       <c r="CL3">
-        <v>-0.13196622979706665</v>
+        <v>-0.3027395637307308</v>
       </c>
       <c r="CM3">
-        <v>-0.33497591131061066</v>
+        <v>-0.37019222368407784</v>
       </c>
       <c r="CN3">
-        <v>-0.35895422366527779</v>
+        <v>-0.55883351083314969</v>
       </c>
       <c r="CO3">
-        <v>0.12461868962971999</v>
+        <v>-0.13797520635140023</v>
       </c>
       <c r="CP3">
-        <v>0.12287577716577845</v>
+        <v>-0.17624083878023658</v>
       </c>
       <c r="CQ3">
-        <v>0.14167117585480632</v>
+        <v>-0.11503953522534811</v>
       </c>
       <c r="CR3">
-        <v>0.14875093332661529</v>
+        <v>-0.24633028990243264</v>
       </c>
       <c r="CS3">
-        <v>0.030429686206806004</v>
+        <v>-0.13702230548127209</v>
       </c>
       <c r="CT3">
-        <v>0.20068297566204141</v>
+        <v>-0.1387137640481636</v>
       </c>
       <c r="CU3">
-        <v>0.18248649540441533</v>
+        <v>-0.13635118834850957</v>
       </c>
       <c r="CV3">
-        <v>0.17149826331436183</v>
+        <v>-0.19709554656962155</v>
       </c>
       <c r="CW3">
-        <v>-0.011719622848363122</v>
+        <v>-0.18300172923626884</v>
       </c>
       <c r="CX3">
-        <v>0.071641174523694728</v>
+        <v>-0.22740271962876371</v>
       </c>
       <c r="CY3">
-        <v>0.30195154568416815</v>
+        <v>0.047408543248073989</v>
       </c>
       <c r="CZ3">
-        <v>0.28024452502049685</v>
+        <v>-0.086837321474919668</v>
       </c>
       <c r="DA3">
-        <v>0.20464037809844587</v>
+        <v>0.048229404450604918</v>
       </c>
       <c r="DB3">
-        <v>0.13475193987176998</v>
+        <v>0.04172695886507144</v>
       </c>
       <c r="DC3">
-        <v>0.096948651510193454</v>
+        <v>0.044711089256389377</v>
       </c>
       <c r="DD3">
-        <v>0.23767490578700798</v>
+        <v>0.031278959870286505</v>
       </c>
       <c r="DE3">
-        <v>0.11859748150787064</v>
+        <v>0.05149421449692141</v>
       </c>
       <c r="DF3">
-        <v>0.092591826954465023</v>
+        <v>-0.015526872993204731</v>
       </c>
       <c r="DG3">
-        <v>0.069113283937698514</v>
+        <v>-0.079980166647593012</v>
       </c>
       <c r="DH3">
-        <v>0.053603459234321908</v>
+        <v>-0.098062058941712174</v>
       </c>
       <c r="DI3">
-        <v>0.45087491297756316</v>
+        <v>0.17680913734392892</v>
       </c>
       <c r="DJ3">
-        <v>0.44854426815571635</v>
+        <v>0.29081306946756197</v>
       </c>
       <c r="DK3">
-        <v>0.45157027937680699</v>
+        <v>0.19508014413171054</v>
       </c>
       <c r="DL3">
-        <v>0.33650329200405932</v>
+        <v>0.25565052744339967</v>
       </c>
       <c r="DM3">
-        <v>0.39374324284852197</v>
+        <v>0.090982950137411117</v>
       </c>
       <c r="DN3">
-        <v>0.42919045167569375</v>
+        <v>0.17908483858665264</v>
       </c>
       <c r="DO3">
-        <v>0.39750966961159367</v>
+        <v>0.21618768636974961</v>
       </c>
       <c r="DP3">
-        <v>0.38526111712001571</v>
+        <v>0.12299762192996717</v>
       </c>
       <c r="DQ3">
-        <v>0.26565609231190074</v>
+        <v>0.17708609595980704</v>
       </c>
       <c r="DR3">
-        <v>0.25000591737455985</v>
+        <v>0.18692541767703261</v>
       </c>
       <c r="DS3">
-        <v>0.27512675647739604</v>
+        <v>0.06294772579424314</v>
       </c>
       <c r="DT3">
-        <v>0.28162796368629045</v>
+        <v>0.098803343828714377</v>
       </c>
       <c r="DU3">
-        <v>0.34368552410724695</v>
+        <v>0.20065292707084387</v>
       </c>
       <c r="DV3">
-        <v>0.29331781607153945</v>
+        <v>0.12635641092244668</v>
       </c>
       <c r="DW3">
-        <v>0.15402011606817315</v>
+        <v>0.15751389655659503</v>
       </c>
       <c r="DX3">
-        <v>0.19445727241204291</v>
+        <v>0.14997646692264974</v>
       </c>
       <c r="DY3">
-        <v>0.149069327186551</v>
+        <v>0.11319615773798211</v>
       </c>
       <c r="DZ3">
-        <v>0.27180147789098297</v>
+        <v>0.087830876121476942</v>
       </c>
       <c r="EA3">
-        <v>0.20607691521683491</v>
+        <v>0.17599875117566252</v>
       </c>
       <c r="EB3">
-        <v>0.32216238376126349</v>
+        <v>0.10656772594766893</v>
       </c>
       <c r="EC3">
-        <v>0.36181645732705092</v>
+        <v>-0.10408242066482516</v>
       </c>
       <c r="ED3">
-        <v>0.16105266132600532</v>
+        <v>-0.039405117419260872</v>
       </c>
       <c r="EE3">
-        <v>0.21576200702463827</v>
+        <v>0.11301081138885248</v>
       </c>
       <c r="EF3">
-        <v>0.12931175291673361</v>
+        <v>0.098473562243665394</v>
       </c>
       <c r="EG3">
-        <v>0.27965450313818035</v>
+        <v>-0.011225028600416779</v>
       </c>
       <c r="EH3">
-        <v>0.25174542626785601</v>
+        <v>0.063659281496075248</v>
       </c>
       <c r="EI3">
-        <v>0.22641717925120927</v>
+        <v>0.074012707551038406</v>
       </c>
       <c r="EJ3">
-        <v>0.118191831222063</v>
+        <v>0.092298268615888537</v>
       </c>
       <c r="EK3">
-        <v>0.27252887393349445</v>
+        <v>-0.054102266956278101</v>
       </c>
       <c r="EL3">
-        <v>0.11423761988167708</v>
+        <v>0.020560669679421103</v>
       </c>
       <c r="EM3">
-        <v>0.12693950460630463</v>
+        <v>0.072689849924478148</v>
       </c>
       <c r="EN3">
-        <v>0.0033982121783397499</v>
+        <v>-0.0672701741323182</v>
       </c>
       <c r="EO3">
-        <v>0.035831332521218576</v>
+        <v>-0.017499665114814898</v>
       </c>
       <c r="EP3">
-        <v>0.11909565645116819</v>
+        <v>-0.047782189206194134</v>
       </c>
       <c r="EQ3">
-        <v>0.17843186639872394</v>
+        <v>0.096855296522518758</v>
       </c>
       <c r="ER3">
-        <v>0.10104251804831128</v>
+        <v>0.036657163128614861</v>
       </c>
       <c r="ES3">
-        <v>0.089273406852873299</v>
+        <v>0.055849194588040746</v>
       </c>
       <c r="ET3">
-        <v>0.19291619020371006</v>
+        <v>0.14363404242780253</v>
       </c>
       <c r="EU3">
-        <v>0.12467079216711144</v>
+        <v>0.012548852167031967</v>
       </c>
       <c r="EV3">
-        <v>0.14639539760497056</v>
+        <v>0.083717087620583094</v>
       </c>
       <c r="EW3">
-        <v>0.073685915333069577</v>
+        <v>-0.022335899929159582</v>
       </c>
       <c r="EX3">
-        <v>0.0044588413972162658</v>
+        <v>0.090022238975821803</v>
       </c>
       <c r="EY3">
-        <v>0.10684190915894216</v>
+        <v>0.053823288300674892</v>
       </c>
       <c r="EZ3">
-        <v>0.066371502068095153</v>
+        <v>0.058115073297536249</v>
       </c>
       <c r="FA3">
-        <v>0.1941518667808185</v>
+        <v>-0.02894239161536542</v>
       </c>
       <c r="FB3">
-        <v>0.12839284283437966</v>
+        <v>0.12366246537590755</v>
       </c>
       <c r="FC3">
-        <v>0.234044791187519</v>
+        <v>-0.089687084940410292</v>
       </c>
       <c r="FD3">
-        <v>0.12804361203326448</v>
+        <v>-0.098864159592071496</v>
       </c>
       <c r="FE3">
-        <v>0.16602172996989226</v>
+        <v>0.036014598197956417</v>
       </c>
       <c r="FF3">
-        <v>0.19009955463646142</v>
+        <v>0.033374513983059316</v>
       </c>
       <c r="FG3">
-        <v>0.19234747565360091</v>
+        <v>-0.081585125968270167</v>
       </c>
       <c r="FH3">
-        <v>0.036488221069982681</v>
+        <v>0.10356729587145738</v>
       </c>
       <c r="FI3">
-        <v>0.13531688334555955</v>
+        <v>-0.010764481734358568</v>
       </c>
       <c r="FJ3">
-        <v>0.069707452422449717</v>
+        <v>-0.087546241365493868</v>
       </c>
       <c r="FK3">
-        <v>0.011953597649985681</v>
+        <v>-0.065581015176033014</v>
       </c>
       <c r="FL3">
-        <v>0.14012917607274145</v>
+        <v>-0.046398091406867445</v>
       </c>
       <c r="FM3">
-        <v>0.12781246667992316</v>
+        <v>-0.03491618229516473</v>
       </c>
       <c r="FN3">
-        <v>0.06555337261909458</v>
+        <v>-0.074838925332349218</v>
       </c>
       <c r="FO3">
-        <v>0.10198546878150906</v>
+        <v>0.0099452036457263766</v>
       </c>
       <c r="FP3">
-        <v>0.052955187160830537</v>
+        <v>-0.0031189262702392582</v>
       </c>
       <c r="FQ3">
-        <v>0.15325865051973553</v>
+        <v>-0.086920893841104116</v>
       </c>
       <c r="FR3">
-        <v>0.13124400096316255</v>
+        <v>-0.075124771959317993</v>
       </c>
       <c r="FS3">
-        <v>0.225638206718314</v>
+        <v>-0.082126214376381415</v>
       </c>
       <c r="FT3">
-        <v>0.097982680987024839</v>
+        <v>-0.012871300516563019</v>
       </c>
       <c r="FU3">
-        <v>0.020555878062115829</v>
+        <v>0.043049597560462567</v>
       </c>
       <c r="FV3">
-        <v>0.010507956027367663</v>
+        <v>0.054496317634874461</v>
       </c>
       <c r="FW3">
-        <v>0.038874855153318101</v>
+        <v>-0.031230062862391765</v>
       </c>
       <c r="FX3">
-        <v>0.079888745872058936</v>
+        <v>-0.072778311609648802</v>
       </c>
       <c r="FY3">
-        <v>0.13720363406739794</v>
+        <v>0.02749709818363481</v>
       </c>
       <c r="FZ3">
-        <v>0.02893316225582802</v>
+        <v>-0.03514953269271541</v>
       </c>
       <c r="GA3">
-        <v>0.086578380738036545</v>
+        <v>-0.023282088359905792</v>
       </c>
       <c r="GB3">
-        <v>0.022750947872302207</v>
+        <v>-0.024596967343264484</v>
       </c>
       <c r="GC3">
-        <v>0.0095111025591760531</v>
+        <v>0.046028065631566438</v>
       </c>
       <c r="GD3">
-        <v>0.11361739184753493</v>
+        <v>-0.24124064533948436</v>
       </c>
       <c r="GE3">
-        <v>0.031471103152202765</v>
+        <v>-0.098910871486480839</v>
       </c>
       <c r="GF3">
-        <v>0.1137120088617728</v>
+        <v>-0.012147990622294318</v>
       </c>
       <c r="GG3">
-        <v>0.047750469986839447</v>
+        <v>-0.029622062823768825</v>
       </c>
       <c r="GH3">
-        <v>-0.12161419953825983</v>
+        <v>-0.031120081365149935</v>
       </c>
       <c r="GI3">
-        <v>0.1117869041387442</v>
+        <v>-0.094939183175825184</v>
       </c>
       <c r="GJ3">
-        <v>0.0073778978259447939</v>
+        <v>-0.12994980824954552</v>
       </c>
       <c r="GK3">
-        <v>-0.087652599428660785</v>
+        <v>-0.096472579911052375</v>
       </c>
       <c r="GL3">
-        <v>0.0055591883623296433</v>
+        <v>-0.063738810046115674</v>
       </c>
       <c r="GM3">
-        <v>-0.074163741868254474</v>
+        <v>-0.097845250458290969</v>
       </c>
       <c r="GN3">
-        <v>0.021485155623622451</v>
+        <v>0.034045949580913767</v>
       </c>
       <c r="GO3">
-        <v>0.10157053074882917</v>
+        <v>-0.14494305299633459</v>
       </c>
       <c r="GP3">
-        <v>0.0233763433144927</v>
+        <v>-0.037126927486388982</v>
       </c>
       <c r="GQ3">
-        <v>0.1520116802332063</v>
+        <v>-0.030382561326212518</v>
       </c>
       <c r="GR3">
-        <v>0.14577671636457087</v>
+        <v>-0.0096444442564195838</v>
       </c>
       <c r="GS3">
-        <v>0.067603064479005534</v>
+        <v>-0.030914269717969418</v>
       </c>
       <c r="GT3">
-        <v>0.15918322891229247</v>
+        <v>-0.079563173126040637</v>
       </c>
       <c r="GU3">
-        <v>0.21212042188860816</v>
+        <v>-0.023216638785767442</v>
       </c>
       <c r="GV3">
-        <v>0.018332313955846891</v>
+        <v>-0.20303624812276524</v>
       </c>
       <c r="GW3">
-        <v>0.025097619904615044</v>
+        <v>-0.0074209633193228946</v>
       </c>
       <c r="GX3">
-        <v>0.087802180541002015</v>
+        <v>0.0022447462770948824</v>
       </c>
       <c r="GY3">
-        <v>0.017544350949312792</v>
+        <v>-0.10644194797258359</v>
       </c>
       <c r="GZ3">
-        <v>0.095517715499280259</v>
+        <v>-0.0098666460994169883</v>
       </c>
       <c r="HA3">
-        <v>0.09954192292905327</v>
+        <v>-0.052724713133615105</v>
       </c>
       <c r="HB3">
-        <v>0.077479590964789707</v>
+        <v>-0.02515144101522223</v>
       </c>
       <c r="HC3">
-        <v>0.0843657913181491</v>
+        <v>-0.038920682075790677</v>
       </c>
       <c r="HD3">
-        <v>0.099996669044877209</v>
+        <v>-0.017275168522836542</v>
       </c>
       <c r="HE3">
-        <v>0.14378629672267598</v>
+        <v>-0.061285667525189512</v>
       </c>
       <c r="HF3">
-        <v>0.12263914522921145</v>
+        <v>-0.00070258254330884625</v>
       </c>
       <c r="HG3">
-        <v>0.088957054798544447</v>
+        <v>-0.017178894108468162</v>
       </c>
       <c r="HH3">
-        <v>0.15892344824430238</v>
+        <v>0.0015323568309674118</v>
       </c>
       <c r="HI3">
-        <v>0.073241588597840843</v>
+        <v>-0.11203995539798413</v>
       </c>
       <c r="HJ3">
-        <v>0.16991998990245205</v>
+        <v>-0.10512601122194164</v>
       </c>
       <c r="HK3">
-        <v>-0.068882886751960623</v>
+        <v>-0.031905617567465794</v>
       </c>
       <c r="HL3">
-        <v>0.066540585967880483</v>
+        <v>-0.062145218777103363</v>
       </c>
       <c r="HM3">
         <v>0</v>
@@ -10856,7 +10856,7 @@
         <v>0</v>
       </c>
       <c r="HO3">
-        <v>-5.6129577933313124</v>
+        <v>-5.5070224976686974</v>
       </c>
     </row>
     <row r="4">
@@ -10864,661 +10864,661 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.048526733685585514</v>
+        <v>0.055775578688425281</v>
       </c>
       <c r="C4">
-        <v>0.034190678136327229</v>
+        <v>0.048591076497991069</v>
       </c>
       <c r="D4">
-        <v>0.042588178496659954</v>
+        <v>0.05873987853715841</v>
       </c>
       <c r="E4">
-        <v>0.052730121498354807</v>
+        <v>0.07517244268237526</v>
       </c>
       <c r="F4">
-        <v>0.032436396884328131</v>
+        <v>0.037624905003519379</v>
       </c>
       <c r="G4">
-        <v>0.027581536548512052</v>
+        <v>0.0319247467919926</v>
       </c>
       <c r="H4">
-        <v>0.022603928337839321</v>
+        <v>0.026291451641165961</v>
       </c>
       <c r="I4">
-        <v>0.026634640752234449</v>
+        <v>0.03030155265193625</v>
       </c>
       <c r="J4">
-        <v>0.028129892348093002</v>
+        <v>0.031022130255295915</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.083431993833867138</v>
+        <v>0.11391310217542373</v>
       </c>
       <c r="M4">
-        <v>0.083039098995884339</v>
+        <v>0.11668115830194839</v>
       </c>
       <c r="N4">
-        <v>0.085412682056187406</v>
+        <v>0.11022933729433897</v>
       </c>
       <c r="O4">
-        <v>0.084427817868600222</v>
+        <v>0.1076888320554166</v>
       </c>
       <c r="P4">
-        <v>0.081651499170611569</v>
+        <v>0.11391310218162352</v>
       </c>
       <c r="Q4">
-        <v>0.081582744673505403</v>
+        <v>0.11061398705098803</v>
       </c>
       <c r="R4">
-        <v>0.083116694353153428</v>
+        <v>0.10634626575695529</v>
       </c>
       <c r="S4">
-        <v>0.082435327121284208</v>
+        <v>0.11717031621342376</v>
       </c>
       <c r="T4">
-        <v>0.080981577511269026</v>
+        <v>0.11100445604957282</v>
       </c>
       <c r="U4">
-        <v>0.0817206583047968</v>
+        <v>0.10300379957352225</v>
       </c>
       <c r="V4">
-        <v>0.081311700729300912</v>
+        <v>0.11100445605350262</v>
       </c>
       <c r="W4">
-        <v>0.080287352175788904</v>
+        <v>0.10985037082884408</v>
       </c>
       <c r="X4">
-        <v>0.079017808458461486</v>
+        <v>0.10189996251687915</v>
       </c>
       <c r="Y4">
-        <v>0.083431993979364377</v>
+        <v>0.10272269720548032</v>
       </c>
       <c r="Z4">
-        <v>0.08078797406468452</v>
+        <v>0.10734618507054534</v>
       </c>
       <c r="AA4">
-        <v>0.081244915780957092</v>
+        <v>0.10446388306732343</v>
       </c>
       <c r="AB4">
-        <v>0.079017808522579114</v>
+        <v>0.1038686426954937</v>
       </c>
       <c r="AC4">
-        <v>0.08098157763889885</v>
+        <v>0.10507478790495119</v>
       </c>
       <c r="AD4">
-        <v>0.080348719864426515</v>
+        <v>0.10386864270089662</v>
       </c>
       <c r="AE4">
-        <v>0.07864366463331178</v>
+        <v>0.11304917703913227</v>
       </c>
       <c r="AF4">
-        <v>0.078435781833858007</v>
+        <v>0.11022933732988538</v>
       </c>
       <c r="AG4">
-        <v>0.082809189766021349</v>
+        <v>0.099845891128815284</v>
       </c>
       <c r="AH4">
-        <v>0.078591299088125205</v>
+        <v>0.10189996254551079</v>
       </c>
       <c r="AI4">
-        <v>0.079867060735159021</v>
+        <v>0.10985037085476607</v>
       </c>
       <c r="AJ4">
-        <v>0.080287352379759452</v>
+        <v>0.10217084478822273</v>
       </c>
       <c r="AK4">
-        <v>0.079926127191146362</v>
+        <v>0.10446388309348058</v>
       </c>
       <c r="AL4">
-        <v>0.078749198055433248</v>
+        <v>0.1060219681484732</v>
       </c>
       <c r="AM4">
-        <v>0.078643664781498576</v>
+        <v>0.10416434460300353</v>
       </c>
       <c r="AN4">
-        <v>0.079017808737839396</v>
+        <v>0.1041643446057591</v>
       </c>
       <c r="AO4">
-        <v>0.079293462814819429</v>
+        <v>0.10446388310422311</v>
       </c>
       <c r="AP4">
-        <v>0.080787974319430952</v>
+        <v>0.10244506796664558</v>
       </c>
       <c r="AQ4">
-        <v>0.081514391490315183</v>
+        <v>0.096464029346707225</v>
       </c>
       <c r="AR4">
-        <v>0.079237755080837732</v>
+        <v>0.10034138510690652</v>
       </c>
       <c r="AS4">
-        <v>0.080045224595653885</v>
+        <v>0.10244506797672305</v>
       </c>
       <c r="AT4">
-        <v>0.077933906528071029</v>
+        <v>0.10386864274580777</v>
       </c>
       <c r="AU4">
-        <v>0.081582745112911761</v>
+        <v>0.10300379964718238</v>
       </c>
       <c r="AV4">
-        <v>0.080660714793247296</v>
+        <v>0.10803632297381231</v>
       </c>
       <c r="AW4">
-        <v>0.080787974435036478</v>
+        <v>0.09912371094011771</v>
       </c>
       <c r="AX4">
-        <v>0.081046848875005753</v>
+        <v>0.10328844391626138</v>
       </c>
       <c r="AY4">
-        <v>0.079519249119460664</v>
+        <v>0.10476733717994946</v>
       </c>
       <c r="AZ4">
-        <v>0.079926127455674789</v>
+        <v>0.10110673464937978</v>
       </c>
       <c r="BA4">
-        <v>0.078696297321850572</v>
+        <v>0.10538631901582723</v>
       </c>
       <c r="BB4">
-        <v>0.078333400347369311</v>
+        <v>0.10328844392817023</v>
       </c>
       <c r="BC4">
-        <v>0.080287352711276169</v>
+        <v>0.10768883215003096</v>
       </c>
       <c r="BD4">
-        <v>0.079182338310461647</v>
+        <v>0.10838876663939463</v>
       </c>
       <c r="BE4">
-        <v>0.079349464024995653</v>
+        <v>0.1018999626165079</v>
       </c>
       <c r="BF4">
-        <v>0.078081868571669127</v>
+        <v>0.10910896540861363</v>
       </c>
       <c r="BG4">
-        <v>0.080916677565319256</v>
+        <v>0.11100445613397643</v>
       </c>
       <c r="BH4">
-        <v>0.081860205401511135</v>
+        <v>0.10538631903392963</v>
       </c>
       <c r="BI4">
-        <v>0.081244916333856027</v>
+        <v>0.10602196820956884</v>
       </c>
       <c r="BJ4">
-        <v>0.082627019956496656</v>
+        <v>0.10528104976378483</v>
       </c>
       <c r="BK4">
-        <v>0.082559759381952758</v>
+        <v>0.1022099351982113</v>
       </c>
       <c r="BL4">
-        <v>0.081593024179578158</v>
+        <v>0.10383255502946714</v>
       </c>
       <c r="BM4">
-        <v>0.08429730200513684</v>
+        <v>0.10195101873327411</v>
       </c>
       <c r="BN4">
-        <v>0.080258506514462938</v>
+        <v>0.10300659496199634</v>
       </c>
       <c r="BO4">
-        <v>0.083930691838682708</v>
+        <v>0.10966631474925347</v>
       </c>
       <c r="BP4">
-        <v>0.081069609052270286</v>
+        <v>0.10005726928569637</v>
       </c>
       <c r="BQ4">
-        <v>0.082657833027663372</v>
+        <v>0.11111054512524558</v>
       </c>
       <c r="BR4">
-        <v>0.08147639079888809</v>
+        <v>0.10430530472046448</v>
       </c>
       <c r="BS4">
-        <v>0.083597306815768657</v>
+        <v>0.10276097922820998</v>
       </c>
       <c r="BT4">
-        <v>0.075425829144256273</v>
+        <v>0.078597565077189346</v>
       </c>
       <c r="BU4">
-        <v>0.068219434436490353</v>
+        <v>0.069650443029604645</v>
       </c>
       <c r="BV4">
-        <v>0.068436107547279759</v>
+        <v>0.070522089078553007</v>
       </c>
       <c r="BW4">
-        <v>0.067470453070033062</v>
+        <v>0.069072484346898416</v>
       </c>
       <c r="BX4">
-        <v>0.067947411710796893</v>
+        <v>0.069397803512123754</v>
       </c>
       <c r="BY4">
-        <v>0.067951894756988443</v>
+        <v>0.070358401742118465</v>
       </c>
       <c r="BZ4">
-        <v>0.06694972567527524</v>
+        <v>0.068992798022233431</v>
       </c>
       <c r="CA4">
-        <v>0.067466055680644052</v>
+        <v>0.069426088319679682</v>
       </c>
       <c r="CB4">
-        <v>0.068117885321247115</v>
+        <v>0.069369835959241663</v>
       </c>
       <c r="CC4">
-        <v>0.069252114026625552</v>
+        <v>0.070710335472041572</v>
       </c>
       <c r="CD4">
-        <v>0.070298691844565719</v>
+        <v>0.071471258691533535</v>
       </c>
       <c r="CE4">
-        <v>0.071534913296543323</v>
+        <v>0.074868054708777498</v>
       </c>
       <c r="CF4">
-        <v>0.072202137585887158</v>
+        <v>0.074973506561727382</v>
       </c>
       <c r="CG4">
-        <v>0.072011085883879694</v>
+        <v>0.075597701879037776</v>
       </c>
       <c r="CH4">
-        <v>0.073252782752152121</v>
+        <v>0.075574400000679581</v>
       </c>
       <c r="CI4">
-        <v>0.07301221721802921</v>
+        <v>0.075009615511825084</v>
       </c>
       <c r="CJ4">
-        <v>0.07360295310166079</v>
+        <v>0.075708499761059533</v>
       </c>
       <c r="CK4">
-        <v>0.075554708898247058</v>
+        <v>0.07586984570855991</v>
       </c>
       <c r="CL4">
-        <v>0.075247320579170093</v>
+        <v>0.078278476463171417</v>
       </c>
       <c r="CM4">
-        <v>0.077562638757003144</v>
+        <v>0.079287018858493208</v>
       </c>
       <c r="CN4">
-        <v>0.074469897779948516</v>
+        <v>0.076647881715043775</v>
       </c>
       <c r="CO4">
-        <v>0.067911434235225804</v>
+        <v>0.068287624184510287</v>
       </c>
       <c r="CP4">
-        <v>0.067961307068283197</v>
+        <v>0.068545776050327439</v>
       </c>
       <c r="CQ4">
-        <v>0.066648841136964954</v>
+        <v>0.066643877159644288</v>
       </c>
       <c r="CR4">
-        <v>0.066665116298212118</v>
+        <v>0.067561295107474537</v>
       </c>
       <c r="CS4">
-        <v>0.06730895190894888</v>
+        <v>0.066877852293561593</v>
       </c>
       <c r="CT4">
-        <v>0.065914848161534909</v>
+        <v>0.066054670735271548</v>
       </c>
       <c r="CU4">
-        <v>0.066071192228818187</v>
+        <v>0.066092388590511905</v>
       </c>
       <c r="CV4">
-        <v>0.066189167874709451</v>
+        <v>0.066618264162470395</v>
       </c>
       <c r="CW4">
-        <v>0.067400067053486196</v>
+        <v>0.066562102721572577</v>
       </c>
       <c r="CX4">
-        <v>0.066902394171331273</v>
+        <v>0.066978805959741206</v>
       </c>
       <c r="CY4">
-        <v>0.0674763844912913</v>
+        <v>0.067493522873818448</v>
       </c>
       <c r="CZ4">
-        <v>0.067673018399618756</v>
+        <v>0.068784171874512523</v>
       </c>
       <c r="DA4">
-        <v>0.068257216792040221</v>
+        <v>0.067584407039071634</v>
       </c>
       <c r="DB4">
-        <v>0.0688386267306412</v>
+        <v>0.067694872379236756</v>
       </c>
       <c r="DC4">
-        <v>0.069193752804048811</v>
+        <v>0.067721870409010052</v>
       </c>
       <c r="DD4">
-        <v>0.068768392056164238</v>
+        <v>0.068269826754760551</v>
       </c>
       <c r="DE4">
-        <v>0.069783427096414885</v>
+        <v>0.06813554961154282</v>
       </c>
       <c r="DF4">
-        <v>0.070061731675037764</v>
+        <v>0.068828899292045373</v>
       </c>
       <c r="DG4">
-        <v>0.070324101606607861</v>
+        <v>0.069536888868395624</v>
       </c>
       <c r="DH4">
-        <v>0.070519009344721106</v>
+        <v>0.069782024076625829</v>
       </c>
       <c r="DI4">
-        <v>0.068177445010173962</v>
+        <v>0.067628705240482465</v>
       </c>
       <c r="DJ4">
-        <v>0.068256681135996755</v>
+        <v>0.066399268328458119</v>
       </c>
       <c r="DK4">
-        <v>0.068283358209969169</v>
+        <v>0.067535056285426553</v>
       </c>
       <c r="DL4">
-        <v>0.069538877734073454</v>
+        <v>0.066898791965418036</v>
       </c>
       <c r="DM4">
-        <v>0.068981472073934458</v>
+        <v>0.068937627019865499</v>
       </c>
       <c r="DN4">
-        <v>0.068671391541642243</v>
+        <v>0.067898340901292376</v>
       </c>
       <c r="DO4">
-        <v>0.069057885044035899</v>
+        <v>0.067516489747608432</v>
       </c>
       <c r="DP4">
-        <v>0.069245541661454496</v>
+        <v>0.068712432076580177</v>
       </c>
       <c r="DQ4">
-        <v>0.070653643914528733</v>
+        <v>0.068097924912821156</v>
       </c>
       <c r="DR4">
-        <v>0.070898032139156672</v>
+        <v>0.068037419259125348</v>
       </c>
       <c r="DS4">
-        <v>0.070653644344125147</v>
+        <v>0.069684264612785055</v>
       </c>
       <c r="DT4">
-        <v>0.070633685844888577</v>
+        <v>0.069265368196966631</v>
       </c>
       <c r="DU4">
-        <v>0.069971790800628444</v>
+        <v>0.068037419933507162</v>
       </c>
       <c r="DV4">
-        <v>0.070613788843833847</v>
+        <v>0.069029750740738777</v>
       </c>
       <c r="DW4">
-        <v>0.072425830020415166</v>
+        <v>0.06869030583531309</v>
       </c>
       <c r="DX4">
-        <v>0.071950932259433442</v>
+        <v>0.068846686617163311</v>
       </c>
       <c r="DY4">
-        <v>0.072608878258828294</v>
+        <v>0.069386115459615982</v>
       </c>
       <c r="DZ4">
-        <v>0.071087450123636597</v>
+        <v>0.069786367243395167</v>
       </c>
       <c r="EA4">
-        <v>0.07197516215627292</v>
+        <v>0.06869030673347902</v>
       </c>
       <c r="EB4">
-        <v>0.070593953665812878</v>
+        <v>0.06965895746496685</v>
       </c>
       <c r="EC4">
-        <v>0.070190986165000455</v>
+        <v>0.072813312985247639</v>
       </c>
       <c r="ED4">
-        <v>0.072769443994918012</v>
+        <v>0.071863628795241719</v>
       </c>
       <c r="EE4">
-        <v>0.072097556360749854</v>
+        <v>0.069735143648342102</v>
       </c>
       <c r="EF4">
-        <v>0.073330625447899062</v>
+        <v>0.069994819076254794</v>
       </c>
       <c r="EG4">
-        <v>0.071393134889793611</v>
+        <v>0.071633580579173114</v>
       </c>
       <c r="EH4">
-        <v>0.071807268395965837</v>
+        <v>0.070599078033801291</v>
       </c>
       <c r="EI4">
-        <v>0.072196994115429111</v>
+        <v>0.07051386899819187</v>
       </c>
       <c r="EJ4">
-        <v>0.073749064548485843</v>
+        <v>0.070318573271819881</v>
       </c>
       <c r="EK4">
-        <v>0.071713090114573358</v>
+        <v>0.072557059605389301</v>
       </c>
       <c r="EL4">
-        <v>0.073935359442692958</v>
+        <v>0.071473028282105458</v>
       </c>
       <c r="EM4">
-        <v>0.07381068452391934</v>
+        <v>0.070772297629958139</v>
       </c>
       <c r="EN4">
-        <v>0.075752551998660878</v>
+        <v>0.072963108603819452</v>
       </c>
       <c r="EO4">
-        <v>0.075297777750946177</v>
+        <v>0.0722381478054787</v>
       </c>
       <c r="EP4">
-        <v>0.074093955637690542</v>
+        <v>0.072776253472987093</v>
       </c>
       <c r="EQ4">
-        <v>0.07330157499099775</v>
+        <v>0.070656400639396946</v>
       </c>
       <c r="ER4">
-        <v>0.074487592661588622</v>
+        <v>0.071601224647476716</v>
       </c>
       <c r="ES4">
-        <v>0.074726114875837579</v>
+        <v>0.071378161084025268</v>
       </c>
       <c r="ET4">
-        <v>0.073272631207032313</v>
+        <v>0.070182019527863501</v>
       </c>
       <c r="EU4">
-        <v>0.074321292289564675</v>
+        <v>0.072168833710235747</v>
       </c>
       <c r="EV4">
-        <v>0.074061989125750627</v>
+        <v>0.071160948702875884</v>
       </c>
       <c r="EW4">
-        <v>0.07522421694898479</v>
+        <v>0.072850531576713284</v>
       </c>
       <c r="EX4">
-        <v>0.076397102753780421</v>
+        <v>0.071191630178181725</v>
       </c>
       <c r="EY4">
-        <v>0.074830439130740944</v>
+        <v>0.071797264070276159</v>
       </c>
       <c r="EZ4">
-        <v>0.075522244974071895</v>
+        <v>0.071797264270176395</v>
       </c>
       <c r="FA4">
-        <v>0.073657520464933762</v>
+        <v>0.07323136279474389</v>
       </c>
       <c r="FB4">
-        <v>0.074691625407216924</v>
+        <v>0.070949357612729649</v>
       </c>
       <c r="FC4">
-        <v>0.073215066183811017</v>
+        <v>0.074389127238788003</v>
       </c>
       <c r="FD4">
-        <v>0.074830440041322999</v>
+        <v>0.074611467304973339</v>
       </c>
       <c r="FE4">
-        <v>0.074321294117958125</v>
+        <v>0.072449466426437528</v>
       </c>
       <c r="FF4">
-        <v>0.074030148416544858</v>
+        <v>0.072557063318720805</v>
       </c>
       <c r="FG4">
-        <v>0.074061991228003915</v>
+        <v>0.074521923974897944</v>
       </c>
       <c r="FH4">
-        <v>0.076565562820484032</v>
+        <v>0.07160122782304558</v>
       </c>
       <c r="FI4">
-        <v>0.075042993987709611</v>
+        <v>0.073467716168274383</v>
       </c>
       <c r="FJ4">
-        <v>0.076150031642939126</v>
+        <v>0.07483895710284541</v>
       </c>
       <c r="FK4">
-        <v>0.077180098528699184</v>
+        <v>0.074521924630591721</v>
       </c>
       <c r="FL4">
-        <v>0.075151274017668551</v>
+        <v>0.074258122796452719</v>
       </c>
       <c r="FM4">
-        <v>0.075409298316694337</v>
+        <v>0.074128870705803415</v>
       </c>
       <c r="FN4">
-        <v>0.076480953405563462</v>
+        <v>0.074885089420975187</v>
       </c>
       <c r="FO4">
-        <v>0.075949112946138889</v>
+        <v>0.073507703165787169</v>
       </c>
       <c r="FP4">
-        <v>0.076824076486170192</v>
+        <v>0.073792504570190098</v>
       </c>
       <c r="FQ4">
-        <v>0.075260923998141438</v>
+        <v>0.075310128531100626</v>
       </c>
       <c r="FR4">
-        <v>0.075675123912246789</v>
+        <v>0.075166445371205301</v>
       </c>
       <c r="FS4">
-        <v>0.074288433303394991</v>
+        <v>0.075358479355381217</v>
       </c>
       <c r="FT4">
-        <v>0.076355465062308225</v>
+        <v>0.07421484700822048</v>
       </c>
       <c r="FU4">
-        <v>0.077739986835069191</v>
+        <v>0.073348785335669422</v>
       </c>
       <c r="FV4">
-        <v>0.077982999419564603</v>
+        <v>0.073231366627740616</v>
       </c>
       <c r="FW4">
-        <v>0.077549776925378108</v>
+        <v>0.074747334296730028</v>
       </c>
       <c r="FX4">
-        <v>0.07691184573300669</v>
+        <v>0.075554207292864939</v>
       </c>
       <c r="FY4">
-        <v>0.076028950832147696</v>
+        <v>0.073875488065060738</v>
       </c>
       <c r="FZ4">
-        <v>0.077933921652342739</v>
+        <v>0.075024781557808493</v>
       </c>
       <c r="GA4">
-        <v>0.077000431545592954</v>
+        <v>0.074885091676078805</v>
       </c>
       <c r="GB4">
-        <v>0.078181747601906215</v>
+        <v>0.074978001191062446</v>
       </c>
       <c r="GC4">
-        <v>0.078487374959530357</v>
+        <v>0.073833906913067543</v>
       </c>
       <c r="GD4">
-        <v>0.076737117057860627</v>
+        <v>0.079293477940250545</v>
       </c>
       <c r="GE4">
-        <v>0.078232052513821412</v>
+        <v>0.07653784806409486</v>
       </c>
       <c r="GF4">
-        <v>0.076867861768096596</v>
+        <v>0.075024782622413022</v>
       </c>
       <c r="GG4">
-        <v>0.078081884442337879</v>
+        <v>0.075407063105992739</v>
       </c>
       <c r="GH4">
-        <v>0.081378886179848148</v>
+        <v>0.075504925103506565</v>
       </c>
       <c r="GI4">
-        <v>0.077089847297213354</v>
+        <v>0.076757082832461798</v>
       </c>
       <c r="GJ4">
-        <v>0.079017824439205492</v>
+        <v>0.077501618034511166</v>
       </c>
       <c r="GK4">
-        <v>0.080916691264158888</v>
+        <v>0.076924471785448159</v>
       </c>
       <c r="GL4">
-        <v>0.079182353831770705</v>
+        <v>0.07637631091954146</v>
       </c>
       <c r="GM4">
-        <v>0.080787988690064358</v>
+        <v>0.077094467763576077</v>
       </c>
       <c r="GN4">
-        <v>0.079017825037587572</v>
+        <v>0.074747337437026828</v>
       </c>
       <c r="GO4">
-        <v>0.077644426433110328</v>
+        <v>0.078172847066540693</v>
       </c>
       <c r="GP4">
-        <v>0.079127225999707243</v>
+        <v>0.076164669743643526</v>
       </c>
       <c r="GQ4">
-        <v>0.076911849155199608</v>
+        <v>0.076112414277502552</v>
       </c>
       <c r="GR4">
-        <v>0.077089848964368823</v>
+        <v>0.075804230701392042</v>
       </c>
       <c r="GS4">
-        <v>0.078539215960896899</v>
+        <v>0.076269963397884014</v>
       </c>
       <c r="GT4">
-        <v>0.077000435053027269</v>
+        <v>0.077267134289125822</v>
       </c>
       <c r="GU4">
-        <v>0.076190759105635039</v>
+        <v>0.076269963770650331</v>
       </c>
       <c r="GV4">
-        <v>0.079691775822039485</v>
+        <v>0.079932264854200311</v>
       </c>
       <c r="GW4">
-        <v>0.079633965888311675</v>
+        <v>0.076112415400603484</v>
       </c>
       <c r="GX4">
-        <v>0.078539216914054993</v>
+        <v>0.076008676283936566</v>
       </c>
       <c r="GY4">
-        <v>0.079926144472820829</v>
+        <v>0.078172848714850696</v>
       </c>
       <c r="GZ4">
-        <v>0.078539217288421143</v>
+        <v>0.07637631349030144</v>
       </c>
       <c r="HA4">
-        <v>0.078539217485984456</v>
+        <v>0.077267135539663356</v>
       </c>
       <c r="HB4">
-        <v>0.079017827586401718</v>
+        <v>0.076812596524844637</v>
       </c>
       <c r="HC4">
-        <v>0.07896355112624362</v>
+        <v>0.077151725940064156</v>
       </c>
       <c r="HD4">
-        <v>0.078749217677961156</v>
+        <v>0.076812596919230453</v>
       </c>
       <c r="HE4">
-        <v>0.078032325639068686</v>
+        <v>0.077741127773281779</v>
       </c>
       <c r="HF4">
-        <v>0.078487380174447605</v>
+        <v>0.076646912904072287</v>
       </c>
       <c r="HG4">
-        <v>0.079182357639157638</v>
+        <v>0.077037512716714038</v>
       </c>
       <c r="HH4">
-        <v>0.07798300637964789</v>
+        <v>0.076757087419942083</v>
       </c>
       <c r="HI4">
-        <v>0.079633968133596869</v>
+        <v>0.079087841553936278</v>
       </c>
       <c r="HJ4">
-        <v>0.07793392844450571</v>
+        <v>0.079020073724583473</v>
       </c>
       <c r="HK4">
-        <v>0.082658285259115949</v>
+        <v>0.077620738040793405</v>
       </c>
       <c r="HL4">
-        <v>0.07998553383459811</v>
+        <v>0.078299249782692967</v>
       </c>
       <c r="HM4">
         <v>0</v>
@@ -11527,7 +11527,7 @@
         <v>0</v>
       </c>
       <c r="HO4">
-        <v>0.057543565711994434</v>
+        <v>0.054554509994204657</v>
       </c>
     </row>
   </sheetData>

--- a/tables/coefficients.xlsx
+++ b/tables/coefficients.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="38300" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="41076" uniqueCount="239">
   <si>
     <t>y1</t>
   </si>
@@ -1959,13 +1959,13 @@
         <v>170</v>
       </c>
       <c r="FO2" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="FP2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="FQ2" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="FR2" t="s">
         <v>190</v>
@@ -2123,520 +2123,520 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>0.66711050556659479</v>
+        <v>0.64885552612955921</v>
       </c>
       <c r="C3">
-        <v>-0.88878894535288033</v>
+        <v>-0.89450318251425065</v>
       </c>
       <c r="D3">
-        <v>-1.0103526696985614</v>
+        <v>-0.89240449932385768</v>
       </c>
       <c r="E3">
-        <v>-0.87153309177477611</v>
+        <v>-0.90923965861873057</v>
       </c>
       <c r="F3">
-        <v>0.52295646509120819</v>
+        <v>0.51121025227708938</v>
       </c>
       <c r="G3">
-        <v>0.51166470908425243</v>
+        <v>0.52752111149503689</v>
       </c>
       <c r="H3">
-        <v>0.45176780687253854</v>
+        <v>0.45793527989259786</v>
       </c>
       <c r="I3">
-        <v>0.19148999154052754</v>
+        <v>0.2079639575865605</v>
       </c>
       <c r="J3">
-        <v>0.24173986207094042</v>
+        <v>0.24169356879692322</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>-1.6599919949911244</v>
+        <v>-1.7433147660551389</v>
       </c>
       <c r="M3">
-        <v>-1.874069949118901</v>
+        <v>-1.7194746591664305</v>
       </c>
       <c r="N3">
-        <v>-1.650225281125185</v>
+        <v>-1.6379179289602257</v>
       </c>
       <c r="O3">
-        <v>-1.7184645795298257</v>
+        <v>-1.7088830114388078</v>
       </c>
       <c r="P3">
-        <v>-1.831104161044856</v>
+        <v>-1.6646834153024577</v>
       </c>
       <c r="Q3">
-        <v>-1.5082464371493431</v>
+        <v>-1.6339921861625177</v>
       </c>
       <c r="R3">
-        <v>-1.5904503188890808</v>
+        <v>-1.6148468919018351</v>
       </c>
       <c r="S3">
-        <v>-1.8489368608048775</v>
+        <v>-1.6781251102522963</v>
       </c>
       <c r="T3">
-        <v>-1.7604071047790917</v>
+        <v>-1.6009824875669192</v>
       </c>
       <c r="U3">
-        <v>-1.7785839034740316</v>
+        <v>-1.5751613271057718</v>
       </c>
       <c r="V3">
-        <v>-1.6277820371465912</v>
+        <v>-1.6018172632141381</v>
       </c>
       <c r="W3">
-        <v>-1.6107177005258941</v>
+        <v>-1.6001992987196894</v>
       </c>
       <c r="X3">
-        <v>-1.6344075339957025</v>
+        <v>-1.5831583569848371</v>
       </c>
       <c r="Y3">
-        <v>-1.6336155246553843</v>
+        <v>-1.5498527840944041</v>
       </c>
       <c r="Z3">
-        <v>-1.7652234998767735</v>
+        <v>-1.5887784507743898</v>
       </c>
       <c r="AA3">
-        <v>-1.5450805386609088</v>
+        <v>-1.5920340260062584</v>
       </c>
       <c r="AB3">
-        <v>-1.8119976586304329</v>
+        <v>-1.579081282627919</v>
       </c>
       <c r="AC3">
-        <v>-1.5511592150338214</v>
+        <v>-1.5726458883270147</v>
       </c>
       <c r="AD3">
-        <v>-1.4282275741057398</v>
+        <v>-1.610163846944304</v>
       </c>
       <c r="AE3">
-        <v>-1.5647165282922326</v>
+        <v>-1.5527905688410379</v>
       </c>
       <c r="AF3">
-        <v>-1.6963446140257603</v>
+        <v>-1.5096355616149393</v>
       </c>
       <c r="AG3">
-        <v>-1.6608008888018024</v>
+        <v>-1.5293091690811287</v>
       </c>
       <c r="AH3">
-        <v>-1.3658256895973997</v>
+        <v>-1.5346208308429707</v>
       </c>
       <c r="AI3">
-        <v>-1.5535900511455729</v>
+        <v>-1.5047882971069029</v>
       </c>
       <c r="AJ3">
-        <v>-1.5450651695394182</v>
+        <v>-1.5532077010127381</v>
       </c>
       <c r="AK3">
-        <v>-1.5290406899458033</v>
+        <v>-1.4568014353197767</v>
       </c>
       <c r="AL3">
-        <v>-1.6649758551174547</v>
+        <v>-1.5357765814546969</v>
       </c>
       <c r="AM3">
-        <v>-1.4689551656012616</v>
+        <v>-1.5403792143001009</v>
       </c>
       <c r="AN3">
-        <v>-1.5965552918896617</v>
+        <v>-1.6116259400903712</v>
       </c>
       <c r="AO3">
-        <v>-1.6038332453660671</v>
+        <v>-1.5544934060804039</v>
       </c>
       <c r="AP3">
-        <v>-1.5949161048280196</v>
+        <v>-1.5324445095970374</v>
       </c>
       <c r="AQ3">
-        <v>-1.3580182185598333</v>
+        <v>-1.5092955590915742</v>
       </c>
       <c r="AR3">
-        <v>-1.5850125078921669</v>
+        <v>-1.5455910761404466</v>
       </c>
       <c r="AS3">
-        <v>-1.442617526886089</v>
+        <v>-1.5353226509486662</v>
       </c>
       <c r="AT3">
-        <v>-1.5673408885083027</v>
+        <v>-1.5266832440723039</v>
       </c>
       <c r="AU3">
-        <v>-1.3607282183994738</v>
+        <v>-1.4855404967420394</v>
       </c>
       <c r="AV3">
-        <v>-1.6389850838663782</v>
+        <v>-1.5572370819122807</v>
       </c>
       <c r="AW3">
-        <v>-1.4888368745489675</v>
+        <v>-1.4957980424229262</v>
       </c>
       <c r="AX3">
-        <v>-1.6543817028208512</v>
+        <v>-1.5741074212200346</v>
       </c>
       <c r="AY3">
-        <v>-1.6365042320267196</v>
+        <v>-1.5185090023666565</v>
       </c>
       <c r="AZ3">
-        <v>-1.4364980709560624</v>
+        <v>-1.4894572966623618</v>
       </c>
       <c r="BA3">
-        <v>-1.5851314726934387</v>
+        <v>-1.5067536518545934</v>
       </c>
       <c r="BB3">
-        <v>-1.4700567130763234</v>
+        <v>-1.4624679605833228</v>
       </c>
       <c r="BC3">
-        <v>-1.6245408132514154</v>
+        <v>-1.480775362516801</v>
       </c>
       <c r="BD3">
-        <v>-1.5988333067837661</v>
+        <v>-1.4702144261904584</v>
       </c>
       <c r="BE3">
-        <v>-1.5268060316044216</v>
+        <v>-1.5247919003921877</v>
       </c>
       <c r="BF3">
-        <v>-1.7098475611978905</v>
+        <v>-1.4795934781965874</v>
       </c>
       <c r="BG3">
-        <v>-1.7657522439895394</v>
+        <v>-1.506745843306728</v>
       </c>
       <c r="BH3">
-        <v>-1.5168869854980771</v>
+        <v>-1.4778118831282709</v>
       </c>
       <c r="BI3">
-        <v>-1.671474424978415</v>
+        <v>-1.5142331943876106</v>
       </c>
       <c r="BJ3">
-        <v>-1.0049062577201433</v>
+        <v>-1.0984738308073079</v>
       </c>
       <c r="BK3">
-        <v>-1.144049129157156</v>
+        <v>-1.1821917047544854</v>
       </c>
       <c r="BL3">
-        <v>-1.2628396822775376</v>
+        <v>-1.1622533208491928</v>
       </c>
       <c r="BM3">
-        <v>-1.188440078758132</v>
+        <v>-1.1242575310781373</v>
       </c>
       <c r="BN3">
-        <v>-1.2195549727053836</v>
+        <v>-1.165193954931695</v>
       </c>
       <c r="BO3">
-        <v>-1.1590291860233548</v>
+        <v>-1.1223449065298785</v>
       </c>
       <c r="BP3">
-        <v>-1.1822343275806608</v>
+        <v>-1.1359466522804891</v>
       </c>
       <c r="BQ3">
-        <v>-1.3207831922398654</v>
+        <v>-1.1350461170627748</v>
       </c>
       <c r="BR3">
-        <v>-1.0638253188553362</v>
+        <v>-1.1367781163687662</v>
       </c>
       <c r="BS3">
-        <v>-1.0981980268531817</v>
+        <v>-1.1602185483173966</v>
       </c>
       <c r="BT3">
-        <v>-0.77077414577628889</v>
+        <v>-0.83357745886849433</v>
       </c>
       <c r="BU3">
-        <v>-0.65793170169391979</v>
+        <v>-0.73769035221786716</v>
       </c>
       <c r="BV3">
-        <v>-0.74265533742495615</v>
+        <v>-0.74203551358777819</v>
       </c>
       <c r="BW3">
-        <v>-0.76719128423692617</v>
+        <v>-0.7563400692886677</v>
       </c>
       <c r="BX3">
-        <v>-0.73477411896561418</v>
+        <v>-0.71506247396919564</v>
       </c>
       <c r="BY3">
-        <v>-0.83167690099927549</v>
+        <v>-0.72735630034279464</v>
       </c>
       <c r="BZ3">
-        <v>-0.66522782364940658</v>
+        <v>-0.70254827693585964</v>
       </c>
       <c r="CA3">
-        <v>-0.73976325928426157</v>
+        <v>-0.68338414915127521</v>
       </c>
       <c r="CB3">
-        <v>-0.69870323915756083</v>
+        <v>-0.69257618689005007</v>
       </c>
       <c r="CC3">
-        <v>-0.7256206490516417</v>
+        <v>-0.73809695301811995</v>
       </c>
       <c r="CD3">
-        <v>-0.42000798939722589</v>
+        <v>-0.44024669008102441</v>
       </c>
       <c r="CE3">
-        <v>-0.30819901501012636</v>
+        <v>-0.24580053753101255</v>
       </c>
       <c r="CF3">
-        <v>-0.24074471170438794</v>
+        <v>-0.27766760988103906</v>
       </c>
       <c r="CG3">
-        <v>-0.30450679452826102</v>
+        <v>-0.28266911704988124</v>
       </c>
       <c r="CH3">
-        <v>-0.29260483470853133</v>
+        <v>-0.25302621811389392</v>
       </c>
       <c r="CI3">
-        <v>-0.1567009551059767</v>
+        <v>-0.26313398613668665</v>
       </c>
       <c r="CJ3">
-        <v>-0.21815929839651732</v>
+        <v>-0.27093244679007172</v>
       </c>
       <c r="CK3">
-        <v>-0.16016599088980116</v>
+        <v>-0.29644622567370699</v>
       </c>
       <c r="CL3">
-        <v>-0.26184389028594562</v>
+        <v>-0.27393850624431348</v>
       </c>
       <c r="CM3">
-        <v>-0.30258903113345453</v>
+        <v>-0.27593712916793789</v>
       </c>
       <c r="CN3">
-        <v>-0.39547236860472329</v>
+        <v>-0.38714365012426738</v>
       </c>
       <c r="CO3">
-        <v>-0.21934071201837588</v>
+        <v>-0.21539695397578679</v>
       </c>
       <c r="CP3">
-        <v>-0.31576776848983984</v>
+        <v>-0.23799844257271352</v>
       </c>
       <c r="CQ3">
-        <v>-0.26526775648717493</v>
+        <v>-0.2524658504940645</v>
       </c>
       <c r="CR3">
-        <v>-0.3764883611164519</v>
+        <v>-0.26320734134236068</v>
       </c>
       <c r="CS3">
-        <v>-0.17635434230607305</v>
+        <v>-0.22363427413115933</v>
       </c>
       <c r="CT3">
-        <v>-0.24072938540206773</v>
+        <v>-0.19145579015617584</v>
       </c>
       <c r="CU3">
-        <v>-0.20818969917409938</v>
+        <v>-0.22651246197022759</v>
       </c>
       <c r="CV3">
-        <v>-0.24324649019802638</v>
+        <v>-0.17095279110421827</v>
       </c>
       <c r="CW3">
-        <v>-0.19634631893259183</v>
+        <v>-0.18408664457872692</v>
       </c>
       <c r="CX3">
-        <v>-0.22758959431078535</v>
+        <v>-0.21238903589145927</v>
       </c>
       <c r="CY3">
-        <v>-0.12453453082051837</v>
+        <v>-0.078062894593510734</v>
       </c>
       <c r="CZ3">
-        <v>-0.23761763019929585</v>
+        <v>-0.067706037381954812</v>
       </c>
       <c r="DA3">
-        <v>-0.029509654404781815</v>
+        <v>-0.047543698790729311</v>
       </c>
       <c r="DB3">
-        <v>-0.01127216325406866</v>
+        <v>-0.075623519755535648</v>
       </c>
       <c r="DC3">
-        <v>0.04027014954954445</v>
+        <v>-0.074505080516288583</v>
       </c>
       <c r="DD3">
-        <v>-0.036891455658297795</v>
+        <v>-0.11032170625915409</v>
       </c>
       <c r="DE3">
-        <v>-0.018658256009617413</v>
+        <v>-0.076162651092959791</v>
       </c>
       <c r="DF3">
-        <v>-0.063189407601140779</v>
+        <v>-0.07793113859281238</v>
       </c>
       <c r="DG3">
-        <v>-0.10666595496721966</v>
+        <v>-0.093345517790980145</v>
       </c>
       <c r="DH3">
-        <v>-0.10251059583746247</v>
+        <v>-0.096871497397733</v>
       </c>
       <c r="DI3">
-        <v>-0.056682150271885667</v>
+        <v>0.089820592636836588</v>
       </c>
       <c r="DJ3">
-        <v>0.099282190390816816</v>
+        <v>0.022300575333086159</v>
       </c>
       <c r="DK3">
-        <v>0.011429853290751739</v>
+        <v>0.075085964635951671</v>
       </c>
       <c r="DL3">
-        <v>0.090086644635843441</v>
+        <v>0.042661229443639669</v>
       </c>
       <c r="DM3">
-        <v>-0.098986956790431513</v>
+        <v>0.031269304366886005</v>
       </c>
       <c r="DN3">
-        <v>0.039035682389386962</v>
+        <v>0.031837468597711291</v>
       </c>
       <c r="DO3">
-        <v>0.062138036960030035</v>
+        <v>0.025274748888256295</v>
       </c>
       <c r="DP3">
-        <v>-0.035793769748687899</v>
+        <v>0.05327736860362034</v>
       </c>
       <c r="DQ3">
-        <v>0.055320116545115511</v>
+        <v>0.049682652413065749</v>
       </c>
       <c r="DR3">
-        <v>0.051997820133832251</v>
+        <v>0.056976750070236053</v>
       </c>
       <c r="DS3">
-        <v>-0.044207289696023722</v>
+        <v>0.023482249805425404</v>
       </c>
       <c r="DT3">
-        <v>-0.019397911436613118</v>
+        <v>-0.026447257703457305</v>
       </c>
       <c r="DU3">
-        <v>0.10904565594293693</v>
+        <v>0.0080968111291163294</v>
       </c>
       <c r="DV3">
-        <v>0.033669009913487639</v>
+        <v>0.037438243363812171</v>
       </c>
       <c r="DW3">
-        <v>0.069073049645216517</v>
+        <v>0.0375170114246869</v>
       </c>
       <c r="DX3">
-        <v>0.061845390281572203</v>
+        <v>0.062492524907421791</v>
       </c>
       <c r="DY3">
-        <v>0.054450950598120731</v>
+        <v>0.033226547909550104</v>
       </c>
       <c r="DZ3">
-        <v>0.022737783169478325</v>
+        <v>0.04469095808464197</v>
       </c>
       <c r="EA3">
-        <v>0.12758953880979262</v>
+        <v>0.04066339587451704</v>
       </c>
       <c r="EB3">
-        <v>0.03151886553531983</v>
+        <v>0.094475323536785921</v>
       </c>
       <c r="EC3">
-        <v>-0.19705224126023696</v>
+        <v>0.041744249063115538</v>
       </c>
       <c r="ED3">
-        <v>-0.086627329958174987</v>
+        <v>0.05207168789937066</v>
       </c>
       <c r="EE3">
-        <v>0.034605008392006982</v>
+        <v>0.052960188030793248</v>
       </c>
       <c r="EF3">
-        <v>0.038815335404216465</v>
+        <v>0.059208099194746809</v>
       </c>
       <c r="EG3">
-        <v>-0.051638634305412323</v>
+        <v>0.035027348646930558</v>
       </c>
       <c r="EH3">
-        <v>0.02615764816098266</v>
+        <v>0.025065465945181064</v>
       </c>
       <c r="EI3">
-        <v>0.042832952776856031</v>
+        <v>0.07078294903086868</v>
       </c>
       <c r="EJ3">
-        <v>0.051210658481136408</v>
+        <v>0.035116193989886663</v>
       </c>
       <c r="EK3">
-        <v>-0.11002063334401528</v>
+        <v>0.015364861277685106</v>
       </c>
       <c r="EL3">
-        <v>-0.022448757735691875</v>
+        <v>0.03767211445705939</v>
       </c>
       <c r="EM3">
-        <v>0.042276921974867383</v>
+        <v>0.029212885406634172</v>
       </c>
       <c r="EN3">
-        <v>-0.10303606629176713</v>
+        <v>0.033301661526159043</v>
       </c>
       <c r="EO3">
-        <v>-0.05165034332874776</v>
+        <v>0.032592800021157872</v>
       </c>
       <c r="EP3">
-        <v>-0.090631572673576175</v>
+        <v>0.013618339557798204</v>
       </c>
       <c r="EQ3">
-        <v>0.078602149387306197</v>
+        <v>0.023462958853779709</v>
       </c>
       <c r="ER3">
-        <v>0.014745471269968065</v>
+        <v>0.040830030828437246</v>
       </c>
       <c r="ES3">
-        <v>0.027663067886491449</v>
+        <v>0.021796827978479108</v>
       </c>
       <c r="ET3">
-        <v>0.11977553367185451</v>
+        <v>0.0021379611752253302</v>
       </c>
       <c r="EU3">
-        <v>-0.0083134793720293643</v>
+        <v>0.026674559243938016</v>
       </c>
       <c r="EV3">
-        <v>0.057815695531470618</v>
+        <v>0.012960952504632344</v>
       </c>
       <c r="EW3">
-        <v>-0.042019243068246115</v>
+        <v>0.0054103672151232822</v>
       </c>
       <c r="EX3">
-        <v>0.074590791170927428</v>
+        <v>0.019594398903260687</v>
       </c>
       <c r="EY3">
-        <v>0.026447225335660629</v>
+        <v>0.033733250808766081</v>
       </c>
       <c r="EZ3">
-        <v>0.030623273505057707</v>
+        <v>0.045115164200871485</v>
       </c>
       <c r="FA3">
-        <v>-0.03978709363768558</v>
+        <v>0.035126809448977524</v>
       </c>
       <c r="FB3">
-        <v>0.1081686738370998</v>
+        <v>-0.02870995211125477</v>
       </c>
       <c r="FC3">
-        <v>-0.10671422609831423</v>
+        <v>0.031546058040687844</v>
       </c>
       <c r="FD3">
-        <v>-0.11355017695638325</v>
+        <v>0.012132482028003511</v>
       </c>
       <c r="FE3">
-        <v>0.027818619745167757</v>
+        <v>0.057628727910041373</v>
       </c>
       <c r="FF3">
-        <v>0.013442865249314461</v>
+        <v>0.0064646390252690103</v>
       </c>
       <c r="FG3">
-        <v>-0.1016189864310556</v>
+        <v>-0.010008000051182811</v>
       </c>
       <c r="FH3">
-        <v>0.089130343587225033</v>
+        <v>0.018725167108341781</v>
       </c>
       <c r="FI3">
-        <v>-0.017368724327218837</v>
+        <v>-0.034556482116963945</v>
       </c>
       <c r="FJ3">
-        <v>-0.094791493345685471</v>
+        <v>-0.036842509022013373</v>
       </c>
       <c r="FK3">
-        <v>-0.07531533969665799</v>
+        <v>0.017380317045263501</v>
       </c>
       <c r="FL3">
-        <v>-0.050885417371573129</v>
+        <v>-0.0087128999396398309</v>
       </c>
       <c r="FM3">
-        <v>-0.041921784572809893</v>
+        <v>-0.0017721575699399977</v>
       </c>
       <c r="FN3">
-        <v>-0.079558391549023277</v>
+        <v>-0.037065569134321887</v>
       </c>
       <c r="FO3">
-        <v>0.0056192725707118465</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>-0.010036041246966465</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>-0.094549863457960473</v>
+        <v>-5.5307675610392799</v>
       </c>
       <c r="FR3">
         <v>-0.080019531604926919</v>
@@ -2794,520 +2794,520 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.068446917381840944</v>
+        <v>0.022243270518634652</v>
       </c>
       <c r="C4">
-        <v>0.050589606345832587</v>
+        <v>0.016125372440654789</v>
       </c>
       <c r="D4">
-        <v>0.063440529624355299</v>
+        <v>0.019848409407677705</v>
       </c>
       <c r="E4">
-        <v>0.075427809218709216</v>
+        <v>0.024707708632176955</v>
       </c>
       <c r="F4">
-        <v>0.046990535897416121</v>
+        <v>0.015014724465451492</v>
       </c>
       <c r="G4">
-        <v>0.03924240062469557</v>
+        <v>0.012331110150241079</v>
       </c>
       <c r="H4">
-        <v>0.030590870265208348</v>
+        <v>0.0097016179521998511</v>
       </c>
       <c r="I4">
-        <v>0.034375374605709545</v>
+        <v>0.010965032297863213</v>
       </c>
       <c r="J4">
-        <v>0.034284554627742651</v>
+        <v>0.011102510726751003</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.10667500327191713</v>
+        <v>0.034457712780772032</v>
       </c>
       <c r="M4">
-        <v>0.11572753157766608</v>
+        <v>0.034145533620900614</v>
       </c>
       <c r="N4">
-        <v>0.10634626611471233</v>
+        <v>0.033089065306168224</v>
       </c>
       <c r="O4">
-        <v>0.10910896564562886</v>
+        <v>0.034023854825046461</v>
       </c>
       <c r="P4">
-        <v>0.11391310246823359</v>
+        <v>0.03345235329254552</v>
       </c>
       <c r="Q4">
-        <v>0.10110673498938595</v>
+        <v>0.033067572782178201</v>
       </c>
       <c r="R4">
-        <v>0.10416434494872392</v>
+        <v>0.032834954648771029</v>
       </c>
       <c r="S4">
-        <v>0.11480538550600991</v>
+        <v>0.033657667773788404</v>
       </c>
       <c r="T4">
-        <v>0.11100445636744111</v>
+        <v>0.03268023641462664</v>
       </c>
       <c r="U4">
-        <v>0.11180341881239944</v>
+        <v>0.032370003679974488</v>
       </c>
       <c r="V4">
-        <v>0.1057020165692836</v>
+        <v>0.032710934060319226</v>
       </c>
       <c r="W4">
-        <v>0.10507478828049834</v>
+        <v>0.032700687970862972</v>
       </c>
       <c r="X4">
-        <v>0.10602196849277244</v>
+        <v>0.032498574861906722</v>
       </c>
       <c r="Y4">
-        <v>0.10602196849599935</v>
+        <v>0.032100274412278799</v>
       </c>
       <c r="Z4">
-        <v>0.11140088511751839</v>
+        <v>0.032588869218236574</v>
       </c>
       <c r="AA4">
-        <v>0.1027226976395732</v>
+        <v>0.032639495036869935</v>
       </c>
       <c r="AB4">
-        <v>0.11347768513258907</v>
+        <v>0.032488607520184856</v>
       </c>
       <c r="AC4">
-        <v>0.10300380002069899</v>
+        <v>0.032419197856246834</v>
       </c>
       <c r="AD4">
-        <v>0.098655723864678593</v>
+        <v>0.032897713953443902</v>
       </c>
       <c r="AE4">
-        <v>0.10357670110333171</v>
+        <v>0.032195501938305962</v>
       </c>
       <c r="AF4">
-        <v>0.10874627576149794</v>
+        <v>0.031686218469331645</v>
       </c>
       <c r="AG4">
-        <v>0.1073461854561088</v>
+        <v>0.03193186339485201</v>
       </c>
       <c r="AH4">
-        <v>0.096672756670974233</v>
+        <v>0.032006243086881339</v>
       </c>
       <c r="AI4">
-        <v>0.10328844430077048</v>
+        <v>0.031659425041436533</v>
       </c>
       <c r="AJ4">
-        <v>0.10300380004873216</v>
+        <v>0.032253222682962858</v>
       </c>
       <c r="AK4">
-        <v>0.10244506839593556</v>
+        <v>0.031118555723273798</v>
       </c>
       <c r="AL4">
-        <v>0.10768883247691102</v>
+        <v>0.032062519687288092</v>
       </c>
       <c r="AM4">
-        <v>0.10034138557341102</v>
+        <v>0.032128715995515242</v>
       </c>
       <c r="AN4">
-        <v>0.10507478834077845</v>
+        <v>0.033024762692255336</v>
       </c>
       <c r="AO4">
-        <v>0.10538631938603858</v>
+        <v>0.032321125979595799</v>
       </c>
       <c r="AP4">
-        <v>0.10507478834797819</v>
+        <v>0.032062519692202612</v>
       </c>
       <c r="AQ4">
-        <v>0.096672756717310807</v>
+        <v>0.031794383350180457</v>
       </c>
       <c r="AR4">
-        <v>0.10476733757588504</v>
+        <v>0.032243571833721542</v>
       </c>
       <c r="AS4">
-        <v>0.099602407291416367</v>
+        <v>0.032128716002942856</v>
       </c>
       <c r="AT4">
-        <v>0.10416434505069037</v>
+        <v>0.032034328319787968</v>
       </c>
       <c r="AU4">
-        <v>0.096883701160460828</v>
+        <v>0.031553225391853026</v>
       </c>
       <c r="AV4">
-        <v>0.10700827664854798</v>
+        <v>0.03242907497139632</v>
       </c>
       <c r="AW4">
-        <v>0.10136796902666187</v>
+        <v>0.031695171504802173</v>
       </c>
       <c r="AX4">
-        <v>0.1076888325190254</v>
+        <v>0.032659838878135075</v>
       </c>
       <c r="AY4">
-        <v>0.10700827665873948</v>
+        <v>0.031987578296152487</v>
       </c>
       <c r="AZ4">
-        <v>0.099602407324321324</v>
+        <v>0.031650515718953817</v>
       </c>
       <c r="BA4">
-        <v>0.10507478839084475</v>
+        <v>0.0318673875238559</v>
       </c>
       <c r="BB4">
-        <v>0.10084859784755335</v>
+        <v>0.031353928265091632</v>
       </c>
       <c r="BC4">
-        <v>0.10667500341553791</v>
+        <v>0.031579630330531017</v>
       </c>
       <c r="BD4">
-        <v>0.10570201669160713</v>
+        <v>0.031465897345432203</v>
       </c>
       <c r="BE4">
-        <v>0.10300380013480132</v>
+        <v>0.032128716018654725</v>
       </c>
       <c r="BF4">
-        <v>0.11022933774718668</v>
+        <v>0.031597287078921517</v>
       </c>
       <c r="BG4">
-        <v>0.11262740703544932</v>
+        <v>0.031931863428991056</v>
       </c>
       <c r="BH4">
-        <v>0.10272269777315104</v>
+        <v>0.031597287081786822</v>
       </c>
       <c r="BI4">
-        <v>0.1087462758572547</v>
+        <v>0.032043713638802741</v>
       </c>
       <c r="BJ4">
-        <v>0.098744726093925844</v>
+        <v>0.031819314150438642</v>
       </c>
       <c r="BK4">
-        <v>0.10360182225128531</v>
+        <v>0.032826424261215369</v>
       </c>
       <c r="BL4">
-        <v>0.10811639834590302</v>
+        <v>0.032594610419725778</v>
       </c>
       <c r="BM4">
-        <v>0.10530290138776811</v>
+        <v>0.032151756593230843</v>
       </c>
       <c r="BN4">
-        <v>0.10651211233789064</v>
+        <v>0.032651993471995287</v>
       </c>
       <c r="BO4">
-        <v>0.10596505872617132</v>
+        <v>0.032336361723357743</v>
       </c>
       <c r="BP4">
-        <v>0.10687496262655241</v>
+        <v>0.032507307758456401</v>
       </c>
       <c r="BQ4">
-        <v>0.11241894474481345</v>
+        <v>0.0325073648891318</v>
       </c>
       <c r="BR4">
-        <v>0.10229395475439948</v>
+        <v>0.032885260369115314</v>
       </c>
       <c r="BS4">
-        <v>0.10350780640037972</v>
+        <v>0.033174282892052084</v>
       </c>
       <c r="BT4">
-        <v>0.086901409159430218</v>
+        <v>0.027268931949286271</v>
       </c>
       <c r="BU4">
-        <v>0.07931265547502421</v>
+        <v>0.024742174815892942</v>
       </c>
       <c r="BV4">
-        <v>0.08067900538394436</v>
+        <v>0.024777551220203035</v>
       </c>
       <c r="BW4">
-        <v>0.079501464041851391</v>
+        <v>0.024216556972569171</v>
       </c>
       <c r="BX4">
-        <v>0.078994839541487047</v>
+        <v>0.024000963752650324</v>
       </c>
       <c r="BY4">
-        <v>0.080719368620955301</v>
+        <v>0.024082214378228255</v>
       </c>
       <c r="BZ4">
-        <v>0.07686819087562892</v>
+        <v>0.023667859585302976</v>
       </c>
       <c r="CA4">
-        <v>0.078198195799097994</v>
+        <v>0.023573056788426468</v>
       </c>
       <c r="CB4">
-        <v>0.077524829451049743</v>
+        <v>0.023640544516231557</v>
       </c>
       <c r="CC4">
-        <v>0.078039865744314846</v>
+        <v>0.02392173922511466</v>
       </c>
       <c r="CD4">
-        <v>0.079675638313306638</v>
+        <v>0.024491879921623737</v>
       </c>
       <c r="CE4">
-        <v>0.083284217635273758</v>
+        <v>0.025209161193382353</v>
       </c>
       <c r="CF4">
-        <v>0.082202316298126632</v>
+        <v>0.025403881303194136</v>
       </c>
       <c r="CG4">
-        <v>0.083335452900694426</v>
+        <v>0.025450619091933292</v>
       </c>
       <c r="CH4">
-        <v>0.083186938761681109</v>
+        <v>0.025303957865689557</v>
       </c>
       <c r="CI4">
-        <v>0.081151027856622204</v>
+        <v>0.025250751305039034</v>
       </c>
       <c r="CJ4">
-        <v>0.082093946942996029</v>
+        <v>0.02540305413419159</v>
       </c>
       <c r="CK4">
-        <v>0.081239395118616789</v>
+        <v>0.025564173533474944</v>
       </c>
       <c r="CL4">
-        <v>0.083623269655909119</v>
+        <v>0.025920359098877518</v>
       </c>
       <c r="CM4">
-        <v>0.084357541522513554</v>
+        <v>0.02595212372863151</v>
       </c>
       <c r="CN4">
-        <v>0.082796914052833778</v>
+        <v>0.025583211241990915</v>
       </c>
       <c r="CO4">
-        <v>0.074140122917730589</v>
+        <v>0.022554372003760675</v>
       </c>
       <c r="CP4">
-        <v>0.075308766197192567</v>
+        <v>0.022656328275342016</v>
       </c>
       <c r="CQ4">
-        <v>0.073024039608595742</v>
+        <v>0.022064251660106525</v>
       </c>
       <c r="CR4">
-        <v>0.074475688582248234</v>
+        <v>0.022123804356903601</v>
       </c>
       <c r="CS4">
-        <v>0.0720850020437169</v>
+        <v>0.021983245324230159</v>
       </c>
       <c r="CT4">
-        <v>0.071583380163120505</v>
+        <v>0.021472812432283311</v>
       </c>
       <c r="CU4">
-        <v>0.071231109698658993</v>
+        <v>0.021634918293540726</v>
       </c>
       <c r="CV4">
-        <v>0.071720296986342524</v>
+        <v>0.021423574524325428</v>
       </c>
       <c r="CW4">
-        <v>0.071188338699009729</v>
+        <v>0.021494249984191492</v>
       </c>
       <c r="CX4">
-        <v>0.071628719012376982</v>
+        <v>0.021628818943533537</v>
       </c>
       <c r="CY4">
-        <v>0.072331479545328717</v>
+        <v>0.021723526533426653</v>
       </c>
       <c r="CZ4">
-        <v>0.073942235279460783</v>
+        <v>0.021697095803322998</v>
       </c>
       <c r="DA4">
-        <v>0.071224032218480601</v>
+        <v>0.02163004674568841</v>
       </c>
       <c r="DB4">
-        <v>0.07105572180751743</v>
+        <v>0.021766124898386151</v>
       </c>
       <c r="DC4">
-        <v>0.070498559898432858</v>
+        <v>0.021778895341209852</v>
       </c>
       <c r="DD4">
-        <v>0.071239760750931913</v>
+        <v>0.021917411594387204</v>
       </c>
       <c r="DE4">
-        <v>0.07107379548159945</v>
+        <v>0.021788229059517404</v>
       </c>
       <c r="DF4">
-        <v>0.071673665765841485</v>
+        <v>0.021813510109818614</v>
       </c>
       <c r="DG4">
-        <v>0.072282078194158744</v>
+        <v>0.02189758370466147</v>
       </c>
       <c r="DH4">
-        <v>0.072282078338985895</v>
+        <v>0.02193072153444809</v>
       </c>
       <c r="DI4">
-        <v>0.07088989632334991</v>
+        <v>0.020788555712290609</v>
       </c>
       <c r="DJ4">
-        <v>0.068824130138056383</v>
+        <v>0.021110018259701643</v>
       </c>
       <c r="DK4">
-        <v>0.070047835107174605</v>
+        <v>0.020890088604145238</v>
       </c>
       <c r="DL4">
-        <v>0.069052966644935584</v>
+        <v>0.021054983043716276</v>
       </c>
       <c r="DM4">
-        <v>0.071764267243967839</v>
+        <v>0.021126218702725356</v>
       </c>
       <c r="DN4">
-        <v>0.069837941460458811</v>
+        <v>0.021142520804256413</v>
       </c>
       <c r="DO4">
-        <v>0.069583540461173585</v>
+        <v>0.021192047423567083</v>
       </c>
       <c r="DP4">
-        <v>0.071009245201774096</v>
+        <v>0.021081466359079915</v>
       </c>
       <c r="DQ4">
-        <v>0.06978636585557825</v>
+        <v>0.021117206259634435</v>
       </c>
       <c r="DR4">
-        <v>0.069889873477802178</v>
+        <v>0.021102850978971278</v>
       </c>
       <c r="DS4">
-        <v>0.0713155092088128</v>
+        <v>0.021278633575492735</v>
       </c>
       <c r="DT4">
-        <v>0.071009245821483519</v>
+        <v>0.021539540338579442</v>
       </c>
       <c r="DU4">
-        <v>0.06928935845453503</v>
+        <v>0.021389970736276152</v>
       </c>
       <c r="DV4">
-        <v>0.07037387333530648</v>
+        <v>0.021269084134338031</v>
       </c>
       <c r="DW4">
-        <v>0.069942164628651868</v>
+        <v>0.021288217691557483</v>
       </c>
       <c r="DX4">
-        <v>0.070101227293668161</v>
+        <v>0.021190196794852678</v>
       </c>
       <c r="DY4">
-        <v>0.070263659713848375</v>
+        <v>0.021348415296997859</v>
       </c>
       <c r="DZ4">
-        <v>0.07077229547266535</v>
+        <v>0.021313297913775241</v>
       </c>
       <c r="EA4">
-        <v>0.069386116135660342</v>
+        <v>0.021352345732011863</v>
       </c>
       <c r="EB4">
-        <v>0.070772295838136295</v>
+        <v>0.021119006917289383</v>
       </c>
       <c r="EC4">
-        <v>0.074433188154482841</v>
+        <v>0.021387977841645787</v>
       </c>
       <c r="ED4">
-        <v>0.072665980256392496</v>
+        <v>0.021358252126391326</v>
       </c>
       <c r="EE4">
-        <v>0.070889899871359158</v>
+        <v>0.021374065388632481</v>
       </c>
       <c r="EF4">
-        <v>0.070889900051148175</v>
+        <v>0.021364171384414796</v>
       </c>
       <c r="EG4">
-        <v>0.072308018932734822</v>
+        <v>0.021501901674325846</v>
       </c>
       <c r="EH4">
-        <v>0.071191627292920584</v>
+        <v>0.021571299691353248</v>
       </c>
       <c r="EI4">
-        <v>0.07100924836753833</v>
+        <v>0.021368124854900052</v>
       </c>
       <c r="EJ4">
-        <v>0.070949354184826771</v>
+        <v>0.021562795571513724</v>
       </c>
       <c r="EK4">
-        <v>0.073507698244216851</v>
+        <v>0.021682036057400995</v>
       </c>
       <c r="EL4">
-        <v>0.072168832248396542</v>
+        <v>0.021590529119377616</v>
       </c>
       <c r="EM4">
-        <v>0.07125333701529063</v>
+        <v>0.021653396283193859</v>
       </c>
       <c r="EN4">
-        <v>0.073588189787652719</v>
+        <v>0.021653396340507912</v>
       </c>
       <c r="EO4">
-        <v>0.072813314962205958</v>
+        <v>0.02167761139989868</v>
       </c>
       <c r="EP4">
-        <v>0.073507698963294663</v>
+        <v>0.021794930207620765</v>
       </c>
       <c r="EQ4">
-        <v>0.070949355426554839</v>
+        <v>0.02176515102794721</v>
       </c>
       <c r="ER4">
-        <v>0.071964163632209491</v>
+        <v>0.021697577663313095</v>
       </c>
       <c r="ES4">
-        <v>0.071830382447852961</v>
+        <v>0.021815726657588911</v>
       </c>
       <c r="ET4">
-        <v>0.07054217213783967</v>
+        <v>0.021938852768864373</v>
       </c>
       <c r="EU4">
-        <v>0.072521049817173555</v>
+        <v>0.021832004603195614</v>
       </c>
       <c r="EV4">
-        <v>0.071568991993658224</v>
+        <v>0.021924381773665198</v>
       </c>
       <c r="EW4">
-        <v>0.073192553905848626</v>
+        <v>0.021985146335299043</v>
       </c>
       <c r="EX4">
-        <v>0.071441287267208012</v>
+        <v>0.021931608649668578</v>
       </c>
       <c r="EY4">
-        <v>0.072238149704718799</v>
+        <v>0.021879016578514949</v>
       </c>
       <c r="EZ4">
-        <v>0.072238149893090187</v>
+        <v>0.021841347287408691</v>
       </c>
       <c r="FA4">
-        <v>0.073427900424112971</v>
+        <v>0.021914773620551001</v>
       </c>
       <c r="FB4">
-        <v>0.071191631080864889</v>
+        <v>0.022278761522040055</v>
       </c>
       <c r="FC4">
-        <v>0.074701834755217869</v>
+        <v>0.021975341044910449</v>
       </c>
       <c r="FD4">
-        <v>0.074885087883170831</v>
+        <v>0.022100261695248802</v>
       </c>
       <c r="FE4">
-        <v>0.072593221939696043</v>
+        <v>0.021881387339594303</v>
       </c>
       <c r="FF4">
-        <v>0.072887903346034871</v>
+        <v>0.022175132208594472</v>
       </c>
       <c r="FG4">
-        <v>0.074885088347293183</v>
+        <v>0.022286877427127556</v>
       </c>
       <c r="FH4">
-        <v>0.071830385332088575</v>
+        <v>0.022151701129853804</v>
       </c>
       <c r="FI4">
-        <v>0.073588193247264649</v>
+        <v>0.022468016404455289</v>
       </c>
       <c r="FJ4">
-        <v>0.074977998181185626</v>
+        <v>0.022502605847816229</v>
       </c>
       <c r="FK4">
-        <v>0.074701836007876637</v>
+        <v>0.022222533652400029</v>
       </c>
       <c r="FL4">
-        <v>0.074345263013293042</v>
+        <v>0.022388722979911097</v>
       </c>
       <c r="FM4">
-        <v>0.07425812299815733</v>
+        <v>0.022371983996660374</v>
       </c>
       <c r="FN4">
-        <v>0.074977998800946868</v>
+        <v>0.022593701327935877</v>
       </c>
       <c r="FO4">
-        <v>0.073588194280998803</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.073917251689181895</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.075455874212894555</v>
+        <v>0.015843116630408632</v>
       </c>
       <c r="FR4">
         <v>0.075262007339403664</v>
@@ -4649,13 +4649,13 @@
         <v>170</v>
       </c>
       <c r="FO2" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="FP2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="FQ2" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="FR2" t="s">
         <v>190</v>
@@ -4813,520 +4813,520 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>0.4085572849451522</v>
+        <v>0.3794781405042062</v>
       </c>
       <c r="C3">
-        <v>-0.28777766650464115</v>
+        <v>-0.28877703506814933</v>
       </c>
       <c r="D3">
-        <v>-0.32778262408570713</v>
+        <v>-0.29106146028638846</v>
       </c>
       <c r="E3">
-        <v>-0.28647672996438195</v>
+        <v>-0.32227802814897016</v>
       </c>
       <c r="F3">
-        <v>0.3035675837648214</v>
+        <v>0.28785919452896402</v>
       </c>
       <c r="G3">
-        <v>0.30237751191987911</v>
+        <v>0.28471919916383998</v>
       </c>
       <c r="H3">
-        <v>0.26234327039197081</v>
+        <v>0.2677291917064088</v>
       </c>
       <c r="I3">
-        <v>0.14576199520330188</v>
+        <v>0.16533333680419898</v>
       </c>
       <c r="J3">
-        <v>0.17756453422853746</v>
+        <v>0.17290873753067093</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>-0.86847820546028109</v>
+        <v>-0.90535657148515758</v>
       </c>
       <c r="M3">
-        <v>-0.83906643745626919</v>
+        <v>-0.85064414093184437</v>
       </c>
       <c r="N3">
-        <v>-0.88273313749236804</v>
+        <v>-0.82583605760759304</v>
       </c>
       <c r="O3">
-        <v>-0.93615774271078656</v>
+        <v>-0.85897335702126187</v>
       </c>
       <c r="P3">
-        <v>-0.92704013219928538</v>
+        <v>-0.82797375724809852</v>
       </c>
       <c r="Q3">
-        <v>-0.84618842922527671</v>
+        <v>-0.79775496828075954</v>
       </c>
       <c r="R3">
-        <v>-0.79709720100532899</v>
+        <v>-0.81028195505819933</v>
       </c>
       <c r="S3">
-        <v>-0.95617594283341445</v>
+        <v>-0.79725463613154812</v>
       </c>
       <c r="T3">
-        <v>-0.87629895609112729</v>
+        <v>-0.77663904556855035</v>
       </c>
       <c r="U3">
-        <v>-0.7821525929812676</v>
+        <v>-0.77481462759025233</v>
       </c>
       <c r="V3">
-        <v>-0.84445505903390028</v>
+        <v>-0.75189317379146436</v>
       </c>
       <c r="W3">
-        <v>-0.86385502093194311</v>
+        <v>-0.79539048930473366</v>
       </c>
       <c r="X3">
-        <v>-0.75739962168192643</v>
+        <v>-0.73045316204476629</v>
       </c>
       <c r="Y3">
-        <v>-0.81157461713822188</v>
+        <v>-0.70792935693085313</v>
       </c>
       <c r="Z3">
-        <v>-0.73777654484348076</v>
+        <v>-0.71829195458692641</v>
       </c>
       <c r="AA3">
-        <v>-0.63384514611287024</v>
+        <v>-0.71954054211578977</v>
       </c>
       <c r="AB3">
-        <v>-0.76902909351411752</v>
+        <v>-0.73497250037702477</v>
       </c>
       <c r="AC3">
-        <v>-0.75092311109177445</v>
+        <v>-0.71857980649911946</v>
       </c>
       <c r="AD3">
-        <v>-0.74258945962731926</v>
+        <v>-0.70932006365912892</v>
       </c>
       <c r="AE3">
-        <v>-0.81704960964652951</v>
+        <v>-0.6832244151940724</v>
       </c>
       <c r="AF3">
-        <v>-0.70738154047905721</v>
+        <v>-0.66067583419603759</v>
       </c>
       <c r="AG3">
-        <v>-0.64232438780268852</v>
+        <v>-0.68632340429883953</v>
       </c>
       <c r="AH3">
-        <v>-0.62861375128503827</v>
+        <v>-0.6484679073422529</v>
       </c>
       <c r="AI3">
-        <v>-0.70417887019883085</v>
+        <v>-0.65213035675690356</v>
       </c>
       <c r="AJ3">
-        <v>-0.70216983375596531</v>
+        <v>-0.68519079624884682</v>
       </c>
       <c r="AK3">
-        <v>-0.61098318097452164</v>
+        <v>-0.65688414214336621</v>
       </c>
       <c r="AL3">
-        <v>-0.71995234448338385</v>
+        <v>-0.6597268843117774</v>
       </c>
       <c r="AM3">
-        <v>-0.59830384938877113</v>
+        <v>-0.64850894521880098</v>
       </c>
       <c r="AN3">
-        <v>-0.70625320137296854</v>
+        <v>-0.66764583399105804</v>
       </c>
       <c r="AO3">
-        <v>-0.71373654882407334</v>
+        <v>-0.67717280991794959</v>
       </c>
       <c r="AP3">
-        <v>-0.66517916676202515</v>
+        <v>-0.64573615783945737</v>
       </c>
       <c r="AQ3">
-        <v>-0.58436140473043863</v>
+        <v>-0.65131540306020985</v>
       </c>
       <c r="AR3">
-        <v>-0.5990649739480649</v>
+        <v>-0.66255930953484188</v>
       </c>
       <c r="AS3">
-        <v>-0.62870865656322528</v>
+        <v>-0.64966534187652214</v>
       </c>
       <c r="AT3">
-        <v>-0.69350641517980005</v>
+        <v>-0.65222881086464879</v>
       </c>
       <c r="AU3">
-        <v>-0.55074031680093072</v>
+        <v>-0.63144504655556866</v>
       </c>
       <c r="AV3">
-        <v>-0.76768211026317545</v>
+        <v>-0.6193532692859991</v>
       </c>
       <c r="AW3">
-        <v>-0.60566835365767446</v>
+        <v>-0.63238106066891009</v>
       </c>
       <c r="AX3">
-        <v>-0.66323471719356353</v>
+        <v>-0.66004613365242448</v>
       </c>
       <c r="AY3">
-        <v>-0.67979506104750109</v>
+        <v>-0.66748430454842067</v>
       </c>
       <c r="AZ3">
-        <v>-0.57351743151791257</v>
+        <v>-0.62313667882217938</v>
       </c>
       <c r="BA3">
-        <v>-0.67544685985007769</v>
+        <v>-0.61402678031265778</v>
       </c>
       <c r="BB3">
-        <v>-0.70202722437188581</v>
+        <v>-0.61187985959744851</v>
       </c>
       <c r="BC3">
-        <v>-0.66199557296567446</v>
+        <v>-0.60369587624461696</v>
       </c>
       <c r="BD3">
-        <v>-0.62027851903304021</v>
+        <v>-0.58246321959539049</v>
       </c>
       <c r="BE3">
-        <v>-0.67022814770729044</v>
+        <v>-0.63232625731407632</v>
       </c>
       <c r="BF3">
-        <v>-0.86203983966324516</v>
+        <v>-0.63551572156318414</v>
       </c>
       <c r="BG3">
-        <v>-0.80460225804420604</v>
+        <v>-0.62192044284035453</v>
       </c>
       <c r="BH3">
-        <v>-0.62450708767695073</v>
+        <v>-0.6262978980328221</v>
       </c>
       <c r="BI3">
-        <v>-0.72411141695360415</v>
+        <v>-0.60967091138306528</v>
       </c>
       <c r="BJ3">
-        <v>-0.40815730910695291</v>
+        <v>-0.44731912283984177</v>
       </c>
       <c r="BK3">
-        <v>-0.43712839779900065</v>
+        <v>-0.48791607317900199</v>
       </c>
       <c r="BL3">
-        <v>-0.50679726538921321</v>
+        <v>-0.47862535558508418</v>
       </c>
       <c r="BM3">
-        <v>-0.42980442479740266</v>
+        <v>-0.47523608005220819</v>
       </c>
       <c r="BN3">
-        <v>-0.48693316296395972</v>
+        <v>-0.53770564097563955</v>
       </c>
       <c r="BO3">
-        <v>-0.59800633366484302</v>
+        <v>-0.48001591736730143</v>
       </c>
       <c r="BP3">
-        <v>-0.5253927283726797</v>
+        <v>-0.46605445057943196</v>
       </c>
       <c r="BQ3">
-        <v>-0.5733096208522156</v>
+        <v>-0.45772071979375517</v>
       </c>
       <c r="BR3">
-        <v>-0.42571812408592502</v>
+        <v>-0.46688003372701387</v>
       </c>
       <c r="BS3">
-        <v>-0.56664641587783837</v>
+        <v>-0.49707065013502633</v>
       </c>
       <c r="BT3">
-        <v>-0.41283457294668557</v>
+        <v>-0.45335185080274837</v>
       </c>
       <c r="BU3">
-        <v>-0.31695992491011665</v>
+        <v>-0.38997695704021229</v>
       </c>
       <c r="BV3">
-        <v>-0.42186001580232629</v>
+        <v>-0.3953717241004287</v>
       </c>
       <c r="BW3">
-        <v>-0.48034055384622071</v>
+        <v>-0.40367147578614748</v>
       </c>
       <c r="BX3">
-        <v>-0.41257901624862342</v>
+        <v>-0.33666213482938973</v>
       </c>
       <c r="BY3">
-        <v>-0.46472237656873722</v>
+        <v>-0.34174678937601194</v>
       </c>
       <c r="BZ3">
-        <v>-0.38299017361374721</v>
+        <v>-0.3780444049002174</v>
       </c>
       <c r="CA3">
-        <v>-0.39929045177821593</v>
+        <v>-0.3636217148871641</v>
       </c>
       <c r="CB3">
-        <v>-0.35083612023442484</v>
+        <v>-0.3731955150760688</v>
       </c>
       <c r="CC3">
-        <v>-0.38602456075538683</v>
+        <v>-0.40438140103394565</v>
       </c>
       <c r="CD3">
-        <v>-0.25592647950305158</v>
+        <v>-0.25119332322257887</v>
       </c>
       <c r="CE3">
-        <v>-0.23734365998781515</v>
+        <v>-0.17253212590142328</v>
       </c>
       <c r="CF3">
-        <v>-0.25485740967394255</v>
+        <v>-0.20221979663067155</v>
       </c>
       <c r="CG3">
-        <v>-0.22854584154174837</v>
+        <v>-0.22480381047067455</v>
       </c>
       <c r="CH3">
-        <v>-0.17411216257281187</v>
+        <v>-0.19243643474882036</v>
       </c>
       <c r="CI3">
-        <v>-0.068041552946231876</v>
+        <v>-0.21172307137585303</v>
       </c>
       <c r="CJ3">
-        <v>-0.16898515147676699</v>
+        <v>-0.1885910609650811</v>
       </c>
       <c r="CK3">
-        <v>-0.10453968621730544</v>
+        <v>-0.2265037111846338</v>
       </c>
       <c r="CL3">
-        <v>-0.18166622963301232</v>
+        <v>-0.18188544275486859</v>
       </c>
       <c r="CM3">
-        <v>-0.17380269532366965</v>
+        <v>-0.18642244614630685</v>
       </c>
       <c r="CN3">
-        <v>-0.21831403917388476</v>
+        <v>-0.20280596803560472</v>
       </c>
       <c r="CO3">
-        <v>-0.087318690317831946</v>
+        <v>-0.08172643303719547</v>
       </c>
       <c r="CP3">
-        <v>-0.18374573482735035</v>
+        <v>-0.10432791881502645</v>
       </c>
       <c r="CQ3">
-        <v>-0.13963572307507693</v>
+        <v>-0.10677523153408688</v>
       </c>
       <c r="CR3">
-        <v>-0.25085631618719417</v>
+        <v>-0.11751672096610939</v>
       </c>
       <c r="CS3">
-        <v>-0.050722320132699707</v>
+        <v>-0.07794365912657307</v>
       </c>
       <c r="CT3">
-        <v>-0.12929787617717395</v>
+        <v>-0.079298828508995223</v>
       </c>
       <c r="CU3">
-        <v>-0.096758192996075368</v>
+        <v>-0.11435549700880109</v>
       </c>
       <c r="CV3">
-        <v>-0.13181498074559295</v>
+        <v>-0.058795831505849765</v>
       </c>
       <c r="CW3">
-        <v>-0.084914813913670409</v>
+        <v>-0.071929683658273139</v>
       </c>
       <c r="CX3">
-        <v>-0.1161580862924108</v>
+        <v>-0.10023207223737197</v>
       </c>
       <c r="CY3">
-        <v>-0.099747443546756076</v>
+        <v>-0.054764182208413371</v>
       </c>
       <c r="CZ3">
-        <v>-0.21283054191472964</v>
+        <v>-0.044407325111523253</v>
       </c>
       <c r="DA3">
-        <v>-0.0047225681762539488</v>
+        <v>-0.024244986750454951</v>
       </c>
       <c r="DB3">
-        <v>0.013514922750121731</v>
+        <v>-0.052324807397231957</v>
       </c>
       <c r="DC3">
-        <v>0.065057234873634295</v>
+        <v>-0.0512063681703138</v>
       </c>
       <c r="DD3">
-        <v>-0.0014527288397416459</v>
+        <v>-0.072377564240112366</v>
       </c>
       <c r="DE3">
-        <v>0.016780470403418336</v>
+        <v>-0.038218509747617917</v>
       </c>
       <c r="DF3">
-        <v>-0.027750680223136048</v>
+        <v>-0.039986997211450492</v>
       </c>
       <c r="DG3">
-        <v>-0.071227226726480866</v>
+        <v>-0.055401376100998094</v>
       </c>
       <c r="DH3">
-        <v>-0.067071867675977032</v>
+        <v>-0.058927355638483246</v>
       </c>
       <c r="DI3">
-        <v>-0.056682150271891968</v>
+        <v>0.089820592636832411</v>
       </c>
       <c r="DJ3">
-        <v>0.099282190390810834</v>
+        <v>0.022300575333081461</v>
       </c>
       <c r="DK3">
-        <v>0.01142985329074574</v>
+        <v>0.075085964635947341</v>
       </c>
       <c r="DL3">
-        <v>0.09008664463583789</v>
+        <v>0.042661229443635047</v>
       </c>
       <c r="DM3">
-        <v>-0.098986956790437841</v>
+        <v>0.031269304366881828</v>
       </c>
       <c r="DN3">
-        <v>0.039035682389380745</v>
+        <v>0.031837468597706975</v>
       </c>
       <c r="DO3">
-        <v>0.062138036960023894</v>
+        <v>0.025274748888253339</v>
       </c>
       <c r="DP3">
-        <v>-0.035793769748694353</v>
+        <v>0.053277368603615982</v>
       </c>
       <c r="DQ3">
-        <v>0.055320116545109842</v>
+        <v>0.04968265241306212</v>
       </c>
       <c r="DR3">
-        <v>0.051997820133826284</v>
+        <v>0.056976750070231744</v>
       </c>
       <c r="DS3">
-        <v>-0.044207289696029113</v>
+        <v>0.023482249805421292</v>
       </c>
       <c r="DT3">
-        <v>-0.019397911436618551</v>
+        <v>-0.026447257703461291</v>
       </c>
       <c r="DU3">
-        <v>0.10904565594293036</v>
+        <v>0.0080968111291119943</v>
       </c>
       <c r="DV3">
-        <v>0.033669009913481408</v>
+        <v>0.037438243363808216</v>
       </c>
       <c r="DW3">
-        <v>0.069073049645210147</v>
+        <v>0.037517011424682653</v>
       </c>
       <c r="DX3">
-        <v>0.061845390281566492</v>
+        <v>0.062492524907418225</v>
       </c>
       <c r="DY3">
-        <v>0.0544509505981145</v>
+        <v>0.033226547909545635</v>
       </c>
       <c r="DZ3">
-        <v>0.02273778316947319</v>
+        <v>0.044690958084637647</v>
       </c>
       <c r="EA3">
-        <v>0.12758953880978696</v>
+        <v>0.040663395874512981</v>
       </c>
       <c r="EB3">
-        <v>0.031518865535314314</v>
+        <v>0.09447532353678216</v>
       </c>
       <c r="EC3">
-        <v>-0.19705224126024279</v>
+        <v>0.041744249063111367</v>
       </c>
       <c r="ED3">
-        <v>-0.086627329958181287</v>
+        <v>0.052071687899366358</v>
       </c>
       <c r="EE3">
-        <v>0.034605008392001112</v>
+        <v>0.052960188030789307</v>
       </c>
       <c r="EF3">
-        <v>0.038815335404211011</v>
+        <v>0.059208099194742875</v>
       </c>
       <c r="EG3">
-        <v>-0.051638634305418887</v>
+        <v>0.035027348646926373</v>
       </c>
       <c r="EH3">
-        <v>0.026157648160976078</v>
+        <v>0.025065465945176627</v>
       </c>
       <c r="EI3">
-        <v>0.04283295277685082</v>
+        <v>0.070782949030865294</v>
       </c>
       <c r="EJ3">
-        <v>0.051210658481130503</v>
+        <v>0.035116193989881854</v>
       </c>
       <c r="EK3">
-        <v>-0.1100206333440219</v>
+        <v>0.015364861277681526</v>
       </c>
       <c r="EL3">
-        <v>-0.022448757735698321</v>
+        <v>0.037672114457054491</v>
       </c>
       <c r="EM3">
-        <v>0.042276921974861811</v>
+        <v>0.029212885406629852</v>
       </c>
       <c r="EN3">
-        <v>-0.10303606629177307</v>
+        <v>0.033301661526154908</v>
       </c>
       <c r="EO3">
-        <v>-0.051650343328753963</v>
+        <v>0.032592800021153452</v>
       </c>
       <c r="EP3">
-        <v>-0.090631572673582364</v>
+        <v>0.013618339557793766</v>
       </c>
       <c r="EQ3">
-        <v>0.078602149387299758</v>
+        <v>0.023462958853775272</v>
       </c>
       <c r="ER3">
-        <v>0.014745471269962744</v>
+        <v>0.040830030828432964</v>
       </c>
       <c r="ES3">
-        <v>0.027663067886485915</v>
+        <v>0.021796827978475198</v>
       </c>
       <c r="ET3">
-        <v>0.11977553367184796</v>
+        <v>0.0021379611752211031</v>
       </c>
       <c r="EU3">
-        <v>-0.008313479372035637</v>
+        <v>0.026674559243933953</v>
       </c>
       <c r="EV3">
-        <v>0.057815695531464283</v>
+        <v>0.012960952504629024</v>
       </c>
       <c r="EW3">
-        <v>-0.042019243068252533</v>
+        <v>0.0054103672151188968</v>
       </c>
       <c r="EX3">
-        <v>0.074590791170921503</v>
+        <v>0.019594398903256698</v>
       </c>
       <c r="EY3">
-        <v>0.026447225335654953</v>
+        <v>0.033733250808762237</v>
       </c>
       <c r="EZ3">
-        <v>0.030623273505051514</v>
+        <v>0.045115164200868627</v>
       </c>
       <c r="FA3">
-        <v>-0.039787093637691756</v>
+        <v>0.035126809448973492</v>
       </c>
       <c r="FB3">
-        <v>0.10816867383709367</v>
+        <v>-0.028709952111259061</v>
       </c>
       <c r="FC3">
-        <v>-0.10671422609832019</v>
+        <v>0.031546058040683729</v>
       </c>
       <c r="FD3">
-        <v>-0.11355017695638896</v>
+        <v>0.012132482027999143</v>
       </c>
       <c r="FE3">
-        <v>0.02781861974516199</v>
+        <v>0.057628727910037689</v>
       </c>
       <c r="FF3">
-        <v>0.013442865249308582</v>
+        <v>0.0064646390252654758</v>
       </c>
       <c r="FG3">
-        <v>-0.10161898643106199</v>
+        <v>-0.010008000051186508</v>
       </c>
       <c r="FH3">
-        <v>0.089130343587219038</v>
+        <v>0.018725167108338197</v>
       </c>
       <c r="FI3">
-        <v>-0.017368724327224583</v>
+        <v>-0.034556482116968074</v>
       </c>
       <c r="FJ3">
-        <v>-0.094791493345690953</v>
+        <v>-0.036842509022016925</v>
       </c>
       <c r="FK3">
-        <v>-0.075315339696663416</v>
+        <v>0.017380317045258799</v>
       </c>
       <c r="FL3">
-        <v>-0.050885417371578583</v>
+        <v>-0.0087128999396435917</v>
       </c>
       <c r="FM3">
-        <v>-0.041921784572815375</v>
+        <v>-0.0017721575699443464</v>
       </c>
       <c r="FN3">
-        <v>-0.07955839154902955</v>
+        <v>-0.037065569134326098</v>
       </c>
       <c r="FO3">
-        <v>0.0056192725707062503</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>-0.010036041246972608</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>-0.094549863457966607</v>
+        <v>-5.5307675610392755</v>
       </c>
       <c r="FR3">
         <v>-0.080019531604932567</v>
@@ -5484,520 +5484,520 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.06340558283348155</v>
+        <v>0.020568938872564523</v>
       </c>
       <c r="C4">
-        <v>0.035596599561492394</v>
+        <v>0.011452569524000833</v>
       </c>
       <c r="D4">
-        <v>0.044725386540743622</v>
+        <v>0.014189807491860214</v>
       </c>
       <c r="E4">
-        <v>0.054694167479598488</v>
+        <v>0.017682199233335368</v>
       </c>
       <c r="F4">
-        <v>0.043864012318400147</v>
+        <v>0.014007147844382792</v>
       </c>
       <c r="G4">
-        <v>0.036766092052744552</v>
+        <v>0.011438200294832775</v>
       </c>
       <c r="H4">
-        <v>0.028442840546213068</v>
+        <v>0.009027478115661805</v>
       </c>
       <c r="I4">
-        <v>0.031474013549284821</v>
+        <v>0.010080117953227434</v>
       </c>
       <c r="J4">
-        <v>0.031915257855820674</v>
+        <v>0.010331793508559957</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.080529294913515986</v>
+        <v>0.024985556507948231</v>
       </c>
       <c r="M4">
-        <v>0.079932250809923347</v>
+        <v>0.024596477999360263</v>
       </c>
       <c r="N4">
-        <v>0.080917389798119271</v>
+        <v>0.024431649630205301</v>
       </c>
       <c r="O4">
-        <v>0.082157046342051204</v>
+        <v>0.024681382007212978</v>
       </c>
       <c r="P4">
-        <v>0.081984838346067304</v>
+        <v>0.024471013841420381</v>
       </c>
       <c r="Q4">
-        <v>0.080227196437581805</v>
+        <v>0.024270778629485762</v>
       </c>
       <c r="R4">
-        <v>0.079224525965503403</v>
+        <v>0.024370883477119406</v>
       </c>
       <c r="S4">
-        <v>0.082777801008124832</v>
+        <v>0.024292024081580904</v>
       </c>
       <c r="T4">
-        <v>0.080996449335244997</v>
+        <v>0.0241616046417477</v>
       </c>
       <c r="U4">
-        <v>0.079020056671015165</v>
+        <v>0.024161604648716035</v>
       </c>
       <c r="V4">
-        <v>0.080377335129190222</v>
+        <v>0.024017565964795189</v>
       </c>
       <c r="W4">
-        <v>0.080838816732512517</v>
+        <v>0.024330069265610047</v>
       </c>
       <c r="X4">
-        <v>0.078621394885244764</v>
+        <v>0.023897842466348792</v>
       </c>
       <c r="Y4">
-        <v>0.079787379878703393</v>
+        <v>0.023760942074935322</v>
       </c>
       <c r="Z4">
-        <v>0.078299231695409199</v>
+        <v>0.023842499046857264</v>
       </c>
       <c r="AA4">
-        <v>0.076322988091981042</v>
+        <v>0.023863691688129997</v>
       </c>
       <c r="AB4">
-        <v>0.079020056828957949</v>
+        <v>0.023980169141876014</v>
       </c>
       <c r="AC4">
-        <v>0.078686908873794634</v>
+        <v>0.023882864595116973</v>
       </c>
       <c r="AD4">
-        <v>0.07855624566869264</v>
+        <v>0.023834054407551757</v>
       </c>
       <c r="AE4">
-        <v>0.08015279999581755</v>
+        <v>0.023675011090146317</v>
       </c>
       <c r="AF4">
-        <v>0.077924135069361231</v>
+        <v>0.023541846137498521</v>
       </c>
       <c r="AG4">
-        <v>0.076701840981748121</v>
+        <v>0.023721828475295005</v>
       </c>
       <c r="AH4">
-        <v>0.076483716579730548</v>
+        <v>0.023489494074240422</v>
       </c>
       <c r="AI4">
-        <v>0.077985804260033903</v>
+        <v>0.023526257474811105</v>
       </c>
       <c r="AJ4">
-        <v>0.077985804286943669</v>
+        <v>0.023754739668767292</v>
       </c>
       <c r="AK4">
-        <v>0.076269946908345362</v>
+        <v>0.02358307884593501</v>
       </c>
       <c r="AL4">
-        <v>0.078427028304336247</v>
+        <v>0.023614801551654963</v>
       </c>
       <c r="AM4">
-        <v>0.076112398060494371</v>
+        <v>0.023555539957446751</v>
       </c>
       <c r="AN4">
-        <v>0.078235859430096685</v>
+        <v>0.023693262408959585</v>
       </c>
       <c r="AO4">
-        <v>0.078427028386657188</v>
+        <v>0.023769227862304815</v>
       </c>
       <c r="AP4">
-        <v>0.077501604444820002</v>
+        <v>0.023577160622492252</v>
       </c>
       <c r="AQ4">
-        <v>0.076008658747279662</v>
+        <v>0.023626766937367757</v>
       </c>
       <c r="AR4">
-        <v>0.076322988611267295</v>
+        <v>0.02371364493214741</v>
       </c>
       <c r="AS4">
-        <v>0.076924457620623596</v>
+        <v>0.023642780045176993</v>
       </c>
       <c r="AT4">
-        <v>0.078235859603571073</v>
+        <v>0.023672988721858378</v>
       </c>
       <c r="AU4">
-        <v>0.075554194094193491</v>
+        <v>0.023551622405910123</v>
       </c>
       <c r="AV4">
-        <v>0.079859602498961166</v>
+        <v>0.023487569345999777</v>
       </c>
       <c r="AW4">
-        <v>0.076646894725077561</v>
+        <v>0.02358505379673809</v>
       </c>
       <c r="AX4">
-        <v>0.077801791492298891</v>
+        <v>0.023779610242822102</v>
       </c>
       <c r="AY4">
-        <v>0.078172833545985518</v>
+        <v>0.02384249926840832</v>
       </c>
       <c r="AZ4">
-        <v>0.076164654203830576</v>
+        <v>0.023565352160733192</v>
       </c>
       <c r="BA4">
-        <v>0.078172833607721967</v>
+        <v>0.023520428672925284</v>
       </c>
       <c r="BB4">
-        <v>0.078752791065518996</v>
+        <v>0.023520428683520892</v>
       </c>
       <c r="BC4">
-        <v>0.077985804848391446</v>
+        <v>0.023481800820264114</v>
       </c>
       <c r="BD4">
-        <v>0.077209263520995067</v>
+        <v>0.023360841113787521</v>
       </c>
       <c r="BE4">
-        <v>0.07823585993201293</v>
+        <v>0.023695295915878749</v>
       </c>
       <c r="BF4">
-        <v>0.082419593477309663</v>
+        <v>0.023730029958474234</v>
       </c>
       <c r="BG4">
-        <v>0.081156046330940299</v>
+        <v>0.023654834723679501</v>
       </c>
       <c r="BH4">
-        <v>0.077442519245324637</v>
+        <v>0.023697330375420027</v>
       </c>
       <c r="BI4">
-        <v>0.079502687034084751</v>
+        <v>0.023602874360818645</v>
       </c>
       <c r="BJ4">
-        <v>0.077595572940789059</v>
+        <v>0.023983854710363506</v>
       </c>
       <c r="BK4">
-        <v>0.078167425942383142</v>
+        <v>0.024254774548544359</v>
       </c>
       <c r="BL4">
-        <v>0.07953361015248675</v>
+        <v>0.0242089249782509</v>
       </c>
       <c r="BM4">
-        <v>0.07811436823438124</v>
+        <v>0.024201044392946524</v>
       </c>
       <c r="BN4">
-        <v>0.079234457442097977</v>
+        <v>0.024623832796490726</v>
       </c>
       <c r="BO4">
-        <v>0.08263408932971178</v>
+        <v>0.024539188106012366</v>
       </c>
       <c r="BP4">
-        <v>0.081184232092191666</v>
+        <v>0.02446432016230711</v>
       </c>
       <c r="BQ4">
-        <v>0.08220157839587719</v>
+        <v>0.02442550377739304</v>
       </c>
       <c r="BR4">
-        <v>0.080320455492991952</v>
+        <v>0.024971670165087775</v>
       </c>
       <c r="BS4">
-        <v>0.083050581310296148</v>
+        <v>0.025177970795414287</v>
       </c>
       <c r="BT4">
-        <v>0.080437228615718545</v>
+        <v>0.02494102818250123</v>
       </c>
       <c r="BU4">
-        <v>0.074644212388013775</v>
+        <v>0.023085923456287238</v>
       </c>
       <c r="BV4">
-        <v>0.076107906624101523</v>
+        <v>0.023124157771996667</v>
       </c>
       <c r="BW4">
-        <v>0.075729453574449893</v>
+        <v>0.022703772370855101</v>
       </c>
       <c r="BX4">
-        <v>0.074769388069371265</v>
+        <v>0.022400410902785217</v>
       </c>
       <c r="BY4">
-        <v>0.075580450167423888</v>
+        <v>0.022438252588824772</v>
       </c>
       <c r="BZ4">
-        <v>0.073457899058624126</v>
+        <v>0.022296585604915983</v>
       </c>
       <c r="CA4">
-        <v>0.073744547302599717</v>
+        <v>0.022241038102180311</v>
       </c>
       <c r="CB4">
-        <v>0.073081313658103553</v>
+        <v>0.022303095210484666</v>
       </c>
       <c r="CC4">
-        <v>0.073641064861728334</v>
+        <v>0.022473931261598013</v>
       </c>
       <c r="CD4">
-        <v>0.075345012400589662</v>
+        <v>0.022931282291164357</v>
       </c>
       <c r="CE4">
-        <v>0.077667540984038358</v>
+        <v>0.023412185978049567</v>
       </c>
       <c r="CF4">
-        <v>0.07797519743792522</v>
+        <v>0.023567519959619563</v>
       </c>
       <c r="CG4">
-        <v>0.077633889541635429</v>
+        <v>0.023692001837757</v>
       </c>
       <c r="CH4">
-        <v>0.076899988080785256</v>
+        <v>0.023552577328801616</v>
       </c>
       <c r="CI4">
-        <v>0.07575383044408987</v>
+        <v>0.023622211484527034</v>
       </c>
       <c r="CJ4">
-        <v>0.077527234435203901</v>
+        <v>0.023749323061592095</v>
       </c>
       <c r="CK4">
-        <v>0.076703407875768209</v>
+        <v>0.023947065982563472</v>
       </c>
       <c r="CL4">
-        <v>0.07908321926411363</v>
+        <v>0.024328269014564134</v>
       </c>
       <c r="CM4">
-        <v>0.079027949457464497</v>
+        <v>0.024366624923728871</v>
       </c>
       <c r="CN4">
-        <v>0.079624242017677163</v>
+        <v>0.024478395168615365</v>
       </c>
       <c r="CO4">
-        <v>0.07254789569350685</v>
+        <v>0.02201558918265412</v>
       </c>
       <c r="CP4">
-        <v>0.073741775975976392</v>
+        <v>0.022120028919049455</v>
       </c>
       <c r="CQ4">
-        <v>0.071955127278755054</v>
+        <v>0.021663381279276056</v>
       </c>
       <c r="CR4">
-        <v>0.07342791101122359</v>
+        <v>0.0217240329050934</v>
       </c>
       <c r="CS4">
-        <v>0.071001954577233656</v>
+        <v>0.021580870321309845</v>
       </c>
       <c r="CT4">
-        <v>0.070945074856609017</v>
+        <v>0.02125854175312784</v>
       </c>
       <c r="CU4">
-        <v>0.070589619126889103</v>
+        <v>0.021422269074238175</v>
       </c>
       <c r="CV4">
-        <v>0.07108322115140632</v>
+        <v>0.021208806417281966</v>
       </c>
       <c r="CW4">
-        <v>0.070546459223989305</v>
+        <v>0.021280195163714589</v>
       </c>
       <c r="CX4">
-        <v>0.070990821380943384</v>
+        <v>0.021416109167778603</v>
       </c>
       <c r="CY4">
-        <v>0.071849401535620111</v>
+        <v>0.021565428449829702</v>
       </c>
       <c r="CZ4">
-        <v>0.073470726924826396</v>
+        <v>0.021538803717800415</v>
       </c>
       <c r="DA4">
-        <v>0.070734407078217917</v>
+        <v>0.021471260367277381</v>
       </c>
       <c r="DB4">
-        <v>0.070564928847618821</v>
+        <v>0.021608338489679128</v>
       </c>
       <c r="DC4">
-        <v>0.070003860871556606</v>
+        <v>0.021621202128577693</v>
       </c>
       <c r="DD4">
-        <v>0.07076751620031406</v>
+        <v>0.021752851474211358</v>
       </c>
       <c r="DE4">
-        <v>0.070600440824617666</v>
+        <v>0.021622685826650927</v>
       </c>
       <c r="DF4">
-        <v>0.071204299006399907</v>
+        <v>0.021648160200849892</v>
       </c>
       <c r="DG4">
-        <v>0.071816687850490682</v>
+        <v>0.021732873455009977</v>
       </c>
       <c r="DH4">
-        <v>0.071816688000105447</v>
+        <v>0.021766262046244243</v>
       </c>
       <c r="DI4">
-        <v>0.070889896323352145</v>
+        <v>0.020788555712290706</v>
       </c>
       <c r="DJ4">
-        <v>0.068824130138058673</v>
+        <v>0.021110018259701741</v>
       </c>
       <c r="DK4">
-        <v>0.070047835107176881</v>
+        <v>0.020890088604145336</v>
       </c>
       <c r="DL4">
-        <v>0.069052966644937902</v>
+        <v>0.021054983043716384</v>
       </c>
       <c r="DM4">
-        <v>0.071764267243970017</v>
+        <v>0.021126218702725449</v>
       </c>
       <c r="DN4">
-        <v>0.069837941460461073</v>
+        <v>0.02114252080425652</v>
       </c>
       <c r="DO4">
-        <v>0.069583540461175875</v>
+        <v>0.02119204742356719</v>
       </c>
       <c r="DP4">
-        <v>0.07100924520177633</v>
+        <v>0.021081466359080016</v>
       </c>
       <c r="DQ4">
-        <v>0.069786365855580526</v>
+        <v>0.021117206259634525</v>
       </c>
       <c r="DR4">
-        <v>0.069889873477804412</v>
+        <v>0.021102850978971372</v>
       </c>
       <c r="DS4">
-        <v>0.071315509208814978</v>
+        <v>0.021278633575492818</v>
       </c>
       <c r="DT4">
-        <v>0.071009245821485739</v>
+        <v>0.021539540338579539</v>
       </c>
       <c r="DU4">
-        <v>0.069289358454537361</v>
+        <v>0.021389970736276243</v>
       </c>
       <c r="DV4">
-        <v>0.070373873335308743</v>
+        <v>0.021269084134338135</v>
       </c>
       <c r="DW4">
-        <v>0.069942164628654116</v>
+        <v>0.021288217691557577</v>
       </c>
       <c r="DX4">
-        <v>0.070101227293670437</v>
+        <v>0.021190196794852779</v>
       </c>
       <c r="DY4">
-        <v>0.070263659713850624</v>
+        <v>0.021348415296997967</v>
       </c>
       <c r="DZ4">
-        <v>0.070772295472667571</v>
+        <v>0.021313297913775332</v>
       </c>
       <c r="EA4">
-        <v>0.069386116135662618</v>
+        <v>0.021352345732011977</v>
       </c>
       <c r="EB4">
-        <v>0.070772295838138516</v>
+        <v>0.02111900691728948</v>
       </c>
       <c r="EC4">
-        <v>0.074433188154484964</v>
+        <v>0.021387977841645884</v>
       </c>
       <c r="ED4">
-        <v>0.072665980256394716</v>
+        <v>0.021358252126391412</v>
       </c>
       <c r="EE4">
-        <v>0.070889899871361392</v>
+        <v>0.021374065388632586</v>
       </c>
       <c r="EF4">
-        <v>0.070889900051150409</v>
+        <v>0.021364171384414887</v>
       </c>
       <c r="EG4">
-        <v>0.072308018932737014</v>
+        <v>0.021501901674325922</v>
       </c>
       <c r="EH4">
-        <v>0.071191627292922804</v>
+        <v>0.021571299691353348</v>
       </c>
       <c r="EI4">
-        <v>0.071009248367540578</v>
+        <v>0.021368124854900146</v>
       </c>
       <c r="EJ4">
-        <v>0.070949354184828978</v>
+        <v>0.021562795571513808</v>
       </c>
       <c r="EK4">
-        <v>0.073507698244219002</v>
+        <v>0.021682036057401082</v>
       </c>
       <c r="EL4">
-        <v>0.072168832248398734</v>
+        <v>0.021590529119377724</v>
       </c>
       <c r="EM4">
-        <v>0.071253337015292795</v>
+        <v>0.021653396283193935</v>
       </c>
       <c r="EN4">
-        <v>0.073588189787654898</v>
+        <v>0.021653396340508013</v>
       </c>
       <c r="EO4">
-        <v>0.072813314962208123</v>
+        <v>0.021677611399898791</v>
       </c>
       <c r="EP4">
-        <v>0.073507698963296869</v>
+        <v>0.021794930207620869</v>
       </c>
       <c r="EQ4">
-        <v>0.070949355426557087</v>
+        <v>0.021765151027947297</v>
       </c>
       <c r="ER4">
-        <v>0.07196416363221167</v>
+        <v>0.021697577663313195</v>
       </c>
       <c r="ES4">
-        <v>0.071830382447855168</v>
+        <v>0.021815726657589005</v>
       </c>
       <c r="ET4">
-        <v>0.070542172137841933</v>
+        <v>0.021938852768864456</v>
       </c>
       <c r="EU4">
-        <v>0.07252104981717572</v>
+        <v>0.0218320046031957</v>
       </c>
       <c r="EV4">
-        <v>0.071568991993660444</v>
+        <v>0.021924381773665277</v>
       </c>
       <c r="EW4">
-        <v>0.073192553905850791</v>
+        <v>0.021985146335299126</v>
       </c>
       <c r="EX4">
-        <v>0.07144128726721026</v>
+        <v>0.021931608649668661</v>
       </c>
       <c r="EY4">
-        <v>0.072238149704720991</v>
+        <v>0.021879016578515036</v>
       </c>
       <c r="EZ4">
-        <v>0.072238149893092407</v>
+        <v>0.021841347287408761</v>
       </c>
       <c r="FA4">
-        <v>0.073427900424115081</v>
+        <v>0.021914773620551088</v>
       </c>
       <c r="FB4">
-        <v>0.071191631080867096</v>
+        <v>0.022278761522040155</v>
       </c>
       <c r="FC4">
-        <v>0.074701834755219965</v>
+        <v>0.021975341044910543</v>
       </c>
       <c r="FD4">
-        <v>0.074885087883172941</v>
+        <v>0.022100261695248896</v>
       </c>
       <c r="FE4">
-        <v>0.072593221939698194</v>
+        <v>0.021881387339594403</v>
       </c>
       <c r="FF4">
-        <v>0.072887903346037036</v>
+        <v>0.022175132208594579</v>
       </c>
       <c r="FG4">
-        <v>0.074885088347295306</v>
+        <v>0.022286877427127649</v>
       </c>
       <c r="FH4">
-        <v>0.071830385332090782</v>
+        <v>0.022151701129853922</v>
       </c>
       <c r="FI4">
-        <v>0.073588193247266856</v>
+        <v>0.022468016404455386</v>
       </c>
       <c r="FJ4">
-        <v>0.074977998181187777</v>
+        <v>0.022502605847816323</v>
       </c>
       <c r="FK4">
-        <v>0.074701836007878747</v>
+        <v>0.022222533652400133</v>
       </c>
       <c r="FL4">
-        <v>0.074345263013295165</v>
+        <v>0.022388722979911201</v>
       </c>
       <c r="FM4">
-        <v>0.074258122998159468</v>
+        <v>0.022371983996660485</v>
       </c>
       <c r="FN4">
-        <v>0.074977998800949033</v>
+        <v>0.022593701327935985</v>
       </c>
       <c r="FO4">
-        <v>0.073588194281000954</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.07391725168918406</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.075455874212896679</v>
+        <v>0.015843116630408768</v>
       </c>
       <c r="FR4">
         <v>0.075262007339405787</v>
@@ -7339,13 +7339,13 @@
         <v>170</v>
       </c>
       <c r="FO2" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="FP2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="FQ2" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="FR2" t="s">
         <v>190</v>
@@ -7503,520 +7503,520 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>3.9307444203556337</v>
+        <v>3.9935341673371854</v>
       </c>
       <c r="C3">
-        <v>-0.93676409774487168</v>
+        <v>-0.93658135472112669</v>
       </c>
       <c r="D3">
-        <v>-0.99421304264563526</v>
+        <v>-0.97354867624561248</v>
       </c>
       <c r="E3">
-        <v>-0.94698612936550497</v>
+        <v>-0.92145418669236601</v>
       </c>
       <c r="F3">
-        <v>0.57120314149805496</v>
+        <v>0.55051047623770966</v>
       </c>
       <c r="G3">
-        <v>0.55657722061626325</v>
+        <v>0.56935526562370165</v>
       </c>
       <c r="H3">
-        <v>0.49567073542236179</v>
+        <v>0.50129958736207669</v>
       </c>
       <c r="I3">
-        <v>0.21556149571517436</v>
+        <v>0.22787228326936249</v>
       </c>
       <c r="J3">
-        <v>0.26268637606103556</v>
+        <v>0.28909589035890104</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>-1.8863635667760197</v>
+        <v>-1.7656638500194584</v>
       </c>
       <c r="M3">
-        <v>-1.8392133294603761</v>
+        <v>-1.7393563309495363</v>
       </c>
       <c r="N3">
-        <v>-1.8946751177844101</v>
+        <v>-1.7352918814507743</v>
       </c>
       <c r="O3">
-        <v>-1.8656179119404581</v>
+        <v>-1.8105379133447139</v>
       </c>
       <c r="P3">
-        <v>-1.9326686626698284</v>
+        <v>-1.7449326482663814</v>
       </c>
       <c r="Q3">
-        <v>-1.8276886113190174</v>
+        <v>-1.7735627030530792</v>
       </c>
       <c r="R3">
-        <v>-1.9018605914743065</v>
+        <v>-1.7142540333033389</v>
       </c>
       <c r="S3">
-        <v>-1.9012545022823522</v>
+        <v>-1.7118906652859609</v>
       </c>
       <c r="T3">
-        <v>-2.0467818989488213</v>
+        <v>-1.7244469135231126</v>
       </c>
       <c r="U3">
-        <v>-1.8620120890746674</v>
+        <v>-1.6551675099142107</v>
       </c>
       <c r="V3">
-        <v>-1.7720067624804192</v>
+        <v>-1.6885124693086926</v>
       </c>
       <c r="W3">
-        <v>-1.6736427189982435</v>
+        <v>-1.7657689015442992</v>
       </c>
       <c r="X3">
-        <v>-1.7878028180466281</v>
+        <v>-1.652219900120212</v>
       </c>
       <c r="Y3">
-        <v>-1.6416532801115247</v>
+        <v>-1.6444726571528812</v>
       </c>
       <c r="Z3">
-        <v>-1.710961174212394</v>
+        <v>-1.6593017673046204</v>
       </c>
       <c r="AA3">
-        <v>-1.6629569100015411</v>
+        <v>-1.6969971516481286</v>
       </c>
       <c r="AB3">
-        <v>-1.7257243047061863</v>
+        <v>-1.6399079276597055</v>
       </c>
       <c r="AC3">
-        <v>-1.5731361374754274</v>
+        <v>-1.6841337476481055</v>
       </c>
       <c r="AD3">
-        <v>-1.7406946502890221</v>
+        <v>-1.6563161146692083</v>
       </c>
       <c r="AE3">
-        <v>-1.6147718828437687</v>
+        <v>-1.6524210901225089</v>
       </c>
       <c r="AF3">
-        <v>-1.6514365820130656</v>
+        <v>-1.6322661524837085</v>
       </c>
       <c r="AG3">
-        <v>-1.772309688353664</v>
+        <v>-1.6634998484057615</v>
       </c>
       <c r="AH3">
-        <v>-1.6051665114342806</v>
+        <v>-1.5798105193951002</v>
       </c>
       <c r="AI3">
-        <v>-1.4243850679318251</v>
+        <v>-1.6283877261013253</v>
       </c>
       <c r="AJ3">
-        <v>-1.6950768359746637</v>
+        <v>-1.6454120185887693</v>
       </c>
       <c r="AK3">
-        <v>-1.7268665910238481</v>
+        <v>-1.6230163141092537</v>
       </c>
       <c r="AL3">
-        <v>-1.777020881570476</v>
+        <v>-1.6275981443218404</v>
       </c>
       <c r="AM3">
-        <v>-1.5105264414281003</v>
+        <v>-1.647782959403026</v>
       </c>
       <c r="AN3">
-        <v>-1.5858241906127781</v>
+        <v>-1.6509506709355921</v>
       </c>
       <c r="AO3">
-        <v>-1.7320317894361925</v>
+        <v>-1.6612790490595231</v>
       </c>
       <c r="AP3">
-        <v>-1.5558917001991985</v>
+        <v>-1.613843460307437</v>
       </c>
       <c r="AQ3">
-        <v>-1.4615918271423414</v>
+        <v>-1.5742854505018946</v>
       </c>
       <c r="AR3">
-        <v>-1.6967135928603319</v>
+        <v>-1.6573238691765113</v>
       </c>
       <c r="AS3">
-        <v>-1.6035600916088191</v>
+        <v>-1.6046586126393982</v>
       </c>
       <c r="AT3">
-        <v>-1.7532813051122349</v>
+        <v>-1.5896184103024953</v>
       </c>
       <c r="AU3">
-        <v>-1.6626886892296397</v>
+        <v>-1.6454652504296108</v>
       </c>
       <c r="AV3">
-        <v>-1.5580798466149228</v>
+        <v>-1.6159717327031464</v>
       </c>
       <c r="AW3">
-        <v>-1.5785871522434252</v>
+        <v>-1.5865129575392385</v>
       </c>
       <c r="AX3">
-        <v>-1.7331603869508438</v>
+        <v>-1.6470476938478771</v>
       </c>
       <c r="AY3">
-        <v>-1.5988602036909441</v>
+        <v>-1.5946543829708659</v>
       </c>
       <c r="AZ3">
-        <v>-1.5478286425650929</v>
+        <v>-1.60822238567048</v>
       </c>
       <c r="BA3">
-        <v>-1.5825710298868489</v>
+        <v>-1.5945590277548261</v>
       </c>
       <c r="BB3">
-        <v>-1.596341713532051</v>
+        <v>-1.584768504302543</v>
       </c>
       <c r="BC3">
-        <v>-1.6798934052722041</v>
+        <v>-1.618848167688566</v>
       </c>
       <c r="BD3">
-        <v>-1.6632572202335878</v>
+        <v>-1.5647052035266069</v>
       </c>
       <c r="BE3">
-        <v>-1.7192043053239794</v>
+        <v>-1.5958501614931044</v>
       </c>
       <c r="BF3">
-        <v>-1.5642653580261594</v>
+        <v>-1.6549865843559661</v>
       </c>
       <c r="BG3">
-        <v>-1.6688187996202644</v>
+        <v>-1.6534270925408545</v>
       </c>
       <c r="BH3">
-        <v>-1.534467503242035</v>
+        <v>-1.5942858955681263</v>
       </c>
       <c r="BI3">
-        <v>-1.7159867599801923</v>
+        <v>-1.541901760591885</v>
       </c>
       <c r="BJ3">
-        <v>-1.1836908181203982</v>
+        <v>-1.2404020396808191</v>
       </c>
       <c r="BK3">
-        <v>-1.2189393668525679</v>
+        <v>-1.2197821916745581</v>
       </c>
       <c r="BL3">
-        <v>-1.3686207563140624</v>
+        <v>-1.2039818372362392</v>
       </c>
       <c r="BM3">
-        <v>-1.1060647335076326</v>
+        <v>-1.2645005860891338</v>
       </c>
       <c r="BN3">
-        <v>-1.1732032627936815</v>
+        <v>-1.3148273499970151</v>
       </c>
       <c r="BO3">
-        <v>-1.4969167398557046</v>
+        <v>-1.2383000797810886</v>
       </c>
       <c r="BP3">
-        <v>-1.1554712501596076</v>
+        <v>-1.2204979949501342</v>
       </c>
       <c r="BQ3">
-        <v>-1.3313543165567456</v>
+        <v>-1.2181575843632808</v>
       </c>
       <c r="BR3">
-        <v>-1.2030014250747172</v>
+        <v>-1.245408493411216</v>
       </c>
       <c r="BS3">
-        <v>-1.2469520085315047</v>
+        <v>-1.2955294062589282</v>
       </c>
       <c r="BT3">
-        <v>-0.7909294189090561</v>
+        <v>-0.81384270784108592</v>
       </c>
       <c r="BU3">
-        <v>-0.72819091425948179</v>
+        <v>-0.79576960562245747</v>
       </c>
       <c r="BV3">
-        <v>-0.82043631293390895</v>
+        <v>-0.80818626915057346</v>
       </c>
       <c r="BW3">
-        <v>-0.8625637096827935</v>
+        <v>-0.84862244156680833</v>
       </c>
       <c r="BX3">
-        <v>-0.83233954501408758</v>
+        <v>-0.77032225623037542</v>
       </c>
       <c r="BY3">
-        <v>-0.84860478246224824</v>
+        <v>-0.77668231890678519</v>
       </c>
       <c r="BZ3">
-        <v>-0.73678457703883882</v>
+        <v>-0.77334819753175676</v>
       </c>
       <c r="CA3">
-        <v>-0.85949106915478823</v>
+        <v>-0.7659049499349122</v>
       </c>
       <c r="CB3">
-        <v>-0.73632566389355592</v>
+        <v>-0.76333096595687411</v>
       </c>
       <c r="CC3">
-        <v>-0.80282093663783449</v>
+        <v>-0.80425893601132603</v>
       </c>
       <c r="CD3">
-        <v>-0.46491091024852005</v>
+        <v>-0.49293061607339006</v>
       </c>
       <c r="CE3">
-        <v>-0.36539673313922361</v>
+        <v>-0.27875721969247563</v>
       </c>
       <c r="CF3">
-        <v>-0.30227223997117658</v>
+        <v>-0.29343373915609644</v>
       </c>
       <c r="CG3">
-        <v>-0.293489856659925</v>
+        <v>-0.31363577987985392</v>
       </c>
       <c r="CH3">
-        <v>-0.30970907439125622</v>
+        <v>-0.28722225091412201</v>
       </c>
       <c r="CI3">
-        <v>-0.21075810673269529</v>
+        <v>-0.29884372028592815</v>
       </c>
       <c r="CJ3">
-        <v>-0.24791442905182307</v>
+        <v>-0.32694762235949959</v>
       </c>
       <c r="CK3">
-        <v>-0.18113049021657812</v>
+        <v>-0.35249970395921099</v>
       </c>
       <c r="CL3">
-        <v>-0.29479269765844063</v>
+        <v>-0.33736449536470431</v>
       </c>
       <c r="CM3">
-        <v>-0.30229030632799919</v>
+        <v>-0.33488516170326049</v>
       </c>
       <c r="CN3">
-        <v>-0.47679993549667288</v>
+        <v>-0.51738615071644711</v>
       </c>
       <c r="CO3">
-        <v>-0.24990263729991832</v>
+        <v>-0.24014349927854056</v>
       </c>
       <c r="CP3">
-        <v>-0.34632969712270534</v>
+        <v>-0.26274498851117012</v>
       </c>
       <c r="CQ3">
-        <v>-0.293582323465926</v>
+        <v>-0.27897901036209527</v>
       </c>
       <c r="CR3">
-        <v>-0.40480293122443384</v>
+        <v>-0.28972050152704976</v>
       </c>
       <c r="CS3">
-        <v>-0.20466890623121228</v>
+        <v>-0.25014743311482335</v>
       </c>
       <c r="CT3">
-        <v>-0.26778495828443721</v>
+        <v>-0.21823987822055874</v>
       </c>
       <c r="CU3">
-        <v>-0.23524527114643662</v>
+        <v>-0.25329655100434828</v>
       </c>
       <c r="CV3">
-        <v>-0.27030206314835437</v>
+        <v>-0.19773687856912564</v>
       </c>
       <c r="CW3">
-        <v>-0.22340189055872717</v>
+        <v>-0.21087073243047202</v>
       </c>
       <c r="CX3">
-        <v>-0.25464516683278993</v>
+        <v>-0.2391731245430562</v>
       </c>
       <c r="CY3">
-        <v>-0.13779084744766754</v>
+        <v>-0.089097370021557237</v>
       </c>
       <c r="CZ3">
-        <v>-0.25087394746597491</v>
+        <v>-0.078740512747735941</v>
       </c>
       <c r="DA3">
-        <v>-0.042765970370615733</v>
+        <v>-0.058578174031533412</v>
       </c>
       <c r="DB3">
-        <v>-0.024528479077966032</v>
+        <v>-0.086657995169032151</v>
       </c>
       <c r="DC3">
-        <v>0.027013834155944015</v>
+        <v>-0.085539555923091051</v>
       </c>
       <c r="DD3">
-        <v>-0.048678486012149351</v>
+        <v>-0.13714946541909881</v>
       </c>
       <c r="DE3">
-        <v>-0.030445286205226105</v>
+        <v>-0.10299040966379178</v>
       </c>
       <c r="DF3">
-        <v>-0.074976438173299645</v>
+        <v>-0.10475889719514184</v>
       </c>
       <c r="DG3">
-        <v>-0.11845298587603413</v>
+        <v>-0.12017327666318106</v>
       </c>
       <c r="DH3">
-        <v>-0.11429762671535097</v>
+        <v>-0.12369925633050463</v>
       </c>
       <c r="DI3">
-        <v>-0.056682150271880623</v>
+        <v>0.089820592636834298</v>
       </c>
       <c r="DJ3">
-        <v>0.099282190390822783</v>
+        <v>0.022300575333083342</v>
       </c>
       <c r="DK3">
-        <v>0.011429853290756907</v>
+        <v>0.075085964635949548</v>
       </c>
       <c r="DL3">
-        <v>0.090086644635848992</v>
+        <v>0.042661229443637275</v>
       </c>
       <c r="DM3">
-        <v>-0.098986956790426364</v>
+        <v>0.031269304366883188</v>
       </c>
       <c r="DN3">
-        <v>0.039035682389392298</v>
+        <v>0.031837468597709612</v>
       </c>
       <c r="DO3">
-        <v>0.062138036960035281</v>
+        <v>0.025274748888254213</v>
       </c>
       <c r="DP3">
-        <v>-0.035793769748682494</v>
+        <v>0.053277368603618466</v>
       </c>
       <c r="DQ3">
-        <v>0.055320116545121069</v>
+        <v>0.049682652413063653</v>
       </c>
       <c r="DR3">
-        <v>0.05199782013383808</v>
+        <v>0.056976750070233388</v>
       </c>
       <c r="DS3">
-        <v>-0.044207289696017664</v>
+        <v>0.023482249805422847</v>
       </c>
       <c r="DT3">
-        <v>-0.019397911436607174</v>
+        <v>-0.026447257703459175</v>
       </c>
       <c r="DU3">
-        <v>0.10904565594294197</v>
+        <v>0.0080968111291139112</v>
       </c>
       <c r="DV3">
-        <v>0.03366900991349283</v>
+        <v>0.037438243363810589</v>
       </c>
       <c r="DW3">
-        <v>0.069073049645222193</v>
+        <v>0.037517011424685054</v>
       </c>
       <c r="DX3">
-        <v>0.061845390281577692</v>
+        <v>0.062492524907419446</v>
       </c>
       <c r="DY3">
-        <v>0.054450950598126463</v>
+        <v>0.033226547909547571</v>
       </c>
       <c r="DZ3">
-        <v>0.022737783169484903</v>
+        <v>0.04469095808463984</v>
       </c>
       <c r="EA3">
-        <v>0.12758953880979804</v>
+        <v>0.040663395874514618</v>
       </c>
       <c r="EB3">
-        <v>0.031518865535325867</v>
+        <v>0.094475323536783812</v>
       </c>
       <c r="EC3">
-        <v>-0.19705224126023144</v>
+        <v>0.041744249063113879</v>
       </c>
       <c r="ED3">
-        <v>-0.086627329958169491</v>
+        <v>0.052071687899368994</v>
       </c>
       <c r="EE3">
-        <v>0.034605008392012297</v>
+        <v>0.052960188030791153</v>
       </c>
       <c r="EF3">
-        <v>0.038815335404222683</v>
+        <v>0.059208099194744401</v>
       </c>
       <c r="EG3">
-        <v>-0.051638634305407119</v>
+        <v>0.035027348646928198</v>
       </c>
       <c r="EH3">
-        <v>0.026157648160987822</v>
+        <v>0.025065465945179291</v>
       </c>
       <c r="EI3">
-        <v>0.042832952776861728</v>
+        <v>0.070782949030866155</v>
       </c>
       <c r="EJ3">
-        <v>0.051210658481141626</v>
+        <v>0.035116193989884678</v>
       </c>
       <c r="EK3">
-        <v>-0.11002063334401027</v>
+        <v>0.015364861277683163</v>
       </c>
       <c r="EL3">
-        <v>-0.022448757735686272</v>
+        <v>0.037672114457056892</v>
       </c>
       <c r="EM3">
-        <v>0.042276921974873129</v>
+        <v>0.029212885406632638</v>
       </c>
       <c r="EN3">
-        <v>-0.10303606629176137</v>
+        <v>0.033301661526157378</v>
       </c>
       <c r="EO3">
-        <v>-0.051650343328742084</v>
+        <v>0.032592800021155555</v>
       </c>
       <c r="EP3">
-        <v>-0.090631572673570637</v>
+        <v>0.013618339557796089</v>
       </c>
       <c r="EQ3">
-        <v>0.078602149387311734</v>
+        <v>0.023462958853777315</v>
       </c>
       <c r="ER3">
-        <v>0.014745471269973831</v>
+        <v>0.040830030828434803</v>
       </c>
       <c r="ES3">
-        <v>0.027663067886497403</v>
+        <v>0.021796827978477002</v>
       </c>
       <c r="ET3">
-        <v>0.1197755336718596</v>
+        <v>0.0021379611752231436</v>
       </c>
       <c r="EU3">
-        <v>-0.0083134793720234107</v>
+        <v>0.026674559243935497</v>
       </c>
       <c r="EV3">
-        <v>0.057815695531475877</v>
+        <v>0.012960952504630634</v>
       </c>
       <c r="EW3">
-        <v>-0.042019243068241091</v>
+        <v>0.0054103672151212473</v>
       </c>
       <c r="EX3">
-        <v>0.074590791170933063</v>
+        <v>0.019594398903258037</v>
       </c>
       <c r="EY3">
-        <v>0.02644722533566668</v>
+        <v>0.033733250808763902</v>
       </c>
       <c r="EZ3">
-        <v>0.030623273505063917</v>
+        <v>0.045115164200869438</v>
       </c>
       <c r="FA3">
-        <v>-0.039787093637680168</v>
+        <v>0.035126809448975352</v>
       </c>
       <c r="FB3">
-        <v>0.10816867383710539</v>
+        <v>-0.028709952111256522</v>
       </c>
       <c r="FC3">
-        <v>-0.10671422609830847</v>
+        <v>0.031546058040685526</v>
       </c>
       <c r="FD3">
-        <v>-0.11355017695637747</v>
+        <v>0.012132482028001015</v>
       </c>
       <c r="FE3">
-        <v>0.027818619745173877</v>
+        <v>0.057628727910039451</v>
       </c>
       <c r="FF3">
-        <v>0.01344286524932059</v>
+        <v>0.0064646390252667274</v>
       </c>
       <c r="FG3">
-        <v>-0.10161898643105033</v>
+        <v>-0.01000800005118508</v>
       </c>
       <c r="FH3">
-        <v>0.08913034358723107</v>
+        <v>0.018725167108339567</v>
       </c>
       <c r="FI3">
-        <v>-0.017368724327213491</v>
+        <v>-0.034556482116965985</v>
       </c>
       <c r="FJ3">
-        <v>-0.094791493345679462</v>
+        <v>-0.036842509022014851</v>
       </c>
       <c r="FK3">
-        <v>-0.075315339696652328</v>
+        <v>0.017380317045261218</v>
       </c>
       <c r="FL3">
-        <v>-0.050885417371567571</v>
+        <v>-0.0087128999396419785</v>
       </c>
       <c r="FM3">
-        <v>-0.041921784572803496</v>
+        <v>-0.0017721575699417447</v>
       </c>
       <c r="FN3">
-        <v>-0.07955839154901749</v>
+        <v>-0.037065569134324086</v>
       </c>
       <c r="FO3">
-        <v>0.0056192725707173569</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>-0.010036041246961013</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>-0.094549863457954603</v>
+        <v>-5.5307675610392781</v>
       </c>
       <c r="FR3">
         <v>-0.080019531604920952</v>
@@ -8174,520 +8174,520 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.056061515332623865</v>
+        <v>0.018120456423454979</v>
       </c>
       <c r="C4">
-        <v>0.050054741902196213</v>
+        <v>0.016086549205348438</v>
       </c>
       <c r="D4">
-        <v>0.061787490514184654</v>
+        <v>0.020040328931597347</v>
       </c>
       <c r="E4">
-        <v>0.075968729608671431</v>
+        <v>0.024542300682300421</v>
       </c>
       <c r="F4">
-        <v>0.046970006798871103</v>
+        <v>0.014977436562701989</v>
       </c>
       <c r="G4">
-        <v>0.039208930985804205</v>
+        <v>0.012306834826230517</v>
       </c>
       <c r="H4">
-        <v>0.030589360952461231</v>
+        <v>0.009699261086796182</v>
       </c>
       <c r="I4">
-        <v>0.034294635903010011</v>
+        <v>0.010972768143507023</v>
       </c>
       <c r="J4">
-        <v>0.033664956416641252</v>
+        <v>0.010929449377306232</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.11180341848908391</v>
+        <v>0.033407428527379185</v>
       </c>
       <c r="M4">
-        <v>0.1098503708125432</v>
+        <v>0.033078311610616924</v>
       </c>
       <c r="N4">
-        <v>0.1122122073363966</v>
+        <v>0.033035443287787347</v>
       </c>
       <c r="O4">
-        <v>0.11100445604314914</v>
+        <v>0.034023854719872793</v>
       </c>
       <c r="P4">
-        <v>0.11391310218338235</v>
+        <v>0.03317562434275817</v>
       </c>
       <c r="Q4">
-        <v>0.10947695597794539</v>
+        <v>0.0335543591239581</v>
       </c>
       <c r="R4">
-        <v>0.11262740662289507</v>
+        <v>0.0328037633182525</v>
       </c>
       <c r="S4">
-        <v>0.11262740662449437</v>
+        <v>0.032783038429836424</v>
       </c>
       <c r="T4">
-        <v>0.11921472172064199</v>
+        <v>0.03295040091083682</v>
       </c>
       <c r="U4">
-        <v>0.11100445605317188</v>
+        <v>0.032100274276294548</v>
       </c>
       <c r="V4">
-        <v>0.10734618506277452</v>
+        <v>0.032518548453306782</v>
       </c>
       <c r="W4">
-        <v>0.10357670066348747</v>
+        <v>0.03350886389401659</v>
       </c>
       <c r="X4">
-        <v>0.1080363229178278</v>
+        <v>0.032090817711132223</v>
       </c>
       <c r="Y4">
-        <v>0.10244506791958882</v>
+        <v>0.032006242941991052</v>
       </c>
       <c r="Z4">
-        <v>0.1050747878986972</v>
+        <v>0.032195501801074528</v>
       </c>
       <c r="AA4">
-        <v>0.10328844385162289</v>
+        <v>0.032670030778169379</v>
       </c>
       <c r="AB4">
-        <v>0.10570201620421632</v>
+        <v>0.031978263255555937</v>
       </c>
       <c r="AC4">
-        <v>0.10009219998782645</v>
+        <v>0.032528554885991469</v>
       </c>
       <c r="AD4">
-        <v>0.10634626578654711</v>
+        <v>0.032195501804536432</v>
       </c>
       <c r="AE4">
-        <v>0.10163235772827572</v>
+        <v>0.032157265718434955</v>
       </c>
       <c r="AF4">
-        <v>0.10300379960526916</v>
+        <v>0.031922617971016164</v>
       </c>
       <c r="AG4">
-        <v>0.10768883209697662</v>
+        <v>0.032311387983229807</v>
       </c>
       <c r="AH4">
-        <v>0.10136796850438438</v>
+        <v>0.031319824271668371</v>
       </c>
       <c r="AI4">
-        <v>0.095256265000543155</v>
+        <v>0.031904161936359234</v>
       </c>
       <c r="AJ4">
-        <v>0.10476733714095035</v>
+        <v>0.032119223332710466</v>
       </c>
       <c r="AK4">
-        <v>0.10602196814908396</v>
+        <v>0.03185822223379748</v>
       </c>
       <c r="AL4">
-        <v>0.10803632295154421</v>
+        <v>0.031922617976659538</v>
       </c>
       <c r="AM4">
-        <v>0.098198073679059916</v>
+        <v>0.032176359459741871</v>
       </c>
       <c r="AN4">
-        <v>0.10084859731264276</v>
+        <v>0.032224306932874182</v>
       </c>
       <c r="AO4">
-        <v>0.10634626581542843</v>
+        <v>0.032360202812846989</v>
       </c>
       <c r="AP4">
-        <v>0.09984589116166856</v>
+        <v>0.031794383205971277</v>
       </c>
       <c r="AQ4">
-        <v>0.096672756157756445</v>
+        <v>0.031336855899501727</v>
       </c>
       <c r="AR4">
-        <v>0.10507478794839914</v>
+        <v>0.032340639171113843</v>
       </c>
       <c r="AS4">
-        <v>0.10163235777283856</v>
+        <v>0.031713110310809346</v>
       </c>
       <c r="AT4">
-        <v>0.10734618512303383</v>
+        <v>0.031544444901409834</v>
       </c>
       <c r="AU4">
-        <v>0.10386864275188358</v>
+        <v>0.032224306939367481</v>
       </c>
       <c r="AV4">
-        <v>0.10009220005134188</v>
+        <v>0.031876563886099815</v>
       </c>
       <c r="AW4">
-        <v>0.10084859734257628</v>
+        <v>0.031535675180729049</v>
       </c>
       <c r="AX4">
-        <v>0.10667500300582367</v>
+        <v>0.032272561363198914</v>
       </c>
       <c r="AY4">
-        <v>0.10163235779181817</v>
+        <v>0.03165051556920559</v>
       </c>
       <c r="AZ4">
-        <v>0.099845891196460229</v>
+        <v>0.031821675121415552</v>
       </c>
       <c r="BA4">
-        <v>0.10110673465664291</v>
+        <v>0.031668345147204978</v>
       </c>
       <c r="BB4">
-        <v>0.10163235780206174</v>
+        <v>0.031562016228496095</v>
       </c>
       <c r="BC4">
-        <v>0.10476733719541112</v>
+        <v>0.031978263281119468</v>
       </c>
       <c r="BD4">
-        <v>0.10416434465662729</v>
+        <v>0.031345386930703961</v>
       </c>
       <c r="BE4">
-        <v>0.10634626585921152</v>
+        <v>0.031722096309300486</v>
       </c>
       <c r="BF4">
-        <v>0.1005934994600844</v>
+        <v>0.032448867499126066</v>
       </c>
       <c r="BG4">
-        <v>0.10446388316051529</v>
+        <v>0.032438964753225462</v>
       </c>
       <c r="BH4">
-        <v>0.099602406842994123</v>
+        <v>0.031731093332349011</v>
       </c>
       <c r="BI4">
-        <v>0.10634626587036221</v>
+        <v>0.031126828899112655</v>
       </c>
       <c r="BJ4">
-        <v>0.10137705569910287</v>
+        <v>0.03228716935071578</v>
       </c>
       <c r="BK4">
-        <v>0.10265509212019137</v>
+        <v>0.032052389834386442</v>
       </c>
       <c r="BL4">
-        <v>0.10831516131767581</v>
+        <v>0.031876853133068463</v>
       </c>
       <c r="BM4">
-        <v>0.098813726950027575</v>
+        <v>0.032606043622021297</v>
       </c>
       <c r="BN4">
-        <v>0.10113101789282697</v>
+        <v>0.033235337967433082</v>
       </c>
       <c r="BO4">
-        <v>0.11476279117622928</v>
+        <v>0.032592630588445394</v>
       </c>
       <c r="BP4">
-        <v>0.1015468118659789</v>
+        <v>0.032390454624848714</v>
       </c>
       <c r="BQ4">
-        <v>0.10804121150031991</v>
+        <v>0.032372377597973949</v>
       </c>
       <c r="BR4">
-        <v>0.10368281165657933</v>
+        <v>0.03282767324637182</v>
       </c>
       <c r="BS4">
-        <v>0.10528285547686389</v>
+        <v>0.033438310912065422</v>
       </c>
       <c r="BT4">
-        <v>0.078294830232388521</v>
+        <v>0.024093281817798167</v>
       </c>
       <c r="BU4">
-        <v>0.078934853811503794</v>
+        <v>0.024561227619698974</v>
       </c>
       <c r="BV4">
-        <v>0.080421853880873126</v>
+        <v>0.02464000702109493</v>
       </c>
       <c r="BW4">
-        <v>0.079656438864371987</v>
+        <v>0.024259283648988599</v>
       </c>
       <c r="BX4">
-        <v>0.079174249510834183</v>
+        <v>0.023835238725373877</v>
       </c>
       <c r="BY4">
-        <v>0.07949332036684166</v>
+        <v>0.023882900664159625</v>
       </c>
       <c r="BZ4">
-        <v>0.076686840820679475</v>
+        <v>0.023606590284098956</v>
       </c>
       <c r="CA4">
-        <v>0.078885072862838801</v>
+        <v>0.023578113677470893</v>
       </c>
       <c r="CB4">
-        <v>0.07676131519701021</v>
+        <v>0.023577693723963948</v>
       </c>
       <c r="CC4">
-        <v>0.077952001418487515</v>
+        <v>0.023830936942989597</v>
       </c>
       <c r="CD4">
-        <v>0.079566828471215628</v>
+        <v>0.024498983619356141</v>
       </c>
       <c r="CE4">
-        <v>0.083611233743878383</v>
+        <v>0.025215657968021218</v>
       </c>
       <c r="CF4">
-        <v>0.082582520683662272</v>
+        <v>0.025314362256949097</v>
       </c>
       <c r="CG4">
-        <v>0.08249083331839363</v>
+        <v>0.025445037395835673</v>
       </c>
       <c r="CH4">
-        <v>0.08281929373515938</v>
+        <v>0.025316480459561495</v>
       </c>
       <c r="CI4">
-        <v>0.081151251775372815</v>
+        <v>0.025329658584372691</v>
       </c>
       <c r="CJ4">
-        <v>0.081652498810739493</v>
+        <v>0.025413222722294574</v>
       </c>
       <c r="CK4">
-        <v>0.080674916566194216</v>
+        <v>0.025576058728147721</v>
       </c>
       <c r="CL4">
-        <v>0.08365592642017855</v>
+        <v>0.025909504629296795</v>
       </c>
       <c r="CM4">
-        <v>0.083842106217975915</v>
+        <v>0.025916751374547586</v>
       </c>
       <c r="CN4">
-        <v>0.078156801091669087</v>
+        <v>0.02404713900041338</v>
       </c>
       <c r="CO4">
-        <v>0.074345856680262862</v>
+        <v>0.022602024520298712</v>
       </c>
       <c r="CP4">
-        <v>0.07551131610361593</v>
+        <v>0.02270376680484389</v>
       </c>
       <c r="CQ4">
-        <v>0.073155766880691489</v>
+        <v>0.02210110080871534</v>
       </c>
       <c r="CR4">
-        <v>0.074604852827537274</v>
+        <v>0.022160554481956554</v>
       </c>
       <c r="CS4">
-        <v>0.07221844209472407</v>
+        <v>0.022020230026611104</v>
       </c>
       <c r="CT4">
-        <v>0.071666721153479052</v>
+        <v>0.021500106160063415</v>
       </c>
       <c r="CU4">
-        <v>0.071314862355848885</v>
+        <v>0.021662007775726043</v>
       </c>
       <c r="CV4">
-        <v>0.071803479062195169</v>
+        <v>0.021450930899735033</v>
       </c>
       <c r="CW4">
-        <v>0.071272141614376311</v>
+        <v>0.021521516524689557</v>
       </c>
       <c r="CX4">
-        <v>0.071712007310476944</v>
+        <v>0.021655916054745913</v>
       </c>
       <c r="CY4">
-        <v>0.072373301974777135</v>
+        <v>0.021739819030151278</v>
       </c>
       <c r="CZ4">
-        <v>0.073983147183636161</v>
+        <v>0.021713408131396703</v>
       </c>
       <c r="DA4">
-        <v>0.071266504525646826</v>
+        <v>0.021646409599139244</v>
       </c>
       <c r="DB4">
-        <v>0.071098294653649613</v>
+        <v>0.021782385532947816</v>
       </c>
       <c r="DC4">
-        <v>0.07054146898388336</v>
+        <v>0.021795146448135728</v>
       </c>
       <c r="DD4">
-        <v>0.071193173235528567</v>
+        <v>0.021926034829226042</v>
       </c>
       <c r="DE4">
-        <v>0.071027099105277866</v>
+        <v>0.021796903396457585</v>
       </c>
       <c r="DF4">
-        <v>0.071627360473409035</v>
+        <v>0.021822174397941659</v>
       </c>
       <c r="DG4">
-        <v>0.072236162916868726</v>
+        <v>0.021906214742665398</v>
       </c>
       <c r="DH4">
-        <v>0.0722361630614968</v>
+        <v>0.021939339536538673</v>
       </c>
       <c r="DI4">
-        <v>0.070889896323353213</v>
+        <v>0.020788555712290675</v>
       </c>
       <c r="DJ4">
-        <v>0.068824130138059783</v>
+        <v>0.021110018259701713</v>
       </c>
       <c r="DK4">
-        <v>0.070047835107177964</v>
+        <v>0.020890088604145304</v>
       </c>
       <c r="DL4">
-        <v>0.069052966644939012</v>
+        <v>0.021054983043716353</v>
       </c>
       <c r="DM4">
-        <v>0.071764267243971058</v>
+        <v>0.021126218702725425</v>
       </c>
       <c r="DN4">
-        <v>0.069837941460462197</v>
+        <v>0.021142520804256475</v>
       </c>
       <c r="DO4">
-        <v>0.069583540461176957</v>
+        <v>0.021192047423567149</v>
       </c>
       <c r="DP4">
-        <v>0.071009245201777399</v>
+        <v>0.021081466359079981</v>
       </c>
       <c r="DQ4">
-        <v>0.069786365855581622</v>
+        <v>0.021117206259634497</v>
       </c>
       <c r="DR4">
-        <v>0.069889873477805495</v>
+        <v>0.021102850978971344</v>
       </c>
       <c r="DS4">
-        <v>0.071315509208816033</v>
+        <v>0.021278633575492811</v>
       </c>
       <c r="DT4">
-        <v>0.071009245821486766</v>
+        <v>0.021539540338579504</v>
       </c>
       <c r="DU4">
-        <v>0.06928935845453843</v>
+        <v>0.021389970736276225</v>
       </c>
       <c r="DV4">
-        <v>0.070373873335309797</v>
+        <v>0.02126908413433809</v>
       </c>
       <c r="DW4">
-        <v>0.069942164628655185</v>
+        <v>0.021288217691557542</v>
       </c>
       <c r="DX4">
-        <v>0.070101227293671478</v>
+        <v>0.021190196794852758</v>
       </c>
       <c r="DY4">
-        <v>0.070263659713851692</v>
+        <v>0.021348415296997929</v>
       </c>
       <c r="DZ4">
-        <v>0.070772295472668653</v>
+        <v>0.021313297913775311</v>
       </c>
       <c r="EA4">
-        <v>0.069386116135663728</v>
+        <v>0.021352345732011925</v>
       </c>
       <c r="EB4">
-        <v>0.070772295838139598</v>
+        <v>0.021119006917289435</v>
       </c>
       <c r="EC4">
-        <v>0.074433188154485963</v>
+        <v>0.021387977841645839</v>
       </c>
       <c r="ED4">
-        <v>0.072665980256395701</v>
+        <v>0.021358252126391388</v>
       </c>
       <c r="EE4">
-        <v>0.070889899871362433</v>
+        <v>0.02137406538863254</v>
       </c>
       <c r="EF4">
-        <v>0.070889900051151464</v>
+        <v>0.021364171384414852</v>
       </c>
       <c r="EG4">
-        <v>0.072308018932738055</v>
+        <v>0.021501901674325898</v>
       </c>
       <c r="EH4">
-        <v>0.071191627292923804</v>
+        <v>0.021571299691353296</v>
       </c>
       <c r="EI4">
-        <v>0.071009248367541661</v>
+        <v>0.021368124854900125</v>
       </c>
       <c r="EJ4">
-        <v>0.070949354184830046</v>
+        <v>0.02156279557151377</v>
       </c>
       <c r="EK4">
-        <v>0.073507698244219988</v>
+        <v>0.021682036057401058</v>
       </c>
       <c r="EL4">
-        <v>0.072168832248399761</v>
+        <v>0.021590529119377675</v>
       </c>
       <c r="EM4">
-        <v>0.071253337015293849</v>
+        <v>0.021653396283193911</v>
       </c>
       <c r="EN4">
-        <v>0.073588189787655897</v>
+        <v>0.021653396340507974</v>
       </c>
       <c r="EO4">
-        <v>0.072813314962209136</v>
+        <v>0.021677611399898745</v>
       </c>
       <c r="EP4">
-        <v>0.073507698963297841</v>
+        <v>0.021794930207620827</v>
       </c>
       <c r="EQ4">
-        <v>0.070949355426558128</v>
+        <v>0.021765151027947231</v>
       </c>
       <c r="ER4">
-        <v>0.071964163632212724</v>
+        <v>0.02169757766331316</v>
       </c>
       <c r="ES4">
-        <v>0.071830382447856195</v>
+        <v>0.02181572665758896</v>
       </c>
       <c r="ET4">
-        <v>0.070542172137842987</v>
+        <v>0.021938852768864432</v>
       </c>
       <c r="EU4">
-        <v>0.072521049817176761</v>
+        <v>0.021832004603195686</v>
       </c>
       <c r="EV4">
-        <v>0.071568991993661499</v>
+        <v>0.021924381773665239</v>
       </c>
       <c r="EW4">
-        <v>0.073192553905851845</v>
+        <v>0.021985146335299095</v>
       </c>
       <c r="EX4">
-        <v>0.071441287267211315</v>
+        <v>0.02193160864966863</v>
       </c>
       <c r="EY4">
-        <v>0.072238149704722032</v>
+        <v>0.021879016578515008</v>
       </c>
       <c r="EZ4">
-        <v>0.072238149893093392</v>
+        <v>0.021841347287408726</v>
       </c>
       <c r="FA4">
-        <v>0.073427900424116094</v>
+        <v>0.02191477362055105</v>
       </c>
       <c r="FB4">
-        <v>0.071191631080868123</v>
+        <v>0.0222787615220401</v>
       </c>
       <c r="FC4">
-        <v>0.074701834755220922</v>
+        <v>0.021975341044910484</v>
       </c>
       <c r="FD4">
-        <v>0.074885087883173967</v>
+        <v>0.022100261695248844</v>
       </c>
       <c r="FE4">
-        <v>0.072593221939699235</v>
+        <v>0.021881387339594358</v>
       </c>
       <c r="FF4">
-        <v>0.072887903346038035</v>
+        <v>0.022175132208594531</v>
       </c>
       <c r="FG4">
-        <v>0.074885088347296319</v>
+        <v>0.022286877427127608</v>
       </c>
       <c r="FH4">
-        <v>0.071830385332091781</v>
+        <v>0.022151701129853853</v>
       </c>
       <c r="FI4">
-        <v>0.073588193247267855</v>
+        <v>0.022468016404455338</v>
       </c>
       <c r="FJ4">
-        <v>0.074977998181188762</v>
+        <v>0.022502605847816284</v>
       </c>
       <c r="FK4">
-        <v>0.074701836007879746</v>
+        <v>0.022222533652400081</v>
       </c>
       <c r="FL4">
-        <v>0.074345263013296178</v>
+        <v>0.022388722979911152</v>
       </c>
       <c r="FM4">
-        <v>0.074258122998160453</v>
+        <v>0.022371983996660429</v>
       </c>
       <c r="FN4">
-        <v>0.074977998800950005</v>
+        <v>0.022593701327935922</v>
       </c>
       <c r="FO4">
-        <v>0.073588194281001995</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.073917251689185073</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.075455874212897706</v>
+        <v>0.015843116630408712</v>
       </c>
       <c r="FR4">
         <v>0.075262007339406731</v>
@@ -10029,13 +10029,13 @@
         <v>170</v>
       </c>
       <c r="FO2" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="FP2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="FQ2" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="FR2" t="s">
         <v>190</v>
@@ -10193,520 +10193,520 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>1.8205612785930259</v>
+        <v>1.7919088345602243</v>
       </c>
       <c r="C3">
-        <v>-1.0359996570798127</v>
+        <v>-0.96923939512310431</v>
       </c>
       <c r="D3">
-        <v>-0.96285065505826395</v>
+        <v>-0.99130687851663091</v>
       </c>
       <c r="E3">
-        <v>-0.98673665326488147</v>
+        <v>-0.96291236487115917</v>
       </c>
       <c r="F3">
-        <v>1.3807349683637808</v>
+        <v>1.3743224594204517</v>
       </c>
       <c r="G3">
-        <v>1.2582257338196672</v>
+        <v>1.2841523510533186</v>
       </c>
       <c r="H3">
-        <v>1.0941431739408112</v>
+        <v>1.0806796295433081</v>
       </c>
       <c r="I3">
-        <v>0.64735080827403957</v>
+        <v>0.66298625209865869</v>
       </c>
       <c r="J3">
-        <v>0.58882641249375012</v>
+        <v>0.61322733954849107</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>-1.9345441673723807</v>
+        <v>-1.8612505057955169</v>
       </c>
       <c r="M3">
-        <v>-1.9958506377357206</v>
+        <v>-1.7885933660177289</v>
       </c>
       <c r="N3">
-        <v>-1.847201851606237</v>
+        <v>-1.7584506259012884</v>
       </c>
       <c r="O3">
-        <v>-1.7842988897262777</v>
+        <v>-1.7925299522186358</v>
       </c>
       <c r="P3">
-        <v>-1.9320842713727102</v>
+        <v>-1.7804321770795324</v>
       </c>
       <c r="Q3">
-        <v>-1.8545117160744515</v>
+        <v>-1.7867787518555582</v>
       </c>
       <c r="R3">
-        <v>-1.7484804542832397</v>
+        <v>-1.7703835079812908</v>
       </c>
       <c r="S3">
-        <v>-2.0027457030774758</v>
+        <v>-1.7653784810825153</v>
       </c>
       <c r="T3">
-        <v>-1.8619272467938737</v>
+        <v>-1.7357712998286527</v>
       </c>
       <c r="U3">
-        <v>-1.6588572517933282</v>
+        <v>-1.6804068194470709</v>
       </c>
       <c r="V3">
-        <v>-1.8605237749424957</v>
+        <v>-1.7152205429971885</v>
       </c>
       <c r="W3">
-        <v>-1.8322317694183565</v>
+        <v>-1.7177978779882965</v>
       </c>
       <c r="X3">
-        <v>-1.626713731700222</v>
+        <v>-1.7064081815696472</v>
       </c>
       <c r="Y3">
-        <v>-1.6483974089287532</v>
+        <v>-1.7081359453554226</v>
       </c>
       <c r="Z3">
-        <v>-1.7682888682092897</v>
+        <v>-1.6439756977222264</v>
       </c>
       <c r="AA3">
-        <v>-1.6934615747892898</v>
+        <v>-1.644741730982852</v>
       </c>
       <c r="AB3">
-        <v>-1.676960786383805</v>
+        <v>-1.6832060371878366</v>
       </c>
       <c r="AC3">
-        <v>-1.707962422445769</v>
+        <v>-1.6603027804777832</v>
       </c>
       <c r="AD3">
-        <v>-1.6754660974444302</v>
+        <v>-1.7351246721466629</v>
       </c>
       <c r="AE3">
-        <v>-1.9018407224480376</v>
+        <v>-1.6682764537678312</v>
       </c>
       <c r="AF3">
-        <v>-1.8348388043977952</v>
+        <v>-1.6526211007747034</v>
       </c>
       <c r="AG3">
-        <v>-1.5625928671397993</v>
+        <v>-1.6842948472140959</v>
       </c>
       <c r="AH3">
-        <v>-1.6193356152090919</v>
+        <v>-1.6010085531164064</v>
       </c>
       <c r="AI3">
-        <v>-1.8234005502677517</v>
+        <v>-1.6249422837531136</v>
       </c>
       <c r="AJ3">
-        <v>-1.6253140513280768</v>
+        <v>-1.6440874023189134</v>
       </c>
       <c r="AK3">
-        <v>-1.6860966456216253</v>
+        <v>-1.6394516550487304</v>
       </c>
       <c r="AL3">
-        <v>-1.7258509138378884</v>
+        <v>-1.6510939825506159</v>
       </c>
       <c r="AM3">
-        <v>-1.6767137405297301</v>
+        <v>-1.7007773304133131</v>
       </c>
       <c r="AN3">
-        <v>-1.6759546250587429</v>
+        <v>-1.6542950439526904</v>
       </c>
       <c r="AO3">
-        <v>-1.6831031052016234</v>
+        <v>-1.6902902686755048</v>
       </c>
       <c r="AP3">
-        <v>-1.6282606393559242</v>
+        <v>-1.5787128798829677</v>
       </c>
       <c r="AQ3">
-        <v>-1.4551429735927623</v>
+        <v>-1.603721640346413</v>
       </c>
       <c r="AR3">
-        <v>-1.5680816346758057</v>
+        <v>-1.6410184428848658</v>
       </c>
       <c r="AS3">
-        <v>-1.6256701582440709</v>
+        <v>-1.6301978357717004</v>
       </c>
       <c r="AT3">
-        <v>-1.6632051637085659</v>
+        <v>-1.6096199039679453</v>
       </c>
       <c r="AU3">
-        <v>-1.6392596380679234</v>
+        <v>-1.5820428356908807</v>
       </c>
       <c r="AV3">
-        <v>-1.7687848926810799</v>
+        <v>-1.6148079441094141</v>
       </c>
       <c r="AW3">
-        <v>-1.5293247046752982</v>
+        <v>-1.6011922671267338</v>
       </c>
       <c r="AX3">
-        <v>-1.64456539353658</v>
+        <v>-1.6630039806165635</v>
       </c>
       <c r="AY3">
-        <v>-1.6830172658322138</v>
+        <v>-1.6630447632389909</v>
       </c>
       <c r="AZ3">
-        <v>-1.583283722538702</v>
+        <v>-1.6316249864256007</v>
       </c>
       <c r="BA3">
-        <v>-1.6975648909266647</v>
+        <v>-1.6238990338857322</v>
       </c>
       <c r="BB3">
-        <v>-1.6414501823226193</v>
+        <v>-1.5780068405141825</v>
       </c>
       <c r="BC3">
-        <v>-1.7546504382055883</v>
+        <v>-1.6385665422200146</v>
       </c>
       <c r="BD3">
-        <v>-1.7713460584367278</v>
+        <v>-1.559641188439491</v>
       </c>
       <c r="BE3">
-        <v>-1.6015155359299726</v>
+        <v>-1.6759988637740313</v>
       </c>
       <c r="BF3">
-        <v>-1.7875427792722747</v>
+        <v>-1.6268682681719489</v>
       </c>
       <c r="BG3">
-        <v>-1.832548539883166</v>
+        <v>-1.5993431139302492</v>
       </c>
       <c r="BH3">
-        <v>-1.6924948870480487</v>
+        <v>-1.5985360309320273</v>
       </c>
       <c r="BI3">
-        <v>-1.708147550233128</v>
+        <v>-1.6575289500440389</v>
       </c>
       <c r="BJ3">
-        <v>-1.2682628816770554</v>
+        <v>-1.1866081831285349</v>
       </c>
       <c r="BK3">
-        <v>-1.1837549143052117</v>
+        <v>-1.2476171685759048</v>
       </c>
       <c r="BL3">
-        <v>-1.2277120944359621</v>
+        <v>-1.2124265876509015</v>
       </c>
       <c r="BM3">
-        <v>-1.174815282066378</v>
+        <v>-1.2640697324721824</v>
       </c>
       <c r="BN3">
-        <v>-1.2033626537168576</v>
+        <v>-1.2768523559064708</v>
       </c>
       <c r="BO3">
-        <v>-1.3844806561609881</v>
+        <v>-1.2555542714723609</v>
       </c>
       <c r="BP3">
-        <v>-1.1227064246394654</v>
+        <v>-1.212162009986876</v>
       </c>
       <c r="BQ3">
-        <v>-1.4186814613764709</v>
+        <v>-1.2204911053693079</v>
       </c>
       <c r="BR3">
-        <v>-1.2138243003436455</v>
+        <v>-1.2477651604895992</v>
       </c>
       <c r="BS3">
-        <v>-1.1691640408308726</v>
+        <v>-1.3031888634475099</v>
       </c>
       <c r="BT3">
-        <v>-0.74157712222989158</v>
+        <v>-0.76306980564926608</v>
       </c>
       <c r="BU3">
-        <v>-0.45839649758510426</v>
+        <v>-0.4750580681887322</v>
       </c>
       <c r="BV3">
-        <v>-0.57208250114775228</v>
+        <v>-0.5480869816780769</v>
       </c>
       <c r="BW3">
-        <v>-0.54398536169203537</v>
+        <v>-0.52114140819428523</v>
       </c>
       <c r="BX3">
-        <v>-0.57582948178649218</v>
+        <v>-0.55091132811608223</v>
       </c>
       <c r="BY3">
-        <v>-0.67435430166263444</v>
+        <v>-0.61528546742271517</v>
       </c>
       <c r="BZ3">
-        <v>-0.57190156452877183</v>
+        <v>-0.53015680718623337</v>
       </c>
       <c r="CA3">
-        <v>-0.60851419015177366</v>
+        <v>-0.5543043475234819</v>
       </c>
       <c r="CB3">
-        <v>-0.59792884394031209</v>
+        <v>-0.60496773064780318</v>
       </c>
       <c r="CC3">
-        <v>-0.71419271828002651</v>
+        <v>-0.66987966191542048</v>
       </c>
       <c r="CD3">
-        <v>-0.45587136236896386</v>
+        <v>-0.49958813954289533</v>
       </c>
       <c r="CE3">
-        <v>-0.20534862126660924</v>
+        <v>-0.17671357322336317</v>
       </c>
       <c r="CF3">
-        <v>-0.2084445416364363</v>
+        <v>-0.21655449379646921</v>
       </c>
       <c r="CG3">
-        <v>-0.25411169729428684</v>
+        <v>-0.26807819822404311</v>
       </c>
       <c r="CH3">
-        <v>-0.24673347316883315</v>
+        <v>-0.2670553191795611</v>
       </c>
       <c r="CI3">
-        <v>-0.23891564280363073</v>
+        <v>-0.30710375881101148</v>
       </c>
       <c r="CJ3">
-        <v>-0.18376728114006746</v>
+        <v>-0.27465314812742142</v>
       </c>
       <c r="CK3">
-        <v>-0.19131672695925525</v>
+        <v>-0.32619488091440918</v>
       </c>
       <c r="CL3">
-        <v>-0.3027395637307308</v>
+        <v>-0.34331094157176067</v>
       </c>
       <c r="CM3">
-        <v>-0.37019222368407784</v>
+        <v>-0.33728774826553798</v>
       </c>
       <c r="CN3">
-        <v>-0.55883351083314969</v>
+        <v>-0.52722196262911958</v>
       </c>
       <c r="CO3">
-        <v>-0.13797520635140023</v>
+        <v>-0.11830626171954219</v>
       </c>
       <c r="CP3">
-        <v>-0.17624083878023658</v>
+        <v>-0.1715349055074919</v>
       </c>
       <c r="CQ3">
-        <v>-0.11503953522534811</v>
+        <v>-0.14121888422531534</v>
       </c>
       <c r="CR3">
-        <v>-0.24633028990243264</v>
+        <v>-0.17875446214170579</v>
       </c>
       <c r="CS3">
-        <v>-0.13702230548127209</v>
+        <v>-0.19245230474014477</v>
       </c>
       <c r="CT3">
-        <v>-0.1387137640481636</v>
+        <v>-0.078770195518658506</v>
       </c>
       <c r="CU3">
-        <v>-0.13635118834850957</v>
+        <v>-0.12941755994538315</v>
       </c>
       <c r="CV3">
-        <v>-0.19709554656962155</v>
+        <v>-0.12572789576235011</v>
       </c>
       <c r="CW3">
-        <v>-0.18300172923626884</v>
+        <v>-0.17525833748009775</v>
       </c>
       <c r="CX3">
-        <v>-0.22740271962876371</v>
+        <v>-0.20318306105602749</v>
       </c>
       <c r="CY3">
-        <v>0.047408543248073989</v>
+        <v>0.044725920739195381</v>
       </c>
       <c r="CZ3">
-        <v>-0.086837321474919668</v>
+        <v>0.04787025151165511</v>
       </c>
       <c r="DA3">
-        <v>0.048229404450604918</v>
+        <v>0.02425382177032874</v>
       </c>
       <c r="DB3">
-        <v>0.04172695886507144</v>
+        <v>-0.019779582585105929</v>
       </c>
       <c r="DC3">
-        <v>0.044711089256389377</v>
+        <v>-0.031387877786175508</v>
       </c>
       <c r="DD3">
-        <v>0.031278959870286505</v>
+        <v>-0.026509038797174155</v>
       </c>
       <c r="DE3">
-        <v>0.05149421449692141</v>
+        <v>-0.031529647635059291</v>
       </c>
       <c r="DF3">
-        <v>-0.015526872993204731</v>
+        <v>-0.056347261022289145</v>
       </c>
       <c r="DG3">
-        <v>-0.079980166647593012</v>
+        <v>-0.074283658742077874</v>
       </c>
       <c r="DH3">
-        <v>-0.098062058941712174</v>
+        <v>-0.093339198647700614</v>
       </c>
       <c r="DI3">
-        <v>0.17680913734392892</v>
+        <v>0.28891317380434095</v>
       </c>
       <c r="DJ3">
-        <v>0.29081306946756197</v>
+        <v>0.22236109084003627</v>
       </c>
       <c r="DK3">
-        <v>0.19508014413171054</v>
+        <v>0.25828714580320955</v>
       </c>
       <c r="DL3">
-        <v>0.25565052744339967</v>
+        <v>0.20914865421537726</v>
       </c>
       <c r="DM3">
-        <v>0.090982950137411117</v>
+        <v>0.19388953188009284</v>
       </c>
       <c r="DN3">
-        <v>0.17908483858665264</v>
+        <v>0.18742575259105707</v>
       </c>
       <c r="DO3">
-        <v>0.21618768636974961</v>
+        <v>0.16617278537582128</v>
       </c>
       <c r="DP3">
-        <v>0.12299762192996717</v>
+        <v>0.1830208322806848</v>
       </c>
       <c r="DQ3">
-        <v>0.17708609595980704</v>
+        <v>0.16651744906075427</v>
       </c>
       <c r="DR3">
-        <v>0.18692541767703261</v>
+        <v>0.17141632807575191</v>
       </c>
       <c r="DS3">
-        <v>0.06294772579424314</v>
+        <v>0.12731509730842441</v>
       </c>
       <c r="DT3">
-        <v>0.098803343828714377</v>
+        <v>0.085032106800511417</v>
       </c>
       <c r="DU3">
-        <v>0.20065292707084387</v>
+        <v>0.10561286462091504</v>
       </c>
       <c r="DV3">
-        <v>0.12635641092244668</v>
+        <v>0.12438678610526971</v>
       </c>
       <c r="DW3">
-        <v>0.15751389655659503</v>
+        <v>0.12306656783453651</v>
       </c>
       <c r="DX3">
-        <v>0.14997646692264974</v>
+        <v>0.13015780295974971</v>
       </c>
       <c r="DY3">
-        <v>0.11319615773798211</v>
+        <v>0.10670164511113152</v>
       </c>
       <c r="DZ3">
-        <v>0.087830876121476942</v>
+        <v>0.11753103450143397</v>
       </c>
       <c r="EA3">
-        <v>0.17599875117566252</v>
+        <v>0.10885969772378318</v>
       </c>
       <c r="EB3">
-        <v>0.10656772594766893</v>
+        <v>0.15087496658567823</v>
       </c>
       <c r="EC3">
-        <v>-0.10408242066482516</v>
+        <v>0.092072587281717952</v>
       </c>
       <c r="ED3">
-        <v>-0.039405117419260872</v>
+        <v>0.097043566061988856</v>
       </c>
       <c r="EE3">
-        <v>0.11301081138885248</v>
+        <v>0.10087053770202739</v>
       </c>
       <c r="EF3">
-        <v>0.098473562243665394</v>
+        <v>0.1029621513233753</v>
       </c>
       <c r="EG3">
-        <v>-0.011225028600416779</v>
+        <v>0.069478131431441353</v>
       </c>
       <c r="EH3">
-        <v>0.063659281496075248</v>
+        <v>0.068900151429922771</v>
       </c>
       <c r="EI3">
-        <v>0.074012707551038406</v>
+        <v>0.10579314422038784</v>
       </c>
       <c r="EJ3">
-        <v>0.092298268615888537</v>
+        <v>0.068854896240276992</v>
       </c>
       <c r="EK3">
-        <v>-0.054102266956278101</v>
+        <v>0.044008542601421105</v>
       </c>
       <c r="EL3">
-        <v>0.020560669679421103</v>
+        <v>0.060988212163867725</v>
       </c>
       <c r="EM3">
-        <v>0.072689849924478148</v>
+        <v>0.055184707270719315</v>
       </c>
       <c r="EN3">
-        <v>-0.0672701741323182</v>
+        <v>0.057305523745916492</v>
       </c>
       <c r="EO3">
-        <v>-0.017499665114814898</v>
+        <v>0.059642324790069992</v>
       </c>
       <c r="EP3">
-        <v>-0.047782189206194134</v>
+        <v>0.035804900473889144</v>
       </c>
       <c r="EQ3">
-        <v>0.096855296522518758</v>
+        <v>0.042774803115033518</v>
       </c>
       <c r="ER3">
-        <v>0.036657163128614861</v>
+        <v>0.058162607891624724</v>
       </c>
       <c r="ES3">
-        <v>0.055849194588040746</v>
+        <v>0.037219892594079054</v>
       </c>
       <c r="ET3">
-        <v>0.14363404242780253</v>
+        <v>0.015315369543992598</v>
       </c>
       <c r="EU3">
-        <v>0.012548852167031967</v>
+        <v>0.041029854856808885</v>
       </c>
       <c r="EV3">
-        <v>0.083717087620583094</v>
+        <v>0.023773150310327881</v>
       </c>
       <c r="EW3">
-        <v>-0.022335899929159582</v>
+        <v>0.015157888415204801</v>
       </c>
       <c r="EX3">
-        <v>0.090022238975821803</v>
+        <v>0.030579051422746587</v>
       </c>
       <c r="EY3">
-        <v>0.053823288300674892</v>
+        <v>0.040560983716338921</v>
       </c>
       <c r="EZ3">
-        <v>0.058115073297536249</v>
+        <v>0.053671623364162452</v>
       </c>
       <c r="FA3">
-        <v>-0.02894239161536542</v>
+        <v>0.042416326795709162</v>
       </c>
       <c r="FB3">
-        <v>0.12366246537590755</v>
+        <v>-0.022896416540397629</v>
       </c>
       <c r="FC3">
-        <v>-0.089687084940410292</v>
+        <v>0.039364149951088688</v>
       </c>
       <c r="FD3">
-        <v>-0.098864159592071496</v>
+        <v>0.018531402851099037</v>
       </c>
       <c r="FE3">
-        <v>0.036014598197956417</v>
+        <v>0.063027288615595325</v>
       </c>
       <c r="FF3">
-        <v>0.033374513983059316</v>
+        <v>0.010329904090307356</v>
       </c>
       <c r="FG3">
-        <v>-0.081585125968270167</v>
+        <v>-0.007787843635852971</v>
       </c>
       <c r="FH3">
-        <v>0.10356729587145738</v>
+        <v>0.02191040400895302</v>
       </c>
       <c r="FI3">
-        <v>-0.010764481734358568</v>
+        <v>-0.029137853258590425</v>
       </c>
       <c r="FJ3">
-        <v>-0.087546241365493868</v>
+        <v>-0.035841000937643412</v>
       </c>
       <c r="FK3">
-        <v>-0.065581015176033014</v>
+        <v>0.01699060591716155</v>
       </c>
       <c r="FL3">
-        <v>-0.046398091406867445</v>
+        <v>-0.0088304907884156018</v>
       </c>
       <c r="FM3">
-        <v>-0.03491618229516473</v>
+        <v>-0.00064553984337689663</v>
       </c>
       <c r="FN3">
-        <v>-0.074838925332349218</v>
+        <v>-0.037332430035588733</v>
       </c>
       <c r="FO3">
-        <v>0.0099452036457263766</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>-0.0031189262702392582</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>-0.086920893841104116</v>
+        <v>-5.5231445018333725</v>
       </c>
       <c r="FR3">
         <v>-0.075124771959317993</v>
@@ -10864,520 +10864,520 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.055775578688425281</v>
+        <v>0.017726308945111315</v>
       </c>
       <c r="C4">
-        <v>0.048591076497991069</v>
+        <v>0.015263296587080182</v>
       </c>
       <c r="D4">
-        <v>0.05873987853715841</v>
+        <v>0.01932860547102716</v>
       </c>
       <c r="E4">
-        <v>0.07517244268237526</v>
+        <v>0.024107733505441629</v>
       </c>
       <c r="F4">
-        <v>0.037624905003519379</v>
+        <v>0.011957759209555106</v>
       </c>
       <c r="G4">
-        <v>0.0319247467919926</v>
+        <v>0.010095380512144408</v>
       </c>
       <c r="H4">
-        <v>0.026291451641165961</v>
+        <v>0.00825996284538375</v>
       </c>
       <c r="I4">
-        <v>0.03030155265193625</v>
+        <v>0.0096718094012679338</v>
       </c>
       <c r="J4">
-        <v>0.031022130255295915</v>
+        <v>0.010033623430610233</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.11391310217542373</v>
+        <v>0.034556069536403902</v>
       </c>
       <c r="M4">
-        <v>0.11668115830194839</v>
+        <v>0.03359240741308233</v>
       </c>
       <c r="N4">
-        <v>0.11022933729433897</v>
+        <v>0.033210138903695931</v>
       </c>
       <c r="O4">
-        <v>0.1076888320554166</v>
+        <v>0.033661783343654203</v>
       </c>
       <c r="P4">
-        <v>0.11391310218162352</v>
+        <v>0.033512210229307254</v>
       </c>
       <c r="Q4">
-        <v>0.11061398705098803</v>
+        <v>0.033603929089936223</v>
       </c>
       <c r="R4">
-        <v>0.10634626575695529</v>
+        <v>0.033399004284889892</v>
       </c>
       <c r="S4">
-        <v>0.11717031621342376</v>
+        <v>0.033342992225128855</v>
       </c>
       <c r="T4">
-        <v>0.11100445604957282</v>
+        <v>0.0329721902402344</v>
       </c>
       <c r="U4">
-        <v>0.10300379957352225</v>
+        <v>0.032289211163734198</v>
       </c>
       <c r="V4">
-        <v>0.11100445605350262</v>
+        <v>0.032730884249459802</v>
       </c>
       <c r="W4">
-        <v>0.10985037082884408</v>
+        <v>0.03277231866810764</v>
       </c>
       <c r="X4">
-        <v>0.10189996251687915</v>
+        <v>0.032638457280877303</v>
       </c>
       <c r="Y4">
-        <v>0.10272269720548032</v>
+        <v>0.032669143983156415</v>
       </c>
       <c r="Z4">
-        <v>0.10734618507054534</v>
+        <v>0.031890304491615167</v>
       </c>
       <c r="AA4">
-        <v>0.10446388306732343</v>
+        <v>0.031908825341164924</v>
       </c>
       <c r="AB4">
-        <v>0.1038686426954937</v>
+        <v>0.032387379702783402</v>
       </c>
       <c r="AC4">
-        <v>0.10507478790495119</v>
+        <v>0.03211565005334633</v>
       </c>
       <c r="AD4">
-        <v>0.10386864270089662</v>
+        <v>0.03305789192836877</v>
       </c>
       <c r="AE4">
-        <v>0.11304917703913227</v>
+        <v>0.032230913423736657</v>
       </c>
       <c r="AF4">
-        <v>0.11022933732988538</v>
+        <v>0.032049219678422884</v>
       </c>
       <c r="AG4">
-        <v>0.099845891128815284</v>
+        <v>0.032446893302893513</v>
       </c>
       <c r="AH4">
-        <v>0.10189996254551079</v>
+        <v>0.031450513785501892</v>
       </c>
       <c r="AI4">
-        <v>0.10985037085476607</v>
+        <v>0.031743782191891487</v>
       </c>
       <c r="AJ4">
-        <v>0.10217084478822273</v>
+        <v>0.03198337339552932</v>
       </c>
       <c r="AK4">
-        <v>0.10446388309348058</v>
+        <v>0.031936693458259155</v>
       </c>
       <c r="AL4">
-        <v>0.1060219681484732</v>
+        <v>0.032087107853491739</v>
       </c>
       <c r="AM4">
-        <v>0.10416434460300353</v>
+        <v>0.032710249556878977</v>
       </c>
       <c r="AN4">
-        <v>0.1041643446057591</v>
+        <v>0.032144301064485216</v>
       </c>
       <c r="AO4">
-        <v>0.10446388310422311</v>
+        <v>0.032597730200678812</v>
       </c>
       <c r="AP4">
-        <v>0.10244506796664558</v>
+        <v>0.03126138973135615</v>
       </c>
       <c r="AQ4">
-        <v>0.096464029346707225</v>
+        <v>0.031564640390175064</v>
       </c>
       <c r="AR4">
-        <v>0.10034138510690652</v>
+        <v>0.032020928805900552</v>
       </c>
       <c r="AS4">
-        <v>0.10244506797672305</v>
+        <v>0.031899559159764189</v>
       </c>
       <c r="AT4">
-        <v>0.10386864274580777</v>
+        <v>0.031662625759728842</v>
       </c>
       <c r="AU4">
-        <v>0.10300379964718238</v>
+        <v>0.031346739604779704</v>
       </c>
       <c r="AV4">
-        <v>0.10803632297381231</v>
+        <v>0.03174378220450106</v>
       </c>
       <c r="AW4">
-        <v>0.09912371094011771</v>
+        <v>0.031591233565843903</v>
       </c>
       <c r="AX4">
-        <v>0.10328844391626138</v>
+        <v>0.032347960233566855</v>
       </c>
       <c r="AY4">
-        <v>0.10476733717994946</v>
+        <v>0.032357796006492259</v>
       </c>
       <c r="AZ4">
-        <v>0.10110673464937978</v>
+        <v>0.031983373410674663</v>
       </c>
       <c r="BA4">
-        <v>0.10538631901582723</v>
+        <v>0.031899559167552403</v>
       </c>
       <c r="BB4">
-        <v>0.10328844392817023</v>
+        <v>0.031363931934129119</v>
       </c>
       <c r="BC4">
-        <v>0.10768883215003096</v>
+        <v>0.032096609891052126</v>
       </c>
       <c r="BD4">
-        <v>0.10838876663939463</v>
+        <v>0.031168665713358742</v>
       </c>
       <c r="BE4">
-        <v>0.1018999626165079</v>
+        <v>0.032577446952279522</v>
       </c>
       <c r="BF4">
-        <v>0.10910896540861363</v>
+        <v>0.031983373416555702</v>
       </c>
       <c r="BG4">
-        <v>0.11100445613397643</v>
+        <v>0.031662625772859596</v>
       </c>
       <c r="BH4">
-        <v>0.10538631903392963</v>
+        <v>0.031662625773902289</v>
       </c>
       <c r="BI4">
-        <v>0.10602196820956884</v>
+        <v>0.032387379732631824</v>
       </c>
       <c r="BJ4">
-        <v>0.10528104976378483</v>
+        <v>0.03159952069796252</v>
       </c>
       <c r="BK4">
-        <v>0.1022099351982113</v>
+        <v>0.032328624540393675</v>
       </c>
       <c r="BL4">
-        <v>0.10383255502946714</v>
+        <v>0.031919423403074472</v>
       </c>
       <c r="BM4">
-        <v>0.10195101873327411</v>
+        <v>0.032546905837068159</v>
       </c>
       <c r="BN4">
-        <v>0.10300659496199634</v>
+        <v>0.032712442794955048</v>
       </c>
       <c r="BO4">
-        <v>0.10966631474925347</v>
+        <v>0.032695055754528128</v>
       </c>
       <c r="BP4">
-        <v>0.10005726928569637</v>
+        <v>0.032186630889857362</v>
       </c>
       <c r="BQ4">
-        <v>0.11111054512524558</v>
+        <v>0.032294599088981413</v>
       </c>
       <c r="BR4">
-        <v>0.10430530472046448</v>
+        <v>0.032808471540122085</v>
       </c>
       <c r="BS4">
-        <v>0.10276097922820998</v>
+        <v>0.03348912391601707</v>
       </c>
       <c r="BT4">
-        <v>0.078597565077189346</v>
+        <v>0.023986217392147107</v>
       </c>
       <c r="BU4">
-        <v>0.069650443029604645</v>
+        <v>0.02099942887903869</v>
       </c>
       <c r="BV4">
-        <v>0.070522089078553007</v>
+        <v>0.021193583609241846</v>
       </c>
       <c r="BW4">
-        <v>0.069072484346898416</v>
+        <v>0.020643298532925378</v>
       </c>
       <c r="BX4">
-        <v>0.069397803512123754</v>
+        <v>0.020743883205436291</v>
       </c>
       <c r="BY4">
-        <v>0.070358401742118465</v>
+        <v>0.020951330313227344</v>
       </c>
       <c r="BZ4">
-        <v>0.068992798022233431</v>
+        <v>0.020607421975846019</v>
       </c>
       <c r="CA4">
-        <v>0.069426088319679682</v>
+        <v>0.020707725067384736</v>
       </c>
       <c r="CB4">
-        <v>0.069369835959241663</v>
+        <v>0.020904630219397077</v>
       </c>
       <c r="CC4">
-        <v>0.070710335472041572</v>
+        <v>0.021164276322701101</v>
       </c>
       <c r="CD4">
-        <v>0.071471258691533535</v>
+        <v>0.021712698306898176</v>
       </c>
       <c r="CE4">
-        <v>0.074868054708777498</v>
+        <v>0.022526624815331235</v>
       </c>
       <c r="CF4">
-        <v>0.074973506561727382</v>
+        <v>0.022703205876513453</v>
       </c>
       <c r="CG4">
-        <v>0.075597701879037776</v>
+        <v>0.022933552462615456</v>
       </c>
       <c r="CH4">
-        <v>0.075574400000679581</v>
+        <v>0.022951662310069731</v>
       </c>
       <c r="CI4">
-        <v>0.075009615511825084</v>
+        <v>0.023042995814113405</v>
       </c>
       <c r="CJ4">
-        <v>0.075708499761059533</v>
+        <v>0.023368608320935142</v>
       </c>
       <c r="CK4">
-        <v>0.07586984570855991</v>
+        <v>0.023619721426327806</v>
       </c>
       <c r="CL4">
-        <v>0.078278476463171417</v>
+        <v>0.024001556073566317</v>
       </c>
       <c r="CM4">
-        <v>0.079287018858493208</v>
+        <v>0.023997859230191841</v>
       </c>
       <c r="CN4">
-        <v>0.076647881715043775</v>
+        <v>0.023221854497714797</v>
       </c>
       <c r="CO4">
-        <v>0.068287624184510287</v>
+        <v>0.020458050602877184</v>
       </c>
       <c r="CP4">
-        <v>0.068545776050327439</v>
+        <v>0.020573154536733116</v>
       </c>
       <c r="CQ4">
-        <v>0.066643877159644288</v>
+        <v>0.019949825560435341</v>
       </c>
       <c r="CR4">
-        <v>0.067561295107474537</v>
+        <v>0.020047856610614551</v>
       </c>
       <c r="CS4">
-        <v>0.066877852293561593</v>
+        <v>0.0200955614014908</v>
       </c>
       <c r="CT4">
-        <v>0.066054670735271548</v>
+        <v>0.019587624966810772</v>
       </c>
       <c r="CU4">
-        <v>0.066092388590511905</v>
+        <v>0.019732857202058945</v>
       </c>
       <c r="CV4">
-        <v>0.066618264162470395</v>
+        <v>0.019742060754430298</v>
       </c>
       <c r="CW4">
-        <v>0.066562102721572577</v>
+        <v>0.019891610436417947</v>
       </c>
       <c r="CX4">
-        <v>0.066978805959741206</v>
+        <v>0.019987200481087986</v>
       </c>
       <c r="CY4">
-        <v>0.067493522873818448</v>
+        <v>0.020227048534744451</v>
       </c>
       <c r="CZ4">
-        <v>0.068784171874512523</v>
+        <v>0.020235271869361426</v>
       </c>
       <c r="DA4">
-        <v>0.067584407039071634</v>
+        <v>0.020322935085148663</v>
       </c>
       <c r="DB4">
-        <v>0.067694872379236756</v>
+        <v>0.020475910022957955</v>
       </c>
       <c r="DC4">
-        <v>0.067721870409010052</v>
+        <v>0.020530389077531023</v>
       </c>
       <c r="DD4">
-        <v>0.068269826754760551</v>
+        <v>0.020679831832112007</v>
       </c>
       <c r="DE4">
-        <v>0.06813554961154282</v>
+        <v>0.020714071822790052</v>
       </c>
       <c r="DF4">
-        <v>0.068828899292045373</v>
+        <v>0.020814965330941831</v>
       </c>
       <c r="DG4">
-        <v>0.069536888868395624</v>
+        <v>0.020894279843661157</v>
       </c>
       <c r="DH4">
-        <v>0.069782024076625829</v>
+        <v>0.020978812500944341</v>
       </c>
       <c r="DI4">
-        <v>0.067628705240482465</v>
+        <v>0.019849871142386791</v>
       </c>
       <c r="DJ4">
-        <v>0.066399268328458119</v>
+        <v>0.020119716686892143</v>
       </c>
       <c r="DK4">
-        <v>0.067535056285426553</v>
+        <v>0.02000171372214906</v>
       </c>
       <c r="DL4">
-        <v>0.066898791965418036</v>
+        <v>0.020210966645129863</v>
       </c>
       <c r="DM4">
-        <v>0.068937627019865499</v>
+        <v>0.020291120177198238</v>
       </c>
       <c r="DN4">
-        <v>0.067898340901292376</v>
+        <v>0.020336636882555385</v>
       </c>
       <c r="DO4">
-        <v>0.067516489747608432</v>
+        <v>0.020443058621359454</v>
       </c>
       <c r="DP4">
-        <v>0.068712432076580177</v>
+        <v>0.020393321343181628</v>
       </c>
       <c r="DQ4">
-        <v>0.068097924912821156</v>
+        <v>0.020481081600277271</v>
       </c>
       <c r="DR4">
-        <v>0.068037419259125348</v>
+        <v>0.020480371831357827</v>
       </c>
       <c r="DS4">
-        <v>0.069684264612785055</v>
+        <v>0.020687233024439346</v>
       </c>
       <c r="DT4">
-        <v>0.069265368196966631</v>
+        <v>0.020893173285903708</v>
       </c>
       <c r="DU4">
-        <v>0.068037419933507162</v>
+        <v>0.020820964970056532</v>
       </c>
       <c r="DV4">
-        <v>0.069029750740738777</v>
+        <v>0.020757965865212221</v>
       </c>
       <c r="DW4">
-        <v>0.06869030583531309</v>
+        <v>0.020783617197463296</v>
       </c>
       <c r="DX4">
-        <v>0.068846686617163311</v>
+        <v>0.020772361862574036</v>
       </c>
       <c r="DY4">
-        <v>0.069386115459615982</v>
+        <v>0.020896544142228267</v>
       </c>
       <c r="DZ4">
-        <v>0.069786367243395167</v>
+        <v>0.020868037862825532</v>
       </c>
       <c r="EA4">
-        <v>0.06869030673347902</v>
+        <v>0.020927083613477192</v>
       </c>
       <c r="EB4">
-        <v>0.06965895746496685</v>
+        <v>0.020760359729921522</v>
       </c>
       <c r="EC4">
-        <v>0.072813312985247639</v>
+        <v>0.021044985974787322</v>
       </c>
       <c r="ED4">
-        <v>0.071863628795241719</v>
+        <v>0.021042306309121173</v>
       </c>
       <c r="EE4">
-        <v>0.069735143648342102</v>
+        <v>0.02104498610546358</v>
       </c>
       <c r="EF4">
-        <v>0.069994819076254794</v>
+        <v>0.021055732922182453</v>
       </c>
       <c r="EG4">
-        <v>0.071633580579173114</v>
+        <v>0.02123300438710346</v>
       </c>
       <c r="EH4">
-        <v>0.070599078033801291</v>
+        <v>0.021256141363363932</v>
       </c>
       <c r="EI4">
-        <v>0.07051386899819187</v>
+        <v>0.021102822995842097</v>
       </c>
       <c r="EJ4">
-        <v>0.070318573271819881</v>
+        <v>0.021298099286695127</v>
       </c>
       <c r="EK4">
-        <v>0.072557059605389301</v>
+        <v>0.021439365279880031</v>
       </c>
       <c r="EL4">
-        <v>0.071473028282105458</v>
+        <v>0.021376917362862295</v>
       </c>
       <c r="EM4">
-        <v>0.070772297629958139</v>
+        <v>0.021425937956674506</v>
       </c>
       <c r="EN4">
-        <v>0.072963108603819452</v>
+        <v>0.021436261044576691</v>
       </c>
       <c r="EO4">
-        <v>0.0722381478054787</v>
+        <v>0.02144558479787808</v>
       </c>
       <c r="EP4">
-        <v>0.072776253472987093</v>
+        <v>0.021584935513481777</v>
       </c>
       <c r="EQ4">
-        <v>0.070656400639396946</v>
+        <v>0.021570794980949191</v>
       </c>
       <c r="ER4">
-        <v>0.071601224647476716</v>
+        <v>0.021514928645425403</v>
       </c>
       <c r="ES4">
-        <v>0.071378161084025268</v>
+        <v>0.021641097769165469</v>
       </c>
       <c r="ET4">
-        <v>0.070182019527863501</v>
+        <v>0.021774231240119481</v>
       </c>
       <c r="EU4">
-        <v>0.072168833710235747</v>
+        <v>0.021663426272785086</v>
       </c>
       <c r="EV4">
-        <v>0.071160948702875884</v>
+        <v>0.021773067288405515</v>
       </c>
       <c r="EW4">
-        <v>0.072850531576713284</v>
+        <v>0.021838974692918043</v>
       </c>
       <c r="EX4">
-        <v>0.071191630178181725</v>
+        <v>0.021780058759594358</v>
       </c>
       <c r="EY4">
-        <v>0.071797264070276159</v>
+        <v>0.021749882690578221</v>
       </c>
       <c r="EZ4">
-        <v>0.071797264270176395</v>
+        <v>0.021704058528419105</v>
       </c>
       <c r="FA4">
-        <v>0.07323136279474389</v>
+        <v>0.021783560874365795</v>
       </c>
       <c r="FB4">
-        <v>0.070949357612729649</v>
+        <v>0.022152248900026997</v>
       </c>
       <c r="FC4">
-        <v>0.074389127238788003</v>
+        <v>0.021841356300494587</v>
       </c>
       <c r="FD4">
-        <v>0.074611467304973339</v>
+        <v>0.021972848554213772</v>
       </c>
       <c r="FE4">
-        <v>0.072449466426437528</v>
+        <v>0.021761452503273819</v>
       </c>
       <c r="FF4">
-        <v>0.072557063318720805</v>
+        <v>0.022061238340478129</v>
       </c>
       <c r="FG4">
-        <v>0.074521923974897944</v>
+        <v>0.022181412960470034</v>
       </c>
       <c r="FH4">
-        <v>0.07160122782304558</v>
+        <v>0.022042081138481114</v>
       </c>
       <c r="FI4">
-        <v>0.073467716168274383</v>
+        <v>0.022344026768565835</v>
       </c>
       <c r="FJ4">
-        <v>0.07483895710284541</v>
+        <v>0.022403461032548429</v>
       </c>
       <c r="FK4">
-        <v>0.074521924630591721</v>
+        <v>0.022132520514963238</v>
       </c>
       <c r="FL4">
-        <v>0.074258122796452719</v>
+        <v>0.022296708219175444</v>
       </c>
       <c r="FM4">
-        <v>0.074128870705803415</v>
+        <v>0.022273310080411748</v>
       </c>
       <c r="FN4">
-        <v>0.074885089420975187</v>
+        <v>0.022502064397744569</v>
       </c>
       <c r="FO4">
-        <v>0.073507703165787169</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.073792504570190098</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.075310128531100626</v>
+        <v>0.015777906303495653</v>
       </c>
       <c r="FR4">
         <v>0.075166445371205301</v>
